--- a/output/Total_time_range_data/河北省/邢台市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/邢台市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7006 +436,7665 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>县人社局举办年首场大型人才招聘会</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/wx/202403/t20240305_683170.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['3月4日，县委副书记、政府县长高凯英主持召开全县超长期国债项目谋划推进工作会议。会议就超长期国债项目储备要点作了说明，听取了项目储备、前期准备、工作推进情况的汇报，研究当前存在问题，部署下一步重点工作。县领导裴贵廷、刘金建出席会议并讲意见。', '3月4日，县委副书记、政府县长高凯英主持召开全县超长期国债项目谋划推进工作会议。会议就超长期国债项目储备要点作了说明，听取了项目储备、前期准备、工作推进情况的汇报，研究当前存在问题，', '雄安新区管委会自规局来我县考察学习 日前，雄安新区管委会自然资源和管理局副局长曹建华带领局有关科室、雄安集团数字城市公司、雄安雄创公司负责人来我县考察学习智慧城市、数字威县及数字化政务平台建设工作。副县长林毅，政府办、智慧办、民情办、数立通公司负责人陪同考察并参加座谈会议。 会前，与会人员实地参观了威县城乡规划展馆、智慧威县数据中心、民情办，全面了解我县城乡总体规划及智慧威县、数字化政务平台运行情况。 会上，林毅对考察组的到来表示欢迎，对雄安新区长期以来给予威县的支持表示感谢，并介绍了威县智慧城市、数字威县及威企通、威政通、威民通数字化政务平台建设情况。与会人员共同观看了《数字威县、未来已来》《民有所呼、我有所应》宣传片，并围绕智慧城市、网格治理、数据汇聚与开发等工作进行交流研讨。', '日前，雄安新区管委会自然资源和管理局副局长曹建华带领局有关科室、雄安集团数字城市公司、雄安雄创公司负责人来我县考察学习智慧城市、数字威县及数字化政务平台建设工作。副县长林毅，政府办、智慧办、民情办、数立通公司负责人陪同考察并参加座谈会议。', '会前，与会人员实地参观了威县城乡规划展馆、智慧威县数据中心、民情办，全面了解我县城乡总体规划及智慧威县、数字化政务平台运行情况。', '会上，林毅对考察组的到来表示欢迎，对雄安新区长期以来给予威县的支持表示感谢，并介绍了威县智慧城市、数字威县及威企通、威政通、威民通数字化政务平台建设情况。与会人员共同观看了《数字威县、未来已来》《民有所呼、我有所应》宣传片，并围绕智慧城市、网格治理、数据汇聚与开发等工作进行交流研讨。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市商务局赴福建莆田考察学习电商新业态</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/shwj/202403/t20240307_683282.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为进一步推动全市电子商务高质量发展，3月3日-4日，市商务局副局长王飞带领电商科赴福建莆田就电商新业态高质量发展进行考察学习。', '王飞一行先后赴莆田安福电商小镇、0594新零售示范基地、仙游抖音直播基地、仙游五八叁叁艺术家居有限公司、荔城跨境云产业园等地进行参观学习，详细了解当地电商生态链条情况以及政府、行业协会、服务机构在支持电商企业发展，打造高效、便捷物流体系，市场拓展、品牌建设、技术创新等方面好的经验和做法。', '0594新零售示范基地、仙游抖音直播基地、仙游五八叁叁艺术家居有限公司、荔城跨境云产业园等地进行参观学习，详细了解当地电商生态链条情况以及政府、行业协会、服务机构在支持电商企业发展，打造高效、便捷物流体系，市场拓展、品牌建设、技术创新等方面好的经验和做法。', '本次学习考察对我市电商新业态快速发展具有很好的借鉴意义。下一步市商务局将进一步发挥部门职能，充分发挥电子商务在促进我市经济高质量发展的作用。', '下一步市商务局将进一步发挥部门职能，充分发挥电子商务在促进我市经济高质量发展的作用。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>皮影戏龙舞新春光影中年味渐浓</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-02-09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202402/t20240209_681951.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['（记者王帅薇 通讯员赵路沙）连日来，沙河市下解村活动室里传出铿锵的锣鼓、悠扬的唱腔，该村老怀调皮影艺术团的艺人们加紧排练皮影戏节目，浓郁的年味笼罩在小山村里。', '“我们排练的节目名为《龙年送福》，是为参加市春晚特意编排的新作品。”艺术团团长秦月琴介绍，老怀调是豫剧的前身，以其高亢、粗犷、豪放的唱腔，清晰、韵味独特的念白而著称，至今已有百年历史。', '近年来，该村加大传统文化保护力度，激发传承活力，多次到外地考察学习皮影戏，发挥传帮带作用，让老艺人逐一口述昔日剧目唱词，手把手教导打鼓、敲锣及执杆技巧，全面提升皮影制作技艺和表演水平。2021年5月，沙河皮影戏入选第五批国家级非物质文化遗产代表性项目名录。', '该村还开发了皮影戏道具、皮影戏衍生品等系列文创产品，投资300万元建设包括皮影展览厅、表演厅、皮影创作厅在内的多元化皮影中心。目前，皮影中心主体工程已完工，预计今年上半年建成投用。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>雷厉风行担当明快在全市党政机关中带好头</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/hdjl/zxft_1/202401/t20240125_680865.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['雷厉风行 担当明快 在全市党政机关中带好头作表率树标杆 ——访市委常务副秘书长、市委办公室主任樊振宇', '（记者籍明泉）“2024年是邢台项目建设的攻坚年、跨越赶超的发力年。市委办公室作为市委中枢机构，将全力打造‘四型市直机关建设’活动‘升级版’，创新谋划‘十二项’举措，最快时间动员安排、最大力度部署推动、最高标准落实执行，打造一支攻坚克难、敢于胜利的‘虎狼之师’。”日前，市委常务副秘书长、市委办公室主任樊振宇在接受记者采访时表示。', '“今年的活动，市委办公室将紧紧围绕‘讲大局、懂业务、重服务、有活力’总要求，以科级干部为重点，全面提升干部队伍整体素养，更好服务保障邢台跨越赶超发展。”樊振宇说，市委办公室按照市委十届八次全会安排部署，聚焦参谋辅政、督促检查、综合协调和服务保障四方面重点任务，全力推动构建具有邢台特色和比较优势的现代化产业体系。', '樊振宇表示，市委办公室坚持打造“政治课堂”，创新开展主题党日活动，组织革命红色传统教育，走好旗帜鲜明讲政治第一方阵。坚持打造“理论课堂”，创新“时代沙龙”，组织党员研讨交流；完善“局长讲坛”，每月邀请市直部门负责同志进行授课；深化业务研究，通过知识测试、业务讲堂，提升综合能力和专业素养。坚持打造“实景课堂”，通过“走上去”对标对表、“走出去”考察学习、“走下去”调查研究，推动党办工作更加务实、更扣中心、更贴大局。坚持打造“活力课堂”，举办“先锋论坛”，党办系统科级干部每季度登台演讲；围绕办公秩序、作风纪律、环境卫生、着装打扮等方面，组织开展科室评比检查。同时，积极响应市委“唱响泉城、舞动泉城”号召，组织篮球乒乓球羽毛球比赛等文体活动，树立新时代党办机关新面貌新气象。', '“‘四型市直机关建设’活动开展以来，市委办公室各项工作取得了扎实成效，服务保障邢台跨越赶超发展的作用发挥愈发明显。”樊振宇表示，今后将始终保持雷厉风行、担当明快的干事创业精气神，努力构建清爽愉悦的工作氛围，重执行、敢碰硬、树权威，当好市委的“坚强前哨”和“巩固后院”。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>濮阳市人大常委会考察组来邢</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/lddt/202403/t20240312_683421.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['（记者王润恒）3月11日，河南省濮阳市人大常委会主任邵景良率考察组来我市，考察学习乡（镇）人大代表联络站建设和历史文化保护立法等工作。市人大常委会主任魏吉平参加考察。', '考察组一行先后来到信都区路罗镇人大代表联络站、英谈村、中国人民抗日军政大学陈列馆等点位，与工作人员深入交流，了解我市乡镇人大代表工作开展情况，交流学习历史文化保护领域立法工作相关案例和典型做法。', '魏吉平对濮阳市人大常委会考察组一行表示欢迎。他介绍，邢台市人大常委会坚持党建引领，聚焦基层履职平台建设，定期组织人大代表到联络站开展工作，助力基层人大工作提质增效，全力保障民意成为人大工作的“源头活水”；围绕市委中心工作，立足邢台实际情况，坚持科学立法、民主立法、依法立法，全方位、多层次为优势资源保护工作提供法治保障。', '考察组认为，邢台市立法工作亮点突出，代表履职成效显著，要积极学习邢台的好做法，并把先进的经验应用到实际工作中。希望两地人大加强沟通交流，取长补短、互相促进，为推动两地经济社会高质量发展贡献人大力量。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>我市在京举办好南关演出系列活动</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202312/t20231207_678361.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['（记者王润恒）12月5日至6日，我市选送河北梆子现代戏《好南关》进京演出并举办系列活动，推介“太行泉城”城市品牌，邀请在京乡贤同叙乡情友谊，汇聚智慧力量，助推“工业立市、文化兴市”战略实施。市政协主席邱文双，市委常委、常务副市长郑传记参加系列活动。', '《好南关》生动讲述了王宝泉、赵丽琴等邢襄儿女走上抗美援朝战场的故事。此次演出，邢台籍在京企业家、各界知名人士约700人到场观看。“这部剧展示了好南关商人胸怀祖国、心系家乡的精神。我们在北京打拼的同时，也惦念着家乡。”宁晋县人、北京天兵科技有限公司火箭电气系统副总设计师张建宏说，希望有一天把高新技术带回去，为建设“太行泉城、美丽邢台”添砖加瓦。', '在京期间，邱文双、郑传记与邢台市在京各界人士围绕做大做强做热中心城区开展座谈交流，与会人员深入了解特色旅游城市建设、重塑制造业强市风采等情况，为家乡高质量发展出谋划策。我市还组织考察团到旭阳集团北京总部考察学习，并举办了河北梆子现代戏《好南关》专家研讨会等活动。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>信都区委书记王银明走访帮扶重点企业</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qx/202312/t20231214_678840.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['信都区委书记王银明走访帮扶重点企业。王银明指出，重点企业在推动经济社会高质量发展中发挥着重要作用，要围绕邢台市“工业立市”战略，以更大力度、更实举措抓项目促投资稳增长，在加快构建具有邢台特色和比较优势的现代化产业体系中贡献更多信都力量。', '王银明先后来到永任环境设备制造及环境综合治理、华戎一拖大型拖拉机、长征汽车研发中心、红星汽车制造有限公司等企业，深入生产车间，与企业负责人围绕企业发展等方面进行深入交流探讨。', '王银明强调，营商环境是发展的关键所在，全区各级各部门要聚焦重点，主动服务，用心用情用力解决企业面临的困难和问题，全力打造“让企业家感到舒服”的营商环境。要持续开展精准招商、以商招商、产业链招商，坚持“走出去、引进来”，积极考察学习重点地区、重点企业，有针对性开展招商洽谈，确保引进一批大项目、好项目。', '王银明指出，广大企业要坚定发展信心，抢抓市场机遇，进一步加大投资、加快建设，激发活力、提高效能，实现做大、做强、做优。要加强科技研发、产品创新和品牌建设，不断延伸产业链、提高附加值、迈向高端化，形成产业集聚效应，全力推动产业集群发展。', '区委常委、办公室主任马朝勇，信都经济开发区常务副主任王剑锋，区直相关部门、属地乡镇负责同志分别参加调研。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>滦南县融媒体中心到我县融媒体中心考察交流</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202311/t20231114_677374.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['考察组一行先后来到采访部、编辑制作部、宁晋报编辑部、1号演播厅、播控机房、2号演播厅、广播电台进行实地参观，详细了解我县融媒体中心机构设置、平台建设、人员配备、中心功能布局、平台建设等情况。', '在随后召开的座谈会上，双方就“学习强国”县级融媒号建设、平台内容制作、媒体融合与对上报道等方面进行了深入交流。滦南县融媒体中心一行对我县融媒体中心建设工作给予赞赏。并表示，宁晋县融媒体中心高度重视“学习强国”县级融媒号运行和上级平台供稿工作，将其作为开展对上对外宣传、提升宁晋形象的重要举措，要把宁晋县的好经验、好做法带回去，运用到滦南县融媒体中心工作中去。同时，希望双方进一步加强沟通交流，革新理念，创新方式方法，积极探索新时代下媒体深度融合发展的新路径，做大做强主流媒体，更好地发挥舆论阵地作用，推动融媒体事业更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>咸阳市考察团来我市考察学习农村清洁取暖工</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jsj/202311/t20231124_677854.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['11月23日，陕西省咸阳市委常委、副市长杨武民一行4人到我市考察学习农村清洁取暖工作。', '杨武民一行先后到任泽区大屯乡小屯村气代煤户、任泽区清洁取暖设备维保服务中心、内丘县大孟村镇梁源店村气代煤户、内丘县金店镇大留村电代煤户、内丘县清洁取暖设备维保服务中心实地考察农村气代煤电代煤取暖和清洁取暖设备维保服务等情况，并对我市农村清洁取暖工作给予高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>大张家庄乡对标学习找差距解放思想强落实</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/202311/t20231120_677624.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为进一步解放思想，拓展人居环境整治工作新思路，推动人居环境整治工作再提升，10月29日，大张家庄乡组织部分领导班子成员和27个村党支部书记到南和区河郭镇刁庄村、赵牌村、和阳镇巩庄村、郝桥镇吴村、贾宋镇后寺上村、北师村进行实地参观，详细深入地学习了南和区在人居环境整治工作中的创新亮点和典型做法。', '10月29日，大张家庄乡组织部分领导班子成员和27个村党支部书记到南和区河郭镇刁庄村、赵牌村、和阳镇巩庄村、郝桥镇吴村、贾宋镇后寺上村、北师村进行实地参观，详细深入地学习了南和区在人居环境整治工作中的创新亮点和典型做法。', '在河郭镇刁庄村，南和区农业局副局长卢良菊对南和区人居环境整治工作进行介绍，学习组听取了刁庄村发展壮大村集体经济、村庄美化亮化绿化的相关经验和发展思路，观摩学习了村庄墙体彩绘，详细了解了其人居环境整治整体工作思路，并进行了深入探讨，力求立足村庄实际谋发展，对标典型学特色。在河郭镇赵牌村，学习组成员认真观摩了其党群服务中心和党建文化长廊，赵牌村党支部书记李进国讲解了赵进孝母圣旨碑的由来，通过听介绍、看实效、以看促思、以学鼓劲，学习组成员们纷纷表示，将以此为契机，将党建元素、孝道文化等特点融入到村庄建设中，创建属于本村的文化品牌，增加乡村振兴“软实力”。和阳镇巩庄村紧邻南澧河，今年汛期期间，因南澧河漫堤进水，村庄进水严重，与大张家庄乡进水村情况相似。学习组成员重点参观了河堤路和党建广场，巩庄村对广场游园、受损街道、基础设施等进行修复，对人居环境进行整治，村内面貌实现了精细化再提升。学习组成员们感触颇深，尤其是黄家庄、霸王营等进水村支部书记干劲十足。在郝桥镇吴村金米文化广场，写有“五谷丰登”四个大字的瓮格外引人瞩目，花费不高、效果很好，学习组成员们也是深有触动，充分利用农村老旧物件，变废为宝不失为一种创造财富的方式，既维护了村内环境，又能让群众记得住乡愁。在贾宋镇后寺上村和北师村，贾宋镇党委书记刘瑞静就后寺上村综合服务站和北师村文化广场进行了详细讲解，各村党支部书记就如何充分利用综合服务站纷纷发表了自己的意见，虚心吸收贾宋镇在为群众创造活动场地方面的优秀经验，结合本地实际把脉问题、剖析根源，对标先进经验总结方法、梳理思路，并就下一步人居环境整治工作提升重点进行了明确部署。', '在河郭镇刁庄村，南和区农业局副局长卢良菊对南和区人居环境整治工作进行介绍，学习组听取了刁庄村发展壮大村集体经济、村庄美化亮化绿化的相关经验和发展思路，观摩学习了村庄墙体彩绘，详细了解了其人居环境整治整体工作思路，并进行了深入探讨，力求立足村庄实际谋发展，对标典型学特色。在河郭镇赵牌村，学习组成员认真观摩了其党群服务中心和党建文化长廊，赵牌村党支部书记李进国讲解了赵进孝母圣旨碑的由来，通过听介绍、看实效、以看促思、以学鼓劲，学习组成员们纷纷表示，将以此为契机，将党建元素、孝道文化等特点融入到村庄建设中，创建属于本村的文化品牌，增加乡村振兴', '“软实力”。和阳镇巩庄村紧邻南澧河，今年汛期期间，因南澧河漫堤进水，村庄进水严重，与大张家庄乡进水村情况相似。学习组成员重点参观了河堤路和党建广场，巩庄村对广场游园、受损街道、基础设施等进行修复，对人居环境进行整治，村内面貌实现了精细化再提升。学习组成员们感触颇深，尤其是黄家庄、霸王营等进水村支部书记干劲十足。在郝桥镇吴村金米文化广场，写有“五谷丰登”四个大字的瓮格外引人瞩目，花费不高、效果很好，学习组成员们也是深有触动，充分利用农村老旧物件，变废为宝不失为一种创造财富的方式，既维护了村内环境，又能让群众记得住乡愁。在贾宋镇后寺上村和北师村，贾宋镇党委书记刘瑞静就后寺上村综合服务站和北师村文化广场进行了详细讲解，各村党支部书记就如何充分利用综合服务站纷纷发表了自己的意见，虚心吸收贾宋镇在为群众创造活动场地方面的优秀经验，结合本地实际把脉问题、剖析根源，对标先进经验总结方法、梳理思路，并就下一步人居环境整治工作提升重点进行了明确部署。', '下一步，大张家庄乡将以此次学习观摩为契机，落实转化考察学习成果在本地“开花”，在前阶段的整治工作基础上再次加压奋进、真抓实干，不断提升人居环境整治工作精细化程度，全面建设宜居宜业和美张庄。', '“开花”，在前阶段的整治工作基础上再次加压奋进、真抓实干，不断提升人居环境整治工作精细化程度，全面建设宜居宜业和美张庄。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>邯郸市副市长徐科华带队到我市考察学习青山</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/swj/202310/t20231026_676444.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['10月16日，邯郸市副市长徐科华带队到我市考察学习青山水库前期工作，并举行工作交流座谈会。市政府副市长张志峰，市水务局党组书记、局长韩志强陪同考察。', '考察组一行实地查看了青山水库建设现场，详细了解设计标准、水库库容、项目征地、移民安置、政策解释、防洪保护目标等情况。随后，举行工作交流座谈会，双方就青山水库移民安置、实物调查、资金筹措、项目审查审批等工作进行深入交流。', '考察组对我市水利工作给予了充分肯定，表示我市在青山水库建设前期工作方面思路清、理念新、力度大、效果实，特别是今年以来，我市抢抓国家重大水利项目建设机遇，青山水库可研报告获省批复，列入中央支持海河流域灾后重建首批项目，工作中的经验做法值得认真学习借鉴。考察组将以此次考察为契机，认真学习我市的经验和做法，加强交流联系，共同为建设“经济强省、美丽河北”贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>精准帮扶为民谋利邢台市公安局驻村工作队在</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/sgaj/202310/t20231025_676400.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['今年以来，邢台市公安局驻新河县白穴口村工作队在市公安局党委的正确领导下，工作队与白穴口村“两委”通过实地走访、调研本村实际情况，了解村民对养殖业的需求。', '今年以来，邢台市公安局驻新河县白穴口村工作队在市公安局党委的正确领导下，工作队与白穴口村', '工作队以整合该村闲散劳动力，着力发展村民家庭养殖为工作目标，带领村“两委”积极联系沙河市农业农村局，实地考察河北天凯集团“太行鸡”育种基地，得到沙河市农业农村局“太行鸡”驿站负责人以及天凯集团负责人的大力支持，并考察学习了解“太行鸡”养殖技术，市场前景及经济效益。通过工作队努力协调，天凯集团决定把白穴口村定为定点帮扶对象，分两批为本村100户村民捐赠河北笨鸡品种“太行鸡”种鸡1200羽，大力扶持本村养殖业。在依托天凯集团技术、销售、加工等方面优势的基础上帮助本村开展“太行鸡”家庭散养模式，同时提供技术扶持和蛋品、鸡肉回购销售一条龙服务。', '“两委”积极联系沙河市农业农村局，实地考察河北天凯集团“太行鸡”育种基地，得到沙河市农业农村局“太行鸡”驿站负责人以及天凯集团负责人的大力支持，并考察学习了解“太行鸡”养殖技术，市场前景及经济效益。通过工作队努力协调，天凯集团决定把白穴口村定为定点帮扶对象，分两批为本村100户村民捐赠河北笨鸡品种“太行鸡”种鸡1200羽，大力扶持本村养殖业。在依托天凯集团技术、销售、加工等方面优势的基础上帮助本村开展“太行鸡”家庭散养模式，同时提供技术扶持和蛋品、鸡肉回购销售一条龙服务。', '经过充分准备于本月19号上午，由市公安局工作队、新河县公安局、新河镇政府、白穴口村两委、沙河市农业农村局、天凯集团共同在白穴口村委举行“太行鸡”种鸡第一批捐赠仪式，捐赠600羽母鸡种鸡及专用饲料。沙河市农业农村局派技术专家当场进行培训并建立养殖培训微信群，便于村民交流。', '19号上午，由市公安局工作队、新河县公安局、新河镇政府、白穴口村两委、沙河市农业农村局、天凯集团共同在白穴口村委举行“太行鸡”种鸡第一批捐赠仪式，捐赠600羽母鸡种鸡及专用饲料。沙河市农业农村局派技术专家当场进行培训并建立养殖培训微信群，便于村民交流。', '该举措得到广大村民的热烈欢迎与积极配合，大大提高老百姓养殖积极性。此项工作的推进与落实，达到了为村民增产增收的目的，同时也为精准扶贫工作积累了经验。今后工作中，工作队与村“两委”将积极持续做好后续一系列服务，确保为民办实事落到实处。', '该举措得到广大村民的热烈欢迎与积极配合，大大提高老百姓养殖积极性。此项工作的推进与落实，达到了为村民增产增收的目的，同时也为精准扶贫工作积累了经验。今后工作中，工作队与村']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市委办公室系统举办外出考察学习交流演讲</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202308/t20230816_673443.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['（马记川）8月15日，围绕“把学习研究贯彻始终”主题，市委办公室系统举办外出考察学习交流演讲，旨在打造新时代党办学习品牌，不断把市委办公室“四型市直机关建设”活动引向深入、落到实处。全市机关党建联学共建第一协作组成员单位代表、市直有关单位主管领导共计100余人参加活动。', '“激发创新活力、共建多彩泉城”“小切口绘就美丽邢台大画卷”“共创邢台发展新动力”……活动现场，市委办公室各党支部9名选手代表，围绕外出考察学习主题，结合自身工作实际，详细讲述了学习先进地市的心得感想。本次演讲鼓舞人心、引人入胜，充分展示了党办系统学习先进、奋发进取的精气神，全面展现了新时代党办干部的新形象。', '大家纷纷表示，通过此次活动，深刻认识到了学习的重要性，在今后的工作中，要进一步解放思想，向先进学习、向模范看齐，始终把学习摆在首要位置，努力把学到的先进经验转化为推动工作的实际成效，切实服务保障好市委中心大局，为塑造推广“太行泉城、美丽邢台”城市品牌贡献坚强党办力量。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>柏乡县到沧州市肃宁县对标学习省级文明县城</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/bxx/202310/t20231030_676774.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['10月27日，柏乡县创城办带领创建省级文明县城重点责任单位到沧州市肃宁县对标学习，肃宁县委宣传部相关负责同志陪同。', '柏乡县创城办一行先后到肃宁县新时代文明实践中心、元礼居小区和元礼社区、文苑巷等点位进行了考察学习，大家一路走、一路看、一路听，不时驻足交流讨论各点位创城工作中取得的好经验和做法。', '在随后召开的座谈会上，肃宁县创城办负责同志从创城工作领导重视程度、创城机制如何高效运行、如何明确各职能部门责任、如何发动全民参与创城等方面，深入浅出地介绍了肃宁县经验做法。我县创建省级文明县城各主要责任部门分别结合自身承担的创建任务，就工作中遇到的相关问题与对口部门进行交流沟通。', '通过此次交流学习，大家纷纷表示，要以此次学习交流作为契机，借鉴肃宁县创城工作的好做法、好经验，明确创建的目标和方向，进一步细化各项创建任务，提高标准，精心谋划，实现创城工作上台阶、上水平。希望在今后工作中，两地能加强沟通衔接，相互交流、相互借鉴、相互促进，全力推进省级文明县城各项创建工作提档升级。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>邢台高新区党工委副书记管委会主任刘炳一</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qlh/202307/t20230724_672276.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['7月21日至22日，邢台高新区党工委副书记、管委会主任刘炳带队到沈阳高新区进行考察。', '月21日至22日，邢台高新区党工委副书记、管委会主任刘炳带队到沈阳高新区进行考察。', '沈阳高新区是国务院批准首批国家级高新技术产业开发区，地处沈阳经济区核心，是联接沈阳与辽宁中部城市群的重要交通枢纽，负责围绕区域经济发展，聚焦发展高新技术产业和战略性新兴产业。', '邢台高新区一行先后前往浑南区（沈阳高新区）规划展示馆、新松机器人自动化股份有限公司、沈阳浑南科技城等地实地考察，详细了解规划定位、项目建设、高新技术发展等情况。考察结束后，双方领导及部门“一对一”精准对接，就整体规划、招商选资、创新驱动、城市建设等方面深入交流。', '刘炳指出，要以此次考察学习为契机、为动力，不断向榜样学习、向模范对标，坚持创新至上、招商第一、项目为王、效率优先原则，进一步解放思想、在奋进中跨越崛起，为建设“太行泉城、美丽邢台”贡献邢台高新区力量！']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>临城县人民医院到河北医科大学第一医院考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-07-23</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lcx/202307/t20230723_672219.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['为贯彻全县讲大局、懂业务、重服务、有活力“四型机关建设”活动要求，提升基层医疗机构综合能力，进一步学习借鉴河北医科大学第一医院各项先进管理经验和做法，近日，临城县卫生健康局党组书记、局长马延发；临城县人民医院党委书记张志学带领医院医务科、医共体、心电图室、放射科、检验科负责人到河北医科大学第一医院考察学习，对医院检验科、康复中心、胸外科、指挥中心等地进行实地考察参观。交流会上双方就学科建设、医联体模式等各项工作进行积极讨论和深入探索，通过考察交流学习，将进一步借鉴其宝贵经验，加强学习，不断开拓医疗卫生事业发展新格局。', '为贯彻全县讲大局、懂业务、重服务、有活力“四型机关建设”活动要求，提升基层医疗机构综合能力，进一步学习借鉴河北医科大学第一医院各项先进管理经验和做法，近日，临城县卫生健康局党组书记、局长马延发；', '临城县人民医院党委书记张志学带领医院医务科、医共体、心电图室、放射科、检验科负责人到河北医科大学第一医院考察学习，对医院检验科、康复中心、胸外科、指挥中心等地进行实地考察参观。', '交流会上双方就学科建设、医联体模式等各项工作进行积极讨论和深入探索，通过考察交流学习，将进一步借鉴其宝贵经验，加强学习，不断开拓医疗卫生事业发展新格局。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市水务局积极推进两泉公园建设前期工作</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/swj/202307/t20230731_672757.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['今年以来，按照市委、市政府总体安排部署，市水务局积极推进“两泉”公园（沟头泉公园、百泉公园）建设前期工作，力争将“两泉”公园整体构建为太行泉城风景区，打造邢台市“太行泉城”城市名片和地标级城市会客厅。', '市水务局积极主动推进项目，制定工作方案，明确目标和推进措施，组建工作专班，持续协调跑办，全力推进“两泉”公园起步区落地。一是全力推进前期立项。5月6日“两泉”泉域治理建设项目通过邢台经济开发区行政审批局审查审批，正式立项备案。二是外出考察学习经验。5月6日-7日，组织项目工作专班及项目法人单位赴济南市考察学习趵突泉公园建设经验。三是积极对接落实规划设计。积极对接同济大学，沟通设计思路，督促设计单位加班加点赶工期。四是主动协调保用地。主动对接开发区和市不动产登记中心，全面完成项目设计范围内944亩国有土地换证工作。五是提前着手施工进场准备工作。积极协调开发区、协助项目施工单位开始了施工准备工作，已完成沟头泉公园南围挡布置、墙面粉刷、屋顶及草皮绿化养护等前期形象提升工作。目前正在进行施工范围划线放点工作。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>围绕中心服务大局为做大做强中心城区提供坚</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202306/t20230607_669857.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['市委办公室迅速传达学习市委十届六次全会精神 围绕中心服务大局 为做大做强中心城区提供坚强保障', '（记者王帅薇 通讯员马记川）6月5日，市委办公室召开室务会（扩大）会议，传达学习市委十届六次全会精神，深入研究贯彻落实意见。', '会议指出，要充分认识市委十届六次全会的战略部署、深刻内涵和重大意义，把思想迅速统一到全会精神上来，以高度的政治责任感和使命感，解放思想、奋发进取，为做大做强中心城区提供坚强保障。', '会议要求，要强化大局意识，立足做大做强中心城区，统筹“开发区提档升级”“塑造推广城市品牌”等工作，精准高效、主动作为、持续用力，引领形成做大做强中心城区强大合力。要增强业务本领，坚持把学习研究、支部建设、提升质效、锤炼干部、全员参与贯穿始终，率先打出培训“组合拳”，努力把市委办公室打造成新时代党校。要提高服务水平，通过纵向对标对表、外出考察学习、深入基层调研等方式，提标准、提素质、转作风，增强参谋服务水平。要激发工作活力，保持昂扬向上精神面貌，找准融入京津冀协同发展大局切入点、落脚点，打造讲政治、守规矩，马上就办、真抓实干的党办铁军。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>挖掘历史资源丰富文化内涵</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202307/t20230712_671700.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['连日来，“清风古韵——灯光秀”在清风楼前上演，吸引周边众多居民前往观赏，古色古香的清风楼，在炫丽的灯光秀中又有了新模样，各种有关邢台地方文化的元素和场景在清风楼上一一呈现，让人尽情领略“太行泉城”的独特韵味。这也是我市推进国家历史文化名城创建活动的一部分。', '我市启动申报国家历史文化名城工作以来，全市上下有序有力地推进各项工作。各相关部门抽调精干力量，组建工作专班，印发实施方案和考核细则，建立正反激励和督导机制。邀请专家开展业务培训，并组织人员赴大理、剑川、西安等地考察学习，对标先进，找准差距。对历史城区范围内的各保护对象逐点勘察，对历史建筑测绘建档、保护对象挂牌、保护管理平台建设、保护管理机制运行等重点任务进行调研，摸清了文物底数。', '“我市申报国家历史文化名城有着较好的优势：邢台是中华文明的重要孕育地，遍布四野的古泉、古水、古河，源远流长的古都文化和弥足珍贵的文物古迹，彪炳史册的革命老区……都给我们留下了宝贵的历史文化资源。”市住建局相关负责人表示，为加强古城历史风貌保护修复，我市采用“微改造”的“绣花”功夫，组织开展了全市历史文化资源“盘点”工作，重点对挖掘新增历史文化资源和已公布名录保护对象进行梳理。深度挖掘百泉文化，丰富泉文化内涵，为申报工作夯实文化底蕴基础。', '市住建局相关负责人表示，针对存在的短板弱项，如古城内的文化历史街区风貌特色不突出等，正在通过加强古城保护修复等进行改善提升。下一步，将深入挖掘保护我市历史文化资源，强化调度督导，做好宣传保护与市民参与工作，结合邢台古城保护修缮工作进度，扎实精细推进我市各项申报工作有序进行，增强市民的文化认同和乡土认同，进一步打造“太行泉城、美丽邢台”城市品牌。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>四型机关建设广宗经济开发区开展对标学</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/gzx/202404/t20240426_688944.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['近日，广宗经济开发区分别赴鸡泽、清河两地经济开发区对标学习，深入了解两地机构设置、平台化运营、改革创新等情况，重点围绕平台公司建设运营、产业基金运作、项目平台建设、人事薪酬制度改革、行政审批、企业综合服务等方面工作进行深入探讨交流。', '实地考察学习后，组织召开了学习成果交流会，赴两地对标学习的干部分享学习心得，借鉴两地成功经验，找差距、补短板，进一步推动开发区改革创新，提升开发区综合能力水平。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>若羌县塔什萨依村盐碱地喜获丰收</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-07-03</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202407/t20240703_693087.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['（记者王帅薇 通讯员路琪）“今年我们的小麦收成不错，感谢你们赠送的‘捷麦19’。”近日，在若羌县瓦石峡镇塔什萨依村，村党支部书记赵正创向前来测小麦产量的邢台援疆干部表达了谢意。', '若羌县是我市对口援疆县。长期以来，该县受盐碱地制约，农作物产量和品质一直不高。为助力当地农业增产、农民增收，我市援疆工作前方指挥部（以下简称“市前指”）改变工作思路，不再局限于改变盐碱地的性状，而是积极寻求适合盐碱地种植的作物品种。', '经过考察学习，市前指借鉴其他城市成功经验，在盐碱较重的塔什萨依村试种“捷麦19”和“捷麦20”两个品种。去年6月，试种的“捷麦19”平均单产较高，小麦产量达到每亩271公斤。基于这一成果，市前指向塔什萨依村捐赠了“捷麦19”麦种3000公斤。“在市前指帮助下，我们种植了近200亩地，收获50余吨小麦，亩产量较以往提高了一成多。”赵正创说。', '“捷麦19”的成功种植不仅是我市援疆工作结出的果实，更为若羌县农业增效、农民增收提供了新的动力。近年来，我市坚持将“三农”工作作为援疆工作的重点，不断提升对口援疆综合效益，推动若羌县乡村振兴取得新进展、农业农村现代化迈出新步伐。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>多维高效能源站荣获河北省清洁能源综合利</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-04-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/mqrlgs/202404/t20240401_686258.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['邢襄热力集团积极践行国家“双碳”目标及我市新型能源强市建设目标要求，2023年建设投运多维高效能源站，有效缓解本地区集中供热热源饱和、小区无法供热难题。', '“双碳”目标及我市新型能源强市建设目标要求，2023年建设投运多维高效能源站，有效缓解本地区集中供热热源饱和、小区无法供热难题。', '作为省内首例采用土壤源配合太阳能光热、光电、能源塔和市政污水源等多种新能源方式供热、供冷的多维高效能源站，该站的建成为多能互补在集中供热系统的应用打造了一个技术领先的试验平台，实现了供热行业由单一供热向多联供热发展的新跨越，达到行业领先水平，为邢台市乃至全国同行提供有效参考和实践经验。建设以来，迎来多家热力公司、设计单位带队考察学习，得到业内知名专家高度评价。因技术先进、管理规范，形成可复制推广的典型示范，2024年3月，河北省城镇供热协会决定授予多维高效能源站“河北省清洁能源综合利用示范基地”称号。', '作为省内首例采用土壤源配合太阳能光热、光电、能源塔和市政污水源等多种新能源方式供热、供冷的多维高效能源站，该站的建成为多能互补在集中供热系统的应用打造了一个技术领先的试验平台，实现了供热行业由单一供热向多联供热发展的新跨越，达到行业领先水平，为邢台市乃至全国同行提供有效参考和实践经验。建设以来，迎来多家热力公司、设计单位带队考察学习，得到业内知名专家高度评价。因技术先进、管理规范，形成可复制推广的典型示范，', '天渐暖，日初长。2024年新的征程已经开始，集团新能源供热分公司将以获此荣誉为契机，以新能源供热高质量发展为总牵引，持续发扬“不负韶华、只争朝夕”的精神，为“温暖之城、热力先行”贡献积极力量。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>县委书记管志民调研沙语石项目建设和官庄镇</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nqx/202406/t20240620_692389.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['6月18日，县委书记管志民先后对沙语石项目建设进展和官庄镇电商创业基地运营情况进行调研。县领导串志国、赵艳辉、安婧、程力参加调研。', '在沙语石项目现场，管志民查看了项目建设进度，并现场办公，解决项目建设中存在的问题。他强调，各有关部门要强化服务意识，经常深入项目一线，加强与施工方的沟通联系，实实在在帮助解决项目在推进过程中遇到的困难问题，确保项目按计划节点顺利推进。项目单位要找到并解决影响建设进度的问题，抢抓时间，倒排工期、挂图作战，加快项目建设步伐，力争项目早日建成。', '在官庄镇电商创业基地，管志民参观了基地内硬软件建设，听取了官庄镇工作汇报，并与商户进行了深入交流，了解日常业务开展情况。管志民强调，电商产业是当前经济发展的重要引擎，对于推动县域经济转型升级具有重要作用。要把县域内品牌产品集中起来，打造规模化销售平台，并突出产品的内丘元素。要学习借鉴外地经验，打造属于我县的跨境电商，让内丘产品走向世界。在日常运营中要探索激发电商积极性的体制机制，采取淘汰制，打破“大锅饭”，形成良性竞争氛围。', '管志民还来到毛绒玩具文创基地，参观了企业毛绒玩具设计、加工、陈列，他强调，企业要找准市场定位，瞄准市场需求，多方考察学习；要根据不同消费者的情怀，有针对性的开发新产品。同时，要注重产品研发中的专利保护，提升产品附加值和竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>县委书记管志民调研旅游景点建设工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-05-04</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nqx/202405/t20240506_689502.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['5月1日，县委书记管志民调研旅游景点建设工作。县委常委、办公室主任串志国，县政府三级调研员葛建敏，副县长李吉春参加调研。', '管志民先后深入到黄岔汉霖苑、忘忧湖萌宠乐园、金花银岭遇见营地、青石岗农庄、七彩田园等旅游景点，实地察看各景点建设进度，与景区负责人深入交流，了解景区建设和运营过程中存在的问题及未来发展规划，并现场办公，督促各有关部门为景区项目建设提供优质服务，推动景区建设，提升景区服务水平。', '调研过程中，管志民强调，旅游景点品质和服务水平提升，关系到游客的旅游体验，是推动我县文旅康养产业发展的重要一环。各级各相关部门要提高认识，高度重视景点建设工作，着力优化提升景点质量和服务水平，进一步完善景区配套服务功能，全力推动我县文旅康养产业高质量发展。', '管志民要求，要解放思想，考察学习文旅康养产业发展的先进经验，推动我县文旅康养产业迈上一个新台阶；要倒排工期，挂图作战，尽快解决旅游项目面临的问题，提振企业发展信心；要完善景点周边基础设施，对进景点道路进行拓宽，扩大停车场面积，提升景区游客承载力；要深化银行与文旅企业的对接合作；合理规划旅游线路，强化交通要素保障，在主要路线上设置指引标识，为游客提供通畅便捷的交通条件。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>宋华英到南阳驻马店漯河铜川四市考察对接</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-03-30</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202404/t20240401_686178.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['（记者谢霄凌 通讯员王辉）3月26日至29日，市委副书记、市长宋华英赴河南省南阳市、驻马店市、漯河市及陕西省铜川市四市考察对接，拜访重点企业，学习经验做法，全力推动邢台中医药和食品加工产业蓄势腾飞。', '围绕传承扁鹊文化、做大中医药产业，宋华英一行先后到南阳、驻马店、铜川等地，深入产业园、制药企业、中医药文化基地等进行考察学习。在南阳市卧龙艾草产业园、药益宝公司，驻马店市天方药业、华中正大、“中国药谷”超级工厂，铜川市天一秦昆制药、兴盛德药业等地，宋华英详细了解道地药材产业化发展经验，与企业负责人探讨中药材种植及推广、中药饮片加工及销售、大健康产品研发、中药材贸易等全产业链建设情况。在南阳、铜川中医药文化教育基地，宋华英仔细参观展馆展厅，学习中医文化传承创新情况。她说，三地市坚持科研、产业、文化并重的中医药发展路子，值得我们学习借鉴。要传承发展好“医祖扁鹊”文化精神，加强中药材种质资源的保护、开发、利用，在提升产业层次、深耕细分赛道、聚力招大引强、强化项目支撑、壮大经营主体、加快研发创新等方面下足功夫，打造具有区域特色的中医药产业集群。', '围绕打造全省食品加工产业隆起带，宋华英一行专程到驻马店市王守义十三香、夏南牛产业园和漯河市双汇、卫龙等公司，深入了解企业创新研发、品牌质量管理、产业园区建设等情况。在中原食品重点实验室，宋华英与负责人认真探讨食品加工全产业链标准衔接及追溯机制。她说，要充分借鉴河南食品加工产业发展壮大经验，坚持研发、品牌、质量、标准一体化创新，建立产、购、储、加、销一体化链条，建设一批高水平产业园区，推动一二三产业融合发展，不断壮大食品加工主导产业。', '考察团行程紧凑、马不停蹄，每到一处，宋华英都详细推介邢台得天独厚的中医药和农业条件、土沃根深的产业基础和开放包容的营商环境，诚挚邀请各市和广大企业家到邢台走一走、看一看，持续加强交流合作，深化互学互鉴，推动经济社会发展向更高质量、更宽领域、更深层次迈进。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>市商务局赴福建莆田考察学习电商新业态</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/shwj/202403/t20240314_683676.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为进一步推动全市电子商务高质量发展，3月3日-4日，市商务局副局长王飞带领电商科赴福建莆田就电商新业态高质量发展进行考察学习。', '3月3日-4日，市商务局副局长王飞带领电商科赴福建莆田就电商新业态高质量发展进行考察学习。', '王飞一行先后赴莆田安福电商小镇、0594新零售示范基地、仙游抖音直播基地、仙游五八叁叁艺术家居有限公司、荔城跨境云产业园等地进行参观学习，详细了解当地电商生态链条情况以及政府、行业协会、服务机构在支持电商企业发展，打造高效、便捷物流体系，市场拓展、品牌建设、技术创新等方面好的经验和做法。', '0594新零售示范基地、仙游抖音直播基地、仙游五八叁叁艺术家居有限公司、荔城跨境云产业园等地进行参观学习，详细了解当地电商生态链条情况以及政府、行业协会、服务机构在支持电商企业发展，打造高效、便捷物流体系，市场拓展、品牌建设、技术创新等方面好的经验和做法。', '本次学习考察对我市电商新业态快速发展具有很好的借鉴意义。下一步，市商务局将进一步发挥部门职能，充分发挥电子商务在促进我市经济高质量发展的作用。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>广宗开放大学赴保定曲阳学习考察开放教育</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/gzx/202403/t20240322_684150.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['近日，邢台广宗开放大学一行4人到保定曲阳开放大学就开放教育招生、教学管理和宣传培训等业务开展经验交流考察学习，两地积极互动结成了帮联对子，在学历和非学历继续教育、社区教育、老年教育等方面有了新的共识，为进一步促进广宗开放教育提升和跨越奠定了发展基础。', '考察期间，本着仔细听、认真看和用心记的原则，通过实地走访、参观和座谈等方式，进行了深度沟通和交流，对曲阳开放教育有了精准的认识，为下一步的工作强力推进注入了新活力。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>丰宁满族自治县融媒体中心到我县学习考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202304/t20230417_665808.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['4月13日，丰宁满族自治县融媒体中心主任、广播电视台台长崔兴带队到我县融媒体中心参观考察、交流学习。', '考察组先后到采编中心、冀云融媒体有限公司、宁晋报编辑部、1号演播厅、2号演播厅、虚拟演播室、广播电台等地进行了参观，详细了解我县融媒体中心功能布局、平台建设以及整体运行等情况，重点围绕媒体深度融合、公司运营等方面进行了座谈交流。', '座谈会上，县融媒体中心主任及莹就我县融媒体中心建设、公司运营等方面，进行了经验分享。她希望，今后双方继续开展交流活动，相互学习借鉴，互相促进，拓展工作思路，取长补短，更好更快推进媒体深度发展。崔兴认为宁晋县融媒体中心建设工作思路新、措施实、成效好，值得学习和借鉴。将会把此次考察学习到的好经验、好做法运用到融媒体中心建设中，加大改革力度，以转型升级促进传统媒体与新媒体融合发展，真正实现由传统模式向移动端过渡，有力推动丰宁融媒体中心建设步伐。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>7</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>温建敏带队赴宁晋县考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nqx/202304/t20230424_666523.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['4月19日，县委常委、常务副县长温建敏带领县科工局、县投资促进局等部门主要负责同志和部分企业家代表，到宁晋县考察学习企业发展经验。', '温建敏一行先后到晶澳科技、玉峰集团、童泰公司等企业进行参观考察。每到一处，温建敏等都深入到厂房车间、展厅实地观摩，观看企业发展专题片，听取企业负责人情况介绍并深入交流，详细了解企业运行发展情况。', '温建敏指出，宁晋县在全市经济多个领域走在前列，本次考察受益良多，积累了丰富的经验，值得大家学习借鉴。各相关部门、各企业要以此次考察学习为契机，找准差距，正视差距，切实增强危机感、紧迫感和责任感，认真学习借鉴宁晋县的先进经验和做法，结合我县工作实际，进一步解放思想、转变观念，加大工作力度，推动企业更好更快发展，为全县经济高质量发展奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>7</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>广宗县人社局积极赴杭州上城区拱墅区人社</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/rlzyshbzj/202304/t20230413_665609.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['为高质量推进广宗县人力资源社会保障事业发展，学习和借鉴外地先进经验和工作举措，3月23日至24日，广宗县人社局组成由局长带队，就业、社保、劳动维权业务分管领导参加的考察组，先后到杭州市上城区人社局、凯旋街道创业陪跑空间、零工市场凯旋星工驿站，上城区政务服务中心、胡庆余堂技能大师工作室、国家级和谐劳动关系创建示范企业万事利集团，拱墅区潮鸣街道社区服务中心、中国杭州人力资源服务产业园、杭州爱才人力资源有限公司就人社系统多项工作进行了考察学习。', '通过考察，杭州市上城区、拱墅区打通数据壁垒精准落实就业、社保政策，主动作为创新开展数字就业、智能化人社服务，高水平打造优质营商环境，为广大人民群众和企业提供“勤劳的小蜜蜂”式服务，特别是浙江人的“干在实处、走在前列、勇立潮头”的精神给考察组成员留下了深刻印象。尤其是在人社服务理念、大数据智能化应用、优化营商环境政策找企、电子劳动合同等方面形成了许多有效的典型经验，十分值得学习借鉴。', '下一步，广宗县人社局将以此次考察学习为契机，认真学习借鉴杭州市先进工作经验、做法，创新方式、多渠道开展就业政策宣传；参照杭州市星工驿站小程序，丰富广宗县“零工驿站”小程序服务功能；参照杭州市的社工服务模式，定期对接各乡镇人社主管，通过乡镇人社主管及时将就业创业政策、企业用工需求发送到全县213个行政村人社负责人，将就业创业服务信息通过各村微信群及公示栏在全村进行宣传、推荐，打通农村劳动力就业服务“最后一公里”；通过推广“无还本续贷”贷款方式等举措降低创业贷款担保门槛；参照杭州市“数智就业”应用场景，建立我县便民就业“信息港”数据库，实现从居民找工作变成工作找居民；通过学习借鉴上城区行政服务中心社保服务“0号窗口”做法，不断优化提升服务大厅咨询台功能作用，进一步减少群众重复提交申请和现场排队等候次数和时间；依托大数据和信息化技术，在政策宣传、资格认定、办理方式和精准推送上下功夫，大力推行社保经办免申即享、免证即办服务，变“企业找政策”为“政策找企业”，不断优化营商环境；积极向上级部门请示，争取市人社局支持，探索开展电子劳动合同管理服务，真正实现劳动争议预警机制。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>隆尧县组织人员赴保定观摩学习农业种植结构</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/202304/t20230428_666947.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为进一步开阔视野，拓展思路，全面助推国家现代农业示范县建设，4月17日，县委常委、组织部长张忠健，政府副县长王景义率团到保定硕丰农产股份有限公司考察农业种植结构新模式，学习现代化种植技术和先进经验，激发乡村振兴新活力。', '在高阳县，考察团先后观看了农业种植结构新模式宣传片，实地观摩了浅埋滴灌节水技术、现代化种植示范田以及“六位一体”土地托管模式。随后召开座谈会，就农业种植、乡村振兴等工作进行了交流与探讨。', '保定硕丰农产股份有限公司是一家集农作物科研、繁育、种植、加工、销售、托管服务、节水推广为一体的创新型企业，先后荣获河北省农业产业化重点龙头企业、省级示范农业产业化联合体等荣誉。公司通过有偿服务、入股合作、土地托管、和县供销社合作、村企合作等模式，整合托管农民土地，推广应用现代化种植技术，实现了农业增效、农民增收。', '考察团表示，此次考察学习，近距离感受到了保定硕丰农产股份有限公司在农业种植及现代农业发展新模式上的成果。回去后，隆尧将积极学习先进经验，结合实际，因地制宜，科学规划，创新管理模式，盘活各类资源，以点带面，带动群众增收致富，以产业振兴带动乡村全面振兴，为建设国家现代农业示范县工作打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>县委统战部考察组赴青岛市即墨区考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202304/t20230421_666318.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['日前，县委统战部带领县新联会骨干和民营经济人士等一行16人，赴青岛市即墨区考察学习。', '考察组一行首先实地观摩了北安街道新都社区的“新新相联”实践创新基地，参观了党建、统战、新联会活动等10余个工作室，北安街道办事处街居办负责人、“新新相联”实践创新基地负责人详细介绍了基地规范化、常态化、特色化建设情况。区新联会负责人结合具体工作实例，为考察组一行详细讲解了新联会在基地建设过程中探索的“1+4”社会化运行机制，以及“社区治理+社会化”特色化品牌建设情况。随后，考察组一行与即墨区委统战部、区新联会开展座谈进行深入交流，双方分别介绍了两地情况，分享了工作经验，洽谈合作事宜取得良好效果。', '之后，考察组分别到即墨黄酒厂股份有限公司和青岛酷特智能股份有限公司参观学习。每到一处，考察组一行都详细了解即墨区民营经济统战工作的经验做法，实地感受即墨区在先进制造业、数字经济人工智能产业和酒业文化等领域的先进经验和具体做法，并就相关问题进行了深入交流。期间，青岛酷特智能股份有限公司与我县新联会成员单位北新教育集团初步达成了校企合作意向。', '县委统战部负责人强调，要以此次考察学习为契机，充分学习借鉴即墨区的先进经验做法，结合自身特点，创新工作思路，推动宁晋统战工作向精细化、品牌化、特色化发展。同时，要加强与即墨区的沟通联系，加快两地交流合作，推动宁晋县和即墨区双向发力，共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>7</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>南便村乡组织干部群众学习美丽乡村建设先进</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/ngs/202304/t20230414_665685.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为进一步加快南便村乡美丽乡村建设步伐，充分发挥村干部、群众代表在美丽乡村建设中的想象力和创造力，把自身的资源优势运用到美丽乡村建设中去,近日，南便村乡党委组织各村村干部、群众代表、种植大户到史家屯村进行考察学习。', '为进一步加快南便村乡美丽乡村建设步伐，充分发挥村干部、群众代表在美丽乡村建设中的想象力和创造力，把自身的资源优势运用到美丽乡村建设中去', '考察人员参观了史家屯村的村容村貌、敬老食堂、特色林下种植园、党建广场等地。详细了解在村规民约、村民自治方面的经验做法，以及美丽乡村长效管护机制运行情况。考察组成员纷纷表示，此次观摩学习点多面广、内容丰富，受益匪浅，将以此次观摩活动为契机，结合自身实际，找差距、补短板，扎实推进乡村振兴工作。', '考察人员参观了史家屯村的村容村貌、敬老食堂、特色林下种植园、党建广场等地。详细了解在村规民约、村民自治方面的经验做法，以及美丽乡村长效管护机制运行情况。', '下一步，南便村乡将总结此次考察的亮点经验，因地制宜在辖区30个村推广学习，营造“绿美乡村、干群共建”的浓厚氛围，激发群众“建绿建美”的强劲动力，有效推动人居环境大变样、村容村貌大提升，打造有亮点、有特色、有规模的美丽乡村。', '30个村推广学习，营造“绿美乡村、干群共建”的浓厚氛围，激发群众“建绿建美”的强劲动力，有效推动人居环境大变样、村容村貌大提升，打造有亮点、有特色、有规模的美丽乡村。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>7</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>安平县考察团到我县考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202303/t20230327_663999.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['3月24日，安平县县长赵东钊、政协主席张云龙带队到我县考察学习。县政协主席李风杰、副县长张军伟参加相关活动。', '考察团一行先后到鑫晖铜业特种线缆有限公司、玉锋大健康产业园、晶澳第五工业园区、童泰婴幼儿服饰有限公司、泥坑酒厂进行实地查看，深入了解了我县在工业经济发展、城市规划等方面的一些做法，对我县日新月异的城市建设、蓬勃发展的工业经济给予了高度评价。', '赵东钊表示，近年来，宁晋县在抓项目促发展、城市功能与品质提升、文旅产业发展等方面具体举措有特色、有亮点，具有科学性和可操作性，示范带动明显。为安平县经济社会发展提供了很好的思路，将以此次学习考察为契机，把宁晋的成功经验及好做法带回去，结合安平当前实际，认真学习借鉴宁晋县经济社会发展中的成功经验和先进做法，希望进一步加强沟通和交流，共同为两地经济社会发展作出积极的贡献。', '李风杰代表县委、县政府对安平县考察团到我县考察表示欢迎，希望双方以此次考察交流为新起点，抢抓当前国家重大发展机遇，建立行之有效的合作机制，着力提升发展质效，实现两地优势互补，促进两地经济社会共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>7</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>考察学习固体储热项目加快新能源供热项目建</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/mqrlgs/202303/t20230329_664350.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['近期，邢襄热力集团新能源供热分公司对河北泽瑞节能新能源有限公司固体储能项目进行考察学习，先是参观了其工程案例洗马林固体储能供热中心和张家口供电局固体储能供热中心，之后探讨交流了陕西省咸阳沣河某银行金库固体蓄热供暖项目。', '本次考察，主要对固体储热技术进行学习了解，并对现有固体储能项目的运营模式进行研讨，分析固体储能供热与热电联产及其他新能源供热形式的区别，目的是丰富新能源多能互补能源站的可利用能源种类，因地制宜推动新能源供热形式多方位发展。下一步，邢襄热力集团将继续学习借鉴其他新能源供热项目的成功做法和先进经验。通过借鉴新思路、新做法，不断激活新能源供热发展潜力，加快推进新能源供热项目建设，缓解我市主城区热源不足矛盾，让越来越多的居民可以享受到高品质供热。', '本次考察，主要对固体储热技术进行学习了解，并对现有固体储能项目的运营模式进行研讨，分析固体储能供热与热电联产及其他新能源供热形式的区别，目的是丰富新能源多能互补能源站的可利用能源种类，因地制宜推动新能源供热形式多方位发展。', '下一步，邢襄热力集团将继续学习借鉴其他新能源供热项目的成功做法和先进经验。通过借鉴新思路、新做法，不断激活新能源供热发展潜力，加快推进新能源供热项目建设，缓解我市主城区热源不足矛盾，让越来越多的居民可以享受到高品质供热。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>7</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>县委副书记政府县长徐艳刚带队赴安徽省考</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/bxx/202304/t20230407_665169.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['3月28日至29日，县委副书记、政府县长徐艳刚带领开发区、政府办、投资促进局、重点办、统计局等单位主要负责同志赴安徽省合肥市包河经济开发区、合肥工业大学考察学习。', '在包河经济开发区，包河区委常委、常务副区长苏伟陪同考察了富煌新视觉、中关村协同创新智汇园、安徽精一门科技发展有限公司等企业，并就招商引资、营商环境、科创平台等工作进行深入座谈交流。', '徐艳刚指出，包河经开区在高新技术产业、招商引资、营商环境、科技创新平台建设等方面有许多好的经验做法，为柏乡开发区建设提供了借鉴。开发区、县直各部门要认真学习，积极借鉴包河经开区的好经验、好做法，全力推动我县招商引资、营商环境、开发区提质增效等工作迈上新台阶。', '在合肥工业大学，实地考察了电气与自动化工程学院高压综合试验厅和管理学院人机协同、运控管理、无人机管理等实验室，并就人才培养、科研成果转化、产学研合作交流等工作与合肥工业大学党委副书记陈刚等校领导进行深入座谈交流。', '徐艳刚指出，合肥工业大学是教育部直属全国重点大学和国家“双一流”建设高校，办学历史悠久，高层次人才众多、科研实力雄厚。我县高度重视科研和人才工作，积极搭建“人才培养平台、专家服务平台、高校—地方合作平台”，着力打造“政府+科研院所+企业+人才”的全链条科技服务体系。我们将安排专人与贵校对接，尽快提供柏乡在包装新材料、中高端装备制造、机器人、生物医药、富硒功能农业等方面的产业情况及基本需求，也希望合肥工业大学的专家教授积极寻找合作点，在柏乡建立工作站、实验室，促进科研成果转化，帮助柏乡产业转型升级，做大做强。', '“双一流”建设高校，办学历史悠久，高层次人才众多、科研实力雄厚。我县高度重视科研和人才工作，积极搭建“人才培养平台、专家服务平台、高校—地方合作平台”，着力打造“政府+科研院所+企业+人才”的全链条科技服务体系。我们将安排专人与贵校对接，尽快提供柏乡在包装新材料、中高端装备制造、机器人、生物医药、富硒功能农业等方面的产业情况及基本需求，也希望合肥工业大学的专家教授积极寻找合作点，在柏乡建立工作站、实验室，促进科研成果转化，帮助柏乡产业转型升级，做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>新河县政协来我县考察学习</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202304/t20230410_665271.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['4月7日，新河县政协主席宋革修带队到我县考察学习。县政协主席李风杰、副主席刘立博，秘书长冯利强等参加活动。', '考察团一行先后来到宁联线缆集团、麟达铝合金线材公司、明达线缆集团、泥坑文化产业园、童泰公司等地进行实地查看，深入了解了我县企业运行、项目建设、委员履职等相关情况。', '宋革修对我县政协委员在项目建设中的履职成效给予高度评价。他表示，宁晋政协委员主动融入全县发展大局，在全力推进项目建设中彰显责任担当。我们将以此次考察学习为契机，汲取好的经验和做法，进一步理思路、转作风、强服务，充分发挥政协委员界别优势和行业影响力，当好项目建设的参与者、服务者、推动者。希望双方加强沟通联系，强化合作交流，推动两地政协各项工作再上新台阶。', '李风杰对新河县考察团来宁表示欢迎。他表示，县政协始终坚持围绕中心、服务大局，充分发挥政协优势，积极建言献策，认真履职尽责，广泛凝聚共识，扎实做好政协各项工作。希望双方以此次考察为起点，进一步加强交流合作，促进互学互鉴，不断提升工作实效，共同为两地经济社会高质量发展贡献政协智慧和力量。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>临城县赴信都区考察旅游文化建设</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lcx/202303/t20230327_663962.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['近日，临城县委常委、宣传部长代立锋组织协调宣传、文广体旅等单位主要负责人，赴信都区就“旅游+文化”融合发展取经求宝，实地考察学习景区管理运营、文化元素融入、线路景点打造等情况。同时，拟以岐山湖景区为试点，探索将临城县文化名家工作室与其融合建设，打造我县宣传思想文化聚集主阵地。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>邢襄热力集团对标先进赴外考察学习先进经验</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/mqrlgs/202303/t20230317_663210.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['为进一步提升供热技术实力，学习同行业先进经验，2月22日至23日，邢襄热力集团党委书记、董事长夏晓刚带队到安阳、濮阳、邯郸等地的热力公司进行考察学习。', '日，邢襄热力集团党委书记、董事长夏晓刚带队到安阳、濮阳、邯郸等地的热力公司进行考察学习。', '考察队伍首先实地参观了河南安阳益和热力工业园区，该园内设立的企业均围绕安阳市集中供热发展所需的基础设施设备来进行生产制造，涵盖阀门、自控仪表、保温管等多个类别，不但减少了采购环节，还确保了产品质量。考察人员就其生产的阀门、材料等工艺流程和对方负责人进行了深入交流。在对濮阳市热力有限公司参观期间，一行人对该企业的联合调度机制、无人机群巡检、网格化管理、人才储备等工作进行了全面了解。在对中电洲际科技环保有限公司考察时，重点围绕数据联网、智能化控制系统的优势、运行数据监控采集、远程诊断等内容进行了深入探讨，为今后开展相关工作拓展了思路。', '通过此次对标考察学习，进一步解放了思想，开阔了视野，为集团接下来发展智能化供热、完善管理流程、建立相关配套制度，提供了借鉴和参考。下一步，邢襄热力集团将继续对标一流供热企业，积极提炼吸收考察学习成果，运用到生产调度、客服管理、物资供应多个业务维度中，加快提升整体技术实力，为建立全产业链供热集团提供有力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>7</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>县行政审批局四项举措进一步优化营商环境</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202303/t20230322_663600.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十大精神，扎实开展“深化学习研究”主题实践活动，县行政审批局着力打造全市最优、全省一流的营商环境。', '对标学习先进。该局2月份以来先后赴鹿泉、清河、威县，考察学习工程建设项目审批改革经验，赴山东滨州参观学习数据共享交换平台建设情况。起草了《宁晋县优化工程建设项目审批流程、“前店后厂”问题集中整治实施方案》，从事项进驻、联合审图、施工许可分阶段办理、主动靠前服务、联动推进等方面优化审批流程、快速办理。同时，紧盯省市县重点项目和民生工程，局长每周调度重点项目审批情况，明确主管副职、责任科室、效果标准、完成时限，编制了《贯彻落实2023年全省政务服务工作推进会精神事项分工清单》，充分助力项目建设。', '减少群众跑办。开展工程建设项目审批事项“前店后厂”、多头跑办集中整治，明确需划转事项、需进驻事项、需取消事项等3个清单，推动涉及工程建设领域的建设用地规划许可等4个自规局事项、消防设计审查等2个住建局事项、排污许可证等2个生态环境分局事项，全部进驻县政务服务中心或充分授权原窗口直接办结出证，实行主管副职在窗口现场办公，大力推进企业群众办事“只进一扇门”，切实增强市场主体获得感、满意度。', '优化企业开设。企业开办事项实现智能审批，通过对审批服务中的信息、环节、流程、时限等要素进行标准化管理，自动抓取材料信息进行比对校验，自动做出审批决定、生成电子营业执照或自助打印纸质执照，最快实现十几秒内出结果。新开办企业免收公章、法人章、财务章等印章刻制费用，由县财政负担。目前，已实现从设立登记、公章刻制、涉税业务、社保登记、公积金登记、银行预约开户等环节“一窗受理、并联审批”，设立登记、公章刻制、申领发票、参保登记等四个事项一日办结，企业设立最快4个小时完成、企业注销1个工作日完成。截至目前，我县2023年新增公司个数446个，个体789家，办理项目立项86个。', '提升网办水平。成立宁晋县政务服务“掌上办”提升工程工作专班，制定了《政务服务“掌上办”提升工程实施方案》。截至目前，全县1300个事项实现“网上办”，各乡镇服务中心网上可办率100%，省级68项、市级27项审批事项下放至县，成为全市唯一“就近办”事项试点县。包含事项名称、设定依据、办理流程、办理事项等信息的政务服务事项办事指南在河北政务服务网同步发布，进一步推进县乡村三级政务服务平台应用，企业群众办事更加方便、高效、快捷。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>邢东新区党工委书记管委会主任史凤杰一行</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qlh/202303/t20230324_663752.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['3月20日上午，邢东新区党工委书记、管委会主任史凤杰带队到邯郸市冀南新区学习交流，冀南新区管委会主任杨万春，区领导赵振有、王富魁、魏忠彦参加活动。', '冀南新区拥有京津冀协同发展和中原经济区两大国家级战略的交汇叠加优势，是河北省加快沿海和腹地互动，冀东、冀中、冀南三大区域协调发展的重要战略布局，是河北省确定的承接京津产业转移的八大平台之一。邢东新区一行先后前往冀南新区政务服务中心、冀南新区科创城、滏阳河生态修复工程、邯郸职教城、河北华通燃气设备有限公司、中材科技（邯郸）风电叶片有限公司、运达风电可再生能源零碳高端装备制造产业园等地实地考察，详细了解项目建设、企业运营生产等情况。考察结束后，双方领导及部门“一对一”精准对接，就项目建设、产业发展、创新驱动、生态建设等方面深入交流。大家表示，要以此次考察学习为契机，全面对标学习冀南新区的先进理念和经验做法，把考察学习成果转化为实实在在的工作举措和成效，不断开创邢东新区发展新局面。', '要认真学习借鉴冀南新区的发展理念、规划标准、发展模式，特别是在招商引资、规划建设、项目推进、产业发展等方面好的经验做法，进一步优化完善工作思路、找准着力重点、细化工作举措，科学谋划未来一个时期的工作，推动邢东新区高质量快速发展。', '新区领导李尚鹏、耿俊利、于焕霞、王沛，区直有关部门主要负责人以及邢东建投参加交流活动。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>7</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>洛川县考察团到我县考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202303/t20230306_662288.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['3月3日，洛川县委书记张继东带领考察团到我县考察学习。县委书记王涛，县委常委、办公室主任张康宁，副县长郭志红参加相关活动。', '考察团一行先后来到河北元正农业机械有限公司、河北圣和农业机械有限公司、童泰婴幼儿服饰有限公司进行实地查看，深入了解了我县产业发展、项目建设、企业运行等相关情况。', '张继东对我县智能农机推动农业高质量发展的做法给予高度评价。他表示，宁晋经济发展活跃，产业基础扎实，区位优势明显，发展前景无比广阔。宁晋在推进项目建设，持续优化营商环境中展现的担当精神、有力举措，令人印象深刻，我们将对标学习，找差距、补短板，强作风，切实提升工作水平。希望两地持续深化合作，共享机遇，在特色种植、设施农业等方面加大合作力度，在智能农机领域加强交流探讨，共同推动两地优势互补、共赢发展。', '王涛对考察团的到来表示欢迎。他表示，当前，宁晋正抢抓全国产业转型升级试验区先行县机遇，大力实施“产值倍增”“税收倍增”计划，打包各类政策，盘活各类资源，凝聚各方力量，引导带动县域企业加强科技创新、转型升级，实现县域重点企业的整体提升。下一步，全县将继续解放思想、奋发进取，积极探索创新，切实将考察交流中的好思路、好做法、好经验应用到工作实践中去。希望双方以此次考察为起点，进一步加强交流沟通，相互学习借鉴，促进两地形成互进互促的良好氛围，推动各项工作提质增效，奋力开启经济社会高质量发展的新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>沧州市南皮县邯郸市磁县融媒体中心到我县</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202302/t20230224_661502.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['2月22日，沧州市南皮县融媒体中心、邯郸市磁县融媒体中心到我县融媒体中心考察交流。', '两地考察团先后参观了县融媒体中心采访部、编辑中心、宁晋报编辑部、1号和2号演播厅、播控机房、广播电台等地，观看了专题片《融进新时代》和精品栏目《秒懂宁晋》《九河好家风》，详细了解我县融媒体中心人员组合、编发流程、技术优势、运营模式等情况。', '在参观考察和座谈交流中，大家重点围绕融媒体中心运行模式、队伍建设、公司运营等方面进行深入探讨，共同分享了县级融媒体在媒体融合发展、运行机制创新和新闻宣传质量提升等方面的经验和做法。两地考察团表示，通过此次参观考察，既开阔了眼界，又明确了方向，将把此次考察学习到的好经验、好做法运用到今后融媒体中心建设当中，同时希望各方今后进一步加强沟通联系，经常开展学习交流活动，相互借鉴，不断创新节目内容和形式，创作更多精品节目，携手抓好县级融媒体中心建设管理运营，共同推进融媒体中心更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>7</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>重庆市大渡口区考察团来邢台市任泽区参观考</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202302/t20230221_661215.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['2月16日，重庆市大渡口区委常委、统战部部长、百亿级重庆小面产业集群建设专项工作组长王涛一行7人来邢台市任泽区开展考察交流，推动两地经贸合作。邢台市委统战部副部长、市工商联党组书记王根才，区委常委、统战部部长李素霞陪同考察。', '考察组一行先后到河北鲜邦食品有限公司、邢台市天元星食品设备有限公司、邢台北人印刷有限公司、河北华密新材科技股份有限公司、河北永明地质工程机械有限公司进行实地考察调研，详细了解企业基础设施建设、管理运营、生产流程、市场营销、产品效益以及下一步发展方向等情况，并就关心的问题进行交流探讨。', '李素霞代表任泽区委、区政府对王涛一行表示欢迎，希望两地能进一步强化产业合作，充分发挥双方产业优势和资源禀赋，找准契合点、共赢点，促进发展要素相互流动、发展优势相互补充，扎实推进以市场为纽带的产业协作，实现携手发展、互利共赢。', '王涛在详细了解我区特色产业集群、企业发展情况后表示，任泽区特色产业集群发展势头良好，企业理念先进、特色鲜明、思想解放，在科技研发、科技成果转化等方面积累了许多成功的经验，自主创新能力和核心竞争力优势明显。考察团将认真学习借鉴任泽区的经验做法，结合自身实际，积极探索实践。同时，希望两地统战部门以此次考察学习活动为契机，进一步加强联谊交往，充分发挥部门职能作用，助力两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>7</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>东镇镇赴南和县阎里乡考察学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lcx/202302/t20230222_661297.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['近日东镇镇党委副书记、镇长郭纬带领镇村干部一行二十余人赴南和县阎里乡考察学习人居环境整治、蔬菜产业发展等重点工作。考察团一行先后参观了宋台村、南杨庄村人居环境整治和美丽庭院建设，河上村温室大棚、蔬菜产业发展，参观考察了前高庄村、后高庄村。通过学习借鉴先进经验，拓宽发展思路，大力整治人居环境，发展特色产业，为大美东镇建设注入新活力。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>7</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>临城县生态环境分局为做好项目谋划赴先进县</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lcx/202302/t20230222_661298.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为做好我县水生态项目谋划和项目实施，近日，县生态环境分局郝红彬局长带队到清河县对人工湿地项目、污水处理厂进行了考察学习。清河县城南湿地项目位于清河经济开发区入河排污口处，主要由表流湿地和潜流湿地两部分构成，排放标准为地表水Ⅳ类。通过考察了解了人工湿地项目的实施工艺、处理工艺、水质处理效果，以及可获得的经济效益和社会效益，学到了一些先进经验和成熟的做法，这些好的经验和做法对谋划、实施我县项目有很好的借鉴作用。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>参观学习交流借鉴促进提升临城县人民</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lcx/202302/t20230222_661287.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['近日，临城县人民医院书记张志学带领院班子成员及部分职能科室负责人分别就党委院办会召开形式及流程、院史馆建设；周例会、早交班及医院质控工作；财务的运行模式，资产管理，采购服务管理，全面预算管理；物价管理项目收费、成本测算等方面到河北医大一院进行考察学习，临城县人民医院各科室负责人与该院相关科室负责人进行了工作对接，对科室的发展进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>7</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>邯郸市磁县考察团到我县考察学习王涛参加</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202305/t20230515_668111.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['5月13日，邯郸市人大常委会副主任、磁县县委书记陈珍礼带领考察团到我县考察学习。县委书记王涛，县委副书记、经济开发区党工委副书记、管委会常务副主任石克栋，县委常委、办公室主任张康宁，副县长、公安局局长靳德永参加相关活动。', '磁县考察团一行先后到晶澳太阳能有限公司、宁纺集团奔发制衣有限公司、东城光伏产业园和童泰婴幼儿服饰有限公司进行了实地考察，深入了解我县产业发展、项目建设和企业运行等情况。', '陈珍礼对我县工业经济发展工作给予高度评价。他表示，宁晋县区位优越、交通便利、产业发展迅猛，在很多领域值得学习借鉴。希望双方企业充分发挥自身优势，加强沟通交流，在光伏新能源、纺织服装等多领域开展务实合作，共同打造新模式、创建新业态、实现新发展。', '王涛对磁县考察团的到来表示欢迎。他表示，今年以来，我县深入学习宣传贯彻党的二十大精神，牢牢守住发展第一要务不放松，出台系列政策措施，不断优化营商环境，加快推动重点项目建设步伐。宁晋与磁县两地发展各具特色、各有优势，希望以此次考察活动为契机，进一步拓展合作领域、深化合作机制，促进优势互补、资源共享，共同谱写合作发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>7</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>县委书记管志民率领考察团到保定市考察学习</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-05-14</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nqx/202305/t20230522_668669.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['5月12日，县委书记管志民率领考察团先后到保定市清苑区、市发改委、市国控公司就城市建设、债券项目包装申报等工作进行考察学习。清苑区委书记闫向阳、区长李英英等区四大班子领导，保定市发改委党组副书记李远南、保定市发改委二级调研员樊运会、国控集团总会计师杨洪涛等分别参加考察座谈活动。县长崔子安、县人大常委会主任王建中、县政协主席马聚林、县委副书记张川等县四大班子领导，县直有关部门主要负责同志，驻县金融机构负责人参加考察学习活动。', '上午，在保定市清苑区，考察团一行实地考察了清苑体育公园、正迪欢乐世界等项目，乘车沿途参观了朝阳大街整治提升、城乡客运一体化、区人民医院新院区、兴苑市场改造提升、好梦林水微度假体验区等项目以及开发区重点企业和项目，并召开座谈会，听取清苑区债券项目申报等方面的经验和做法的介绍，围绕相关工作进行了交流探讨。', '闫向阳对我县考察团到清苑考察表示欢迎。他说，清苑和内丘地缘相近，人文相亲，有着密不可分的关系。内丘县四大班子来清苑与清苑的广大干部一起共同探讨城市建设、债券项目包装申报等工作，既是传经送宝也是互相借鉴。清苑区四大班子领导及各有关单位主要负责同志要与内丘县考察团搞好对接服务，知无不言，言无不尽，以此次活动为契机，共同提升，共同发展。', '李英英介绍了清苑区城市建设、债券项目等情况，她说，2021年以来，清苑区深入贯彻落实保定市委、市政府战略部署，加快融入主城区、改造旧城区、建设新城区，奋力推动现代化品质生活之城建设。成绩的取得，得益于市委、区委的高度重视，得益于政策窗口期的把握，得益于全区上下凝心聚力、攻坚克难。希望清苑与内丘加强交流对接，互帮互助，携手前行。', '管志民对清苑区的细心筹备及热情接待表示感谢，对该区城市建设、债券项目包装申报工作给予高度评价。他说，在清苑区委、区政府的坚强领导下，清苑区广大干部群众凝聚智慧才华，付出汗水努力，城市建设发生了翻天覆地的变化，债券项目包装申报工作在全省排名靠前，取得了优异成绩。希望通过此次考察学习，充分借鉴汲取清苑区宝贵经验做法，让内丘县广大干部解放思想，奋发进取，推动各项工作再上新台阶。', '下午，考察团一行在保定市发改委和国控公司有关负责人的陪同下，实地考察了环城水系极限运动公园、黄花沟公园、马拉松大本营等项目，并在市国控集团召开座谈会，听取保定市专项债券总体情况以及债券项目谋划、申报及项目管理等情况的介绍。', '李远南对我县考察团到保定市对接交流表示欢迎，他表示，保定市发改委和国控集团将主动积极服务，做好深入对接，对内丘的工作给予全力支持和帮助。也希望以此次座谈会为契机，两市县继续密切联系，通力合作，推动并促进共同发展。', '管志民表示，通过此次考察，深入了解了保定市在债券项目包装申报工作上的经验做法，学习到了许多具体、有效的措施。接下来要进一步加强沟通、交流和学习，更新发展理念，提升经济发展活力，推动经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>7</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>邢台市任泽区委书记杨蕾带队到邢东新区考察</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202305/t20230530_669291.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['5月26日，邢台市任泽区委书记杨蕾带队到邢东新区考察学习，双方围绕跨区域合作发展、做大做强做热中心城区建设等话题进行深入交流。区委副书记、区长赵现科，区领导宋云、周振鹏、董春雷、骆军峰一同考察学习。邢东新区党工委书记、管委会主任史凤杰，邢东新区党工委委员、管委会副主任耿俊利陪同考察。', '杨蕾一行先后来到邢台国际会展中心、产业园区等项目施工现场，与邢东新区有关区领导就项目建设、工业布局、产业发展、优化营商环境等方面进行深入探讨和交流。', '史凤杰对任泽考察团的到来表示欢迎，他说，任泽区与邢东新区区位相仿、产业相近、人文相通，在深化合作方面有着很多共同的契合点，希望双方以此考察交流为契机，全面对标学习先进县（市、区）的先进理念和经验做法，进一步树牢', '“项目就是新区生命线”理念，主动查找项目建设中存在的短板弱项，提高境界干、提高标准干、提高效率干，强化协调联动、协同作战、共同发展，携手为建设“太行泉城、美丽邢台”贡献力量。', '杨蕾表示，当前，任泽区正在深入贯彻落实习近平总书记视察河北重要讲话精神和省委十届四次全会、市委常委会的部署要求，致力于参与和融入做大做强做热中心城区建设。任泽区与邢东新区有着一衣带水的袍泽情谊、一路相连的交通基础、一脉相承的文化渊源，希望双方在全市', '“一盘棋”的部署下，始终保持解放思想、奋发进取的精神状态，以中心城区的角色定位去主动谋划和落实，全力推进全市中心城区建设。一是共谋合作新方向，深入推进区域战略合作，不断巩固发展合作基础，实现在区位、产业、科教、会展等方面多途径合作、创造性转化，充分利用区域战略联动所产生的显著乘数效应，以任泽区、邢东新区“深融合”促进全局“大循环”。二是共促发展新突破，在规划设施上互通互联，在产业要素上互补互动，深入研究、科学谋划，积极探索“一会两地”等新模式，在共赢发展中双向发力，共同打造更多互促共进、互利共赢的合作亮点。三是共建合作新机制，完善都市圈协作、多领域交流机制，建立健全常态化推进、多元化对接、项目化落实的工作机制，推动两区合作持续升温、提质增效，书写区域联动大文章，共同在奋力谱写中国式现代化建设河北篇章、加快建设“太行泉城、美丽邢台”中交出优异答卷。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>7</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>我市组团参加第十一届中国电子信息博览会</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/gyxxhj/202305/t20230512_667976.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['日前，第十一届中国电子信息博览会（CITE）在深圳国际会展中心举办，市工信局组织邢台展团参展参会，并进行考察学习、洽谈对接。我市瑞普通信技术股份有限公司携多项科技创新产品参展，展会期间共接待参观人员3000余人次，发放宣传资料3500余份。通过参展宣传了企业形象和实力，推介了产品、扩大了市场影响力。电博会期间，市工信局组织开发区、襄都区、沙河市等县（市、区），走访了兴东数位科技（深圳）有限公司、腾讯公司、创维集团、思谋科技有限公司、永联科技股份有限公司等多家企业，深入实地考察学习，与多家上游厂商就进一步深化合作进行交流，并邀请深圳电池行业协会何伟宁教授到开发区参观考察，指导工作。展会期间，我市还参加了2023冀深电子信息产业对接会，邢台经济开发区围绕邢台市及开发区产业、招商、营商环境等方面进行推介，现场与深圳市科微之星科技有限公司进行签约。', 'CITE）在深圳国际会展中心举办，市工信局组织邢台展团参展参会，并进行考察学习、洽谈对接。我市瑞普通信技术股份有限公司携多项科技创新产品参展，展会期间共接待参观人员3000余人次，发放宣传资料3500余份。通过参展宣传了企业形象和实力，推介了产品、扩大了市场影响力。电博会期间，市工信局组织开发区、襄都区、沙河市等', '，走访了兴东数位科技（深圳）有限公司、腾讯公司、创维集团、思谋科技有限公司、永联科技股份有限公司等多家企业', '2023冀深电子信息产业对接会，邢台经济开发区围绕邢台市及开发区产业、招商、营商环境等方面进行推介，']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>7</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>德州市考察组来邢考察农产品加工业发展</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202305/t20230525_668956.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['（记者范永吉）5月23日至24日，德州市政协主席、市食品加工产业链链长卜祥联率考察组来邢，就我市农产品（食品）深加工企业培植、食品产业发展进行考察学习。市政协主席邱文双，市政协副主席、工商联主席王建江先后陪同考察。', '考察组一行先后到宁晋县玉锋实业集团、隆尧县今麦郎集团、南和区金沙河面业集团等地进行调研，详细了解企业生产基地建设、销售市场拓展、企业经营管理等方面内容，并与相关部门负责同志共同探讨研究培育扶植企业的思路与举措。', '考察组表示，邢台市农业产业化发展态势良好，在农产品精深加工、农机装备制造等方面走出了高质量发展的新路径，龙头企业经营管理模式先进，形成了独具特色的好经验好做法，具有较强的借鉴意义。希望今后进一步深化沟通交流，增进双方了解，聚焦实际需求，寻求合作契机，推动两地农业产业化发展迈上新台阶。', '邱文双对德州市政协考察团来邢考察表示欢迎。他指出，农产品加工业是国民经济基础性和保障民生重要支柱产业，希望德州市与邢台市加强合作交流，相互学习借鉴，共同推动农产品（食品）加工业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>7</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>邢台市林业局迅速开展四型市直机关建设</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/lyj/202305/t20230511_667854.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['5月10日下午，市林业局响应市委“四型市直机关建设”号召，迅速召开活动动员部署会。党组书记、局长张二英传达了市委“四型市直机关建设”活动动员部署会的会议精神，并对局机关如何开展“四型市直机关建设”进行安排部署。', '迅速召开活动动员部署会。党组书记、局长张二英传达了市委“四型市直机关建设”活动动员部署会的会议精神，并对局机关如何开展“四型市直机关建设”进行安排部署。', '市林业局将以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大及二十届一中、二中全会和省委十届二次、三次全会精神，聚焦开展学习贯彻习近平新时代中国特色社会主义思想主题教育任务要求，把四型市直机关建设工作与主题教育、文明机关创建相结合，与林业工作实际、个人评优评先相结合。进一步探索如何扩大科技服务辐射面，如何把增绿与群众增收结合起来，如何完善林业资源管护长效机制。结合林业主题工作、主题宣传的平台载体，用创建工作的实际成效推动整体工作高质量发展。', '下一步，局机关对应开展三项活动，确保“四型市直机关建设”活动有规划、有亮点、有实效。一是“找差距、立标杆、定目标”主题活动，主要针对机关内部问题查找、激励争先创优，扎实推进机关工作质效提升。二是开展“学业务、下基层、搞服务”主题活动，组织机关事业单位初级职称的林业科技人员深入林场、果园、农户和田间地头，开展技术指导、咨询、培训、示范等活动，使科技成果尽快转化为生产力，发挥出应有的社会效益、经济效益和生态效益，以机关带系统、促基层，形成整体推进、均衡发展的态势。三是开展“学先进、增活力、干事业”主题活动。外出考察学习郝景香造林队、塞罕坝机械林场等林业行业先进典型和优秀经验，全面提升领导班子和干部队伍业务能力和业务素质。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>7</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>广东省云浮市新兴县与邢台市任泽区跨省缔结</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202304/t20230428_667086.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['4月19日上午，邢台市任泽区委书记杨蕾带队赴广东省云浮市新兴县考察并与该县缔结“友好县区”“友好园区”。新兴县委书记陈哲江，县委副书记、县长赖鉴铭，新兴县领导伍树全、汪杰、赵婷婷、冯海燕、李耀强、梁福慧、陈冠鸿、梁雄伟、刘彬，任泽区领导周振鹏、曾彦红参加缔结仪式。', '仪式上，杨蕾代表任泽区委、区政府对新兴县就本次合作活动给予的高度重视和对任泽发展的关心、支持表示衷心的感谢，对双方跨省缔结“友好县区”“友好园区”表示热烈祝贺，并诚挚邀请新兴县各级领导及各界朋友到任泽参观考察、投资兴业。她表示，新兴县是“中国不锈钢餐厨具之乡”，先后获评国家县城新型城镇化建设示范县、全国美好环境与幸福生活共同缔造试点县、全国县域旅游综合实力百强县、全国卫生城市等荣誉称号。当前，任泽区正处于加快推进中国式现代化河北场景的重要时期，也是对标先进争一流、学习典型促发展的关键时期，通过此次考察学习，既找到了两地在产业、人文、区位等方面的契合点，也找到了对标学习的目标，任泽区将进一步解放思想、奋发进取，把新兴县发展的好经验、创新的好机制、干部的好作风学习好、领会透、带回去，在对标对表、学习借鉴中抢抓机遇、加快发展，持续推动开发区提档升级和经济社会高质量发展，为擦亮“太行泉城、美丽邢台”城市品牌贡献力量。希望双方以此次缔结“友好县区”“友好园区”为新起点，进一步深化对接交流，加强优势互补，促进开发区提档升级、招商引资、园区建设、文旅开发、现代农业等领域的深度融合，探索建立更加紧密、更深层次、更大范围的战略合作关系，让友谊之花结出更多合作硕果，共同谱写两地优势互补、互利共赢、协同发展的崭新篇章。', '仪式上，杨蕾代表任泽区委、区政府对新兴县就本次合作活动给予的高度重视和对任泽发展的关心、支持表示衷心的感谢，对双方跨省缔结', '“友好县区”“友好园区”表示热烈祝贺，并诚挚邀请新兴县各级领导及各界朋友到任泽参观考察、投资兴业。她表示，新兴县是“中国不锈钢餐厨具之乡”，先后获评国家县城新型城镇化建设示范县、全国美好环境与幸福生活共同缔造试点县、全国县域旅游综合实力百强县、全国卫生城市等荣誉称号。当前，任泽区正处于加快推进中国式现代化河北场景的重要时期，也是对标先进争一流、学习典型促发展的关键时期，通过此次考察学习，既找到了两地在产业、人文、区位等方面的契合点，也找到了对标学习的目标，任泽区将进一步解放思想、奋发进取，把新兴县发展的好经验、创新的好机制、干部的好作风学习好、领会透、带回去，在对标对表、学习借鉴中抢抓机遇、加快发展，持续推动开发区提档升级和经济社会高质量发展，为擦亮“太行泉城、美丽邢台”城市品牌贡献力量。希望双方以此次缔结“友好县区”“友好园区”为新起点，进一步深化对接交流，加强优势互补，促进开发区提档升级、招商引资、园区建设、文旅开发、现代农业等领域的深度融合，探索建立更加紧密、更深层次、更大范围的战略合作关系，让友谊之花结出更多合作硕果，共同谱写两地优势互补、互利共赢、协同发展的崭新篇章。', '陈哲江代表新兴县委县政府对杨蕾一行的到来表示热烈欢迎，并简要介绍了新兴县基本情况。他表示，希望以此次活动为契机，进一步加强新兴县和任泽区的沟通对接，高质量开展交流互鉴，共同积极探索，以更大力度推动双方在高层次、大范围、多领域开展合作，建立长期、稳定的友好合作关系，在互利共赢中加快发展，把两地友好合作这篇文章做深做实，全力打造成示范和样板，共同携手推进两地的经济社会高质量发展。', '期间，新兴县委常委、常务副县长、县委办主任李耀强介绍了新兴县及新成工业园发展情况；邢台市任泽区委常委、常务副区长周振鹏介绍了任泽区及经济开发区发展情况。', '仪式后，杨蕾一行先后来到广东凌丰集团股份有限公司先丰公司、温氏食品集团股份有限公司总部等进行实地考察。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>7</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>取他山之石谋发展之策</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/mqrlgs/202305/t20230506_667522.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['近日，邢襄热力集团新能源供热分公司先后到北京城市副中心行政办公区6#能源站和雄安新区容东片区中心站进行考察学习。通过实地查看、听取讲解、探讨交流等方式，详细了解6#能源站“多能协同、智能耦合”的超低碳综合能源技术体系，学习他们保障区域能源供应的智能化调度平台，以及水蓄能、余热回收等节能技术的应用等。', '能源站和雄安新区容东片区中心站进行考察学习。通过实地查看、听取讲解、探讨交流等方式，详细了解', '能源站“多能协同、智能耦合”的超低碳综合能源技术体系，学习他们保障区域能源供应的智能化调度平台，以及水蓄能、余热回收等节能技术的应用等。', '通过此次考察学习，新能源供热分公司切实增加了专业知识，拓展了工作思路。下一步将结合工作实际，围绕集团“多维高效能源站”项目建设，推进先进技术和业务工作的深度融合，实施多种能源耦合供热方式，构筑智能运行平台，打造城市清洁供热标杆能源站，将“他山之石”转化为推动集团清洁能源供热高质量发展的强大动力。', '通过此次考察学习，新能源供热分公司切实增加了专业知识，拓展了工作思路。下一步将结合工作实际，围绕集团', '“多维高效能源站”项目建设，推进先进技术和业务工作的深度融合，实施多种能源耦合供热方式，构筑智能运行平台，打造城市清洁供热标杆能源站，将“他山之石”转化为推动集团清洁能源供热高质量发展的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>7</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>保定国家高新区到邢东新区考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qlh/202305/t20230508_667552.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['5月6日，保定国家高新区改革发展局局长、自然资源和规划局局长一行4人到我区实地考察学习。', '在座谈会上，李尚鹏详细介绍了新区直管面积、所辖区域、机构建设、经济发展及邢台高新区等有关情况。双方就体制机制建设运行、产业规划发展、项目建设管理、空间规划、新区与高新区融合发展等方面进行了深入探讨。', '在座谈会上，李尚鹏详细介绍了新区直管面积、所辖区域、机构建设、经济发展及邢台高新区等有关情况。', '双方就体制机制建设运行、产业规划发展、项目建设管理、空间规划、新区与高新区融合发展等方面进行了深入探讨。', '李尚鹏表示，保定高新区对我区在较短时间内取得的成绩表示高度赞扬，指出邢东新区空间布局合理，发展定位和产业定位精准，招商选资和项目建设势头强劲，未来发展潜力巨大。', '我们将以此次保定高新区到邢东新区考察交流为契机，认真对标学习兄弟市高新区的先进经验做法，进一步解放思想、奋发进取，以“不怕困难、勇往直前”的担当精神和“人一我十、人十我百”的干劲闯劲，全面加快高新区的规划建设，争取早日迈入国家级高新区行列。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>7</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>西竖镇组织镇村干部外出考察学习</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lcx/202302/t20230210_660320.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['近日，镇党委书记刘晓辉带领20余名镇村干部到保定容城、白沟新城，山东寿光、曹县等地考察学习毛绒玩具加工、果蔬大棚种植等，学习借鉴先进技术、管理模式、营销策略，拓宽发展思路，发展特色产业，为建设最美西竖提供有力支撑。', '在保定容城南王昝村和白沟新城先后参观考察了金凯阳、亚宾等毛绒玩具加工车间，王旭箱包加工车间和毛绒玩具销售展示中心，并与负责人进行深入对接交流，详细了解生产经营、销售推广等情况，并邀请其来西竖实地考察、投资发展。', '在山东寿光实地考察了台头镇高端葡萄产业园基地、中国促早熟阳光玫瑰示范基地、寨里现代农业高新技术试验示范基地，重点了解了阳光玫瑰葡萄品种市场前景、种植技术等，部分村支书对阳光玫瑰葡萄种植产生浓厚兴趣，表示将继续深入对接了解。', '在山东曹县深入对接曹县绿之宝农业发展有限公司，详细了解了订单辣椒的种植回收、加工流程、销售情况，并初步达成共同发展意向，在我镇400亩订单辣椒种植的基础上，将召开现场会，继续推广订单辣椒种植。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>7</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>温建敏带队赴邢台市开发区隆尧县考察学习</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nqx/202302/t20230217_660965.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['2月9日，县委常委、常务副县长温建敏带领县政府办、县发改局、县科工局、国融公司等部门主要负责同志和部分企业家代表，先后到邢台市开发区纳科诺尔公司、隆尧县今麦郎公司和我县建滔能源公司等企业，考察学习企业先进发展经验。', '每到一处，考察团都深入到车间、展厅实地观摩，观看企业发展专题片，听取企业负责人情况介绍并深入交流，详细了解企业运行发展情况。学习考察结束后就地召开座谈会，大家结合考察感受和体会，进行了交流发言。', '温建敏指出，兄弟县（市、区）创新的发展理念、一流的发展速度、优质的发展成果，赶超进位的精神状态和创先争优的高昂斗志，值得大家学习借鉴。各相关部门、各企业要解放思想，创新思维，加强与先进县（市）区企业的沟通交流，在实践中不断探索新思想、新方法、新举措，真正把考察学习的成果转化为干事创业的强大动力，进一步推动我县经济社会各项事业发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>对标先进找差距立足自身谋跨越留村办赴</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2023-01-28</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/kfq/202301/t20230128_659263.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区成功经验，促进乡村振兴迈上新台阶，近日，留村办党委书记富一豪，党委副书记、主任杨兵带领农业办工作人员、部分村支书前往威县贺营镇“威梨”种植产业基地、君乐宝威县生产基地进行考察学习。', '通过现场观摩、听取介绍、沟通交流等形式，学习组边听边看，边思边议，大家就“威梨”的种植模式、品种选择、经济效益，奶牛养殖基地自动化平台运转情况进行了深入交流。所到之处的发展成效、先进经验让大家深受启发，也对留村办今后的农业种植和养殖发展提供了丰富经验。大家纷纷表示，通过考察学习，解放了思想、开拓了眼界、提升了境界、看到了差距。在今后的工作中，将创新思路、争先创优、因村制宜，大力实施乡村振兴，着重发展农业项目，促进农民增收。', '下一步，留村办将持续深入推进“解放思想参观践学”系列活动，在对标中找差距、学经验、促提升，在交流中理思路、鼓干劲、谋发展，加快农业大镇向农业强镇转变，促进留村办高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>7</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>王涛带队赴沙河市南和区考察学习时表示学</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2022-09-02</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202209/t20220902_646138.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['王涛带队赴沙河市、南和区考察学习时表示 学习好经验好做法 切实提升高速出入口疫情防控、农村人居环境整治提升、城市建设工作', '8月31日，县委书记王涛带队赴沙河市、南和区就高速出入口疫情防控、农村人居环境整治提升、城市建设等工作进行考察学习，并与沙河市委书记戎华奎、南和区委书记郭卫欣进行工作交流。县领导张康宁、郭志红参加。', '在京港澳高速沙河口，过往车辆有序通行，检查、排查、核酸检测工作有条不紊。王涛详细了解了沙河高速口疫情防控措施落实、来往车辆排查疏导、便民服务等工作开展情况。他表示，沙河市高速路口管控既做到了交通顺畅，又实现了精细精准排查。要认真学习沙河市好经验好做法，结合宁晋实际，科学规划车辆疏导路线，合理设置检查通道，便捷高效开展落地核酸检测，做到不压车、不滞留、不聚集，切实提升高速路口排查管控力度，有序推进全县疫情防控各项工作。', '随后，王涛一行来到南和区河郭镇刁庄村、兴业路与朱正色大街交口、城区口袋公园建设现场等地，实地了解了南和区在农村人居环境整治、城市建设等方面的经验做法。他表示，南和区在推进人居环境整治、城市更新、街角游园、口袋公园建设等方面所取得的成功经验值得宁晋学习借鉴。我们将以此次学习考察为契机，在农村人居环境整治提标、城市建设扩能上下足硬功夫，扎实做好工笔画小镇规划建设，加快推进文化艺术中心、体育场馆建设步伐，因地制宜设置健身步道，完善公园游园体育休闲功能，让农村更美、城市更靓，不断提升全县群众幸福感、获得感。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>7</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>新河县人民医院同仁到宁晋县医院学习交流</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202302/t20230217_660906.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['2月14日，新河县人民医院党总支书记带领相关科室负责人一行到我县县医院学习交流。县医院党总支书记、院长及相关院领导参加了座谈交流。', '座谈会上，县医院党总支书记对新河县人民医院同仁来院交流表示热烈欢迎，并简要介绍了我县县医院的规模、人才队伍、学科建设、器械配备等相关情况。同时，希望以此次交流学习为契机，双方进一步建立友好协作关系，加强沟通，互相学习，取长补短，共同提高，助力县域整体诊疗水平不断提升，为县域百姓提供更加优质高效的医疗服务。会后，新河县人民医院同仁分别与县医院主管院领导、职能科室负责人进行了对接，并分别深入职能科室进行了实地参观和交流学习，听取相关院领导、职能科室关于分管工作开展情况的介绍，就工作中遇到的一些具体问题进行了深入交流探讨。在相关科室对接交流结束后，新河县人民医院一行还先后深入县医院内镜诊疗中心、神内一科、急诊科等相关科室进行了实地考察学习，了解科室管理、学科建设等相关情况。', '新河县人民医院一行对宁晋县医院整体工作取得的成效予以了充分肯定，认为宁晋县医院无论从技术、规模、管理等多个方面，都值得新河县人民医院学习借鉴，希望宁晋县医院同仁不吝赐教，分享好的管理经验，双方互相学习，互相借鉴，以优质高效便捷的服务造福一方百姓。新河县人民医院同仁表示，通过这次交流学习，进一步拓宽了思路，开阔了视野，将把宁晋县医院好的经验运用到具体工作中，不断提升医疗服务能力，为一方百姓的身体健康保驾护航。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>7</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>邢台市交通运输局考察团赴张家口市考察学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-02-05</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jtysj/202302/t20230214_660589.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['2023年2月2日至3日，邢台市交通运输局党组成员、副局长武国辉带队一行12人赴张家口市交通运输局就TOCC指挥中心建设运行以及运输业发展、12328交通服务热线等先进经验做法进行考察学习。张家口市交通运输局进行了热情接待，党组书记、局长张多顺亲切接见考察团，局领导张明海、马志刚、张富春陪同考察，双方召开座谈会进行了深入交流。', '考察团一行先后到张家口市交通运输局TOCC指挥中心、公交公司指挥中心、张烟东库公交场站、张运集团物流中心、通泰物流中心、新天地危货运输服务公司等地进行考察学习，听取有关情况介绍，详细了解张家口市在智慧交通建设与现代运输业发展方面的典型做法和经验。', '考察组成员每到一地都认真听、仔细看、细致问、深入交流，并且双方就公交信息平台合作开发、交通物流园区建设等方面达成实质性合作意向。大家普遍反映，此次考察学习收获满满，是一次触动思想、开拓视野、提升能力的实践活动，对于两地深度交流合作、加快推进数字化赋能和现代信息技术在交通运输领域推广应用以及推动运输业转型升级具有重要意义，表示要以此次考察为契机，进一步转变观念、抬高标尺、强化措施，为邢台高质量赶超发展做出交通运输贡献。邢台市交通运输局相关部门负责同志和部分企业代表参加了考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>7</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>跨省建成友好区县共促合作共谋发展</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202208/t20220829_645401.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['跨省建成“友好区县”，共促合作共谋发展！邢台市任泽区委书记杨蕾率队赴福建省开展招商考察活动并与宁德市屏南县建成“友好区县”', '为全面落实省委十届二次全会精神，进一步解放思想、奋发进取，推动区域经济提质增效、活力迸发，8月19日-21日，邢台市任泽区委书记杨蕾率队赴福建省开展招商考察活动，现场感悟习近平总书记在福州、宁德的创新理念与生动实践，学习借鉴福州、宁德在项目建设、城市管理、生态环境保护等方面的先进经验，推动特色产业集群“领跑者”企业进行项目洽谈、招商合作，与福建省宁德市屏南县签订了《友好城市战略合作框架协议》，跨省建成“友好区县”，就深化多层次宽领域全方位合作进行深入对接，作为唯一一个河北省省级乡村振兴示范区代表受邀参加第十六届中国农村金融发展论坛并做主旨演讲，推介邢台任泽经验。', '为全面落实省委十届二次全会精神，进一步解放思想、奋发进取，推动区域经济提质增效、活力迸发，', '8月19日-21日，邢台市任泽区委书记杨蕾率队赴福建省开展招商考察活动，现场感悟习近平总书记在福州、宁德的创新理念与生动实践，学习借鉴福州、宁德在项目建设、城市管理、生态环境保护等方面的先进经验，推动特色产业集群“领跑者”企业进行项目洽谈、招商合作，与福建省宁德市屏南县签订了《友好城市战略合作框架协议》，跨省建成“友好区县”，就深化多层次宽领域全方位合作进行深入对接，作为唯一一个河北省省级乡村振兴示范区代表受邀参加第十六届中国农村金融发展论坛并做主旨演讲，推介邢台任泽经验。', '19日下午，杨蕾一行在福清市委副书记陈恒东、融侨经济开发区党工委书记林捷的陪同下，先后到福清市福州京东方光电科技有限公司、冠捷电子科技（福建）有限公司、福耀玻璃工业集团股份有限公司进行考察对接，与企业负责人深入交流，详细了解企业生产经营、技术研发、产品创新及未来规划等情况。杨蕾表示，任泽区将认真学习福清市作为全国文明城市、全国县域经济百强县（2022年第14名）的成功经验和做法，希望两地充分发挥产业优势和资源禀赋，找准契合点、共赢点，促进发展要素相互流动、发展优势相互补充，扎实推进以市场为纽带的产业协作，实现携手发展、互利共赢。陈恒东对杨蕾一行考察交流表示欢迎，表示要进一步促进两地互相学习交流，共同推进两地产业协作向更宽领域、更深层次、更高水平迈进。', '20日上午，杨蕾一行拜访了福建农林大学党委副书记、校长兰思仁，农业农村部政策与改革司副司长王宾，作为唯一一个河北省省级乡村振兴示范区代表应邀参加第十六届中国农村金融发展论坛，邢台市任泽区委书记杨蕾以“金融支持乡村振兴的‘五五三’任泽模式”为题在大会主论坛做主题报告，推介河北邢台任泽实践探索。邢台市任泽区被教育部高等学校农业经济管理类专业教学指导委员会农村金融学教研组授予“中国农村金融发展论坛河北任泽产学研实践基地”。', '20日下午，杨蕾一行赴宁德市屏南县，在县委书记党帅，县委常委、副县长魏宏峰的陪同下，先后考察了屏南县溪角洋工业园区、农产品电商产业园、鲜珥家（福建）生物科技有限公司、宁德时代全资子公司屏南时代电子科技有限公司、宁德时代全资子公司屏南时代新材料技术有限公司、屏城乡厦地村、前汾溪村，全面考察学习屏南县在产业发展、项目建设、乡村振兴、电商园区等方面的工作举措和成效，现场感悟学习习近平总书记在宁德工作时，提出“弱鸟先飞”“滴水穿石”“久久为功”“扶贫先扶志”“四下基层”等创新理念、工作精神和生动实践。特色产业集群“领跑者”企业华密新材董事长李藏稳与屏南时代相关负责人进行了对接沟通，就项目合作、产品配套等事宜进行了深入的合作洽谈。', '考察期间，邢台市任泽区与宁德市屏南县签订了《友好城市战略合作框架协议》，跨省建成“友好区县”。杨蕾表示，任泽区与屏南县虽相隔很远，但在产业发展、城市建设、社会治理、乡村振兴等方面拥有很多共同发展课题，结对互补、合作共赢的前景十分广阔。邢台市任泽区与宁德市屏南县开展友好区县战略合作，既是深入贯彻落实河北省委十届二次全会精神和邢台市高质量发展要求的重要举措，也是任泽区进一步解放思想、奋发进取的生动实践，更是任泽区立足自身基础和优势、适应时代发展，加快改革创新，加快推进“智造绿都、和合任泽”建设目标的全新探索。当前，任泽区正处于转型升级、蓄势突破的关键时期，任泽将抢抓与屏南县缔结友好区县的机遇，认真学习借鉴屏南县推动高质量发展的好经验、好做法，以特色产业集群发展为核心，努力促进现代农业提质增效、绿色工业快速发展、乡村宜居宜业、农民富裕富足。希望屏南县能与任泽区建立长期深入友好合作关系，积极推动两地思想互通、产业互补、技术互助、人员互动，共同助力两地经济高质量发展。屏南县委书记党帅对杨蕾一行的考察交流表示欢迎，对双方建立友好区县合作关系表示祝贺，并表示将尽快带队赴邢台市任泽区进行回访交流、实地考察对接，深入沟通洽谈，力争进一步推进深化合作，实现共赢发展。', '“友好区县”。杨蕾表示，任泽区与屏南县虽相隔很远，但在产业发展、城市建设、社会治理、乡村振兴等方面拥有很多共同发展课题，结对互补、合作共赢的前景十分广阔。邢台市任泽区与宁德市屏南县开展友好区县战略合作，既是深入贯彻落实河北省委十届二次全会精神和邢台市高质量发展要求的重要举措，也是任泽区进一步解放思想、奋发进取的生动实践，更是任泽区立足自身基础和优势、适应时代发展，加快改革创新，加快推进“智造绿都、和合任泽”建设目标的全新探索。当前，任泽区正处于转型升级、蓄势突破的关键时期，任泽将抢抓与屏南县缔结友好区县的机遇，认真学习借鉴屏南县推动高质量发展的好经验、好做法，以特色产业集群发展为核心，努力促进现代农业提质增效、绿色工业快速发展、乡村宜居宜业、农民富裕富足。希望屏南县能与任泽区建立长期深入友好合作关系，积极推动两地思想互通、产业互补、技术互助、人员互动，共同助力两地经济高质量发展。屏南县委书记党帅对杨蕾一行的考察交流表示欢迎，对双方建立友好区县合作关系表示祝贺，并表示将尽快带队赴邢台市任泽区进行回访交流、实地考察对接，深入沟通洽谈，力争进一步推进深化合作，实现共赢发展。', '21日上午，杨蕾一行赴福州市晋安区，在福州市晋安区委副书记、区长董敬太陪同下，赴福兴经济开发区数字展厅、福州高意科技有限公司、晋安文化记忆馆，就数字经济、科技创新、城市建设、文化产业等多领域进行考察对接，现场感悟习近平总书记在福州的创新理念与生动实践。杨蕾表示，任泽区将认真感悟学习习近平总书记在福州工作时提出的打造“闽江口金三角经济圈”、建设“海上福州”、保护城市文脉、进行旧城改造等生动实践，认真学习福州“马上就办、真抓实干”的精神，一线考察识别干部的经验做法，认真学习福州市晋安区作为“全国科技创新百强区、全国新型城镇化质量百强区、全国绿色发展百强区的先进经验，高度重视特色产业集群和城市建设工作，致力于打造独具魅力的“品质之城”、富民强区的“产业之城”、绿色宜居的“生态之城”、和谐善治的“文化之城”和创新涌动的“活力之城”。董敬太对杨蕾一行考察团的到来表示欢迎，对任泽区提出的产业发展互补互助、科技人才互动交流等合作事项表示支持。晋安区愿充分发挥自身优势，与任泽区加强对接交流，精准对接、深化合作，实现共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>7</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>宁晋县考察团来我区考察调研</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/202209/t20220902_646125.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['（记者齐春佳 孙一哲）8月31日，宁晋县委书记王涛率考察团来我区考察调研农村人居环境整治和城市品质提升工作。区委书记郭卫欣，区委常委、办公室主任侯金波，政府副区长赵创立、王兴国一同调研。', '8月31日，宁晋县委书记王涛率考察团来我区考察调研农村人居环境整治和城市品质提升工作。区委书记郭卫欣，区委常委、办公室主任侯金波，政府副区长赵创立、王兴国一同调研。', '考察团先后到河郭镇刁庄村、区文体中心、体育公园项目、汇智园口袋公园等地实地考察，认真听取相关情况介绍，并就考察内容进行了深入的对接交流。', '考察团对我区农村人居环境整治和城市品质提升工作取得的成绩给予高度评价，认为我区坚持以人民为中心，不断提升城乡群众的生活质量，工作推动力度大、创新多、热情高，经验可复制、模式可参考。宁晋将以此次考察学习为契机，深化细化考察学习成果，进一步加强两地的沟通交流，以便更好的结合自身实际加以运用。', '郭卫欣对考察团的到来表示欢迎，指出，南和区紧紧围绕省级生态园林城创建和城市改造提升目标，坚持“以人为本、以史为脉、以和为魂、以绿为韵”，扎实开展农村人居环境整治和城市品质提升工作，精心打造“精致、独特、典雅、生态”新南和。希望通过此次交流学习，促进两地形成互进互促的工作氛围，推进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>7</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>承德市邮政管理局来我区考察邮政快递业发展</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2022-07-21</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/202207/t20220730_642320.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['（记者梁朋涛）7月20日，承德市邮政管理局来我区考察学习邮政快递业发展情况及推动邮政快递业安全发展中心组建及运行方面的工作经验。', '7月20日，承德市邮政管理局来我区考察学习邮政快递业发展情况及推动邮政快递业安全发展中心组建及运行方面的工作经验。', '考察组到我区蜂巢云仓储进行了实地参观，区交通局负责同志介绍了如何创新“寄递+电商+宠物特色产业+蜂巢云仓”模式，通过末端共同配送、多业态合作、联合共建等方式实现宠物产业寄递服务合作经营发展的过程。', '考察组认为，通过现场学习观摩，收获颇丰。表示将借鉴复制我区好的经验做法，结合承德本地实际，因地制宜、因人而异进行创新，推进当地快递业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>县住建局三步走提升物业服务水平</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2022-08-12</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202208/t20220812_643701.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['今年以来，县住建局以解决关系民生问题为出发点，创新“三步并走、全面提升”工作模式，加强物业服务企业监管力度，有效提升全县物业服务整体水平。', '树立标杆，培育头雁，“领”出好物业。按照“先行打造模板、有序全面推开”工作思路，打造怡嘉苑、天著熙园、颐和明珠小区九红物业试点，积极协调开发商、物业企业等各方资金330 余万元，打造精品试点，引领行业整体良性发展。', '旧区改造，红色典范，“改”出好物业。统筹推进8个老旧小区改造项目和12个老旧小区提升项目，总投资3675.6万元，其中争取中央资金1200万元、专项债券2400万元。工作中，县住建局坚持改造提升并重，按照“一区一案、因地制宜”原则，从建筑主体和基础配套服务设施两方面着手，着重红色主体建设原素，将累计改造38栋住宅楼，惠及居民873户，引导物业公司先行入驻，为小区后期保障打下基础。', '对标先进，开拓创新，“创”出好物业。按照“走出去”“请进来”的工作思路，在建立机制、示范先行、推广示范、扩大成果的基础上，2022年先后赴青岛市、威海市、邯郸市、邢台市等地区考察学习全国、全省优秀示范小区，全力推动红色社区和智慧安防小区建设，督促开发建设单位出资，高标准一体推进。同时与公安、民政等部门联合，实现从建设、验收、审批全过程严格监管，切实优化物业管理模式，为全县智慧社区建设奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>南和区考察团到我县考察政府投资项目代建</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202206/t20220629_638554.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['6月25日，南和区副区长刘岩斌一行7人到我县就政府投资项目“代建制”改革进行考察，以座谈会的形式展开充分交流。县委常委、常务副县长路阔出席会议，相关县直单位主要负责人参加座谈会。', '座谈会上，路阔全面介绍了我县政府投资项目“代建制”工作开展情况，对“代建制”项目的基本运作模式、改革新模式与现行法规衔接方式、部门责任分工等内容进行了详细说明。双方就政府投资项目建设管理机构的设置、职能、运作模式、成效及遇到的困难，以及代建项目管理机构在项目前期承担的主要职责与运作方式，如何对相关单位进行有效监管等问题进行了深入交流和探讨。', '路阔表示，宁晋县高度重视“代建制”工作，积极探索优化项目管理和保证工程质量安全的有效途径，着力解决项目建设“超规模、超标准、超投资”问题；要严格依法依规行政，加快出台“代建制”相关配套制度文件，制定切实有效的约束监管机制，强化诚信体系建设，加强代建单位监管，确保代建项目规范有序开展；要坚持“让专业的人干专业的事”工作理念，选优配强人员力量充实到县代建中心，切实提升我县“代建制”工作专业化水平；要严谨推进试点项目工作，加强政策支持及要素保障，积极协调解决推进过程中遇到的难点堵点问题，充分发挥试点项目作用，及时总结可复制可推广的经验做法，为全面推开“代建制”提供保证。', '刘岩斌指出，推行“代建制”是项目管理方式的一次深化改革，对进一步规范政府投资项目管理具有重要意义，宁晋的“代建制”管理办法和配套的实施细则，有许多经验和做法值得我们学习借鉴。此次考察学习为进一步推动我区政府投资项目“代建制”管理工作提供了先进经验、新的思路和详实内容，为下一步我区不断完善“代建制”的管理办法与现行法规的衔接和加快推动出台“代建制”实施细则提供了有益的参考。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>7</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>广宗考察团赴清河等县市考察特色产业园建设</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2022-06-06</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/gzx/202206/t20220606_635432.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['6月1日，县领导翟义琢、王云霄、王俊杰、吉勇潭等一行赴清河中小企业科创园、汽配科创园、羊绒科创园，南宫国际精品羊绒服装服饰产业园，临西宇微众创空间进行考察学习。', '翟义琢一行在清河经济开发区一站式服务中心详细了解了服务企业“110”、“不见面”智能审批、24小时政务服务及开发区智能化、信息化大数据信息管理平台建设运营等工作开展情况;在清河中小企业科创园、汽配科创园、羊绒科创园，南宫国际精品羊绒服装服饰产业园等地，就特色产业园建设、项目平台建设运营等情况进行了沟通交流;在临西宇微众创空间，对管理运营众创空间及吸引企业入驻进行了探讨学习。', '翟义琢强调，此次考察开阔了眼界、拓展了思路，为今后发展建设广宗特色产业园积累了先进经验理念。要充分学习借鉴清河、南宫、临西等地的好思路、好做法、好经验，特别是特色产业园的发展设计理念及服务企业、优化营商环境的创新举措，加快推进我县特色产业园建设，促进全县经济社会高质量赶超发展。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>7</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>石家庄市供销社理事会副主任张立朝一行到我</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2022-07-12</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/gxs/202207/t20220728_641962.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['7月12日，石家庄市供销社理事会副主任张立朝带队一行16人到我市考察学习浅埋滴灌节水农业的先进经验和做法。市社党组成员、副主任程冠清，省社驻邢台工作组组长薛剑锋，南宫市副市长周义华陪同考察。', '石家庄市供销社理事会副主任张立朝带队一行16人到我市考察学习浅埋滴灌节水农业的先进经验和做法。', '市社党组成员、副主任程冠清，省社驻邢台工作组组长薛剑锋，南宫市副市长周义华陪同考察。', '张立朝一行先后在南宫市宋旺村、中棉紫光仓储库调研浅埋滴灌春播作物生长及粮食仓储情况。双方就工作开展进行了经验交流和讨论。通过实地考察和听取情况介绍，张立朝一行对我市浅埋滴灌节水农业，尤其是南宫市的经验做法给予高度评价，他表示，将把学习考察得来的先进做法带回去，助力当地浅埋滴灌节水农业发展。市社党组成员、副主任程冠清表示，希望双方进一步加强沟通与交流，相互借鉴，取长补短，为两地高质量发展做出新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>7</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>邱文双调研督导我区项目建设疫情防控工作</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2022-03-31</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/202204/t20220406_627613.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['（记者马玲娜 樊辰红）3月30日，市政协主席邱文双来我区调研督导项目建设、疫情防控等工作。他指出，要切实提高政治站位，贯彻落实好市委市政府工作部署，高标准、严要求完成好各项工作。张守锋、郭军平、张明、薛贵波、潘清奎等区领导一同调研。', '3月30日，市政协主席邱文双来我区调研督导项目建设、疫情防控等工作。他指出，要切实提高政治站位，贯彻落实好市委市政府工作部署，高标准、严要求完成好各项工作。张守锋、郭军平、张明、薛贵波、潘清奎等区领导一同调研。', '邱文双先后深入润沃智慧物流（邢台）产业园项目、华兴宠物食品精深加工项目、河北北和包装彩印基地二期项目、河北荣喜高档宠物食品项目、格力中铁飞豹物流项目施工现场，详细了解项目建设进度、远景目标、产品创新等情况，鼓励企业要积极考察学习借鉴外地先进经验，持续增强研发和自主创新能力，不断提升产品核心竞争力。', '邱文双强调，要更好统筹疫情防控和经济社会发展，加快推进项目建设，着力引进和扶持一批骨干企业、龙头企业，培育发展新动能。要结合自身产业基础，做好延链补链强链文章，充分发挥重点项目支撑带动作用，加快构建特色鲜明、链条完备的现代产业体系。相关单位要加强包联和帮扶，为项目建设和企业发展创造良好环境。', '在区人民医院，邱文双实地查看了疫情防控措施落实情况，听取相关工作汇报，就做好下一步工作提出具体要求。他指出，当前，疫情防控形势依然严峻复杂，各相关部门要统一思想、提高认识，始终绷紧疫情防控这根弦，严格落实常态化防控措施，从严从紧抓好疫情防控各项工作。要强化疫情期间医疗服务管理，在满足群众基本就医需求的同时，切实增强医护人员和患者的防护意识，确保安全万无一失。要加强基层医疗卫生机构标准化和规范化建设，不断提升基层医疗服务能力，夯实疫情防控基层基础，切实维护广大群众生命安全和身体健康。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>7</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>邯郸市委统战部考察团来邢考察学习</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202207/t20220720_641088.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['（记者马维勇）7月18日，邯郸市委常委、统战部部长张跃峰，邯郸市政协副主席、市工商联主席曹淑霞率队来邢考察学习政企沟通、依法管理宗教事务等工作。市委常委、统战部部长冯亚强，市政协副主席、市工商联主席王建江陪同考察。', '座谈会上，我市介绍了相关工作举措，双方进行了交流发言，并参观了纳科诺尔精轧科技股份有限公司、邢台大开元寺等地。考察团一行对我市统战工作特色亮点和经验做法表示赞赏。', '考察团认为，近年来，邢台市统一战线坚持突出重点、破解难点、打造亮点，扎实做好“聚共识、保稳定、促发展”工作，在服务中心大局中积累了许多好经验、好做法，值得邯郸深入学习借鉴。大家一致表示，要充分消化吸收，加强对标学习，推动工作提质增效。', '冯亚强表示，邢台市委统战部、市工商联通过民营企业家“圆桌会议”搭建了政企沟通协商平台，聚焦共性问题，推动服务“落地”，抓住了促进民营企业发展的牛鼻子，产生了良好效果。同时，通过提升基层业务能力、调动群众积极性、加强部门协作，全方位推进依法管理宗教事务。今后，希望两地在统战工作中进一步加强沟通交流，在更多领域深化合作，共同开创统战工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>7</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>邱文双在南和区督导调研时强调加快推进重点</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2022-03-31</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202203/t20220331_626877.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['（记者马维勇）3月30日下午，市政协主席邱文双到南和区督导调研项目建设、疫情防控等工作。市政协秘书长张辉一同参加活动。', '邱文双先后深入润沃智慧物流（邢台）产业园项目、华兴宠物食品精深加工项目、河北北和包装彩印基地二期项目、河北荣喜高档宠物食品项目、格力中铁飞豹物流项目施工现场，详细了解项目建设进度、远景目标、产品创新等情况，鼓励企业要积极考察学习和借鉴外地先进经验，持续增强研发和自主创新能力，不断提升产品核心竞争力。邱文双强调，要更好统筹疫情防控和经济社会发展，加快推进项目建设，着力引进和扶持一批骨干企业、龙头企业，培育发展新动能。要结合自身产业基础，做好延链补链强链文章，充分发挥重点项目支撑带动作用，加快构建特色鲜明、链条完备的现代产业体系。相关单位要加强包联和帮扶，努力为项目建设和企业发展创造良好环境。', '在南和区人民医院，邱文双实地查看了疫情防控措施落实情况，认真听取相关工作汇报，就做好下一步工作提出具体要求。他指出，当前，疫情防控形势依然严峻复杂，各级各部门要统一思想、提高认识，始终绷紧疫情防控这根弦，严格落实常态化防控措施，从严从紧抓好疫情防控各项工作。要强化疫情期间医疗服务管理，在满足群众基本就医需求的同时，切实增强医护人员和患者防护意识，确保安全万无一失。要加强基层医疗卫生机构标准化和规范化建设，不断提升基层医疗服务能力，夯实疫情防控基层基础，切实维护广大群众生命安全和身体健康。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>7</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>新疆巴州考察团来我区考察</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022-02-26</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/202203/t20220302_623586.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['（记者杨欢 齐春佳）2月25日，新疆巴州党委副书记、省援疆指挥部指挥长徐付军率巴州考察团一行来我区考察。区委副书记、政府区长张守锋，区委常委、组织部部长李宇晓参加考察活动。', '2月25日，新疆巴州党委副书记、省援疆指挥部指挥长徐付军率巴州考察团一行来我区考察。区委副书记、政府区长张守锋，区委常委、组织部部长李宇晓参加考察活动。', '考察团先后深入农业嘉年华、华兴宠物食品、宠物产业奥特莱斯、金沙河面业等地实地考察，听取相关情况介绍，详细了解我区特色产业、农业、旅游业发展条件、现状、营收及取得的成果。', '考察团一致认为，此次来南和考察学习，通过实际查看和对接交流，进一步开阔了视野、拓展了思路，获益良多。表示一定把本次考察过程中看到的、听到的、学到的宝贵经验和成功做法带回去，认真学习借鉴。希望以此次考察学习为契机，进一步加强两地交流合作，互惠双赢，开创合作发展新局面，为两地经济社会发展作贡献。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>7</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>清河县考察团来任泽区考察调研工业企业发展</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022-02-25</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202202/t20220225_623194.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['2月22日，清河县委书记张剑，县委副书记、县长闫恒卓，县政协主席解恭朝带领清河县考察团来任泽区考察调研工业企业发展和生态文明城创建工作。邢台市任泽区委书记杨蕾，区领导赵凤山、孙密申、周振鹏、董春国、杨现军、骆军峰陪同调研。 清河考察团一行先后深入河北华密新材科技股份有限公司、河北永明地质工程机械有限公司、邢州湖、牛尾河带状公园、劳动公园、人民公园等地进行实地参观考察。每到一处，考察团一行都认真听取相关负责人的介绍，详细了解任泽区产业规模、生产情况、经营现状以及城市规划、生态文明城创建等经验做法，并深入车间一线，观摩生产流程，与企业项目负责人进行沟通交流，详细了解企业各重点项目的产值收入、研发成果、市场销售和经营管理等情况，就关心的问题进行交流探讨。 张剑表示，任泽区城市规划建设和生态文明城创建工作取得的成就引人瞩目，令人振奋，在城市建设上，生态文明城创建工作目标明确、工作扎实、氛围浓厚，成效显著。在经济发展上，任泽区以实施现代化产业之城建设工程为抓手，大力实施优质企业梯度培育工程和产业再造工程，推进产业基础高级化、产业链现代化，不断推动两大主导产业转型升级，打造产业发展新高地，促进了任泽区经济和社会的全面发展。任泽区有许多值得借鉴的经验做法，对推进清河县相关工作具有重要的参考和借鉴意义。此次考察学有所获，不虚此行，清河县将以此次考察学习为契机，认真学习任泽区在产业发展、生态文明城创建和城市规划等方面的好经验、好做法，理清思路，形成共识，结合本县实际情况，发挥优势促发展，促进本地经济和城建工作取得新成效。 杨蕾对清河县考察团的到来表示热烈欢迎，并详细介绍了任泽区经济社会发展和城市建设情况。她表示，近年来，任泽区认真贯彻中央和省、市一系列决策部署，确立了建设现代化“智造绿都、和合任泽”的发展目标，大力实施“一主两融五城八突破”的经济社会发展总体思路，成功创建了“国家园林县城”“省级森林城市”“省级洁净城市”“省级生态园林城市”，交出了一份精细精致的城建答卷。在产业提档升级方面，任泽区统筹做好传统产业“补考”与新兴产业“赶考”文章，持续强化“项目为王、企业为本”理念，全力抓投资、上项目、促发展，全面打造产业发展新高地，力争在高质量赶超发展赛道上跑出任泽“加速度”。杨蕾真诚希望清河、任泽两地以此次考察调研为契机，密切交流，相互学习，携手并进，共同推动各项工作顺利开展，促进经济社会发展实现新跨越、夺取新胜利，答好高质量赶超发展的时代答卷。', '2月22日，清河县委书记张剑，县委副书记、县长闫恒卓，县政协主席解恭朝带领清河县考察团来任泽区考察调研工业企业发展和生态文明城创建工作。邢台市任泽区委书记杨蕾，区领导赵凤山、孙密申、周振鹏、董春国、杨现军、骆军峰陪同调研。', '清河考察团一行先后深入河北华密新材科技股份有限公司、河北永明地质工程机械有限公司、邢州湖、牛尾河带状公园、劳动公园、人民公园等地进行实地参观考察。每到一处，考察团一行都认真听取相关负责人的介绍，详细了解任泽区产业规模、生产情况、经营现状以及城市规划、生态文明城创建等经验做法，并深入车间一线，观摩生产流程，与企业项目负责人进行沟通交流，详细了解企业各重点项目的产值收入、研发成果、市场销售和经营管理等情况，就关心的问题进行交流探讨。', '张剑表示，任泽区城市规划建设和生态文明城创建工作取得的成就引人瞩目，令人振奋，在城市建设上，生态文明城创建工作目标明确、工作扎实、氛围浓厚，成效显著。在经济发展上，任泽区以实施现代化产业之城建设工程为抓手，大力实施优质企业梯度培育工程和产业再造工程，推进产业基础高级化、产业链现代化，不断推动两大主导产业转型升级，打造产业发展新高地，促进了任泽区经济和社会的全面发展。任泽区有许多值得借鉴的经验做法，对推进清河县相关工作具有重要的参考和借鉴意义。此次考察学有所获，不虚此行，清河县将以此次考察学习为契机，认真学习任泽区在产业发展、生态文明城创建和城市规划等方面的好经验、好做法，理清思路，形成共识，结合本县实际情况，发挥优势促发展，促进本地经济和城建工作取得新成效。', '杨蕾对清河县考察团的到来表示热烈欢迎，并详细介绍了任泽区经济社会发展和城市建设情况。她表示，近年来，任泽区认真贯彻中央和省、市一系列决策部署，确立了建设现代化“智造绿都、和合任泽”的发展目标，大力实施“一主两融五城八突破”的经济社会发展总体思路，成功创建了“国家园林县城”“省级森林城市”“省级洁净城市”“省级生态园林城市”，交出了一份精细精致的城建答卷。在产业提档升级方面，任泽区统筹做好传统产业“补考”与新兴产业“赶考”文章，持续强化“项目为王、企业为本”理念，全力抓投资、上项目、促发展，全面打造产业发展新高地，力争在高质量赶超发展赛道上跑出任泽“加速度”。杨蕾真诚希望清河、任泽两地以此次考察调研为契机，密切交流，相互学习，携手并进，共同推动各项工作顺利开展，促进经济社会发展实现新跨越、夺取新胜利，答好高质量赶超发展的时代答卷。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>7</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>邢台市任泽区委书记杨蕾带队到宁晋县考察学</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202201/t20220119_619108.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['1月13日，邢台市任泽区委书记杨蕾带领考察团到宁晋县考察学习。区委常委、办公室主任周振鹏，区委常委、统战部长李素霞，副区长骆军峰及区直有关部门、乡（镇、区）主要负责同志一同参加考察学习活动。', '宁晋县委书记王涛，县委常委、统战部长刘雪敏，县委常委、办公室主任张康宁，副县长李刚参加相关活动。', '考察团一行先后到宁晋县晶澳太阳能有限公司、玉锋实业集团、凤凰公园、体育公园、泥坑酒业、东城光伏产业园、贾家口镇小刘村由由种植专业合作社、明达线缆集团有限公司等地进行深入细致的了解。双方边走边交流，每到一处，考察团成员都与相关单位负责人深入沟通，了解宁晋县各项工作的做法和经验。', '王涛代表县委县政府对任泽区考察团的到来表示欢迎。他指出，换届以来，宁晋县委县政府叫响“三年工作一年干”，瞄准率先建成邢台副中心城市、冀中南先进制造业高地、全国乡村振兴先行区“三个定位”，全力开展“六大攻坚行动”，全县经济持续向好，城市管理实现新跨越，跑出了高质量赶超发展的“加速度”。希望以此次参观考察为契机，进一步深化两地的交流合作，筑实两地友好往来的桥梁，共谋发展，共促进步，推动两地各项工作再上一个新台阶。', '王涛代表县委县政府对任泽区考察团的到来表示欢迎。他指出，换届以来，宁晋县委县政府叫响', '杨蕾表示，宁晋县经济社会各项事业不断创新、特色突出，取得了显著成果。特别是通过此次参观考察，宁晋县在项目建设、城市建设、乡村振兴、特色产业集群等方面的发展给任泽区留下了深刻印象，为任泽区发展提供了有益借鉴。任泽区将找差距、查原因、学经验，将学习成果转化为实际工作效能，推动任泽区经济社会各项事业高质量赶超发展。', '宁晋县经济社会各项事业不断创新、特色突出，取得了显著成果。特别是通过此次参观考察，宁晋县在项目建设、城市建设、乡村振兴、特色产业集群等方面的发展给任泽区留下了深刻印象，为任泽区发展提供了有益借鉴。任泽区将找差距、查原因、学经验，将学习成果转化为实际工作效能，推动任泽区经济社会各项事业高质量赶超发展。', '杨蕾强调，2022年是任泽区“抓投资上项目促发展建设年”，全区全域全员要主动投身经济建设主战场，确保项目工作强势开局。各级各部门不仅要牢固树立仰望星空立远志的看齐意识，对标对表宁晋等兄弟县市区的各项工作，找准自身差距精准发力，还要牢固树立脚踏实地再起航的实绩意识，坚持目标和问题导向，立足本职工作，及时补齐短板，以强烈的责任意识，踏踏实实地把各条线工作干出成效。要善于总结发现工作中的新情况、新问题，加强分析研判，把准脉搏“对症下药”，理清工作思路，科学采取措施，为加快建设现代化“智造绿都 和合任泽”贡献力量。', '2022年是任泽区“抓投资上项目促发展建设年”，全区全域全员要主动投身经济建设主战场，确保项目工作强势开局。各级各部门不仅要牢固树立仰望星空立远志的看齐意识，对标对表宁晋等兄弟县市区的各项工作，找准自身差距精准发力，还要牢固树立脚踏实地再起航的实绩意识，坚持目标和问题导向，立足本职工作，及时补齐短板，以强烈的责任意识，踏踏实实地把各条线工作干出成效。要善于总结发现工作中的新情况、新问题，加强分析研判，把准脉搏“对症下药”，理清工作思路，科学采取措施，为加快建设现代化“智造绿都 和合任泽”贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>7</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>县人大常委会主任谷荫荣带队赴清河对汽车及</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022-02-24</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/wx/202202/t20220228_623381.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['2月23日，县人大常委会主任谷荫荣带领县汽车及零部件产业集群专班相关人员赴清河县考察学习。县领导张成宝、潘延彬和县人大办、开发区、发改局、梨元屯镇、常庄镇、汽配协会主要负责同志参加活动。鹏指出', '谷荫荣一行实地参观了清河规划馆、小微企业服务中心、一站式服务中心，汽配科创园、汽车研究院、亿利康纳利亚、领途公司、力派公司，认真学习汽配企业发展的先进理念和做法。', '在座谈会上，谷荫荣一行认真观看了清河形象宣传片，听取了清河县汽配产业发展情况介绍，认为参观学习触动很大，开阔了眼界、增长了见识，感受到了前所未有的强烈震撼和压力。清河县持续优化营商环境，坚持“企业至上”、“精准服务”、“集约升级”、“技术创新”的理念以及扶持引导汽配企业发展的经验做法，具有很强的借鉴意义。', '谷荫荣指出：汽车及零部件产业集群是我县与清河捆绑并列入省重点的产业集群。我县与清河毗邻，汽配产业同时起步，近些年无论产业规模、档次、链性等方面都与清河拉开了差距。我们必须正视差距，找准定位，加快发展、阔步追赶。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>7</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>政协宁晋县第十四届委员会常务委员会工作报</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022-01-28</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202201/t20220128_620579.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['政协宁晋县第十四届委员会常务委员会工作报告(摘要） ——在政协宁晋县第十四届委员会第二次会议上', '在中共宁晋县委坚强领导下，县政协常委会以习近平新时代中国特色社会主义思想为指导，对标对表，创新创业，圆满完成了一次会议确定的各项任务目标，为全县经济社会高质量赶超发展作出了政协贡献。', '中共宁晋县委高度重视政协工作，多次听取政协工作汇报，研究有关重大事项。王涛同志多次给政协出题目、交任务、压担子、给指导，充分肯定政协的工作成绩，称赞政协进入角色快、开局起步好。刘志奇同志大力支持政协履职，多次给予政协具体指导，积极为政协开展工作创造良好条件。就政协报送的协商建议和调研报告，县委、县政府领导同志作出批示36件次，一批协商成果转化为推动经济社会发展的决策部署，多次得到市政协邱文双主席充分肯定，在全市政协作典型发言2次，增补市政协委员1名，新增市政协兼职副主任1名，3人荣获“优秀市政协委员”称号，7人被聘为市政协民情观察员，做到开局有力有效、创新创业。', '旗帜鲜明讲政治，把党的领导贯穿于政协工作全过程各方面。认真贯彻落实王涛书记到政协机关调研讲话精神，扎实开展全体委员参加党史学习教育。形成党组会议“政治学习一刻钟”，主席会议、常委会议定期通报学习市政协会议精神、县委常委会和县政府常务会精神工作惯例。自觉把政协事业放到全县大局中谋划推进，贯彻“服务中心、团结民主、包容豁达、监督务实”十六字工作方针，始终做到党委政府工作推进到哪里，政协工作就跟进到哪里、力量就汇聚到哪里。', '率先在全市拉开整县编纂村史村志大幕。坚持高位推动。成立村史村志编纂工作领导小组，王涛书记担纲组长，志奇县长担任第一副组长，领导小组下设工作专班具体组织推进。发动社会参与。隆重召开全县村史村志编纂启动大会，宁晋籍在外老乡特别是人民英雄张伯礼院士、中部战区王成蔚将军等纷纷祝贺，社会各界广泛参与，编纂队伍突破500人，河北蓝天塑业、褚家庄卫生室赵国敏等企业个人纷纷出力，群众参与度高。组织梯次推进。立足实际，不搞“一刀切”，推动“强村精修、大村大修和条件成熟的村先修”，注重培树典型，组织先行带后进，工作进度快。深入一线指导。县政协领导带领专家指导组和专班成员30多次现场指导，东汪、河渠、苏家庄、大陆村等乡镇已经全镇启动，工作成效明显。如今，全县实质性启动村由当初确定的64个增加到151个，市方志办孟朋文主任亲自担纲河渠镇马房村指导专家，部分村开始着手建设村史馆，部分村名木古树等得到进一步保护，一大批史料正在筹集，全县干部群众纷纷点赞助力。', '打造“宁晋工笔画”靓丽名片。河渠工笔画特色小镇建设方面。在克栋书记具体领导下，运亮部长、军伟县长等先后四次组织协调落实准备工作，同时按照县委政府主要负责同志要求，坚持自主设计，推进分批投入，加快用地落实。宣传、文旅、文联、教育、发改、城管、财政、农业农村、乡村振兴、工会、残联、融媒体和河渠镇等单位，积极发挥各自职能作用和部门优势，在项目、资金和人员上倾力支持、积极推进。目前已初具面貌，思路清晰，推进加速。工笔画水平提升方面。高规格召开宁晋工笔画发展大会，中国工笔画学会会长、中国美术家协会理事陈孟昕，北京画院副院长、中国美术家协会理事莫晓松等业内专家，省政协副主席、省文联主席边发吉、省文联副主席、美协主席祁海峰、市政协主席邱文双等省市领导，8家省市、3家专业媒体莅临会议，中国“工笔画名县”“中国工笔画宁晋写生创作培训基地”正式揭牌，中国工笔画学会与县政府签约帮扶文化事业发展协议，在业内引起强烈反响。', '大力实施“三百”活动。发动百名委员引进、新上、技改一批好项目、大项目；百名委员结合乡村振兴，兴办一批实事好事，结对帮扶一批困难家庭、困难学生；百名委员联络、引进一批人才，打造助力宁晋发展的人才库。目前，促成落地项目6个、投资意向21个、帮扶困难学生34名，促成修补道路、资助贫困、敬老孝老等62项公益活动，引起较大社会反响。其中，委员雷文康主持投资500万元的1.6MW屋顶分布式光伏发电项目建设，李立卫投资120万元自主筹建养老院，孟琴峰为西丁村广场安装路灯获人民政协报点赞，张慧联络国内外名牌大学研究生10多名，作出了突出贡献。', '提案办理迅速高效。志奇县长批示要求，各副县长领办分管条线重点提案，并参加重点提案办理协商会，确保百分百办结，百分百满意。对反映集中、呼声强烈的教育类、农业农村类提案开展办理情况“回头看”，先后组织召开交管口、教育口、民政口、农业农村口、城建口等五次集中面复督办会，一次全会交办的241件提案全部办理，政协委员纷纷点赞县委政府民主务实。', '调研视察精准有力。在组织相关单位奔赴多地外出考察学习的基础上，形成《关于推进我县文化事业产业发展的调研报告及几点建议》、《宁晋工笔画发展报告》等，积极为我县文化建设建言献策。围绕群众关注的热点难点问题，先后组织委员对体育馆、第十中学、中曹中心学校等项目建设情况以及小刘村、连邱村等农村人居环境整治和特色产业发展情况进行视察，积极当好重点项目的监督者和民生实事的推动者。', '自身建设充实完善。创建委员活动小组。积极破解“年委员”问题，设立9个常态化履职小组，首次活动共同学习党的十九届六中全会精神，同时结合优势特色开展形式多样的履职活动，如经济界小组围绕招商选资、项目建设召开专题座谈会，工青妇、民族宗教小组学习交流习近平总书记在党外人士座谈会重要讲话精神心得，初步形成百花齐放的履职态势；开展集中述职。先后组织开展机关科级干部和教育界委员、农业农村界村支部书记、部分政协常委等四场述职活动，张香芝、张会同、汪进等委员的发言赢得阵阵掌声，现场测评获得高分，政协队伍总体述职率达到20%，争取3月上旬完成整个委员述职工作，进一步增强政协凝聚力、战斗力；完善运行机制。审议通过常委会、全委会、协商工作三规则和常委、委员两守则，进一步修改后要在2月份正式下发，初步完成加强政协系统党的建设和委员考核管理两个制度体系建设，制定执行《进一步优化政协机关工作流程的规定》，整体运行水平更高。', '一次全会期间正值我县抗洪救灾紧急关头，利用会议间隙在全县率先发出参与抗洪救灾号召，广大委员主动响应，两天收到自愿捐款折合41万元，累计捐款捐物160多万元，政协力量精彩有力地展现在全县人民面前。充分发挥政协委员人才荟萃、智力密集优势，先后3次组织卫生界委员到纪昌庄等乡镇开展“义诊服务进基层”活动，累计义诊380人次。', '2022年是“十四五”规划实施的关键一年，也是实现经济社会高质量赶超发展的突破之年。今年工作总体要求是：以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大和 十九届历次全会精神，全面落实《关于加强和改进新时代市县政协工作的意见》，在中共宁晋县委坚强领导下，坚持“有利于推动县委县政府工作，有利于提树政协形象”“两个有利于”工作理念，实施“123321”整体工作思路，围绕中心、服务大局，协商于民、协商为民，为宁晋现代化高质量赶超发展集聚众智、汇聚众力。', '围绕一条主线：加强党的领导。以习近平新时代中国特色社会主义思想为指导，按照市政协加强党的建设的做法，全面构建自上而下的政协党组织架构，一体化推进“委员活动室”和“党员活动室”建设，争取今年5月底竣工，在全县高质量赶超发展中显担当、做贡献、树形象。', '抓好两项重点工作：村史村志编纂和工笔画高质量发展。在前期151个村的基础上，再启动150个村以上，推动启动率达到85%以上。整合各方优势资源，争取9月15日前完成河渠工笔画小镇建设；坚持请进来、走出去，结合中国工笔画学会开展系列高端培训、交流学习、专业画展，提高创作水平，弥补山水画、书法短版。', '聚焦三大领域：经济、人才、文化。以“三百”活动为抓手，充分发挥政协人才荟萃、联系广泛的优势，推动活动取得成效。聚焦经济建设。支持广大委员积极参与招商选资和项目建设，为全县经济高质量发展增砖添瓦；做好人才工作。鼓励支持委员联系服务县内外科技、教育、卫生、文艺界精英、专家学者、高级知识分子，做好宁晋人才桥梁纽带，协助县委政府做好人才工作；注重人文打造。推动中华优秀传统文化传承，弘扬社会主义核心价值观，打造书香政协、文化宁晋，持续推动以石坊路、宁纺碑廊等为代表的有本土印记的老街古巷、建筑遗址得到有效保护、适度恢复，保留乡愁印记、提升宁晋品味。', '履行三项职能：政治协商、民主监督、参政议政。强化政治协商。选择“小切口、大影响”的课题，深入推进电缆电缆产业提档升级、特色产业和中医药发展等视察调研，推进协商议政；强化民主监督。开展专题民主监督，改进监督方式方法，促进监督成果转化，促进县委决策部署落实落地；强化参政议政。推行“五个一”调研模式，即“一次调研、一次对标学习、一次专题讲座、一份调研报告、一份落实情况反馈，同时积极推进民主咨政员、民情观察员、特邀监督员“三员”建设，提高议政水平。', '加强两支队伍建设：委员队伍和机关干部队伍。严格执行常委会、全委会、协商工作三规则和常委、委员两守则，健全完善委员履职档案管理制度、委员年度述职制度和委员履职考核管理办法，提高政协运行规范化水平。强化考核管理结果运用，在全会期间表彰“模范政协委员”“提案工作先进个人”“光彩事业先进个人”，加强委员培训，强化反映社情民意信息工作，发挥委员主体作用。设置专委会兼职副主任，把政协委员中的鲜活力量充实到机关建设之中。发挥专委会委员智力密集的优势，组织下乡活动，切实服务群众。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>7</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>市市场监管局召开年度工作述职汇报会议</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022-01-31</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jcj_2435/202201/t20220131_620952.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['1月27日，市市场监管局召开2021年度机关及所属单位工作述职会议，对2021年工作进行总结，对当前市场监管和稳定工作进行安排部署。市局机关各科室、各所属单位负责人参加述职报告。市局党组书记、局长赵志华主持会议并进行点评。按照疫情防控工作要求，参会人员分两个会场开会。', '市局党组书记、局长赵志华在点评中指出，2021年，全市市场监管系统立大格局、树进取心、施非常策、兴落实风，守住了安全底线，提升了质量高线，以最严监管、最优服务，全力推动经济社会高质量赶超发展。市委、市政府主要领导先后26次对市场监管工作批示肯定，11项工作在全省市场监管系统实现了“保五争三拼第一”，6项工作被国家总局、省局通报表扬。述职报告会议提供了相互交流、学习的机会，开阔了眼界、拓宽了思路，有助于各科室、各单位取长补短，促进全局工作再上新台阶。', '一、抓班子、带队伍，打造市场监管铁军。政以才治，业以才兴。事业发展关键在人，关键在精神状态。一是带出精气神，激发干事创业热情。要保持“事争一流、迎难而上”的精神状态，调高标尺、严格要求，一切工作都要与市委、市政府和省局的要求对标对表，敢啃硬骨头、善打攻坚战，只为成功想办法，不给困难找理由。要树立“如履薄冰、如临深渊”的底线思维，要居安思危，绝不能因为表面风平浪静就掉以轻心，绝不能因为形势有所好转就麻痹大意，绝不能因为心存侥幸而无视风险隐患，绝不能习惯于形式主义的自娱自乐、满足于形式上抓了而不问实效、无视风险积累。切实把“严”的主基调贯彻到日常工作中，要敢于刀刃向内、根治“庸懒散乱”。 局党组将大力治“庸”，树立勇于担当、创新作为的良好导向；治“懒”，树立层层把关、真抓实干的良好导向；治“散”，树立遵章守纪、各司其职的良好导向；治“乱”，树立风清气正、积极向上的良好导向，促进工作全面提质增效。二是狠抓学习培训，提高依法履职能力。抓不抓落实，检验的是思想和站位；能不能抓好落实，考验的是能力和水平。要加强学习培训，克服本领恐慌，本着“干什么学什么、缺什么补什么”，因材施教、分批分类，培养执法监管、抽样检验、法律法规等领域的专家型人才。要坚持“请进来、走出去”，解放思想，去沿海先进地区考察学习，找差距、取真经、学方法，制定和完善符合本地实际的工作思路、目标，做到“为我所用” 要坚持“传帮带”，科长和老同志要以身作则，面对面传、手把手教，把好经验、好做法传授给年轻干部，帮助全面提升、快速成长。要以身作则、以上率下，把敢于吃苦、乐于奉献、忠于职守、严谨认真、爱岗敬业的工作作风传下去，教育引导广大年轻干部只争朝夕、事争一流，夙兴夜寐、激情工作，让干事创业、奋勇争先在市场监管系统蔚然成风。三是要落实“一岗双责”，确保“两个安全”。 要全面加强党风廉政建设，深入贯彻落实中央纪委十九届六次全会精神，以队伍廉洁保证监管权威，为监管工作提供坚强的政治保证。要严格落实八项规定要求，不该吃的饭坚决不吃,不该收的礼坚决不收,不该去的地方坚决不去,不该做的事情坚决不做,不给全局抹黑，不给系统添乱。', '二、守土有责、勇于担当，全力做好当前市场监管工作。要增强政治意识、大局意识、责任意识，明确监管重点，细化监管措施，砸实监管责任，确保当前市场监管各项工作取得实效。疫情防控方面。要站在讲政治的高度，督促食品生产经营者严格落实“三专、三证、四不”要求，对未录入河北冷链追溯系统以及没有追溯码的严禁入市销售和生产使用。要定期开展风险排查，对发现的风险隐患要制定有针对性的整改措施，并建立问题整改台账，逐一督促整改销号。食品安全方面。要以旅游景区、高速公路服务区、大型超市、餐饮单位、集贸市场等为重点单位，以肉及肉制品、酒类、乳制品、粮油等热销食品为重点品种，严格排查食品安全隐患，深入推进“山寨”食品专项整治，严厉打击生产销售“三无”食品行为。药械、化妆品安全方面。重点对城乡结合部药店、诊所，以及基本药物、中药注射剂、疫苗、血液制品等高风险药品，无菌和植入类器械等高风险医疗器械的监督检查，严查非法渠道购销药品等行为。特种设备安全方面。重点对交通枢纽、大型商场、餐饮单位、旅游景区的客运电梯，游乐场所的大型游乐设施、客运索道等特种设备进行监督检查，督促落实主体责任，确保春节期间全市不发生特种设备安全事故。工业产品质量安全方面。对节日热销产品，特别是儿童用品、电子电器、烟花爆竹等产品，加强质量跟踪监测。对质量安全问题较突出的农村集贸市场、小商店、小超市等，集中开展专项整治。对危险化学品等涉及公共安全的重要工业品，加强风险研判和预警，强化隐患排查治理。计量器具方面。对大型超市、集贸市场电子秤，对加油站、眼镜店、出租车计价器等场所的计量器具进行全面排查，确保准确可靠，依法保护消费者合法权益。价格监管方面。加强旅游景点价格行为监督检查，重点查处景区违法违规价格行为；加强生活必需品价格监管，保障居民生活必需品市场价格基本稳定；加强商贸流通领域价格监管，督促经营者严格履行价格承诺。消费者合法权益保护方面。充分发挥12315投诉举报平台作用，及时受理、依法处理春节期间消费者投诉举报。对群众反映集中、媒体高度关注的问题，立即组织专项检查，及时回应社会关切。', '三、加强值守，做好应急处置和信访稳定工作。一是做好值班值守工作。要严格执行24小时领导带班和值班人员值班制度，确保全天候电话畅通和各项工作正常运转。带班领导必须24小时在岗带班，严格履行职责。二是做好应急处置工作。要完善应急处置机制和各类应急预案，加强力量部署和装备配备，做好充分的应急处置思想、人力和物资准备，确保一旦发生突发事件能够快速反应，及时妥善应对。三是做好信访稳定工作。要强化机关内部管理，严禁公车私用，节日期间公务车辆全部封存，按照规定地点统一停放。要加强机关安全保卫，防火、防盗、防泄密、防突发事件。要完善信访接待制度，畅通信访渠道，切实做好来访接待、劝返接回等工作，妥善处理和解决好各类信访问题。要深入开展矛盾纠纷排查，特别是对重点部门、重点人员的排查，将问题解决在萌芽状态，确保春节期间不发生进京上访，不发生重大群体性事件。', '四是狠抓落实，确保一季度工作实现开门红。要坚持稳中求进总基调，统筹“大市场、大质量、大监管”，优化营商环境，维护公平竞争秩序，推进质量提升，守住安全底线，保护消费者合法权益，强化信用监管、智慧监管，强化基层规范化建设，不断提升市场监管治理体系和治理能力现代化水平，为加强建设现代化经济强市、美丽邢台做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>7</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>凤凰镇组织参观羊肚菌和草莓种植</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202201/t20220119_619169.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['日前，凤凰镇组织11个农业大村的村支部书记和4家合作社负责人，到刘路村盛吉顺食用菌种植合作社、贾家口镇小刘村由由合作社考察学习。', '在盛吉顺合作社，考察组听取了负责人关于盛吉顺合作社的种植模式和大棚的投资、盈利情况介绍。盛吉顺合作社采用“公司+合作社+种植户”的管理模式，平均亩产达到1300斤，每亩净收入可达4万元。', '在小刘村由由合作社，考察组了解了合作社的发展史和“支部组织、村委管理、村民入股”的管理模式，查看了草莓培育种植情况。小刘村由由合作社流转托管土地1450亩，用于草莓、羊肚菌、银杏树种植，采取统一管理、统一经营、统一销售、股民监督的方式进行管理，入股农户每亩年收入可达2万元。', '考察结束后，大家对小刘村党支部书记李志虎致富不忘家乡、工业反哺农业、科学发展共同致富的事迹所感动，纷纷表示要学习这种精神，积极与先进企业进行对接，借鉴经验做法，引导群众学习种植技术，在增收致富上相互赶超，增加农民收入，助力乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>7</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>任泽区考察团到我县考察学习</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022-01-18</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202201/t20220118_618944.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['1月13日，任泽区委书记杨蕾带领考察团到我县考察学习。县委书记王涛，县委常委、统战部长刘雪敏，县委常委、办公室主任张康宁，副县长李刚参加相关活动。', '考察团一行先后到我县晶澳太阳能有限公司、玉锋实业集团、凤凰公园、体育公园、泥坑酒业、东城光伏产业园、贾家口镇小刘村由由种植专业合作社、明达线缆集团有限公司等地进行深入细致地了解。双方边走边交流，每到一处，考察团成员都与相关单位负责人深入沟通，了解我县各项工作的做法和经验。', '杨蕾表示，宁晋县经济社会各项事业不断创新、特色突出，取得了显著成果。特别是通过此次参观考察，宁晋县在项目建设、城市建设、乡村振兴、特色产业集群等方面的发展给任泽区留下了深刻印象，为任泽区发展提供了有益借鉴。任泽区将找差距、查原因、学经验，将学习成果转化为实际工作效能，推动任泽区经济社会各项事业高质量赶超发展。', '王涛代表县委县政府对任泽区考察团的到来表示欢迎。他指出，换届以来，宁晋县委、县政府叫响“三年工作一年干”，瞄准率先建成邢台副中心城市、冀中南先进制造业高地、全国乡村振兴先行区“三个定位”，全力开展“六大攻坚行动”，全县经济持续向好，城市管理实现新跨越，跑出了高质量赶超发展的“加速度”。希望以此次参观考察为契机，进一步深化两地的交流合作，筑实两地友好往来的桥梁，共谋发展，共促进步，推动两地各项工作再上一个新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>7</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>平乡县发改局科技组织规上企业赴清河考</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021-12-23</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/202112/t20211223_615634.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['2021年12月16日，平乡发改局（科技）联合邢台市盛龙连邦软件公司组织规上企业14家赴清河县承渥企业技术研修中心考察学习精益管理。', '大家首先对培训场地进行了参观。承渥▪汇智于2019年建设成立承渥企业管理技术研修中心，占地1300平，是河北省首家企业管理技术研修中心。姜鹏老师详细介绍了各种培训场地，对应企业管理培训的内容。重点解析建立高效可执行的主流程体系和工厂科学规划。姜老师把枯燥的专业术语融入通俗易懂的邢台语言，生动形象的讲解降本增效，用接地气的实际的案例展示课程效果。', '大家就精益管理在自己企业存在的问题进行深入的沟通。经过培训和交流，大家都学到不少管理知识和管理经验，认为精益管理是未来企业管理方向，此次学习之行受益匪浅，对科技部门组织引导表示好评和感谢。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>7</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>市生态环境局考察组赴雄安新区学习水生态环</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2021-12-23</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/hjbhj/202112/t20211224_615664.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['12月22日，市生态环境局组织清河、新河、宁晋等县（市、区）赴雄安新区考察学习水生态环境治理先进经验，进一步开拓治水思路，提升水环境治理效能。', '考察组围绕水生态环境治理总体思路、水生态环境治理主要内容及治理技术，实地踏查了白洋淀府河入淀口湿地项目情况和国考断面水质保障工作，与当地生态环境部门有关负责同志就“三水统筹”等工作进行了交流，详细了解了当地水环境治理经验做法，并听取意见和建议。', '考察组成员一致表示，通过此次考察，在观摩中拓宽了视野，在交流中明晰了思路，在对标中鼓足了干劲。下一步，将把考察学习的成果体现到具体工作中，系统性推进全市水生态修复和保护，提升河道科学化治理水平，坚决打赢水污染防治攻坚战，切实改善全市水生态环境质量。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>7</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>南宫市职教中心组织年度高素质农民新型</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2021-12-23</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/sjyj/202112/t20211224_615814.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['日，南宫市2021年度高素质农民新型经营主体培训班开班仪式在南宫市职教中心新实训楼七楼党员活动室举行，', '市农业农村局相关负责人、职教中心负责人及来自各乡镇的农民合作社代表、家庭农场主、种养大户、小微农企共60余人参加了开班仪式。', '市农业农村局相关负责人、职教中心负责人及来自各乡镇的农民合作社代表、家庭农场主、种养大户、小微农企共', '此次培训内容包括《畜禽规模化养殖与疾病防治新技术》《南宫黄韭产业绿色优质发展》《优质桃病虫害、品质提升》《玉米高效高产增效新技术培训》《农产品短视频+直播》等，充分利用“云上智农”APP在线学习平台，采用“集中培训(11天)+线上学习(32学时)+基地参观+交流分享”的培训模式，为学员量身定制培训课程、培训内容，确保学员看得懂、学得会、用得上。', '校还与农业农村局紧密结合，组织培训学员外出考察学习，先后到河北创高农林有限公司、南宫市棉花原种场、南宫市农民培训基地生产示范场，实地进行观摩，帮助学员增长知识，拓宽视野，学到经验，找到差距，明确方向，增强动力。', '该校将继续加大培训工作力度，拓展培训功能，提升培训能力，多渠道、多形式、多层次开展高素质农民培训工作，为南宫现代农业发展和乡村振兴提供强有力的人才支撑。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>7</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>沙河人荣获河北省人民满意的公务员称</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/shs/202112/t20211217_615135.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['作为文旅兴起型乡村，12月18日，沙河市柴关乡王硇村将迎来沙河市政协组织的“抓党建促乡村振兴实现共同富裕”观摩团。这两天，包村干部柴关乡党委副书记、组织委员胡明英正忙着布置点位、准备展板。', '在同事眼里，胡明英每天像快鞭子紧抽的陀螺似的：操持着观摩事宜，还要和团队策划“醉美柴关”抖音号党的十九届六中全会精神宣传方案。此外，还利用空闲时间赶回乡里处理文件通知、接待来访群众、撰写文字材料……', '胡明英走路风风火火，说话噼里啪啦，皮肤黑不溜秋，每个毛孔都散发着“乡村”气息。14年来，她先后在3个乡镇历练，由一名大学生村官成长为乡镇女干部，变化的是工作地点，不变的是为乡村群众办实事、为乡村发展做贡献的初心。她用脚步丈量民情、用真心服务群众、用实干践行初心，把青春书写在太行山上，让青春之花在大山深处默默绽放。', '如今，提起邢台党建新地标，柴关乡党建主题公园肯定位列其中。它是胡明英带头打造的党建阵地亮点工程，实现了党建教育场所由室内向室外延伸、教育模式由封闭向开放转型、教育对象由党员向群众普及的突破，开辟了山区党建教育实践活动的一块新基地。', '作为柴关乡全域旅游的一张新名片，党建主题公园不时迎来一批批前来接受红色教育的党员群众。“在我看来，做好党建工作，既聚人气更聚民心，可以用有形的阵地凝聚无形的力量，为全面乡村振兴输送强大红色动力。”胡明英清楚知道党建引领聚合力的重要性，自分管柴关乡基层组织工作以来，她就和党建工作负责同志一起想点子，打出党建活动创新“组合拳”，打造党建“新亮点”，还叫响了“柴关党建”品牌，让支部“活”起来，作用“显”出来。', '胡明英谋划开展“柴关好风光党员有力量”主题活动，将党建活动融入亲子教育、凝聚巾帼力量。机关党员引导孩子用五谷杂粮粘党旗献礼王硇红色展馆，王硇村女子民兵班集体绣党旗。在“我爱柴关行”系列活动中，带领党员走遍柴关红色山川，让党员了解柴关、热爱柴关、宣传柴关，人人争当红色讲解员。', '渐渐地，大家对党员活动的态度已由“让我参加”转变为“我要参加”。“柴关党建”引领的凝聚力也日益凸显：“7·19”洪灾时期，全乡党员拧成一股绳，翻山越岭、涉水渡险、徒步进村了解受灾情况，一个月没回过家；为迎接国际公路自行车赛，仅用两天时间，党员就完成35000只风车组装和悬挂的任务；疫情期间，全乡妇女党员干部组建巾帼志愿军，值守、排查、宣传、清扫、慰问一线，撑起战疫“半边天”……', '悬挂在乡办公楼栏杆上的条幅“一群人一件事一条心一起拼一定赢”，折射出柴关乡党员干部的坚定信念。', '2017年，胡明英开始分包王硇村。村里大街小巷、家家户户、山山沟沟，她走了无数遍。只要在王硇，每天微信步数都近2万步。', '作为已经小有名气的旅游村，今后该如何规划发展提升路径，胡明英和村两委干部一直在探索实践。以2018年旅发大会、2019年自行车赛和2020年旅发大会为契机，胡明英带领干部群众建起高标准生态停车场、景区大门、进村桥梁、上山步游道，拆除村内违建、装饰村内广场、提升游客中心、打造非公党建、实行村企共建……王硇发生了可喜的变化。', '与此同时，以红带绿、以旅兴农、以会促建，胡明英和村两委干部还着力打造明清古石楼群、红枫山红叶节、太行山红色堡垒、古村落影视基地等旅游品牌，不仅给村里拉来了人气，还富了村民腰包，助力王硇趟出了一条独具特色的乡村振兴蝶变之路。', '乡村振兴，最大的受益者就是村民。游客多了，村民吃上了“旅游饭”。作为村集体收入，王硇村年景区门票收入最高可达100余万元。', '越来越多的笑容浮现在村民脸上。王延平夫妇经营的绿缘农家饭店，既提供餐饮服务又提供住宿，旺季单日最多可接待旅行团700余人，日常周末接待散客50余人，年收入10万元。', '今天的蝶变不是终点，而是新生活、新奋斗的起点。“得益于胡书记和村干部为我们安排的外出考察学习，我的经营理念也在不断更新。这不，最近想把自家农家乐改造成洋气时髦的民宿，以便吸引更多游客。”说到这，王延平又忍不住夸起了胡明英。', '原来，胡明英得知他的改造需求后，主动帮他联系了一家市区广告公司。眼下广告公司派人来农家乐实地查看后已制作出设计图。“这种新中式设计风格非常符合我的要求，我想趁着冬季旅游淡季赶紧动工开干！”王延平干劲十足地说道。', '在王硇，像这样的农家乐已有10余家。这些农家乐老板急盼王延平的民宿尽快改造出来，他们将参照“样板”升级自家农家乐。致富“比拼”氛围很浓。', '“胡书记千方百计为全村百姓致富想办法、谋出路，让群众有了发展的方向、动力、基础，致富有了底气、振兴有了活力，正在吸引越来越多的外出务工青年回流助力乡村振兴。”王硇村党支部书记王天印告诉记者，已返乡的近60名年轻人已胜任解说员、农家乐老板、景区观光车驾驶员等岗位。', '因为工作，胡明英也曾和村干部红过脸、吵过架、哭过鼻子。用她的话说：“一切都是为了乡村振兴！吵完还是一起并肩作战的兄弟姐妹！”', '酒香也得勤吆喝。胡明英说，柴关乡以乡村旅游为主业，更应加大旅游资源开发、宣传、推介力度，进而持续提升知名度和影响力。', '胡明英和9位年轻同事组建起“柴关乡宣传组”，做美篇、开设“醉美柴关”抖音号、运营“柴关宣传”微信视频号，兼顾图文、短视频和长视频等不同宣传需求。', '虽然大家都是兼职，但胜在有创意、有激情。在胡明英这位宣传组“总策划”的指导下，近1年时间，“醉美柴关”抖音号发布原创视频100多个；仅半年时间，“柴关宣传”微信视频号发布视频60余个。线上传播正在带火柴关旅游景区，挂壁公路、十里荷塘、天机硇隧道、高家大院等都成为游客“网红”打卡地。去年红叶节期间，“醉美柴关”美篇号发布的美篇频频被转发至朋友圈，王硇吸引游客10万人次，创收50余万元。', '近年来，短视频APP层出不穷，用户数量不断攀升，胡明英瞄准短视频短、新、快、奇的特点，从去年红叶节起，策划开展深受游客喜爱的抖音短视频比赛。', '“站在红枫山放眼望去，醉人的红叶就像大自然泼洒的丹青，不需要任何修饰，随便按下快门便是一张颜色炫丽的照片。”曾参加今年“古村红叶”全民摄影、抖音短视频大奖赛的游客李红宇说，把这如同人间仙境的美景录制成短视频发布到抖音，一会就赢来不少点赞。通过这种线下实景体验、线上裂变传播的方式，柴关正在提升景区的美誉度。', '胡明英认为，对于柴关的宣传，应该立足多角度、多层次的立体传播。除了推介美景，也要宣扬柴关人民乐观向上的精气神。', '疫情防控期间，她白天下村防疫，晚上就协调宣传组成员一起总结重点工作，共同挖掘先进事迹，相继推出柴关乡抗疫一线的“夫妻兵”“准军嫂”“小忙人”等系列美篇，谋划了乡村干部的一天、抗疫一线的特殊生日、我替长辈站好岗、雪中防疫人等系列报道，中央、省市级媒体也争相予以报道。', '正如胡明英所料，一批批讲担当、有能力、肯干事的优秀青年，一个个讲奉献、有作为、不惧险的先进典型，为柴关再度增添了厚重感。', '因为热爱所以坚持，14年乡镇工作历练中，胡明英尝遍“酸甜苦辣”，奔走基层依旧笑靥如花。', '“如果我有追求，那就是群众的需求；如果说我有动力，那就是群众的满意”。胡明英满腔热情扎根山区，奉献着光和热。2020年，胡明英被省委组织部选树为2019年度全省党委组织系统“争做人民满意的公务员”十佳个人。今年，被省委组织部评选为第八届河北省“人民满意的公务员”。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>7</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>保定市高阳县定兴县政府考察组来我县考察</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2021-10-14</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qhx/202110/t20211014_608610.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['10月9日，保定市高阳县政府副县长黄旺、定兴县政府副县长刘扬带领相关部门负责同志来我县考察学习城市建设、城市管理等方面工作。副县长王丕全等参加活动。', '考察组先后到羊绒小镇、清凉江生态园、青阳广场、城市规划馆、南冠集团，详细了解我县城市建设、空间布局、景点建设、业态功能、特色产业发展等情况。', '考察组对我县城市建设取得的成果表示赞赏，对加强城市治理力度，提升民众整体素质，挖掘城市优秀文化内核，推动城市建设发展表示认同。认为我县在城市建设方面取得了极大的发展成果，在结合本土实际制定城市发展规划，处理好城市经济发展和环境保护之间关系，印证生态环境是城市管理中极为重要的一环中，工作思路清晰，规划脉络突出，极具学习和借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>7</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>我县到石家庄市长安区考察学习城市建设工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2021-10-18</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202110/t20211018_609038.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['10月16日，县委书记王涛、县长刘志奇带队到石家庄市长安区考察学习城市建设工作的先进经验和做法。王涛强调，学习先进经验，补齐短板弱项，推动城市面貌、品质、功能实现新的提升，让人民群众更有获得感幸福感。石家庄市长安区委书记李强、区长穆德英、副区长郝永志陪同考察。县委常委、办公室主任张康宁、副县长王志辉，相关乡镇、县直单位主要负责人参加活动。', '王涛、刘志奇一行先后到吴兴花园小区、南三条中心广场、范民街、乐仁堂停车场实地参观，现场了解了老旧小区改造、拆违拆迁、小街小巷改造提升、停车场建设等城市建设工作的先进经验和做法。考察过程中，我县考察团边看、边听、边议，双方并就如何进一步推进城市建设工作进行了交流与探讨。', '王涛表示，长安区高效快捷的工作效率、时不我待的干事激情、大刀阔斧的推进城市建设，给我县考察团留下了深刻的印象。要认真学习长安区发展的劲头、创新的理念、务实的作风、改革的勇气，以更有力有效的举措，不断开创我县跨越式发展新局面。希望今后两县（区）能进一步加强在各方面的交流合作，共同推动两地经济社会高质量发展。', '王涛指出，要以此次考察为契机，不断找差距、查原因、学经验，尽快将学习成果转化为实际工作效能，加强城市规划、管理等方面工作，从城市建设细微之处入手，创新工作思路，加大工作力度，坚决做到决心大、行动快、齐心协力，以更加精准的措施、务实的作风推动宁晋城市建设不断迈上新台阶，全力加快“城乡美县”建设步伐。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>7</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>赞皇县人大考察组来我县考察学习</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2021-12-13</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202112/t20211213_614654.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['12月10日下午，赞皇县人大常委会主任宫国恩带领全体班子成员到我县考察学习。县委书记王涛、县人大常委会主任程江峰陪同考察。县领导张康宁、张素彩、蔡同江、薛刚及人大有关科室负责人参加考察。', '赞皇县人大考察组一行首先考察了我县宪法主题公园，详细了解了主题公园的建设初衷、规划设计和管理应用等细节，表示宪法主题公园特色鲜明，设计新颖，布局合理，作用明显，具有非常强的宣传教育作用，返回之后将深入研究借鉴，参照规划建设。随后，参观了晶澳太阳能年产4GW高效太阳能电池项目、玉锋集团、凤来仪酒业和童泰婴幼儿服饰有限公司，程江峰介绍了我县的基本情况及远景规划。', '考察组在了解宁晋相关情况后，对我县产业链发展、高新技术企业、产业结构等给予了高度评价。一致认为，我县工业基础扎实，产业结构合理，发展前景好，是投资兴业的好地方。希望两地加强互联互通，为两地企业交流、合作搭平台建桥梁，实现经济高质量发展。', '王涛就赞皇县人大到我县考察表示热烈欢迎，并表示，宁晋是邢台人口大县、经济强县。今年以来，特别是县委县政府换届以来，紧扣高质量赶超发展目标，叫响“三年工作一年干”，瞄准率先建成邢台副中心城市、冀中南先进制造业高地、全国乡村振兴先行区“三个定位”，走好工业强县、农业稳县、商贸活县、城乡美县“四条道路”，重点抓好农村、城市、开发区“三大阵地”，跑出高质量赶超发展“加速度+”。今后，希望两县之间进一步密切对接合作、增进交流互动，互学互鉴互促，推动两地经济社会发展再上新台阶、新水平。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>7</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>承德市交通运输局党组书记局长于山一行到</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2021-10-14</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qx/202110/t20211014_608688.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['10月13日，承德市交通运输局党组书记、局长于山一行到我区考察学习城乡公交一体化工作。考察组通过实地查看公交调度监控平台、召开现场座谈会等形式，详细了解我区公交运营管理、一体化管护、定制公交等工作开展情况，双方就城际公交客运发展、网络运营、财政补贴机制等开展了深入交流。区政府副区长庞保林陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>7</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>承德市交通运输局来我局考察城际公交运营发</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jtysj/202110/t20211020_609209.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['10月13日至14日，承德市交通运输局党组书记、局长于山，交通运输部公路科学研究院博士李涛，承德公交集团董事长李晓峰等一行，到我局就城乡道路建设、城际公交运营发展进行考察学习。局党组书记、局长蒋九芳出席活动，副局长李小刚，四级调研员苏义学以及相关科室、局直有关单位负责人陪同参加。', '月13日至14日，承德市交通运输局党组书记、局长于山，交通运输部公路科学研究院博士李涛，承德公交集团董事长李晓峰等一行，到我局就城乡道路建设、城际公交运营发展进行考察学习。局党组书记、局长蒋九芳出席活动，副局长李小刚，四级调研员苏义学以及相关科室、局直有关单位负责人陪同参加。', '承德市考察组先后到邢台市中心汽车站、信都区综合客运枢纽、抗大路等点位实地察看了我市城际公交运营情况，详细了解了城乡客运一体化建设情况，观看了城乡客运一体化宣传片，并召开了座谈会。', '考察组认为，抗大路是城乡道路建设的成功模范，是构建东西纵横、南北交错、快进慢游道路交通网络格局的点睛之笔。抗大路的建设充分发掘了历史文化资源，有效提升了旅游道路的通行能力和服务水平，丰富了旅游业态，带动了特色产业的发展及其他基础设施的建设，形成经济效益、社会效益、生态效益多赢局面。', '考察组表示，公交优先就是百姓优先，城乡道路建设及公交一体化的成功，充分说明了邢台交通运输系统高度重视普惠民生建设工作。以创建全省第一批公交示范城市为契机，率先推行“政府主导、政策支持、财政保障”的全域公交一体化，搭建起城市、城际、城乡三级公交网络，为全省推进城乡公交一体化提供经验借鉴和模式参考。', '下一步，承德市、邢台市两地交通运输部门将以此次考察为突破口，建立日常交流机制，继续深入探讨、学习，为全省交通运输事业高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>7</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>承德市丰宁满族自治县考察团来威县就全面深</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/wx/202109/t20210930_607941.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['9月29日，承德市丰宁县委书记李东率考察团到我县就全面深化改革进行考察学习，县委书记崔耀鹏，县委副书记、政府县长高凯英陪同考察，双方举行座谈交流会，县委书记崔耀鹏主持并讲话，县政协主席李东强汇报介绍了威县省级综改试点有关情况', '丰宁县委书记李东对我县全面深化改革取得的成效给予高度评价，认为我县高度重视全面深化改革，改革工作特色突出、亮点纷呈。他指出，威县作为全省唯一综合改革试点县，干事创业的精气神、破解瓶颈的方式方法和担当务实的党风政风值得学习借鉴，希望双方进一步加强交流、增进友谊，相互学习提升，实现共同发展进步。', '崔耀鹏指出，各级领导干部要以本次交流学习为契机，深入学习丰宁县在项目建设、历史文化资源利用、生态发展、京津冀协同发展等方面的先进经验，学深悟透、取长补短，助推威县高质量赶超发展。', '座谈交流结束后，考察团分组深入到规划展馆、智慧城市、行政审批局、海升梨园、君乐宝、德青源、县医院、县二中等地，实地考察多领域改革创新情况。', '县领导张朝华、潘国军、翁乃侠、蒋志华、高振防，及相关部门负责同志参加座谈交流或陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>7</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>邱县考察团到新河县考察学习</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021-09-06</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/xhx/202109/t20210907_605981.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['9月1日，邱县县委书记闫龙虎、县长宋涛带领县四大班子和县直部门、乡镇主要负责同志，到我县考察学习项目建设、城市管理、党史学习教育等工作。县委书记韩非、县长程玉峰，县领导高华锐、董智永、宋革修、胡晓铭、苑冀川、张志武、姬志勇、徐永豪陪同考察。', '建设、城市管理、党史学习教育等工作。县委书记韩非、县长程玉峰，县领导高华锐、董智永、宋革修、胡晓铭、苑冀川、张志武、姬志勇、徐永豪陪同考察。', '考察组一行先后到超威电源、松赫环保、新河之窗、董振堂事迹陈列馆进行实地考察。考察中，韩非、程玉峰对邱县考察团一行表示热烈欢迎，他们向考察团介绍了新河县经济社会发展情况。', '考察中，韩非、程玉峰对邱县考察团一行表示热烈欢迎，他们向考察团介绍了新河县经济社会发展情况。', '韩非说，新河县第十次党代会谋划了未来五年新河发展总体思路，围绕“一城两带三区”发展定位，全力建设实力、文明、生态、幸福、平安、智慧“六个新河”。邱县与新河同为冀中南黑龙港流域平原县，地理相近、禀赋相似，在经济社会发展上有许多相似之处。邱县以“三重四创五优化”活动为抓手，加快全面高质量赶超发展的经验做法，受到社会各界高度关注，更是新河县学习的标杆和榜样。希望两县加强交流、互学互鉴，携手推进高质量发展。', '韩非说，新河县第十次党代会谋划了未来五年新河发展总体思路，围绕“一城两带三区”发展定位，全力建设实力、文明、生态、幸福、平安、智慧“六个新河”', '邱县与新河同为冀中南黑龙港流域平原县，地理相近、禀赋相似，在经济社会发展上有许多相似之处。邱县以“三重四创五优化”活动为抓手，加快全面高质量赶超发展的经验做法，受到社会各界高度关注，更是新河县学习的标杆和榜样。希望两县加强交流、互学互鉴，携手推进高质量发展。', '邱县与新河同为冀中南黑龙港流域平原县，地理相近、禀赋相似，在经济社会发展上有许多相似之处。邱县以', '闫龙虎、宋涛表示，新河县发展定位科学、思路明确，在重点项目建设、城市精细化管理等工作上，措施精准有力，经验值得学习借鉴。他们对此次考察中新河提供支持和经验表示真诚地感谢，希望双方在今后工作中加强交流合作，促进共同发展。', '发展定位科学、思路明确，在重点项目建设、城市精细化管理等工作上，措施精准有力，经验值得学习借鉴。他们对此次考察中新河提供支持和经验表示真诚地感谢，希望双方在今后工作中加强交流合作，促进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>7</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>邢东新区赴任泽区观摩学习新时代文明实践阵</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2021-09-17</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qlh/202109/t20210917_606767.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为进一步深化拓展邢东新区新时代文明实践阵地建设工作，学习先进县（市、区）的典型做法和先进经验，９月１４日上午，邢东新区党政办带领豫让桥街道办事处及祝村镇相关同志赴任泽区考察学习新时代文明实践阵地建设。', '观摩团先后到任泽区新时代文明实践中心、任城镇新时代文明实践所、西固城乡赵村新时代文明实践站进行实地观摩学习，通过现场解说、浏览文化墙、参观活动室、互相交流等环节学习了任泽区整合辖区资源、搭建平台的新思维，认识到创新工作方式、方法的重要性，认真学习了任泽区在工作中汇聚各类元素、融合社会各界力量、用好、用活各类资源的方法，让新时代文明实践阵更接地气、更有活力。', '下一步，邢东新区将以此次观摩学习为契机，立足自身实际，按照创建文明城市的相关要求，取长补短，提高文明实践阵地建设标准，规范文明实践阵地建设的要求，全力以赴做好文明城市创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>7</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>好风凭借力金融数字化助力乡村振兴</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2021-08-16</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202108/t20210816_604237.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['8月13日，县长刘志奇与中国建设银行邢台分行行长何长军一行进行对接座谈，就进一步深化政银合作，实现互利共赢，推动乡村振兴工作进行深入交流。他强调，要突出政策引导，强化金融赋能，助力宁晋作为全市乡村振兴领头雁飞得更高更稳，早日建成全国乡村振兴先行区。县领导石克栋、郭志红、孙志广及有关部门主要负责人等参加会议。', '座谈会上，何长军介绍了市建行《“惠三农助振兴”乡村振兴战略服务方案》，以“裕农通（河北）”乡村振兴综合服务平台为总抓手，推进金融服务、农户信贷、智慧政务等进乡村，助力乡村振兴。', '刘志奇对中国建设银行邢台分行长期支持宁晋经济社会发展表示感谢。他指出，宁晋县作为全省唯一一个乡村振兴全国农业科技现代化先行县，经济发展活力竞相迸发，迎来了前所未有的发展良机，双方有非常大的合作空间，希望市建行充分运用“裕农通”平台，围绕我县特色产业给予企业、农户大力支持，为我县乡村振兴和经济社会发展注入新的活力，推动宁晋高质量赶超发展。', '刘志奇强调，各相关部门要主动积极对接金融部门，结合本地本部门实际，确定项目清单，探索政银合作新模式新方法，善用特色金融助力乡村振兴；要深入推进数字化改革，行政审批局要走出去到先进地区考察学习，抓紧启动建设“市民中心”，为群众办事提供最大便利；要推动数字化平台与乡村振兴的有效融合，打造数字乡村、智慧农业，加强乡村振兴资金的监管，确保乡村振兴战略扎实健康推进。', '何长军充分认可宁晋的发展思路，他表示，中国建设银行邢台分行将持续以服务县域经济为己任，主动适应新产业、新业态对金融工作的新要求，始终立足三农、服务三农，不断创新农村金融产品和服务模式，为宁晋经济发展提供有力支持。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>7</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>换马店镇打造美丽新农村建设生态新城郊</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2021-08-20</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202108/t20210820_604615.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['人居环境美起来，幸福指数高起来。换马店镇认真贯彻落实县党代会、县“两会”和全县“提精神、转作风、抓落实、促发展”动员大会精神，突出项目建设、乡村振兴、民生改善三个重点，加速经济发展提档升级，促进社会大局和谐稳定，全面实现高质量赶超发展。', '市人大代表、换马店镇秦邱村党支部书记张风涛即将赴邢台参加市人代会。为了更好地反映村民呼声，他召集村“两委”成员，征集大家意见建议，准备把基层好声音带到市“两会”上。', '近年来，秦邱村积极争取上级支持，探索走出了适合本村发展的特色种植模式，不仅壮大了村级集体经济，村民们的腰包也鼓了起来。', '“之前，我们村里种植模式比较单一，主要是玉米和小麦，附加值较低。”张风涛告诉记者，去年，镇里将秦邱村设立为全镇农业产业现代化示范区，并多次外出考察学习取经，实施了特色种植项目，流转土地1000余亩，用于经济苗木的种植和特色瓜果的种植，仅此增加集体收入6万余元。', '“接下来，围绕乡村振兴战略，我村计划打通村南至新308道路，方便群众出行。投资300万元建设一所养老院，服务周边老年群众。围绕“千斤粮、万元钱”目标，计划再流转土地500亩，实施蔬菜种植项目，发展果品深加工产业，力促农民增收。同时，扎实推进党史学习教育，推动各项工作再上新台阶，争创全镇的‘排头兵’。”张风涛说。', '随着村民收入不断提高，人们对村居环境、娱乐活动等需求不断增加。为了破解这一矛盾，他们还在全镇率先设立了“街、巷长”，保洁员每天上街清扫，购置雾炮扫水车每天湿扫，村容村貌焕然一新，群众生活幸福感显著提升。', '换马店镇因势利导，在全镇设立了1300余名“巷长”，以解决胡同小巷垃圾治理难题，既保证了村庄整洁，又促进了邻里和谐。在此基础上，该镇实施全域化人居环境集中整治，累计拆除私搭乱建100余个、拓宽整治田间道路80余条，清理残垣断壁，新打造“小三园”37个。率先在全县完成环卫工作市场化运作，在做好村庄环境日常保洁的基础上，实施人居环境“百街千巷”工程，开展大规模整治提标活动，实现主要街道干净、胡同小巷干净、犄角旮旯干净，把人居环境这张“名片”擦得更亮。', '“下一步，我镇将紧紧围绕乡村振兴这一战略，扎实开展“我为群众办实事”活动，积极争跑上级项目、资金，将更多的财力向农村倾斜，计划对换马店村至曹伍疃村乡级道路进行拓宽和“白加黑”改造，彻底打通秦邱村至新308道路，进一步畅通交通路网，让群众享受更多的实惠。”换马店镇组织委员、统战委员徐亚楠说。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>7</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>信都区民政局到石家庄市桥西区考察学习社会</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2021-04-07</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/mzj/202104/t20210407_592471.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['桥西区汇通街道塔坛社区和东华街道煤市路社区社会组织孵化基地，详细了解了孵化基地建设理念、运营模式、活动开展、作用发挥情况，并着重', '区民政局将结合工作实际，通过孵化培育、积极引导、典型示范、政策支持等方法，建设一批有影响、有规模', '规范化社会组织，承接政府社会事务管理职能的转移，服务民生、服务社会，促进社会组织建设的快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>7</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>威县赴长沙市教育局参观学习</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021-04-12</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/wx/202104/t20210416_593473.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['为借鉴长沙市“创建国家智慧教育示范区教育”和“城乡教育一体”发展经验，进一步提高我县智慧教育发展水平和教育质量，4月8日—11日由县政协主席孟祥义带队，县政府副县长白锋、县教育局局长张延峰、县教师发展中心主任杨明锐一行赴长沙市教育局考察学习。', '长沙市教育局教师发展处主任黄旭介绍了长沙信息化建设实施经验及长沙市创建国家智慧教育示范区建设经验。随后考察组先后到博才咸嘉小学、长郡中学、长沙托潍公司参观。观看了学校网络联校实施现状，听取了学校的办学理念及经验；托潍公司介绍了探索教育信息化建设的科研成果、未来发展前景及在全国示范点实践的经验和成效。', '通过此次参观学习，为落实教育部领导意见，建设威县智慧教育下双师课堂示范区积累了经验。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>7</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>南和区人社局探索为民服务新模式叫响</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2021-05-25</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/rlzyshbzj/202105/t20210525_596762.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['5月24日，广宗县人社局一行六人到南和区人社局考察学习“人社快办”工作，实地考察了南和社保服务大厅的科学布局、技术设备和压缩办事流程，并就如何更好的为群众提供优质服务、切实提高工作效率等方面进行了充分交流探讨，大家对南和的先进做法表示赞赏，具有很大的借鉴意义。 南和区是邢台市“人社服务快办行动”试点县，今年以来，按照上级要求，进一步优化办事流程，压缩办事时限，大力推行“互联网+人社服务”，全面落实“简便办”要求，10个以上“一件事”实现打包办、10个以上事项实现提速办，充分践行了学党史为民服务办实事精神，不断提高工作效率，服务群众到家门。', '广宗县人社局一行六人到南和区人社局考察学习“人社快办”工作，实地考察了南和社保服务大厅的科学布局、技术设备和压缩办事流程，并就如何更好的为群众提供优质服务、切实提高工作效率等方面进行了充分交流探讨，大家对南和的先进做法表示赞赏，具有很大的借鉴意义。', '南和区是邢台市“人社服务快办行动”试点县，今年以来，按照上级要求，进一步优化办事流程，压缩办事时限，大力推行“互联网+人社服务”，全面落实“简便办”要求，10个以上“一件事”实现打包办、10个以上事项实现提速办，充分践行了学党史为民服务办实事精神，不断提高工作效率，服务群众到家门。', '南和区是邢台市“人社服务快办行动”试点县，今年以来，按照上级要求，进一步优化办事流程，压缩办事时限，', '事项实现提速办，充分践行了学党史为民服务办实事精神，不断提高工作效率，服务群众到家门。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>7</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>鹤壁市政协考察团来邢考察学习</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2021-05-31</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202105/t20210531_597322.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['（记者甄飞）5月26日至28日，河南省鹤壁市政协主席李军、副主席李明煜率考察团来邢，就我市传统村落保护利用和乡村旅游发展进行考察学习。市政协主席邱文双、副主席郭和平，秘书长许振吉先后陪同考察。', '考察团一行先后到邢台园博园、郭守敬纪念馆、信都区英谈古寨、太行川寨王硇等地进行调研，详细了解我市古村落的保护、开发现状及未来规划，并与相关部门负责同志共同探讨研究乡村旅游发展的思路与举措。', '考察团表示，邢台市委、市政府对传统村落保护利用和乡村旅游发展工作高度重视，坚持科学规划引领，创新保护利用方式，突出本地特色和文化内涵，实现传统村落保护利用与加快经济社会发展有机结合，做到传统村落保护利用和乡村旅游发展工作与发展经济相互融合、相互促进，给鹤壁市提供了许多可借鉴的好经验、好做法。他们将以此次考察为契机，结合自身实际，发挥政协优势，抓紧总结提炼并加以借鉴推广，为传统村落保护利用和乡村旅游发展工作献计出力，更好地推进本地工作。', '邱文双对鹤壁市政协考察团来邢考察表示欢迎。他指出，传统村落保护利用是传承传统文化的重要载体、发展文化旅游产业的迫切需求、实施乡村振兴战略的现实需要。希望鹤壁市与邢台市在传统村落保护利用和乡村旅游发展等方面加强合作交流，相互学习借鉴，共同推动乡村旅游发展。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>7</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>市教育局组织五县市赴邯郸考察学习</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2021-03-27</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/sjyj/202104/t20210406_592417.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['3月25日，市教育局督学翟凤国带领我市今年接受省政府履行教育职责评价的沙河市、南宫市、内丘县、隆尧县、巨鹿县教育局局长、主管督导工作的副局长、督导室主任到邯郸市丛台区考察学习。', '考察组一行听取了从台区主管教育副区长关于近年来教育事业发展概况介绍，观看了迎接省评专题片及相关档案资料，实地走访了6所中小学。', '翟凤国就五县市做好迎评准备工作提出了要求。一是充分借鉴丛台区2020年迎省评工作的成功经验，紧密结合各自实际，高标准、高质量做好准备工作。二是把参观学习情况及时向县市政府汇报，成立强有力的组织领导机构，制定具体详实的迎评方案，迅速启动迎评准备工作。三是严格对照省评标准，认真开展自查自纠，逐项逐条对照检查，找出存在的问题和不足，建立问题台账，明确整改责任人、整改措施及完成时间，全面推进整改。四是市县两级督导部门加强督促检查，超前做好过程性督导工作，督促相关职能部门及学校切实履行职责，确保在接受评价前全部做好各项准备工作。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>7</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>市领导率队赴保定市考察学习城建拆迁工作</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2021-03-26</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202103/t20210326_591453.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['（记者甄飞 通讯员张超）3月25日，市人大常委会主任魏吉平、副市长张志峰率领邢台市考察团到保定市，就城建拆迁工作进行考察学习并参加座谈会。保定市人大常委会副主任高文才及有关部门负责同志参加座谈。', '考察团一行先后到保定市莲池区哈弗技术中心、东百楼、蔡庄、后营三村联建集中区，徐庄、徐河桥两村联建集中安置区，实地考察了城中村改造、城建拆迁等工作情况。在随后召开的座谈会上，考察团观看了保定市《品质生活之城建设专题片》，并详细了解了保定市主城区城中村改造整体工作情况和改造运作模式，双方就有关问题进行了深入细致的沟通交流。', '魏吉平表示，通过这次考察，切实感受到保定市城建拆迁工作上取得的丰硕成果，创新的“ABO（授权建设运营）”城改模式让人很受启发，感到了强烈的视觉冲击和思想震撼。要以此次考察学习为契机，认真学习借鉴保定市的好经验、好理念、好做法，以更大决心、更大气魄、更大力度，真正把考察学习的成果转化为推动工作的强大动力。真诚欢迎大家多到邢台考察交流，取长补短，进一步构建交流合作的常态机制，为两地经济社会发展作出新的更大贡献。', '高文才表示，邢台与保定人缘相亲、文脉相同，特别是近年来，邢台市在人居环境整治以及城市管理等方面取得了显著成绩，经验做法非常值得学习。此次邢台市考察团来保定传经送宝，是对保定工作的有力促进，希望此后常来走一走、看一看，相互把各项工作做得更好。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>7</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>雄县交通运输局到信都区交通运输局考察学习</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2020-12-18</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jtysj/202012/t20201218_583895.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['12月17日，雄县交通运输局局长谢孟强一行7人到信都区交通运输局考察学习公交一体化工作。', '座谈会上，首先观看了《惠民公交畅邢襄》宣传片，随后我局党组书记、局长刘岩斌就近年来我区在实施公交一体化方面采取的措施、工作亮点和经验做法进行了详细介绍。与会人员就全面推进公交一体化工作，如何统筹谋划、分步实施、完善监督、制定方案等进行了深入探讨，并就实施过程中存在的难题交换了意见。', '通过交流，来访领导对我区公交一体化工作取得的成绩给予了高度评价和肯定，并表示将充分借鉴先进做法和经验，结合实际运用到雄县公交的建设中去，以此推动公交一体化更快、更好的发展。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>7</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>市政府办开展主题党日活动</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/202103/t20210324_591229.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['（记者王露橦 通讯员谢鹏飞 宋延彬）3月20日，市政府办公室机关党委组织30余名党员，到内丘县南赛乡石流河村开展“扶贫共建献爱心”主题党日活动。', '据悉，活动主要内容为考察学习乡村振兴实践经验、探索研究资金收益扶贫项目建设思路和踏查水污染防治成效。党员们走访石流河老村区域，领略新村风貌，参观市政府办公室引进的扶贫项目“内丘南赛乡民宿体验中心”，并在参观结束后，与石流河村委、市政府办公室驻村工作队有关负责人，围绕致力将石流河村打造成精准扶贫的标杆、乡村旅游的标杆、乡村振兴的标杆进行座谈，宣讲扶贫政策，介绍市政府办公室扶贫防贫理念和规划。', '大家纷纷表示，参加这次主题党日活动，更深刻地领悟了脱贫攻坚和乡村振兴工作的重大意义。要进一步增强党民共建攻坚意识，筑牢为人民服务情怀，探索变“输血”为“造血”的长效手段，为实现乡村振兴作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>7</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>大名县到巨鹿学习防返贫经验</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2021-01-04</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/202101/t20210104_585252.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['12月29日，邯郸大名县政协副主席、县扶贫领导小组副主任刘小涛一行到巨鹿县考察学习脱贫攻坚工作先进经验并观摩金银花生产基地。县政府二级调研员王耀民参加考察。', '王耀民对刘小涛一行到来表示欢迎，并希望双方今后加强联系，资源共享，取长补短，实现共同发展。刘小涛认真听取脱贫攻坚工作情况介绍，对巨鹿县脱贫攻坚工作中的典型经验做法进行全面了解，对巨鹿县扎实有效的精准扶贫工作给予高度赞赏。', '随后，刘小涛一行到堤村乡双万亩生产基地参观考察，详细了解金银花种植、生产、销售等有关情况。', '刘小涛对巨鹿县数字化、信息化、智能化精准防贫系统和综合性防贫救助政策以及“医养共同体+保险”防贫模式、“1+3+1”精准防贫机制给予了高度评价，并表示要将巨鹿脱贫攻坚工作先进经验和金银花种植营销理念带回大名县，结合大名县实际，进一步做好大名县防贫防返贫工作。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>7</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>我县组织优秀乡村骨干力量赴山东济南青州</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2020-11-02</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/202011/t20201102_580005.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['按照国务院国资委与我县培训扶贫工作合作安排，10月27日——29日我县18名基层干部、农业种养大户、农村致富带头人，到山东济南、青州等地就新型农业发展等内容进行参观学习考察。为确保这次培训实效，国务院国资委机关第十一协作组组成了由干部培训教育中心二处处长于阳、综合处主任科员王君，中国大连高级经理学院办公室综合科长郝伟山等三人组成的协作组，为这次学习参观考察提供了坚强有力的组织协调和后勤保障。在开班动员仪式上，于阳处长就这次考察学习的意义、内容、要求等方面进行了动员讲话，我县带队学员代表也就在学习考察中服从安排、遵守纪律，通过学习启发思路、发现商机、创新理念、交下朋友等方面做了表态发言。', '按照国务院国资委与我县培训扶贫工作合作安排，10月27日——29日我县18名基层干部、农业种养大户、农村致富带头人，到山东济南、青州等地就新型农业发展等内容进行参观学习考察。', '为确保这次培训实效，国务院国资委机关第十一协作组组成了由干部培训教育中心二处处长于阳、综合处主任科员王君，中国大连高级经理学院办公室综合科长郝伟山等三人组成的协作组，为这次学习参观考察提供了坚强有力的组织协调和后勤保障。在开班动员仪式上，于阳处长就这次考察学习的意义、内容、要求等方面进行了动员讲话，我县带队学员代表也就在学习考察中服从安排、遵守纪律，通过学习启发思路、发现商机、创新理念、交下朋友等方面做了表态发言。', '在3天时间里，考察组一行先后实地考察了山东鑫和农业科技发展公司花卉生产、基地，青州市八喜旅集团、中晨国际书画小镇、亚泰花卉产业园、华盛农业、青州市弥河为农服务中心等地方特色项目，认真学习了花卉生产繁育销售、蔬菜新品种选育等新型农业技术以及青州市生态绿色发展、新型农业服务业等先进工作理念。另外，考察团一行还深入到青州市黄楼街道东坝新村、郝家村就新时期乡村社会治理等方面进行现场教学，深入到青州飞达实业、汇强重工等民营企业，就企业文化建设、非公企业党建等方面认真学习先进工作理念和工作方法。', '学习考察结束后，学员们普遍反映收获很大，开阔了视野，更新了理念，启发了思路，交下了朋友，回去后一定所见所看所学认真消化，把先进地区的工作经验、新型理念、工作热情转化为工作动力和具体措施，自觉发挥党员先锋模范作用，为全县乡村振兴发展做出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>7</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>威县考察团到陕西海升集团铜川种植基地考察</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2020-10-20</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/wx/202010/t20201030_579855.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['日前，“中国西部国际采购展览会”在陕西省西安市开幕，威县有关领导和单位负责人参加了大会开幕式，并在开幕式结束后，应邀到陕西海升集团公司考察座谈。', '10月17日，威县政府副县长高振防、县领导李涛带领农业农村局、农投公司、财政局及部分乡镇负责人，到陕西海升集团铜川种植基地，实地考察智能草莓玻璃温室、苹果种植基地、樱桃种植基地、砧木育苗温室大棚等，就海升的成功做法和先行经验进行了考察学习，并与海升铜川基地负责人就合作事项进行了座谈交流。', '通过此次考察学习，威县进一步学习了集团的先进种植技术和成果，为全县农业加快现代化转型提供了有益借鉴。威县将持续加大农业结构调整力度，更加坚定地把以“千斤粮、万元钱”为目标的农业结构调整作为推进威县高质量赶超发展的重要抓手，作为促进全民增收特别是农民增收的重要渠道，不断深化认识、加强学习、积极探索，努力让更多低收益土地实现“万元钱”收益，让广大农民有盼头、有奔头，得到更多实惠。', '据了解，海升集团作为国家级农业产业化重点龙头企业和全球最大的浓缩果汁生产商，长期以来致力于投资现代农业项目，已于2016年在威县从容村建起了精品梨基地，安装的以色列智能化水肥一体化设备，可根据不同物候期自动调整氮磷钾比例和供水时间，技术达到国际先进水平，而且更节水，2000亩梨园24小时内浇完。', '考察期间，威县与海升集团董事长高亮及公司高管就海升集团在威县梨种植基地建设 、未来发展规划达成合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>7</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>沙河市司法局到襄都区交流学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2020-09-25</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/202009/t20200925_577582.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['9月25日上午，沙河市司法局一行13人到襄都区司法局实地考察学习司法行政工作。襄都区司法局副局长关毅、王文龙、李治国陪同。', '沙河市司法局同志对襄都区司法局的热烈欢迎表示感谢，认为襄都区在社区矫正、公共法律服务、法治政府建设、新媒体普法、规范化管理等方面的做法值得借鉴。大家先后参观了区司法局的社区矫正中心、公共法律服务中心、局机关，观看了工作纪录片、查阅了资料档案、与干警交流了工作经验做法。', '通过实地观摩及交流探讨，大家一致认为收获颇丰，受益匪浅。表示将以此次交流活动为契机，加强两地司法行政工作交流协作，结合本地实际，推广好的经验和做法，资源共享，共同推进司法行政工作再上新台阶。', '认为收获颇丰，受益匪浅。表示将以此次交流活动为契机，加强两地司法行政工作交流协作，结合本地实际，推广好的经验和做法，资源共享，共同推进司法行政工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>7</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>新疆维吾尔自治区扶贫办到巨鹿县考察防贫防</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/202009/t20200930_577868.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['9月24日—25日，新疆维吾尔自治区扶贫办副主任马缨带领新疆维吾尔自治区人社厅、民政厅、残联、医保局等省直单位同志和部分地市扶贫干部共计11人，到巨鹿县考察学习防返贫致贫监测预警和帮扶机制等工作。河北省扶贫办二级巡视员樊晓辰、邢台市委副书记宋华英、邢台市扶贫办党组书记韩志强、邢台市扶贫办副主任邵臻，县委书记孙保祥、县委副书记李精虎、副县长赵洪义陪同考察学习。', '首先，新疆考察组到巨鹿县大数据中心学习观摩了智能化防贫预警管理系统演示，现场咨询了“1+3+1”精准防贫机制运行模式及相关问题。宋华英陪同现场观摩，并详细介绍了邢台市“114平台”防贫系统和相关工作。县防贫中心工作人员详细讲解了“1+3+1”防贫机制实施背景、预警监测、防贫救助以及跟踪评估、再救助等防贫工作流程，并就考察组提出的问题进行了逐一解答，县医保局负责人就全县医养一体、长期护理险工作进行了汇报。', '首先，新疆考察组到巨鹿县大数据中心学习观摩了智能化防贫预警管理系统演示，现场咨询了', '随后，双方在县大数据中心一楼会议室召开了交流座谈会。孙保祥对新疆考察组提出的问题，从防贫救助流程、帮扶措施到后续跟踪服务等方面进行了详细解答。马缨一行和巨鹿县有关部门就防贫防返贫工作进行了交流沟通。马缨对巨鹿县数字化、信息化、智能化精准防贫系统和综合性防贫救助政策以及“医养共同体+保险”防贫模式、长期护理险给予了高度评价，并表示今后要加强和巨鹿县的交流学习，把巨鹿经验带到新疆，进一步做好新疆防贫防返贫工作。', '随后，双方在县大数据中心一楼会议室召开了交流座谈会。孙保祥对新疆考察组提出的问题，从防贫救助流程、帮扶措施到后续跟踪服务等方面进行了详细解答。马缨一行和巨鹿县有关部门就防贫防返贫工作进行了交流沟通。马缨对巨鹿县数字化、信息化、智能化精准防贫系统和综合性防贫救助政策以及']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>7</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>威县在上海市召开威县籍老乡座谈会</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2020-10-24</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/wx/202010/t20201030_579859.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['10月22日至23日，威县县委书记商黎英率招商团队赴浙江省杭州市、上海市进行招商考察，并在上海市主持召开“书记喊您回家创业”暨长三角威县籍老乡座谈会。', '此次座谈邀请上海闵行区滨江投资发展公司监事长许延岭、上海浦东发改委信息中心书记主任刘京辰、南京邢台商会会长张四桥、上海蓓朵医疗器械有限公司董事长郝心宁、上海前卫投资管理有限公司总经理张万祥、上海东孚文化有限公司董事长庞晓东等20余名在长三角地区从政、经商的威县籍老乡参加会议，商黎英与他们共话家乡发展，号召他们回家创业、为家乡发展献计出力。', '商黎英在讲话中指出，游子千里梦，浓浓故乡情。在座的各位老乡都是威县的骄傲，虽然你们生活在他乡、创业在他乡、成功在他乡，但殷殷游子之心、拳拳赤子之情始终不改，一直以来，大家积极宣传威县，推介威县，介绍并带领你们的朋友回乡投资创业，大家对家乡的发展给予了高度关注、热情支持和积极参与，为家乡的经济社会发展做出了很多贡献，希望大家继续支持家乡发展，为威县发展凝聚各方力量。', '商黎英指出，在全县人民的共同努力奋斗下，我们的家乡发生了翻天覆地的变化，威县是中央财政支持的全国唯一县级“双创载体”，建成了全省第一个协同发展平台—威县·顺义产业园，培育形成了汽车及零部件、农副产品加工、战略新兴材料和电子信息、通用航空“3+2”现代产业体系，建设了现代农业“三带三园”，拥有集聚产业的绿色平台和投资置业的要素资源，同时威县拥有教育部定点扶贫、享受IPO绿色通道政策等发展机遇，拥有交通区位优越、功能配套完善、生态环境优越的宜居宜业的生活条件和全县上下重商、亲商、安商、富商的投资环境。', '商黎英希望在外的老乡、企业家和人才能够回到家乡，投资创业；希望大家充分发挥自身优势，为威县多引进科技含量高、成长性好、带动性强的项目；希望各位老乡一如既往的为家乡建设出谋划策、为家乡招商引资牵线搭桥、为家乡经济社会发展添砖加瓦；希望大家积极做好服务家乡建设的“宣传员”、“信息员”，为建设威县再立新功，威县各级各部门要切实当好服务企业发展的“战斗员”、“服务员”，始终以最优越的环境、最优惠的政策、最优质的服务，为广大投资者发展创业铺平道路，尽最大努力帮助企业解决困难和问题，支持企业做大做强。', '座谈前，商黎英带领威县考察团在杭州市、上海市就在谈的楼宇经济、现代农业、互联网企业等合作项目进行参观和洽谈，诚邀各企业来威县投资兴业、共赢发展，参观了在威县投资的班尼戈公司总部，与企业负责人就深化双方合作进行交流。', '商黎英一行还到湖州驻上海全球招商引才中心考察学习，与湖州驻沪联络处主任计欣华进行深入交流，学习了中心运营情况及湖州的招商经验，商黎英表示要将湖州的创新理念和拼搏的精神带回去，学习好，发扬好，以助推威县高质量赶超发展。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>7</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>西藏阿里地区人社局来邢考察学习</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2020-10-22</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/rlzyshbzj/202010/t20201022_579249.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['10月21日,阿里地区人社局党组书记张见带领联合考察组一行12人到邢台市就职业技能培训、农村劳动力就地培训转移就业等工作进行考察学习。考察组上午参观了邢台技师学院实训基地等场所，与院领导和部分学员进行沟通交流，详细了解了教学内容、学员技能培训以及就业状况，对邢台职业技能教育近年来取得的成就表示祝贺。下午，考察组先后到邢台市临城县博路天宝石油设备有限公司、河北绿岭有限公司等企业，详细了解了企业经营状况、用工情况、技能培训等方面的工作。省人社厅人力资源流动管理处副处长张帅，邢台市人社局党组书记、局长司国亮，市人社局副局长孙登壮，市就业局局长齐延直陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>7</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>陕西省勉县考察团到巨鹿县考察学习</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2020-09-21</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/202009/t20200921_577058.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['9月14日，陕西省汉中市勉县县委副书记雷强一行到巨鹿县考察学习脱贫攻坚工作先进经验。县委副书记李精虎，县直相关单位主要负责同志陪同考察学习。', '双方在巨鹿县大数据中心举行交流座谈会。李精虎对雷强一行的到来表示欢迎，并希望双方今后加强联系，资源共享，取长补短，相互学习，实现共同发展。在听取巨鹿县扶贫防贫工作开展情况之后，与会人员就防贫防返贫等工作进行了深入交流，并一同观摩了巨鹿县防贫预警管理系统演示。', '随后，雷强一行到巨鹿镇后辛庄村、王虎寨镇西宋庄村实地走访了防贫防返贫对象户郅辛国和宋倩辉，参观考察了小吕寨镇政府防贫工作站、就“2020第三届巨鹿旅游产业发展大会（网上办会）暨农民丰收节筹备方案”，会议要求，要简约、务实、高效，大力压缩开支，节目安排紧凑，提高群众和游客的获得感，同时要做好疫情防控和安全工作。', '随后，雷强一行到巨鹿镇后辛庄村、王虎寨镇西宋庄村实地走访了防贫防返贫对象户郅辛国和宋倩辉，参观考察了小吕寨镇政府防贫工作站、就', '会议要求，“四区同建”，规划先行。编制规划方案时，要把握住“切入点是拆，根本点是群众可接受”，充分考虑到政策的科学性、可行性和连续性，抓住问题的核心和关键所在，尽量一步到位。各相关领导小组成员单位要密切配合、齐抓共管，稳步推进“四区同建”工作，加快实现城乡一体化融合发展，持续助力乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>7</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>李胜敏率团在上海遵义等地考察调研时强调认</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/202009/t20200901_575248.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['李胜敏率团在上海遵义等地考察调研时强调:认真学习上海遵义等地先进经验 加快改革创新步伐 奋力开创南和各项事业发展新局面', '（王超）8月17日至20日，区委书记李胜敏率团赴上海、贵州遵义等地考察调研。区领导陈跃师、马佩荣、樊振宇、李民、张克灿、王金全、郭军平及宠协会秘书长杨月璋、鼎和公司董事长白冰聚，区直相关单位主要负责同志、各乡镇负责同志参加调研。18日上午，李胜敏一行首先到上海市嘉定区安亭镇考察汽车未来小镇建设工作。在相关负责人陪同下观摩了上海汽车博物馆，详细了解了其建筑风格、场馆布局和陈列展览等。李胜敏指出，安亭镇作为汽车产业集聚区和产城融合示范区，对我区产业发展极具借鉴意义。下一步，要全面借鉴学习其在大力探索人、车、城融合形成的集汽车研发、制造、贸易、博览、比赛等多功能于一体的综合性汽车产业基地模式，充分结合我区特点，为推动我区产城融合发展及相关工作提供有力支撑。', '当日下午，李胜敏一行来到宝山区智慧湾科创园，实地考察了钢结构模块化体系建筑、3D打印众创空间、3D打印博物馆、VR虚拟现实体验区、宠物酒店等点位，对智慧湾科创园的功能配套服务及主题化、个性化、品牌化模式等进行了详细了解后给予了充分的肯定和赞扬。在上海太阳岛汪托邦宠物乐园内，李胜敏一行实地观摩了宠物寄养房、游乐区、专属泳池、户外放风区等场馆，详细听取了太阳岛负责人关于宠物乐园管理模式和运行等情况介绍，并就宠物乐园建设问题进行了深入交流探讨。李胜敏强调，各相关部门和乡镇要认真学习借鉴该宠物乐园的高起点建设、全方位服务、先进发展理念和经营模式等经验举措，进一步加强与该类企业的交流对接、深化合作，助力我区宠物特色小镇建设。调研途中，考察团还对上海市城市特色风貌、绿化亮化、美化等进行了参观学习。李胜敏要求，要积极学习借鉴上海市在塑造城市特色风貌工作中的先进理念和做法，结合编制十四五空间规划，努力塑造更具南和特色的城市新形象。', '8月19日，在上海新国际博览中心参加第23届亚洲宠物博览会时，李胜敏一行先后参观考察了宠物食品用品、医疗保健品、智能生活、活体展示等10余个单层无柱式展厅，并逐一走访了华兴、荣喜、伊萨、诺贝、华洋包装等区内13家参展企业，对参展企业的产品设计、展台规划等细节方面进行了全面指导。李胜敏强调，区内各参展企业要抢抓参加亚宠展的有利契机，进一步创新宣传方式，最大限度展示自身品牌实力，提高企业形象和品牌知名度；要进一步加强市场调研，了解掌握外地参展商的新产品、新技术和客户需求，丰富产品种类，助力企业健康快速发展。', '李胜敏要求，宠促会要利用好亚宠展交流联系平台，与举办方深入对接，谋划好明年整体集中场馆参展事宜，要学习借鉴亚宠展的场馆规划、产品展示和展览模式等，高质量筹备好“全球网红直播节”活动。各乡镇要进一步拓宽思路，借鉴外地在宠物用品加工方面的创新做法，推动更多宠物用品生产加工进农户，带动群众增收致富。驻上海招商团队要利用好亚宠展这一宠企信息收集平台，宣传推介好“南和宠业”区域品牌，吸引更多优质宠企入驻或开展合作，延伸拉长我区宠物特色产业链条。', '据了解，亚宠展是集品牌展示、产业链整合、跨区贸易为一体的亚太级宠物综合性贸易首选平台，是亚太地区最具规模和影响力的宠物行业旗舰展。', '8月20日，李胜敏率队赶赴贵州省遵义市考察学习“辣椒指数”编制和“美丽乡村”建设工作。李胜敏一行参观考察了遵义播州区卓豪农业科技有限公司、枫香镇花茂村和新浦新区中国辣椒城。在卓豪农业科技有限公司，李胜敏一行实地参观了该公司的辣椒（泡菜）标准化生产、加工、仓储车间，详细了解了其流程化管理、设施化加工、品牌化销售等模式。在花茂村，李胜敏一行深入考察了创意产业一条街、乡村民宿、村庄建设等，全面了解了该村在美丽乡村建设方面的做法和经验，并与播州区相关负责人就“美丽乡村”建设和旅游休闲景点打造进行了沟通交流。在详细听取相关情况介绍后，李胜敏强调，要充分吸收借鉴花茂村“美丽乡村”建设经验，积极探索，推动我区现代农业和现代旅游服务业的发展，走出一条具有南和特色的农旅融合发展道路。在考察播州区卓豪农业科技有限公司和新浦新区中国辣椒城时，李胜敏强调，要学习借鉴中国辣椒城管理和运行模式，把握好市场机遇，加大数字经济投入，加快制定中国宠物产业的南和指数，打造中国宠业的“风向标”和“晴雨表”，切实掌握行业的话语权和定价权，不断推动我区宠物产业做大做优做强。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>7</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>广西合浦县考察团到我市参观考察</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2020-08-28</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/shs/202008/t20200828_574938.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['8月24日，广西合浦县政协主席林德光，县委常委、常务副县长郭彦江率考察团到我市参观考察，进行产业合作交流。我市政协主席胡春兴，副市长、公安局局长程耀武及市经济开发区、科技和工信局等有关部门负责人陪同。', '日，广西合浦县政协主席林德光，县委常委、常务副县长郭彦江率考察团到我市参观考察，进行产业合作交流。我市政协主席胡春兴，副市长、公安局局长程耀武及市经济开发区、科技和工信局等有关部门负责人陪同。', '考察团一行先后到玻璃技术研究院、德盛工业园、鸿昇玻璃、德金玻璃、柴关乡王硇村、金沙河面业进行实地参观考察，认真听取企业负责人关于产品生产流程、营销等情况介绍，详细了解我市产业转型升级、创新发展等方面经验做法。', '期间，程耀武主持召开座谈会，市经济开发区、发改局、科技和工信局、德金玻璃等有关部门负责人参加。会上，考察团观看了我市宣传片。胡春兴对合浦县考察团的到来表示热烈欢迎，并向考察团详细介绍了我市经济社会发展情况以及产业结构现状，同时，希望双方进一步加强交流沟通、搭建平台，致力做好项目对接，共同促进两地经济发展繁荣。市经济开发区负责人介绍了我市开发区和玻璃产业发展情况。合浦县相关负责人介绍了该市整体情况，特别是承接我市产业转移的投资环境及优势。与会部门及企业负责人就两地产业对接合作进行交流讨论。', '考察团一行对我市经济社会发展成就给予高度评价，希望通过这次考察学习，把沙河成功的经验和做法带回去，运用到实际工作中，并表示欢迎我市相关企业到合浦县投资兴业，今后双方进一步加强沟通交流，实现优势互补，合作共赢，共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>7</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>广宗县到任泽区参观学习文明城市创建工作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202009/t20200903_575425.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['8月27日，广宗县委常委、宣传部长辛庆格带领创城相关单位负责人一行30余人，到我区参观学习文明城市创建工作。区委常委、宣传部长韩瑞陪同参观。', '考察团一行先后到任泽区政务服务大厅、中医院、世嘉购物商厦、未成年人心理健康辅导站、第二中学、人民公园、农商行、韩西周社区等点位进行实地参观。每到一处，考察团都详细了解我区创建文明城市的工作情况，仔细询问创建工作中的思路和做法。考察团表示，通过这次学习交流，收获了很多成熟、实用的经验和做法。', '兄弟县区到我区考察学习,既是对我区创城工作的肯定，也通过相互学习交流，进一步发现了我区在创城工作中存在的不足和问题，对我区在今后的工作中不断完善工作机制，补齐工作短板，圆满完成省级文明城市创建任务起到了积极的促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>7</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>邢台市任泽区考察团到沧州青县邯郸魏县学</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202008/t20200820_574244.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['8月11日-8月12日，区委副书记王根才，区委常委、统战部长李国立带领相关区直单位、乡镇（区）负责人以及部分村党支部书记先后赴沧州市青县、邯郸市魏县就农村人居环境整治及农业结构调整工作进行考察学习。', '考察团一行先后实地观摩了沧州市青县司马庄、东姚庄、胡白庄、青县振西蔬菜种植专业合作社、航天未来蔬菜小镇园区以及邯郸市魏县河北绿珍食用菌游闲公司、梦幻中国国际名宛主题花海刘屯村、邯郸市博浩农业科技有限公司、沙口集乡综合行政执法队。每到一处，考察团都认真听取介绍，通过座谈交流、现场交流、交互提问等方式，详细了解青县、魏县城乡人居环境整治以及农村农业发展工作的实际成效、具体做法及相关经验。对青县、魏县农业农村工作给予高度评价，认为两地的农业结构调整、农村改革、壮大发展村集体经济等工作思路清晰、亮点突出、成效显著，值得学习和借鉴。', '在考察中，王根才指出，加快推进农业产业结构调整是脱贫攻坚增加群众收入的核心措施，全区上下要把思想和行动统一到中央及省市有关要求部署上来，正确认识农业产业结构调整优化的目标任务和深远意义，以推进产业扶贫、就业扶贫为工作主线，大力发展村级集体经济，做到提前谋划、精准施策，加快构建现代农业产业体系、生产体系、经营体系。要进一步提高政治站位，切实增强做好农村人居环境整治工作的责任感和紧迫感，科学谋划，把握重点，建立健全长效机制，虚心学习周边县区好的经验和做法，充分调动基层干部和农民群众的积极性，扎实推进农村人居环境治理各项重点任务，促进农村人居环境提质升级。', '李国立指出，加快农业产业结构调整和改善农村人居环境，既是实施乡村振兴战略的重要内容，也是推进农业农村高质量发展的治本之策。各级各相关部门要抢抓发展机遇，提高政治站位，加大工作力度，因地制宜、突出实效，不断加快补齐短板弱项，努力建设农业强、农村美、农民富、生态好的新时代美丽乡村，让农民群众有更多实实在在的获得感、幸福感。', '两天的行程匆忙却收获颇丰，通过此次实地考察和亲身体验，既开阔了考察团成员的视野，也学习了先进地区的经验做法。下一步，任泽区将以此次考察为契机，进一步深化细化考察学习成果并落实到具体的工作中，解放思想、积极探索，助推任泽城乡人居环境综合整治工作再上新台阶，为乡村振兴奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>7</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>内丘县行政审批局一行来巨鹿县考察学习</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2020-07-20</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/202007/t20200720_571205.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['月17日下午，内丘县行政审批局副局长杨胜辉带领内丘县公共资源交易中心一行三人到县行政审批局公共资源交易中心考察学习，县行政审批局党组书记、局长高登伦、副局长钱彦兵及公共资源交易中心负责人陪同考察。', '杨胜辉副局长一行现场观摩了县公共资源交易中心交易场地建设、交易平台管理运行情况。座谈会上双方就目前公共资源交易中心的平台建设、信息化建设、制度建设、诚信建设和交易流程优化、业务办理等进行了深入交流和探讨。', '通过此次考察学习，双方表示今后要不断加强业务联系和沟通，共同提升公共资源交易服务水平，推进公共资源交易事业更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>7</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>隆尧县司法局赴临西考察学习公共法律服务体</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2020-07-16</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/ssfj/202007/t20200716_570957.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['为进一步推动我县公共法律服务体系建设，高标准高质量建设实体平台、建立健全各项运行机制，7月15日，司法局局长张志霞带队到临西县考察学习公共法律服务体系建设工作。', '一行人实地考察学习了临西县公共法律服务中心等地，并与临西县司法局进行了详细交流。该县的公共法律服务体系建设思路新、亮点多、成效足，工作走在全市前列，值得我们学习借鉴。大家一致认为，这次考察学习是一次对标先进、寻找差距、解放思想之行，既开阔了眼界、看到了差距，又增强了时不我待、加快发展的紧迫感。今后我局将以此次考察学习为契机，深入贯彻落实上级工作要求，学以致用、解放思想、加快建设，推动我县公共法律服务体系建设迈上新台阶。', '大家一致认为，这次考察学习是一次对标先进、寻找差距、解放思想之行，既开阔了眼界、看到了差距，又增强了时不我待、加快发展的紧迫感。今后']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>7</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>巨鹿县行政审批局考察学习促建设强化管理</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2020-07-16</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/202007/t20200716_570911.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['为进一步推进巨鹿县行政审批制度改革，优化营商环境，提高行政审批效能，2020年7月14日，巨鹿县行政审批局', '高登伦带领相关人员前往迁西县政务服务大厅进行考察学习。考察组通过实地参观、互动交流、收集相关资料等方式，全面认真地了解了迁西县政务服务中心运行模式、管理制度、创新经验等。', '考察组实地参观了迁西县政务服务大厅学雷锋服务台、功能区设置、窗口分布、设施配备、业务办理、人员安排等情况，重点对政务大厅群众办事窗口和母婴室的建设和管理情况进行了现场查看和询问。巨鹿县行政审批局考察组对迁西县审批局科学严谨的大厅日常管理给予了高度评价。', '通过这次考察学习，切实体会到了迁西县政务服务工作的新思路、新做法，看到了新成效，为巨鹿县政务服务中心优化政务服务环境，促进日常规范管理等具有十分重要的参考和借鉴价值。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>7</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>邢台市任泽区考察团到河南兰考县学习考察</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2020-08-26</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202008/t20200826_574760.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['为更好地落实农村生活垃圾分类减量化处理，有效解决农村生产生活实际，促进美丽乡村建设，8月24日，区委副书记王根才，区委常委、统战部长李国立,副区长孟玉学带领区直有关单位负责人到兰考县就农村垃圾分类、人居环境整治进行考察学习。', '考察团一行先后参观了兰考县鼎丰木业公司、沐桐环保公司、瑞华电力公司及仪封乡代庄村、堌阳镇徐场村、东坝头乡张庄村，认真听取介绍，并与当地镇村干部和群众进行深入的交流探讨，全面了解当地农村人居环境及农村垃圾分类及资源化利用工作的开展情况。', '通过一天的观摩学习，参观人员进一步开阔了眼界，提高了认识，学习到了外地在垃圾分类、美丽乡村建设方面的先进经验，同时也看到了自身存在的不足。区委副书记王根才要求，在下一步工作中，要结合我区实际情况，学习借鉴先进经验，以先进为榜样，在农村人居环境整治、美丽乡村建设上下功夫、找办法，因地制宜做好垃圾分类、环境卫生整治工作。同时，要结合美丽乡村建设，探索出一套适合我区特点的农村生活垃圾分类工作体系，推动开展我区生活垃圾分类工作，真正做到垃圾处理的减量化、资源化和无害化。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>7</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>唐山市高新区考察团到我县就壮大村集体经济</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2020-07-07</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202007/t20200707_570239.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['7月2日，唐山市高新区考察团到我县就壮大村集体经济进行考察学习。县委组织部、凤凰镇、换马店镇、贾家口镇等相关负责人参加活动。', '考察团一行先后到方大科技园、童泰供应链管理有限公司、凤凰镇孙家庄村、贾家口镇小刘村、垄上行土地托管协会、黄儿营西村、小河庄村等地进行现场观摩。每到一处，都摆放着一排精美的展板，以图文并茂的形式展现了观摩点的基本情况、党建活动、集体经济以及发展蓝图等内容。考察团认真听取各地相关负责人介绍，并就发展特色产业，壮大集体经济工作进行深入交流学习。', '近年来，我县把壮大村级集体经济作为推动脱贫攻坚和乡村振兴的一项重要举措来抓，充分发挥党建引领作用，因地制宜，积极探索村级集体经济发展和农民持续增收的方法和路径，走出了一条发展壮大村级集体经济的新路子。', '考察团表示，通过这次实地观摩、现场学习真实感受到了村集体经济的发展给农村带来的一系列变化。对我县发展壮大村级集体经济工作取得的成绩给予高度评价，认为我县村级集体经济发展思路清晰、亮点突出、成效显著，考察的村各有特点，具有典型意义，值得学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>7</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>我县召开第二届民间高手杯全国书法大奖</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2020-06-30</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/202006/t20200630_569579.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['县政协主席霍志民、副主席郭荣灿出席会议 会议听取了赴西安鄠邑考察学习书画产业发展情况，和大奖赛宣传、征稿等有关工作进展情况汇报。 霍志民对第二届“民间高手杯”全国书法大奖赛筹备工作情况给予肯定，对下一步工作提出要求。一要进一步加强宣传。充分利用微信群、公众号、快手、抖音等平台，扩大宣传面，加大宣传频度，突出平乡亮点和特色。二要进一步完善工作机制。对征稿作品收集、登记、保管等环节要细化，确保作品数量、质量、安全。三要进一步创新工作。善于用新的思路、新的办法解决新的问题，实现第二届“民间高手杯”全国书法大奖赛活动更上一层楼。', '会议听取了赴西安鄠邑考察学习书画产业发展情况，和大奖赛宣传、征稿等有关工作进展情况汇报。', '霍志民对第二届“民间高手杯”全国书法大奖赛筹备工作情况给予肯定，对下一步工作提出要求。一要进一步加强宣传。充分利用微信群、公众号、快手、抖音等平台，扩大宣传面，加大宣传频度，突出平乡亮点和特色。二要进一步完善工作机制。对征稿作品收集、登记、保管等环节要细化，确保作品数量、质量、安全。三要进一步创新工作。善于用新的思路、新的办法解决新的问题，实现第二届“民间高手杯”全国书法大奖赛活动更上一层楼。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>7</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>副市长邓素雪带队赴石家庄元氏县考察学习旅</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2020-07-03</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/lvyj/202007/t20200703_569928.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['7月1日，副市长邓素雪带领考察组赴石家庄元氏县考察学习石家庄第六届旅发大会成功经验。市政府督查专员张永兴、市文化广电和旅游局党组书记戴书军、信都区副区长王育红、沙河市副市长苗全生、内丘县政法委书记赵东升、临城县副县长桑宝弓、南宫市副市长刘君红、清河县副县长段丹丹及相关工作人员参加学习考察。', '考察团一行人先后来到元氏游客服务中心、汉风堂、汉码头、槐河人家、万花山森林公园、恒大童旅城、元味巷等地，考察学习旅游产业发展大会承办经验和特色景区、文化建设与保护、旅游开发、景观规划与运营等工作。考察团人员一致认为，元氏筹办2020年旅发大会的经验和做法，对下一步我市筹备2020年邢台市第四届旅发大会有关工作具有很好的学习和借鉴意义，回去之后将认真研究学习，落实其好经验、好做法，全力做好邢台市第四届旅发大会筹备工作。', '邓素雪强调，要以此次参观考察为契机，创新思路、开拓视野，重新审视我市第四届旅发大会的各项工作目标和存在的差距。全市各级各部门要进一步统一思想，提高认识，明确任务，强化措施，以最佳的精神状态、最饱满的工作热情、最高的工作标准、最好的工作效果，把邢台市第四届旅发大会办成一届精彩、震撼、圆满的盛会。要把市旅发大会作为展示邢台形象的重要平台，用全新的视角，精准的举措，奋力开创我市旅游高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>7</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>秦中堂带队赴柏乡学习考察大气污染治理工作</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2020-06-20</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nqx/202006/t20200623_569047.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['6月19日，副县长秦中堂带领县直各相关部门、各乡镇相关负责同志赴柏乡学习考察大气污染治理工作。', '秦中堂一行先后来到柏乡县部分施工工地、企业和空气质量检测点。每到一处，考察团都认真听取经验介绍，详细了解具体管控措施，并通过座谈交流听取了柏乡县通过科学规划、工业减排、多措除尘、网格管理、督查问效、依法治污等措施，治理大气污染的经验和做法介绍。', '秦中堂要求，要以此次考察学习为契机，认真学习借鉴柏乡县在大气污染防治工作中的先进经验和做法，结合我县实际，因地制宜，总结提炼，制定综合防治措施，科学精准治理大气污染。各有关部门要着眼全县大局，立足各自环保分工，密切配合，始终保持对大气污染防治的高压监管态势，坚决打赢大气污染治理攻坚战，确保环保各项措施落到实处，切实推进我县空气环境质量持续改善。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>7</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>市农业农村局张志英局长带队赴承德考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2020-06-24</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/nyj/202006/t20200624_569126.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['6月23日，市农业农村局张志英局长、马东邦副局长带领宁晋县农业农村局一行7人到承德平泉市考察学习食用菌产业。', '考察团首先听取了平泉市农业农村局、平泉市食用菌产业发展中心的经验介绍，对产业发展问题进行了交流学习。随后，参观了承德森源绿色食品有限公司、河北燕塞生物科技有限公司、平泉市瀑河源食品有限公司、平泉市希才应用菌科技发展有限公司、平泉市食用菌产业技术研究院等，对平泉市食用菌菌种生产，加工，包装，销售，科研等多环节进行了实地考察学习。考察团表示，此行收获很大，拓宽了思路，']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>7</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>油召乡防疫春耕两不误惊蛰时节种植忙</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/202003/t20200305_558719.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['惊蛰时节，作为我县农业大乡的油召乡，在抓好疫情防控的同时，利用好春耕备播的有利时机，鼓励和引导农民发展特色农业种植，提升土地利用价值，为农民丰产、增收打下坚实基础。', '3月5日农历二月十二，是二十四节气中的惊蛰,古人把它视为春耕开始的节令。当天上午，阳光灿烂，春风和煦，记者在油召乡张二町村田间看到，该村村民王建波正在自己承包种植的大蒜和草莓大棚查看农作物长势，进行精心管理。', '王建波告诉记者，种植蒜苔蒜是他经过外出考察学习后，特别引进种植的蒜苔蒜新品种。目前只需要做好技术管理，而在销路方面早与邢台今麦郎公司早签好收购合同。而草莓，从去年9月份种植到现在已经收获6到7茬。', '据了解，张二町所属的油召乡一带水土条件好，当地群众以种植小麦、玉米等传统农作物为主。但是多年以来，随着农资、人工等价格上涨，这些传统作物的收益却不见上涨，人们守着宝贵的土地资源却创造不了想要的价值。', '现在农民种植传统作物就是小麦和玉米，小麦玉米收入是相当少，搭上工以后基本就不挣钱。', '“怎样让群众手头上的土地资源创造更大的效益？”作为张二町村村委委员的王建波，一直在思考这个问题。他进乡赴县了解政策技术，外出到山东寿光、聊城、保定等地参观考察，交流学习。2019年年初，王建波决定把村民的土地承包起来，建设日光温室大棚，发展设施农业。', '我去年承包了560亩土地，承包土地就想发展大棚。去年建了一个草莓大棚作为试验，我是9月份种下草莓，10来月份就有收成了，效益特别可观。今年我要发展100亩大棚种植草莓、甜瓜、圣女果，我感觉设施农业大有可为。', '在王建波种植的草莓大棚内，记者看到其家人们正在收获已成熟的草莓。王建波兴奋地告诉记者，占地一亩有余的日光温室大棚，自去年草莓种植以来，累计收益3万多元。', '我们油召乡是农业大乡，当前我们在抓好疫情防控的同时，利用好春耕备播的有利时机，持续不断开展农业结构调整，鼓励和引导农民群众发展设施农业，支持群众种植蔬菜、水果等经济类作物，提升土地利用价值，增加农民收入，做到疫情防控和农业生产两手抓、两不误。目前我乡已在八辛庄村、王杨村、李元寨等形成了初具规模的蔬菜核桃种植基地。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>7</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>枣强县统计局来巨鹿考察金银花种植情况</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2020-03-19</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/tjj/202003/t20200319_559929.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['3月16日，衡水市枣强县统计局局长和大营镇党委书记一行4人来“金银花之乡”巨鹿县考察学习。在县统计局局长杨胜军的陪同下，到堤村乡实地参观考察金银花种植，了解贫困户脱贫等政策，到金玉庄村了解金银花小镇建设，金银花盆景制作工艺等。堤村乡乡长王刚、村支部书记、村民代表详细介绍了金银花的种植、管理、技术、收益等情况。枣强县统计局局长一行4人认为金银花种植既有观赏价值，又有经济效益，发展前景广阔，表示要把我县发展金银花种植经验带到大营镇去推广，让大营更多群众发家致富。', '。在县统计局局长杨胜军的陪同下，到堤村乡实地参观考察金银花种植，了解贫困户脱贫等政策，到金玉庄', '认为金银花种植既有观赏价值，又有经济效益，发展前景广阔，表示要把我县发展金银花种植经验带到大营镇去推广，让大营更多群众发家致富。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>7</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>李胜敏调研板材企业并主持召开转型升级工作</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2020-03-19</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/202003/t20200319_559870.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['李胜敏调研板材企业并主持召开转型升级工作现场会议强调 优化服务 协调联动 加快企业转型步伐', '李胜敏调研板材企业并主持召开转型升级工作现场会议强调 优化服务 协调联动 加快企业转型步伐', '李胜敏强调，要引导板材企业围绕宠物产业链条，结合自身实际，转型生产宠物湿粮、零食、家具等食品用品，或加工蔬菜、核桃粉、果木粉等宠物食品用品原料，或将闲置厂房改造为仓储基地。农业农村部门要联合贾宋镇、科工、生态环境、自然资源等部门，对板材企业负责人开展集中培训，重点讲解我县支持政策和宠物产业发展态势，并到先进企业现场考察学习，帮助板材企业明确转型方向。农业农村、行政审批、自然资源、生态环境、市场监管等相关部门要积极为转型企业办理相关手续。县宠促会要加强板材企业与宠物产业企业的沟通，通过精准对接，实现更快转型，更好发展。', '李胜敏指出，要对板材企业占地情况进行梳理，根据土地性质进行分类，逐企逐地块明确拆除、改造、收回等处置意见。要加强与板材企业的沟通，每家板材企业都要形成具体转型方案和可行性报告，要结合宠物产业需求统筹研判，避免新增大量同类项目。', '李胜敏要求，要抓住春季有利时机，全面做好国土绿化工作。城乡道路两侧要清理到位，全部绿化，废弃土路要及时复耕或绿化；各乡镇要提高公墓绿化标准，种植常绿树种，外围形成绿化带；县经济开发区和各乡镇要督促辖区企业加强厂区内外绿化，特别是厂区门口、车间出入口，可采取乔灌结合方式增加绿量，打造园林式企业。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>7</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>县供销社赴内丘县学习考察农村产权交易工作</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2020-04-03</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/202004/t20200426_563221.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['为健全农村产权交易体制机制，推动我县农村产权交易工作有序开展，学习借鉴成功经验和做法，4月2日上午，县供销社主任徐文英带领主管主任、农村产权交易公司工作人员，赴内丘县实地考察学习农村产权交易工作经验。', '学习考察组通过参观内丘县农村产权交易中心场地设施建设、人员配备、交易流程，并积极交流学习、对接面对面咨询等方式，认真听取了内丘的经验介绍，查找出自身差距，为下一步工作开展理清了思路，提高了认识。大家认为内丘县农村产权交易工作可学习可借鉴考察学习，为我县开展农村产权交易提供了宝贵经验。', '下一步我县将重点围绕以下几点推动工作开展：一是进一步完善县农村产权交易中心建设；二是推进乡镇农村产权交易服务站建设；三是加强对工作人员操作流程培训；四是加大宣传力度，提高群众认识度。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>7</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>石家庄市鹿泉区司法局到我区司法局考察学习</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2019-11-28</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/201911/t20191128_551064.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['11月22日，石家庄市鹿泉区司法局党组书记高明芳、区法院副院长赵辰红一行16人到我区司法局考察学习，党组书记、局长焦新婷陪同。', '考察组一行先后参观了大梁庄乡公共法律服务中心、区社区矫正中心、区公共法律服务中心、区诉调对接中心。在大梁庄乡公共法律服务中心详细了解了司法所规范化建设，参观了史书秀个人调解室，翻阅了相关档案；在区社区矫正中心先后参观了报到登记室、社区矫正宣告室、信息化指挥中心、集中培训室、心理矫正室等功能科室，工作人员现场演示了区域设定、定位核查、轨迹回放、随机抽检等信息化监管工作，汇报了社区矫正“彩虹计划”及“社矫云课堂”等创新工作举措；在区公共法律服务中心观看了“VR网上普法展厅”、宪法主题公园设计片、《法治桥东》栏目；在区诉调对接中心参观了人民调解员调解室、律师公益岗位等功能科室，详细询问了解调解员工作开展情况。', '考察组一行先后参观了大梁庄乡公共法律服务中心、区社区矫正中心、区公共法律服务中心、区诉调对接中心。在大梁庄乡公共法律服务中心详细了解了司法所规范化建设，参观了史书秀个人调解室，翻阅了相关档案；在区社区矫正中心先后参观了报到登记室、社区矫正宣告室、信息化指挥中心、集中培训室、心理矫正室等功能科室，工作人员现场演示了区域设定、定位核查、轨迹回放、随机抽检等信息化监管工作，汇报了社区矫正', '随后在会议室就如何更好地开展司法行政工作进行了交流。会上，党组书记、局长焦新婷对鹿泉区司法局莅临参观交流学习表示热烈欢迎，并希望在今后工作中互相学习、借鉴经验和做法，从而发挥好司法行政的专业优势，切实将司法行政工作做实、做深、做透。考察组一行对我区司法局的各项工作给予了高度评价，表示今后要以更大的热情和信心投入到工作中去，将兄弟司法局的先进工作经验和做法注入到工作中去，不忘初心、牢记使命，推进司法行政工作更好地发展。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>7</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>山西左权县核桃协会来宁考察学习</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2019-12-03</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/201912/t20191203_551580.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['近日，山西省左权县核桃协会会长高迎斌带领40名骨干会员，在左权县科协副主席韩世红、林业局经济林中心主任崔树恩带领下，到我县垄上行土地托管协会考察学习。', '左权是国家级贫困县，面积2000余平方公里，人口16万，山多人少，35万亩山坡地核桃，是左权县的农业支柱产业。该县家家都有核桃树，户户青壮年劳动力外出打工，从事核桃种植的大多是留守老人和妇女。生产、管理水平不等，品种不统一，品质难提高，制约着当地核桃产业的发展。该县核桃协会根据当地县委、县政府要求，不断探索核桃生产产业化的路子。', '县垄上行土地托管协会负责人介绍了协会发展历程，县科协负责人详细解释了垄上行土地托管模式的构成、运行机制。高迎斌一行认为，宁晋县垄上行土地托管协会托管会员土地，生产的是小麦玉米，左权县可以托管核桃树，开展核桃种植，托管内容虽然不同，但模式可以复制。左权客人讲得通俗易懂，听得认真仔细，学到了能落地的干货，收获满满，表示将学到的垄上行的经验做法尽快应用到实际工作，把当地的核桃产业做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>7</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>清河局圆满完成年创新举措和民生实事</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2019-12-19</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/syzglj/201912/t20191219_552929.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['2019年以来，清河局认真落实国家局和省市局安排部署，扎实开展“树正气、转作风、优环境、促发展”活动，坚持问题导向，聚焦发展和社会关切，补短板、强弱项，促均衡、提品质，圆满完成创新举措和民生实事10件。', '扎实开展“树正气、转作风、优环境、促发展”活动，坚持问题导向，聚焦发展和社会关切，补短板、强弱项，促均衡、提品质，圆满完成创新举措和民生实事10件。', '开展“服务提质”工程。深入实施“快递入区”工程，持续完善末端服务网络，提高服务水平。目前，共建成“快递便利店”“快递末端综合服务站”等形式的共配中心6个，部署智能快递柜50组，城区自营网点标准化率实现100%。', '深入实施“快递入区”工程，持续完善末端服务网络，提高服务水平。目前，共建成“快递便利店”“快递末端综合服务站”等形式的共配中心', '推进“邮政在乡”工程。强化检查力度，督促邮政企业严格落实《邮政普遍服务》标准，保障人民群众用邮权益。目前，乡镇村党报党刊、信件和包裹投递时效全部达标，建制村直接通邮率达100%。', '强化检查力度，督促邮政企业严格落实《邮政普遍服务》标准，保障人民群众用邮权益。目前，乡镇村党报党刊、信件和包裹投递时效全部达标，建制村直接通邮率达', '加强快递与多行业协同发展。推动快递进一步服务好特色产业电子商务、制造业，加强信息沟通,提高协同融合发展水平。培育四个业务量超千万件快递服务制造业项目。', '推动快递进一步服务好特色产业电子商务、制造业，加强信息沟通,提高协同融合发展水平。培育四个业务量超千万件快递服务制造业项目。', '引进跨境物流服务企业。引进佳成国际物流，为跨境电商企业提供低成本的跨境物流服务，促进跨境电商产业发展。', '推进物流产业聚集区建设。强化沟通协调和对上申报，加快推进市级物流产业聚集区建设各项工作，物流产业聚集区规划已获得市发改委批复，并被纳入市现代服务业创新发展项目库。', '强化沟通协调和对上申报，加快推进市级物流产业聚集区建设各项工作，物流产业聚集区规划已获得市发改委批复，并被纳入市现代服务业创新发展项目库。', '加强数字化监管。实现远程视频监管平台邮政快递网点和分拣中心全覆盖，督促企业落实安全生产主体责任和“不着地、不抛件、不摆地摊”的承诺，提升服务质量。', '实现远程视频监管平台邮政快递网点和分拣中心全覆盖，督促企业落实安全生产主体责任和“不着地、不抛件、不摆地摊”的承诺，提升服务质量。', '推进“平安寄递”建设。联合综治、公安、市场监管等部门开展寄递物流渠道联合检查，推动落实寄递安全“三项制度”，圆满完成“两会”“国庆70周年”等重大活动期间行业安全和服务保障工作。', '联合综治、公安、市场监管等部门开展寄递物流渠道联合检查，推动落实寄递安全“三项制度”，圆满完成“两会”“国庆70周年”等重大活动期间行业安全和服务保障工作。', '推进快递员关爱工程。在节假日期间，走访慰问一线快递员和行业优秀人才，开展暑期送清凉、快递员关爱月、快递员职业满意度调查、急救知识培训等活动，让从业人员感受到重视和关爱。', '依法维护消费者合法权益。实施“放心消费工程”，持续对邮政快递企业服务满意度、用户申诉率以及侵害消费者权益行为开展监督规范，全年消费者申诉处理满意率达98%。', '实施“放心消费工程”，持续对邮政快递企业服务满意度、用户申诉率以及侵害消费者权益行为开展监督规范，全年消费者申诉处理满意率达98%。', '充分发挥快递协会作用。成立了快递行业协会和协会党支部，发挥党员先锋模范作用，组建“青骑”志愿者服务队，组织快递员参与“双城同创”“精准扶贫”活动，宣传正能量。引导企业间加强末端派送协作，组织企业负责人到山东德州考察学习，提升运营能力。', '快递行业协会和协会党支部，发挥党员先锋模范作用，组建“青骑”志愿者服务队，组织快递员参与“双城同创”“精准扶贫”活动，', '宣传正能量。引导企业间加强末端派送协作，组织企业负责人到山东德州考察学习，提升运营能力。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>7</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>巨鹿县到邢台园博园观摩学习</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2019-11-25</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/201911/t20191125_550748.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['为促进全县园林绿化建设水平的提高，助推我县园林城市再上新台阶。11月20日,县委书记孙保祥带领县直有关部门到邢台园博园进行观摩学习。', '初冬时分，经过寒风洗礼的邢台园博园渐渐变红变金，比夏季更多了一份色彩。尽管天冷游客不多，但蓝天碧水的超大园区景色依旧迷人。', '太行名郡·园林生活，以“一核、两岸、五区、多园”为空间构架，以“城市绿心·人文山水园”为定位的邢台园博园，在冬日的暖阳照耀下，青的更加透彻，绿的更加深沉。', '邢台园博园的规划，既展示了城市历史脉络，又彰显了燕赵城市特色，各种类型、风格的建筑极大地丰富了园博园的景观。', '此次考察学习收获颇丰，大家开阔了眼界、增长了见识、拓展了思路、找准了自身差距，同时，为全县下一步园林城市提升奠定了坚实基础。', '孙保祥指出，园博园的许多亮点值得我们认真借鉴，大家要以此次学习为契机，把园博园在建设中的好经验好做法带回去,取长补短,学习其先进设计理念、塑造我们特色的精品公园，加快推动全县园林绿化建设上规模、上档次、上水平。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>7</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>沧州市考察学习组到我局考察学习</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2019-12-13</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/xzfwzx/201912/t20191213_552595.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['12月13日，沧州市政府副秘书长陈瑞龙带队一行5人来我局就政务服务中心建设、窗口事项进驻、行政审批事项及人员划转等方面进行考察学习。市行政审批局副局长侯保行接待陪同。', '学习组首先参观了一楼政务服务大厅和二楼封闭审批区，了解了政务服务中心整体布局及窗口事项进驻情况。', '随后，在局三楼会议室举行了座谈会。会上，侯保行详细介绍了我局行政审批事项及人员划转情况，并就“两不见面”审批改革、商事制度改革、工程建设项目审批改革、企业投资项目承诺制改革等工作的经验做法和成效与学习组进行了交流探讨。', '陈瑞龙对我局审批制度改革工作给予了高度评价。沧州市行政审批局副局长张志宏表示，此次来邢台市行政审批局学习考察收获颇丰，为沧州市行政审批局接下来的工作提供了诸多宝贵经验。沧州市行政审批局将加强与邢台市行政审批局的沟通交流，开拓新思路、寻求新突破，因地制宜地进行行政审批制度改革，全力推动和促进行政审批工作不断进步和发展。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>7</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>东良镇唐庄村哈密瓜丰收啦</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2020-06-10</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/202006/t20200610_567862.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['6月9日，记者走进东良镇唐庄村大棚哈密瓜种植基地，大棚内弥漫着一股沁人心脾的哈密瓜香，哈密瓜藤蔓挂满了体形硕大、网纹精致的哈密瓜。', '采摘、分拣、称重、装箱、上车……瓜农们正抢抓有利时机，积极做好销售工作，确保鲜瓜变为现钱。', '“真没想到，今年我们村第一年种植大棚哈密瓜就实现了大丰收。”唐庄村党支部书记唐志龙说，今年，唐庄村共建设哈密瓜大棚24个，占地80亩，每亩地可收获哈密瓜7000斤，刨除种植成本，每亩纯收入可达10000余元。', '据了解，唐庄村种植的大棚哈密瓜是唐庄村党支部书记唐志龙，经过多方考察学习后，借鉴该县小孟村成功种植经验，建设的优质哈密瓜种植基地。', '“听朋友说，这里种植的哈密瓜口味香甜，瓜肉肥厚，清脆爽口，今天特意慕名赶过来采摘，带回去送给亲朋好友。”正在采摘的邢台市民李女士说，在家门口就能品尝到正宗新疆哈密瓜的味道，真是不错！', '“为把哈密瓜种好，取得良好效益，我们村还专门聘请了专业技术人员驻村指导，并依托小孟村哈密瓜种植基地的销售渠道，发展订单农业。”唐庄村党支部书记唐志龙说，村里还利用紧邻高速口的区位优势，建立了20亩休闲采摘基地，促进农民增收。', '“采用‘订单农业+休闲采摘’种植模式，我们种植的大棚哈密瓜实现了种不忧销不愁，并且还带动本村及周边村50多名剩余劳动力实现了就业。”唐志龙说，下一步，我们将在村里大面积推广，吸纳更多的农户加入进来，带领群众共同致富。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>7</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>邢台市驻上海招商办事处工作动态</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2020-05-27</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/shwj/202006/t20200601_566846.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['5月23日上午，我办召开5月份工作例会，王志彬副主任主持例会，郝丽双主任传达学习市“双进双产”第四次例会精神及近期各级领导工作要求，综合组、项目组、信息组分别就近期工作情况做了汇报。郝主任向全员发起“大干5个月，实现腾空跃”到十月底提前完成全年招商任务的奋斗目标。', '第四次例会精神及近期各级领导工作要求，综合组、项目组、信息组分别就近期工作情况做了汇报。郝主任向全员发起', '例会之后，郝主任以“寻找人生价值”为主题，开展了党性专题学习会。与会人员观看了视频《平凡英雄》《初心、梁家河篇》等，就“我为什么活着？”“我如何成为父母的骄傲和孩子的榜样？”“如何实现人生价值的最大化？”三个问题进行了讨论交流，并填写《个人南下招商立志卡》。郝主任现场宣读了自己的立志卡。', '此次培训会立足当前我办招商员在经历最初到沪的兴奋期，到现在的迷茫期的实情，重实用、有实效，为当前迷茫期的招商员指明了方向，重温初心，寻找使命，激发了招商员做好招商选资工作的内在“永动机”。各县（市、区）在沪招商人员共69人参加此次会议。', '此次培训会立足当前我办招商员在经历最初到沪的兴奋期，到现在的迷茫期的实情，重实用、有实效，为当前迷茫期的招商员指明了方向，重温初心，寻找使命，激发了招商员做好招商选资工作的内在', '5月23日下午，邢台市驻上海招商办事处举行“讲好邢台故事路演大 PK”活动。活动由上海党总支副书记、柏乡县领队赵江飞主持，郝丽双主任、王志彬副主任、综合组组长、项目组组长、各县（市、区）领队担任评委，在沪招商人员全员参与。', '20个县（市、区）各派出1名招商员代表，以演讲形式讲述邢台故事，并根据选手仪表形象、语言表达、故事内容、综合表现进行评分。通过激烈角逐，宁晋县曹智荣获一等奖，平乡县张燕粉、桥东区张捷荣获二等奖，南和县任翊乾、隆尧县王素岭、柏乡县甄星旭荣获三等奖。', '比赛结束后，各县（市、区）领队对此次路演大PK作总结点评。郝主任强调了举办本次活动的目的和意义，充分肯定了各位参赛选手的良好表现，也指出了存在的不足，希望大家扎扎实实练好基本功，为邢台高质量赶超发展奉献力量。', '5月20日，在驻上海招商办事处的推动下，临城县副县长张喜振、内丘县副县长路阔、临城县驻上海招商组领队李国峰、内丘县驻上海招商组领队张志杰等到南京海昌中药集团考察学习，与海昌集团董事长蔡宝昌、运营总监马东晖进行座谈交流，推动华北中药材产业科创园暨太行山道地药材产业标准化基地建设，并就海昌扁鹊城、中药材深加工中心、自动化煎煮配送中心、中医药旅游康养、电子商务等项目达成初步合作意向。', '5月26日，郝丽双主任邀请邢台老乡、中国大数据技术与应用联盟副秘书长薄胜赴杭州进行项目推介和观摩。郝主任一行参观了杭州微医互联网医院数据中心总部和乌镇互联网医院展厅，学习了“云上”求医、从医先进技术做法，就打造超大互联网医健平台、数字健共体、健康产业小镇、微医邢台互联网医院、健康扶贫等5个方面进行了初步对接。', '5月20 日以来，由项目组组长牵头，组织精干力量开展签约项目“回头看”核查工作。本次核查突出一个“实”字，以“协议文本要完整，内容要详实，签约日期、签署方盖章、法人签字等相关要素务必齐全完善，甲方原则上要是县（市）、区政府或下辖园区管委会，投资方原则上要是河南省、湖南省、湖北省、上海市、江苏省、浙江省、福建省、山东省、江西省、安徽省等华中、华东10省、市片区内企业”为要求，对各县（市、区）上报的签约项目进行了“回头看”。核减结果在驻沪招商领队群及例会上进行了通报：一是3月1日之前签订的19个项目协议一律不予认定；二是对于内容不完善不详实的框架协议、投资方为省内本地企业的及方不属于驻沪办招商片区范围的、市政配套设施的等8个项目一律不予认定。核减之后，认定签约项目共计17个。', '5月20日，平乡县与浙江新长城文旅集团有限公司签订平乡新长城文旅康养影视基地项目协议，项目内容为“打造中国首座大型水上亲子乐园”，集文化创意、影视拍摄、旅游度假、健康养老养生、智慧村医等为一体，投资总额为 30 亿元。（平乡县驻沪招商组）', '5月21日，临城县与南通中开嘉华通讯科技发展有限公司，签定5G智慧城市建设合作协议，以此促进临城县高新技术发展，带动当地经济增长，提升城市综合竞争力。 （临城县驻沪招商组）', '5月21日，杨耀臻博士一行两人赴巨鹿县洽谈靶向药物研发项目。县委书记孙保祥、县长郑更须、副县长王彪在县委二楼会议室同杨博士一行进行了深入会谈，双方就合作细节达成一致意见。（巨鹿县驻沪招商组 ）', '5月22日，南京尚迪纳米科技有限公司执行董事边东升、副总经理王中平一行赴任县进行考察，县委副书记、县长杨蕾、副县长陈建民出面接洽。洽谈会上，双方就新型生物酶碳源项目进行了深入交流，杨县长代表县政府为边东升颁发“任县招商引智大使”聘书。会后，边董一行赴新源污水处理厂等地进行了实地考察，双方达成初步合作意向。 （任县驻沪招商组 ）', '5月20日--22日，内丘县政府副县长路阔一行赴沪考察对接企业。5月20日，就在内丘建设中药道地药材种植基地和中医药深加工项目同南京海昌中药集团有限公司蔡宝昌董事长会谈。5月21日，就东方希望集团屠宰场项目尽快开工落地等事宜、钜成企业管理（集团）有限公司建设电竞新数字互娱产业园项目、酸枣系列产品“精、深、高”三方面规划发展项目进行推动。5月22日上午，就财纳福诺木业（中国）有限公司石晶地板项目、上海中城公司城市商业综合体项目进行推动。此次赴沪考察，基本与各企业达成合作意向，下一步，将继续深入洽谈，推动项目签约落地。（内丘县驻沪招商组）', '5月26日，王耀民副县长带领巨鹿驻沪招商组赴山西长治仁达机械厂洽谈玉米收割机整机组装及零部件生产项目。王副县长介绍了巨鹿县的区位优势和招商选资优惠政策，任总经理介绍了公司的目前情况和下一步的发展规划。双方就合作方式达成初步共识。（巨鹿县驻沪招商组 ）']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>7</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>陕西靖边县人大考察团到我县考察学习</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2020-06-08</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/202006/t20200608_567497.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['6月2日，陕西省靖边县人大常委会主任白春阳一行到我县就中小型食品加工企业生产、包装、销售等方面的经验和做法进行考察学习。 考察团先后到河渠镇麦克食品、华威食品、晶达包装和人大代表联络站等地进行了实地查看，对我县食品行业在发展思路、经验措施、发展规划等方面取得的成功经验给予高度评价。 县人大常委会主任赵祖锋参加活动，向考察团介绍了我县的基本情况，并希望通过此次活动，进一步加强两地商贸合作，互通有无、拓展市场，推进两地食品产业高质量发展。同时，我县也将借鉴靖边县在经济社会发展、人大组织建设等方面的先进经验和做法，搭建友谊之桥，促进合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>7</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>县委常委办公室主任宋光华到北京涿州考</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2020-06-01</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/202006/t20200601_566851.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['5月24日—25日，县委常委、办公室主任宋光华带领巨鹿县农业农村局和农业相关企业代表来到河北保定涿州市、北京新发地市场进行考察学习。', '24日，宋光华一行首先来到保定市涿州市翔天集团进行了实地参观，先后参观了生物研发中心、食用菌技术研究所及翔天集团与中国农业科学院联合研发的全球首创——“食药用菌智慧工程”。参观过程中听取了翔天集团的基本情况及发展方向。并与翔天集团董事长肖俊培进行了交流座谈。', '座谈会上，宋光华首先介绍了巨鹿县经济发展情况和食用菌种植情况，经过沟通双方达成初步共识，翔天集团近期就食用菌种植到巨鹿县进行考察。', '25日，宋光华一行来到北京新发地市场进行考察对接，先后参观了肉类交易大厅、综合交易大楼、蔬菜市场单品交易大厅、果品市场精品一区，每到一处都详细了解市场经营情况，座谈会上，与市场董事长张玉玺针对我县农业发展以及区域品牌打造，双方进行了深度沟通交流。', '宋光华指出，巨鹿近年来在努力打造以有机蔬菜、中药材、小杂粮、林果业等6大品种为主导的农业发展格局。新发地市场是农产品流通领域的龙头标杆，而且具有丰富的扶贫、带贫经验，欢迎新发地市场到巨鹿县考察合作，助力加快推动巨鹿特色农业强县建设进程。巨鹿县政府将充分做好服务工作，全力以赴保障双方合作项目的顺利建设。', '张玉玺董事长对巨鹿县考察团一行的到来表示欢迎，并详细介绍了新发地市场的相关情况。他表示，北京市消费力巨大，而且农产品自给率极低。近几年新发地市场大力在外省发展建设分市场和种植基地，保障首都供应稳定。新发地市场已经探索出一套“企业抓两端，农民干中间”的扶贫模式。希望能够以本次考察对接为起点，双方进一步加强沟通对接，加快拓展双方合作的深度和广度，助力巨鹿县的乡村振兴。', '张玉玺董事长对巨鹿县考察团一行的到来表示欢迎，并详细介绍了新发地市场的相关情况。他表示，北京市消费力巨大，而且农产品自给率极低。近几年新发地市场大力在外省发展建设分市场和种植基地，保障首都供应稳定。新发地市场已经探索出一套']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>7</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>沧州青县政协到任县考察学习中国和合文化</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2020-05-26</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202005/t20200526_566249.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['5月22日，沧州青县政协党组副书记、副主席刘传瑞一行5人到任县考察学习“中国和合文化之乡”申创工作经验。县政协副主席程现军、刘宇新陪同考察。', '座谈会上，双方共同观看任县和合文化宣传片，并就文化之乡的申请条件、申报材料、关键节点等相关内容展开交流讨论。交流过程中，任县将成功创建“中国和合文化之乡”的一些好经验和好做法进行详细介绍。', '座谈会上，双方共同观看任县和合文化宣传片，并就文化之乡的申请条件、申报材料、关键节点等相关内容展开交流讨论。交流过程中，任县将成功创建', '程现军指出，任县各级高度重视“和合文化”的挖掘、保护和传承，做了大量卓有成效的工作，深入弘扬文化内涵，大力保护文化遗址，让“和合文化”实现了创造性转化、创新性发展，成功申创了“中国和合文化之乡”和“中国和合文化研究基地”。', '刘传瑞表示，任县在“中国和合文化之乡”申创工作中做了大量工作，值得学习、思考和借鉴，要把任县的好经验、好做法带回去，结合当地实际推动青县“中国盘古文化之乡”的创建工作取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>7</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>隆尧县创城考察团到邯郸市临漳县参观学习</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2020-04-28</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/202004/t20200429_563824.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['4月27日，县委常委、统战部长张素彩率领我县“三城” 同创办公室、省级文明县城创建组和东良镇到邯郸市临漳县考察学习新时代文明实践中心建设工作。', '考察期间，张素彩一行先后来到临漳县新时代文明实践中心指挥部、行政服务大厅、健康主题公园、新时代文明实践孵化培训基地、临漳镇新时代文明实践所、回漳村新时代文明实践站等点位，通过仔细看、认真听、细致记、随手拍、耐心问，详细了解了每一个活动场所、每一条管理制度、每一支志愿者队伍建设方法，力求学习好、吸收好先进经验，为我县全面推进和落实新时代文明实践中心建设提供方法和思路。', '近年来，临漳县把新时代文明实践中心建设作为巩固党执政基础和群众基础的战略举措，助推乡村振兴的重要抓手，牢固树立“以人民为中心”的工作理念，立足县情实际，坚持目标导向和问题导向，重点围绕谁来做、做什么、怎样做的问题，探索制定了“12455”工作思路，围绕设置三级机构、整合各级资源、建立工作机制、谋划服务项目、开展实践活动五项工作重点，强统筹、整资源、建机制、育项目、抓实效，顶层谋划、统筹协调、全力推进，着力打造了“文明临漳慷慨邺城”文明实践品牌。在全县营造了凝聚群众、引导群众、依文化人、成风化俗的文明实践浓厚氛围。', '考察结束后，我县代表团表示，要认真学习总结临漳县的典型经验，结合我县创城实际，对照先进找差距，采取有效措施，以坐不住的紧迫感、等不起的责任感、慢不起的危机感，对创城各项工作进行再谋划、再提升、再完善，盯紧目标不放松，确保我县“三城”同创工作顺利开展。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>7</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>沙河市公安局到任县公安局参观交流学习执法</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2020-04-26</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/202004/t20200426_563393.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['4月13日下午，沙河市公安局副局长郭双敏带领法制大队长豆爱英等一行7人，到任县公安局考察学习了执法办案管理中心建设、运行工作以及案管工作机制。', '沙河市公安局考察组一行实地参观了任县公安局执法办案管理中心、案件管理中心、合成作战区、办案联动区。', '考察期间，任县公安局法制大队长吴欣向考察组详细介绍了任县公安局执法办案管理中心的建设、运行情况以及案管工作机制。', '通过此次的考察学习、交流互动，促进了两地公安的相互了解，增进了单位感情，相互取长补短，为两地今后的法制工作再上一新的台阶打下了扎实基础。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>7</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>隆尧县供销社赴内丘县学习考察农村产权交易</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2020-04-09</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/gxs/202004/t20200413_562021.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['为健全农村产权交易体制机制，推动隆尧县农村产权交易工作有序开展，学习借鉴成功经验和做法，4月2日上午，隆尧县供销社主任徐文英带领主管主任、农村产权交易公司工作人员，赴内丘县实地考察学习农村产权交易工作经验。', '学习考察组通过参观内丘县农村产权交易中心场地设施建设、人员配备、交易流程，并积极交流学习、对接面对面咨询等方式，认真听取了内丘的经验介绍，查找出自身差距，为下一步工作开展理清了思路，提高了认识。大家认为内丘县农村产权交易工作可学习可借鉴考察学习，为隆尧县开展农村产权交易提供了宝贵经验。', '下一步隆尧县将重点围绕以下几点推动工作开展：一是进一步完善县农村产权交易中心建设；二是推进乡镇农村产权交易服务站建设；三是加强对工作人员操作流程培训；四是加大宣传力度，提高群众认识度。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>7</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>邢台市考察团赴石家庄裕华区参观学习理顺物</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2020-04-25</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/mzj/202004/t20200428_563774.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['学习，重点学习物业管理体制机制、基层社区治理相关经验、有物业小区和无物业老旧小区治理模式等。实地走访', '此行开拓了视野、增长了见识、解放了思想，考察团表示一定认真学习好、消化好、运用好这次考察学习成果，结合我市、区实际情况，以求真务实的作风和改革创新的精神，推动理顺物业管理体制机制和城市社区治理工作扎实有效开展，不断增强社区居民获得感、幸福感和安全感，努力构建共建共治共享社区治理新格局']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>7</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>副区长魏彦辰赴重庆两江新区考察学习</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2020-04-22</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/202004/t20200422_562897.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['4月19日至20日，副区长魏彦辰带队赴重庆两江新区考察学习招商引资、经济建设工作，区人大常委会副主任杜高生、等一行五人参加，重庆两江新区党工委副书记、管委会常务副主任王志杰及党工委、管委会办公室副主任但堂文接待了桥东区考察团。重庆两江新区于2010年6月挂牌成立，作为长江上游地区的金融中心和创新中心、内陆地区对外开放的重要门户，是继上海浦东新区、天津滨海新区后国务院批准的第三个、内陆第一个国家级开发开放新区，规划总面积1200平方公里、可开发面积550平方公里。至2018年，该新区主要经济指标在重庆市占比呈现“一二三四五六”的格局，即：以不到全市1.5%的面积，贡献了全市约15%的经济总量、20%的工业产值和数字经济增加值，集聚了全市30%的实际利用外资总额、40%的进出口总额、50%的世界500强企业、60%的汽车产量，经济规模在19个国家级新区中排名第4位。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>7</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>新疆若羌扶贫办来巨鹿县考察学习</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2019-11-10</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/jlx/201911/t20191110_549004.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['月4日，新疆若羌县扶贫办主任高明带领考察组来巨鹿县考察脱贫攻坚工作。市扶贫办副主任邵珍、副县长赵洪义一同考察。', '考察组先后参观县防贫中心、福缘居医养中心、金银花种植基地、金玉庄村、克瑞森葡萄种植基地，并对巨鹿县精准防贫、产业扶贫、长期护理险等工作给予高度评价。考察组通过实地参观和听取情况介绍，对巨鹿县脱贫攻坚工作开展情况有了更加全面细致的了解，认为巨鹿县工作模式好、思路新、有特色，回去之后，将把这次在巨鹿县考察学习到的典型经验措施，运用到若羌县脱贫攻坚工作中去，以更加精准的措施推动若羌县脱贫攻坚各项工作深入开展。', '赵洪义在考察交流过程中，详细介绍了全县脱贫攻坚工作中的相关经验和做法，解答了考察组提出的问题。并希望两地加强对接交流，促进优势互补，共同推动两县经济又好又快发展。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>7</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>临西县又新增一家省级企业技术中心</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2019-10-15</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lxx/201910/t20191025_547404.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['近日，省发改委、省科技厅、省税务局、石家庄海关等4部门联合发布了2019年河北省企业技术中心名单，临西县中伟卓特液压科技有限公司技术中心名列其中，至此临西县省级企业技术中心已达到3家。', '据了解，省企业技术中心是实施创新驱动发展战略的重要载体，对培育壮大新功能、建设创新型河北具有重要意义。我省每年对创新能力强、创新机制好、引领示范作用大、符合条件的企业技术中心予以认定，并给予政策支持，鼓励引导行业骨干企业建立完善技术创新体系，示范带动产业技术进步和创新能力提高。', '据了解，省企业技术中心是实施创新驱动发展战略的重要载体，对培育壮大新功能、建设创新型河北具有重要意义。', '我省每年对创新能力强、创新机制好、引领示范作用大、符合条件的企业技术中心予以认定，并给予政策支持，鼓励引导行业骨干企业建立完善技术创新体系，示范带动产业技术进步和创新能力提高。', '近年来，临西县深入贯彻落实习近平新时代中国特色社会主义思想，积极践行新发展理念，大力实施了增品种、提品质、创品牌“三品工程”，并出台实施了“零占地技改”“科技创新奖励十条”等相关优惠政策，并与清华、燕山等大学、科研院所建立了“产学研”合作关系，积极引导、扶持企业提高科技创新能力。同时，临西县深入开展“双创双服”活动，对重点企业实行“一对一”帮服创新举措，为企业发展提供优良的环境。', '近年来，临西县深入贯彻落实习近平新时代中国特色社会主义思想，积极践行新发展理念，大力实施了增品种、提品质、创品牌“三品工程”，并出台实施了“零占地技改”“科技创新奖励十条”等相关优惠政策，并与清华、燕山等大学、科研院所建立了“产学研”合作关系，积极引导、扶持企业提高科技创新能力。', '同时，临西县深入开展“双创双服”活动，对重点企业实行“一对一”帮服创新举措，为企业发展提供优良的环境。', '中伟卓特紧抓有利发展机遇，聘请了多名国内外液压专家，打造了一支由专家领军，博士、硕士、学士为技术骨干的高素质科研团队，定期派出技术人员出国考察学习，结合用户实际应用经验，对产品进行创新升级；与河北燕山大学等多所高等院校进行校企合作，设立了高科技项目研发基地和管理培训中心，持续培养输送优秀的专业定向人才。目前，中伟卓特液27项科研成果获国家专利；企业生产的液压泵、液压马达、减速机总成的挖掘机液压传动件，国内市场占有率50%以上、东南亚等各国市场产占有率70%以上，并成功研发了工程机械轮式挖掘机。', '中伟卓特紧抓有利发展机遇，聘请了多名国内外液压专家，打造了一支由专家领军，博士、硕士、学士为技术骨干的高素质科研团队，定期派出技术人员出国考察学习，结合用户实际应用经验，对产品进行创新升级；', '与河北燕山大学等多所高等院校进行校企合作，设立了高科技项目研发基地和管理培训中心，持续培养输送优秀的专业定向人才。', '企业生产的液压泵、液压马达、减速机总成的挖掘机液压传动件，国内市场占有率50%以上、东南亚等各国市场产占有率70%以上，并成功研发了工程机械轮式挖掘机。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>7</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>市政协到邯郸武安市学习考察旅游产业</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/shs/201910/t20191014_545973.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['为认真学习借鉴先进地区发展旅游产业的经验和做法，10月10日，市政协主席胡春兴率队到武安市学习考察旅游产业，副主席段改民、张辉银及部分政协委员参加考察。', '期间，在武安市市领导韩保魁、梁考绩、郝伟的陪同下，胡春兴一行参观考察了九龙山矿山生态修复公园、武安博物馆、洺湖新区、伯延古镇、戏曲小镇楼上村、东太行晨曦酒店等处，详细听取了有关情况介绍，了解武安市旅游产业发展情况，重点文化旅游项目建设，传统文化创新性发展、创造性转化等方面的经验做法。', '每到一处，考察人员都认真听，仔细看，细细品，认真学习，并详细询问武安市景区和项目的建设理念、策划、运营、机制、资金投入等细节和关键问题，一起探讨经营管理的成功经验，进一步找差距、谋思路、明方向。座谈会上，双方就各自经济社会发展情况进行了介绍。胡春兴对武安市的热情接待，以及在学习考察中给予的帮助和支持表示感谢，他说，通过此次考察学习，深切感受到武安市在发展旅游产业上速度之快、气魄之大，势头之强劲。我们要认真总结，以这次考察为契机，进一步加强与武安市的交流合作，学习武安市发展旅游产业的好经验好做法，将学到的经验及时消化总结，汲取精华，取人之长，切实把考察成果转化为实际行动、工作举措和发展成效，全力推动沙河旅游产业提档升级，同时也希望武安各界多到沙河走亲访友，交流发展经验，谋求新的合作领域，共赢发展、共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>7</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>邢台市市场监督管理局到元氏县考察学习散煤</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2019-10-13</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jcj_2435/201910/t20191015_546053.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['2019年10月12日上午，市局党组书记柳金钟、副调研员赵辉带队，一行8人赴元氏县市场局考察学习散煤管控工作先进经验和做法。元氏县副县长赵善祥、元氏县市场局党组书记秦增桥、局长黄会林、副局长师喜川等参加座谈交流会。 交流会上，副县长赵善祥对我局的到来表示欢迎，并介绍了元氏县在散煤管控方面的工作做法。元氏县委、县政府高度重视煤炭管控工作，成立了劣质散煤工作领导小组办公室，并从成员单位抽调人员脱离原工作成立专门执法队伍；下发《元氏县人民政府关于做好农村劣质散煤管控工作的决定》，为公安部门执法提供依据；专门与村支部书记开会，部署散煤管控工作；与政府机关单位工作人员签订承诺书，有效确保了责任落实到位。 柳金钟书记对元氏县散煤管控工作经验、做法给予高度评价，指出元氏县散煤管控工作组织领导到位、宣传发动到位、责任落实到位，抓住了关键点。通过考察学习，吸取了元氏县的有效经验做法，有利加快推进我市相关工作。 考察结束后，党组书记柳金钟一行到柏乡县洁净型煤加工厂、隆尧县赵立兴兰炭销售点、隆尧县维峰型煤有限公司实地调研洁净型煤生产和散煤销售情况，现场查看企业资质、煤质检验报告、购煤合同、购销台账，并询问供应情况，向企业强调煤炭质量的重要性，杜绝劣质煤进企业、进农村。', '交流会上，副县长赵善祥对我局的到来表示欢迎，并介绍了元氏县在散煤管控方面的工作做法。元氏县委、县政府高度重视煤炭管控工作，成立了劣质散煤工作领导小组办公室，并从成员单位抽调人员脱离原工作成立专门执法队伍；下发《元氏县人民政府关于做好农村劣质散煤管控工作的决定》，为公安部门执法提供依据；专门与村支部书记开会，部署散煤管控工作；与政府机关单位工作人员签订承诺书，有效确保了责任落实到位。', '柳金钟书记对元氏县散煤管控工作经验、做法给予高度评价，指出元氏县散煤管控工作组织领导到位、宣传发动到位、责任落实到位，抓住了关键点。通过考察学习，吸取了元氏县的有效经验做法，有利加快推进我市相关工作。', '考察结束后，党组书记柳金钟一行到柏乡县洁净型煤加工厂、隆尧县赵立兴兰炭销售点、隆尧县维峰型煤有限公司实地调研洁净型煤生产和散煤销售情况，现场查看企业资质、煤质检验报告、购煤合同、购销台账，并询问供应情况，向企业强调煤炭质量的重要性，杜绝劣质煤进企业、进农村。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>7</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>张家口市科技局来我县考察学习</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2019-11-02</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/wx/201911/t20191104_548282.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['10月31日下午，张家口市科技局副局长王玉龙，怀来县副局长黄晓静带领相关部门来威考察学习国家级科技农业园区创建工作。市科技局副局长王志强、县长助理孙立坤、发改局局长赵忠祥、农业园区副主任翟飞昌等陪同考察座谈。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>7</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>邢台市市场监管局到石家庄市考察学习散煤管</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2019-09-22</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jcj_2435/201909/t20190922_544271.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['2019年9月17日上午，邢台市市场监督管理局党组书记柳金钟率队，局长张群、副局长贾凤桐、副调研员赵辉一行11人赴石家庄市市场监督管理局考察学习散煤管控和成品油质量监管先进经验和做法。石家庄市市场监管局党组书记宋国宏、局长张新峰、副局长王大林以及负责散煤管控和成品油质量监管的处室负责人等参加座谈交流会。 交流会上，石家庄市局党组书记宋国宏、局长张新峰对邢台市局的到来表示欢迎，副局长王大林介绍了石家庄市局2019年以来散煤管控和成品油质量监管工作情况以及经验总结。随后双方就散煤管控和成品油质量监管工作中遇到的困难和难题进行了探讨，并交换了意见。 柳金钟书记表示 柳金钟书记对石家庄局散煤管控和成品油质量监管经验、做法给予高度评价，尤其在散煤管控治理上的一些经验值得学习，受益匪浅。通过相互借鉴学习，两地在散煤管控和成品油质量监管工作经验得到融合，有利加快推进我市相关工作。', '交流会上，石家庄市局党组书记宋国宏、局长张新峰对邢台市局的到来表示欢迎，副局长王大林介绍了石家庄市局2019年以来散煤管控和成品油质量监管工作情况以及经验总结。随后双方就散煤管控和成品油质量监管工作中遇到的困难和难题进行了探讨，并交换了意见。', '柳金钟书记对石家庄局散煤管控和成品油质量监管经验、做法给予高度评价，尤其在散煤管控治理上的一些经验值得学习，受益匪浅。通过相互借鉴学习，两地在散煤管控和成品油质量监管工作经验得到融合，有利加快推进我市相关工作。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>7</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>农业农村局赴威县考察学习农村改厕工作经验</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2019-09-11</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/201909/t20190911_543569.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['9月2日，县农业农村局负责人带领县乡村振兴办、人居办、农村厕改验收专项小组一行10人赴威县考察学习农村改厕工作经验。', '考察团实地查看了威县改厕结合改水集中式处理、三格化粪池+小微人工湿地处理等不同模式的农村无害化卫生厕所改造现场，详细听取了相关负责人介绍的农村改厕工作进展情况，并就产品选购、技术、资金、农村改厕后续管理模式、市场化运作等问题进行了深入交流。', '考察学习后，大家纷纷表示，回去后将借鉴威县农村改厕工作的好经验、好做法，压实责任、补齐短板、创新方法，切实做好我县农村改厕工作，把“小厕所”这个“大民生”落实好，让农村人居环境得到持续改善。（农业农村局）', '考察学习后，大家纷纷表示，回去后将借鉴威县农村改厕工作的好经验、好做法，压实责任、补齐短板、创新方法，切实做好我县农村改厕工作，把']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>7</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>王春喜带队赴邯郸武安考察学习钢焦企业深度</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2019-09-19</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/hjbhj/201911/t20191114_549567.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['9月19日，市大气办主任、市生态环境局局长王春喜带队赴邯郸武安考察学习钢焦企业深度治理工作。市生态环境局总工程师贾焕敏，局机关相关科室主要负责同志及邢台钢铁、德龙钢铁、中煤旭阳、建滔焦化、中钢邢机等企业负责人参加考察，邯郸市大气办主任、生态环境局局长齐海新及相关部门负责同志陪同考察。', '王春喜一行先后前往新兴铸管股份有限公司、河北新金钢铁有限公司等地，详细了解了烧结机、焦炉管控和深度治理情况，双方还就大气污染防治、联防联控等方面进行了深入沟通交流。? 座谈会上，王春喜一行听取了邯郸市钢焦企业深度治理情况介绍，他指出，邯郸在企业深度治理方面管理制度严格、管控有力精准，治理成效明显，十分值得学习借鉴。要以此次考察活动为契机，吸收借鉴邯郸市在深度治理方面的成功经验和先进做法，结合我市实际，进一步加强重点企业深度治理，努力实现我市空气质量的不断好转。各重点企业要切实履行主体责任，严格标准，加大投入，进一步提高环保治理水平，努力把排放降到最低，为全市空气质量改善做出积极贡献。', '座谈会上，王春喜一行听取了邯郸市钢焦企业深度治理情况介绍，他指出，邯郸在企业深度治理方面管理制度严格、管控有力精准，治理成效明显，十分值得学习借鉴。要以此次考察活动为契机，吸收借鉴邯郸市在深度治理方面的成功经验和先进做法，结合我市实际，进一步加强重点企业深度治理，努力实现我市空气质量的不断好转。各重点企业要切实履行主体责任，严格标准，加大投入，进一步提高环保治理水平，努力把排放降到最低，为全市空气质量改善做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>7</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>南和绿色殡葬改革让归去更加文明</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2019-09-03</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/201909/t20190903_542747.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['本报讯（武国栋）黑袖章、小白花，鞠躬、默哀、向逝者敬献鲜花。近日，一场庄严而肃穆的追思会正在南和县贾宋镇吴屯村公墓举办。这是该村公墓建成后第一例以追思会形式举办的丧葬仪式，逝者亲属好友都过来追忆逝者，表达哀思。', '“在我们这一带的农村，传统上都是土葬形式。这几年老百姓日子过得好了，都愿意讲个排场，家里有个白事都要在街上搭个灵棚，请上歌舞团、戏班子热闹几天。这样不光铺张浪费，还失去了葬礼本身应有的庄严。”吴屯村党支部书记吴维强说，今年县里号召绿色殡葬改革，他召集村双委和红白理事会商议一致同意。他们把村里原有的陵园进行了改造升级，还修建了新的公墓。刚开始老百姓难以接受火葬形式，经过村干部和红白理事会反复上门做工作，大家逐渐接受了绿色殡葬。', '前几天，吴维强得知村民吴某去世后，第一时间与逝者家属取得联系，积极发挥村双委班子和红白理事会作用，入户宣传厚养礼葬和文明殡葬。最终，逝者家属认识到绿色殡葬的好处，同意将逝者遗体火化并入驻村内公墓。', '“刚开始我还接受不了把亲人火化，经过村干部几次来劝说，我感觉热闹和排场只是给别人看的，这样让亲人安安静静地走才能更好地表达哀思，这样也挺好。”逝者家属说。', '今年以来，南和县通过召开动员会、安排部署会、外出考察学习、实地观摩等措施大力推进绿色殡葬改革工作。截至目前，全县218个村通过对原有墓地改造，共缩减坟头5万余座，节省耕地面积45万余平方米。93个村级公益性公墓正在建设中，其中23个村级公益性公墓已建设完成，投入使用。通过宣传引导，村民的观念也逐渐改变，传统殡葬形式已逐渐被绿色殡葬代替，“归去”更加文明。', '今年以来，南和县通过召开动员会、安排部署会、外出考察学习、实地观摩等措施大力推进绿色殡葬改革工作。截至目前，全县']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>7</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>定兴县考察团来任县考察国家园林县城创建工</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2019-09-03</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/201909/t20190904_543013.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['考察团一行先后来到邢州湖、育才园、地表水厂、饮马河街、电力小学、六趣园、雅集公园、人民公园、牛尾河治理工程等地进行了实地考察。', '随后在行政服务中心三楼会议室召开座谈会，并观看了我县创园宣传片；龙飞介绍了我县创建国家园林县城经验做法。', '刘旭对我县园林县城创建工作给予了高度评价。他说，此次来任县参考考察，亲身感到到任县在国家园林县城创建工作中高起点规划、高标准建设、高水平管理，各项工作都做的非常扎实，创建工作经验非常值得学习借鉴。定兴县将以此次学习考察为契机，查找自身的差距和不足，将先进的工作经验带回去，结合定兴实际，完善相关创园机制体制，进一步科学规划布局，加快建设步伐，补缺补差，不断加快创建国家园林县城的步伐。', '他说，此次来任县参考考察，亲身感到到任县在国家园林县城创建工作中高起点规划、高标准建设、高水平管理，各项工作都做的非常扎实，创建工作经验非常值得学习借鉴。定兴县将以此次学习考察为契机，查找自身的差距和不足，将先进的工作经验带回去，结合定兴实际，完善相关创园机制体制，进一步科学规划布局，加快建设步伐，补缺补差，不断加快创建国家园林县城的步伐。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>7</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>山西省高平市行政审批服务管理局来我局考察</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2019-07-05</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/xzfwzx/201907/t20190707_536845.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['7月4日下午，山西省高平市行政审批服务管理局党组成员王霞同志带队一行20余人来我局就“不见面审批”、“一窗受理”、“一网通办”、“无休日预约服务”及优化营商环境举措等内容进行考察学习。市行政审批局副局长侯保行接待陪同。', '考察团一行参观了一楼政务服务大厅、自助服务区、特色工作宣传栏及二楼封闭分类审批区，详细了解了大厅布局、窗口设置、办事流程、人员配备、运行机制等情况。信息技术科谢振方科长通过自助服务设备就我局“一网通办”“不见面审批”等相关工作进行了详细讲解和演示。综合受理科王永立科长就我局“一窗受理”、“无休日预约服务”等相关工作进行了详细介绍。', '随后，考察团观摩公共资源交易中心电子开标室。交易中心贾宝聚主任向考察团介绍了公共资源全流程电子化工作推进情况。', '参观后，侯保行副局长主持召开了交流座谈会。侯保行同志就我局推出的一系列优化营商环境举措进行了详细介绍，双方就一窗受理三分离改革情况、勘验评审专家库建设情况及优化营商环境工作中遇到的问题和经验做法等进行了深入交流探讨。', '王霞同志表示，邢台市审批局优化营商环境工作理念新、效果明显，此次考察学习收获颇丰，对高平市审批服务管理局今后的工作具有极大的指导和借鉴意义，并希望今后两局加强交流互动，共同推进行政审批服务工作再上新台阶，全面助力本市经济快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>7</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>迎七一党旗红东良镇陈庄村开展党建义</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2019-06-28</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/201907/t20190725_538813.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['为了隆重纪念中国共产党建党98周年，继承和发扬党的光荣传统和优良作风，发挥党支部的战斗堡垒作用和党员的先锋模范作用，增强党组织的凝聚力、号召力和战斗力。6月28日上午8点，迎七一陈庄村“党建＋义工”活动在村文化大礼堂举行。参加本次活动的有党员以及村阳光义工车队。', '本次活动共分为三个阶段，第一阶段重温入党誓词；村内三十余名党员在鲜红的党旗前郑重宣誓，重温当年入党的决心和信念，对比我们今天的活动和行动，始终铭记入党的誓词。', '第二阶段由村内阳光义工车队带领我村党员参观内丘县金店镇小辛旺村，金店镇副镇长、小辛旺村党支部书记王彦昌以《党员在美丽乡村建设中应起到的模范作用》为中心思想为大家上了一堂精彩的党课，王镇长以自己村内建设过程中的事件为例子，生动形象的向大家传达了基层党员作为村基层党组织的中坚力量，应自觉践行党员的职责，发挥先锋模范作用，助力自己家乡的美丽乡村建设。随后，考察学习队伍参观了我县双碑乡西良后村的群众活动广场及我镇高村的党建文化广场和书画院。', '第三阶段由陈庄村支部书记何立杰为大家汇报今年上半年工作成果和下半年工作计划。何立杰说今年上半年我村大搞春季绿化、村内卫生、新建村史馆、农史馆、文化大礼堂等等，使我村的人居环境有了很大改善，但是今天我们参观了更先进的村，也找到了我们和先进之间的差距。下半年我们将努力迎头赶超、化压力为动力，继续加大对村内人居环境的改善，同时大力发展村内集体经济，让我们陈庄村也成为美丽乡村的示范村。', '陈庄村党员们纷纷表示通过此次活动的开展提升了自己的职责意识，并表态在以后的陈庄村的建设中一定要多多参与，贡献自己的力量！会议最后向在人居环境整治中义务劳动的党员发放小礼品。', '朝平两岸阔，风正一帆悬。陈庄村全体党员、群众将开足马力为打造产业兴旺、生态宜居、乡风文明的陈庄村继续努力！']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>7</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>山东省莱西市考察团来宁考察企业发展情况</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2019-06-28</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/201906/t20190628_535975.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['6月24日，山东省莱西市委统战部副部长、市工商联党组书记许培高一行带领市工商联常委、执委和企业家一行16人到我县考察500强企业高质量发展情况。县委统战部相关负责人，晶龙集团、玉锋集团等有关单位负责人陪同调研。', '考察团一行先后到晶龙集团、玉锋集团详细了解了企业高质量发展的产业项目布局、建设发展规划和投资环境等情况。考察团成员认为，两家企业作为500强知名的民营企业，其超前的发展理念、先进的管理思路和灵活的管理模式，特别是在国内经济低迷的大环境下，能够保持高速发展的良好态势，非常值得学习和借鉴。', '许培高指出，宁晋地理区位独特、环境优越，企业自动化程度高，社会责任感强。通过考察学习，拓宽了视野，启发了思路，为两地企业交流对接、资源共享搭建了沟通平台，为推动两地经济社会发展充实了队伍力量。', '县委统战部相关负责人感谢莱西市工商联考察团来宁考察指导及对工商联工作和企业发展的肯定，表示将继续不忘初心，充分发挥工商联作用，强化工商联组织建设，立足企业高质量发展，为经济社会发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>7</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>邢台市科学技术局赴福建泉州考察学习</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2019-07-03</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/skxjsj/201907/t20190703_536430.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['6月27日-30日，市政府副市长邓素雪率领科技局考察团赶赴福建泉州进行实地考察学习。市科技局赵占平局长、付国锋副局长以及有关科室人员陪同考察。考察期间，与泉州市科学技术局进行了全面交流，并实地走访了丰泽区、晋江市、石狮市的部分科技创新平台、高新技术企业和民办高校，学习了先进经验，对接了创新平台，考察了优秀企业。', '泉州市地处福建省东南部，是福建省三大中心城市之一；是联合国教科文组织认定的古代海上丝绸之路起点城市，是国务院首批历史文化名城之一；是全国重要的民生消费品制造业基地，2018年，全市生产总值8468亿元，占福建省比重近1/4，经济总量连续20年全省第一；比增8.9%，增速位居全省首位。全市工业总产值达1.7万亿元，占福建省比重近1/3，形成纺织服装、鞋业、石油化工、机械装备、建材家居、食品饮料六大超千亿元产业集群，其中纺织服装产量占全国的10%，运动鞋产量占全国的40%、全球的20%，糖果产量占全国的20%。全市拥有中国名牌产品46件、中国驰名商标155件，上市企业104家，均位居全国地级市前列，培育了恒安、安踏、达利、九牧等一大批知名品牌。', '近年来，泉州市科学技术局以构筑创新高地为主抓手，持续优化创新生态，打造福厦泉国家自主创新示范区和国家创新型城市两大创新高地，主动融入福厦泉科技创新走廊，把集聚科技创新要素资源落到科技城、环清源山创新走廊的规划建设上。制定2019年福厦泉国家自主创新示范区建设工作要点，全面推动已出台各项政策措施的贯彻落实，按照《泉州市建设国家创新型城市实施方案》提出的14项指标和18项任务，围绕“深化改革先行、集聚创新人才、推动创新发展、加强创新合作和优化宜居环境”等五个方面抓好各项工作的分工和落实，充分借鉴福州、厦门等先进城市创建的经验做法，积极谋划出台并强化落实激励创新政策，进一步释放政策红利，为加速提升全市创新能力和创新发展水平提供强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>7</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>隆尧一中校长颉现辰率队赴天铁一中考察学习</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2019-07-02</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/201907/t20190725_538836.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['在会议室，天铁一中校长陈海申向大家介绍了近年来学校的办学特色和办学成果，隆尧一中校长颉现辰向天铁一中同仁介绍了学校近年来发展变化及办学成效，同时他就天铁一中在学科教研、家校沟通、学生管理以及硬件投入等方面的举措与相关负责人进行了交流。', '交流会后，在陈海申校长等的陪同下，大家先后参观了天铁一中校史馆、创新实验室、创客实验室、书法教室、图书馆等场所，这些场所设施配置令大家耳目一新，相关教师的演示更令大家眼界大开。参观结束后，大家表示，此次学习收获良多，在今后的教育教学工作中，一定认真提高思想觉悟，切实落实新高考理念，不忘初心，为隆尧教育振兴再立新功。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>7</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>安徽省舒城县经信局组织相关部门来我县考察</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2019-06-06</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/201906/t20190606_533909.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['近年来，我县特色产业快速发展，业内影响越来越大，为借鉴我县自行车、童车玩具发展的成功经验，安徽省舒城县（该县的主导产业为童车童床产业）经信局副局长陈俊带队，组织该县政协、商务局、统计局、童车协会、重点企业等一行7人,于2019年6月4日至5日来我县考察学习。', '县工信局组织对口单位与舒城县考察学习人员进行了面对面交流，互通有无，相互借鉴。6月5日上午,带领舒城县考察学习人员先后参观了我县双创双服活动中心、县龙头企业：好孩子儿童用品平乡有限公司、天富车业、恒驰集团。他们对我县取得的成就表示赞同和认可，希望在今后加强合作，借鉴我县高质量发展的成功经验，促进舒城童车童床产业转型升级。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>7</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>三级跳跳出升级新天地</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2019-06-23</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201906/t20190623_535308.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['2013年，该公司刚刚步入国内工程机械行业，生产核心部件减速机；2018年，减速机国内市场占有率已超过60%。', '他们从行业空白，到相继研发生产了“液压泵总成”“行走马达总成”等五大类共计200多个系列产品及千余种液压配套零部件，成为行业的隐形冠军，仅用了5年时间。', '为什么临西县中伟公司在这么短时间内实现跨越式发展？带着问题，记者来到中伟公司进行深入的蹲点调研。', '中伟机械在创立之初是一家做轴承的小作坊企业。2005年，临西轴承规模企业也有100多家。中伟开办轴承作坊起步已是较晚。', '“那时，我们只有一间作坊、4台普通车床，六七个工人。”公司主要负责人告诉记者，一个人一天只能做100多套滚针轴承。虽然一年能生产几万个，但一年辛苦下来，挣钱不多。', '当时，临西轴承规模企业数量极速发展。多数轴承企业都是看到某一产品赚钱，就立马投资生产，你生产这个，我也生产这个，市场就那么大，大家削尖了脑袋拼命往里“挤”，产品同质化严重。', '为了在市场中抢到自己的一杯羹，只能降价，以价格取胜。最终导致当时轴承的利润率极低，许多轴承企业在困境中苦苦挣扎。', '“只有跳出同质化怪圈，以多元化的产品进军高端市场，企业才能发展壮大。”中伟公司负责人说。', '在经营生产工程机械轴承时，他们发现：在全球市场，工程机械用减速机以日系产品为主，国内也多选用日系产品。但这些国外工程机械在维修时，高昂的减速机更换成本难以承担。以一台20吨位的挖掘机为例，售价120万元计算，如果更换一台原装的日系减速机要20万元左右。', '中伟机械以高性价比，实现了国内用户“以换代修”，成为国内工程机械行业第一个将减速机研制推向产业化发展的企业。', '2015年，中伟机械进行产品升级改造，成功研发出工程机械用行走马达，跨入国内工程机械液压行业。', '之后，他们面向工程机械后市场，相继研发生产了“液压泵总成”“行走马达总成”“回转马达总成”“行走减速机总成”“回转减速机总成”等五大类共计200多个系列产品及千余种液压配套零部件。', '目前，中伟机械公司工程机械专用减速机年产7万台，占据国内市场份额的60%；年产行走马达3万台、液压泵3万台、液压回转马达2万台，均占据国内市场份额的50%以上。以订单销售的模式，产品远销印度、越南、马来西亚等东南亚国家和地区，年出口量7000余套，销售额6800多万元。', '拥有了核心技术的中伟机械并没有就此停步。今年，他们又开始了对机械的整机——小型轮式挖掘机进行研发。这种小型轮式挖掘机全国年需求量达3至4万台，目前多数为国外进口。目前该挖掘机已试验完成，今年七八月份将实现量产。', '“起初，根本就没有创新、研发的概念。”公司负责人说，只知道，看别人家的产品销量好，就模仿着加工生产。', '在聊天中，他们得知，自己家生产的轴承是工程机械核心部件减速机的零部件。当时的减速机还处于国外垄断。', '“一定要生产出我们中国人自己的减速机。”企业下定决心，于是把大部分原始积累的资金投入到产品的研发上。', '他们从山东高薪聘请了工程师开始了工程机械减速机的研发。经过多半年的努力，减速机研发成功并批量生产，结束了减速机国外垄断的历史。', '该企业在全国聘请高端人才20余人，国内外专家40余人充实研发团队。他们还与多所大学筹划成立工程机械液压产品研究院，共同对新技术、新产品进行研发。', '“这一阶段，中伟的技术虽然在国内行业处于领先，但还是处在跟跑国外技术阶段。”公司负责人说，要实现企业的可持续发展，就要在技术上实现领跑。', '为此，该公司与韩国大昊液压科技研究所建立长期战略合作伙伴关系，聘请多名国外液压专家担任技术顾问，定期安排工装小组到日本、韩国参观学习，改进生产工艺；并与燕山大学合作成立了专门的液压科研机构，培训输送专业定向人才。', '他们不断引进国际先进技术，与发布国家企业签订技术协议，并定期派出技术人员出国考察学习，结合用户实际应用经验，对产品进行创新升级，做到了与国外进口工程机械“1∶1”匹配。', '中伟机械自己的研发团队，专注于优化产品关键部件工艺流程。目前，研发人员掌握了软氮化、渗碳淬火、真空热处理等一整套国际先进技术，有减速机行星架、减速机齿圈等26项科研成果获国家专利，并全部应用到生产的全过程，提高了各主要零部件质量稳定性和一致性。', '该公司生产的液压马达减速机的核心部件马达轴，采用新材料“42铬钼”锻料钢，借助这一新的制造工艺，大幅提升了产品的硬度、伸张率等机械性能，进而延长了机械使用寿命，这项技术填补了国内空白，产品实现了替代进口。', '近期，中伟机械又成功与燕山大学实现合作，将共同打造“华北重要的液压产品研发生产基地”。', '从模仿、到跟跑，再到多项技术达到国际先进的领跑，每一步跨跃的背后都有大量的研发投入做支撑。创新驱动让传统制造企业焕发新动能。', '据统计，该公司已经连续5年拿出不低于经营利润的30%作为研发投入。今年前5个月，该公司的科技投入已达1000多万元。', '装备：从手工到数控，再到智能车间装备升级让传统制造插上智慧翅膀“在公司起步之初，我是一名操作手工机床的工人。”中伟生产主管回忆说，企业能在近几年发展如此之快，一个重要原因是生产装备的提升。', '他当工人时，车床需要人工操作。这种机床需要熟练的技术工人，那时工人劳动强度大、危险性也大。即使是有好多年经验的工人，废品率还是很高。', '后来公司为了生产减速机，投资了100多万元上了7台数控设备。原来人工车床需一人操作一台车床，有了数控设备，一个人可以同时操作两台设备。这时的加工精度既得到了提升，又具有了稳定性，产品合格率从原来的不足90%提高到99%。', '“这时产品加工精度已很高，但客户对产品整体精度要求越来越严格。”生产主管说，这就需要生产装备升级换代。', '2015年，该公司投资建设二期项目，斥资近3亿元，引进德国、日本、韩国等地的高端数控加工中心设备，打造出了名副其实的“液压件自动化无尘生产车间”，专业生产回转马达和液压泵，使产品零部件的精度品位达到了国际水平。', '为保证产品质量，公司又投资3000万元从韩国采购了智能试验台。只要将产品放在试验台上，电脑自动会显示产品的多项参数，并显示出产品立体模型。', '生产主管告诉记者，过去，企业也有试验台，但原来的试验台只能显示这个产品是废品，而不能告诉他们，是哪出了问题。有了智能试验台，电脑上显示的参数增加了，还显示产品哪个部位出了问题。“这样的智慧装备，让我们的生产如虎添翼。”', '5年间，中伟公司以每年投资一个亿的速度，顺利完成了一期和二期的项目建设，装备和产品进行了升级换代，企业也实现了从加工作坊到现代化企业的跨跃。', '资源整合：从“寻求资源”到“资源配送”，再到“政府帮扶”政府引导打造工程机械液压产业基地', '“2013年，中伟机械公司注册成立，短短5年时间，公司实现了跨越发展的三大步，这与临西县的大力帮扶是密不可分的。”公司主要负责人说。', '“去年底，中伟机械公司在县行政审批局办理企业设立变更登记手续，规定3个工作日，仅用一个工作日就办完了；年产10万台（套）机械液压驱动行走系统项目备案时，法定20个工作日，一个工作日就办完了。”', '县行政审批局局长谭金贵介绍，临西县打破固有的“先办证，后生产”的模式，推行审批与建设两同时的“跟踪审批服务”法，从项目立项到开建，审批服务部门全程跟踪服务，项目建设单位可在手续办理期间正常施工，为加快项目建设进度赢得了宝贵时间。', '“过去办事都是‘企业人员跑’，现在变成‘营商专员跑’；原来‘进门才服务’，现在是‘上门送服务’。”贾中伟说，“全程代办制度让老板的时间腾出来，集中精力抓项目发展。”', '临西县向重点企业派驻帮服专员，对企业和项目实行了全程“保姆式”代办服务。据了解，中伟卓特液压二期项目上马时，帮服专员全程代办审批手续。从项目前期的勘测选址，到建设中难题的协调与解决，帮服专员一跟到底，全程帮办。企业负责人说：“这个项目仅用了10个多月建成投产，实地见证了‘临西态度和临西速度’。”', '为加快企业创新步伐，县委、县政府对中伟进行调研。发现企业有许多科技创新需求。他们了解到企业创新情况发现，中伟机械符合条件申报省级技术创新中心。可是怎么申报，对企业来说一头雾水。于是，县科技局邀请市科技局技术人员对企业进行专题会诊，开方服务。为加快推进申报工作，他们还3次邀请专家组一对一服务，沟通解决平台上申报难题。', '临西县委、县政府还帮助中伟机械拓展产学研合作渠道，推进高校院所的创新科技成果向临西县转移及产业化。他们积极牵线搭桥，使中伟卓特与燕山大学合作“华北重要的工程机械液压产品研发生产基地”，加快推进液压技术创新。', '“临西县委、县政府确定将工程机械液压产业作为全县的主导产业，高质量推进项目发展，建设以中伟卓特公司为龙头的工程机械生产基地，打造县域经济发展的新引擎。”临西县委书记王海军说。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>7</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>奋进的足迹探求法治公安建设的邢台路</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2019-06-14</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/sgaj/201906/t20190618_534808.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['深化法治公安建设是公安改革的重要目标。近年来，在法治公安建设中，邢台公安坚持顶层设计，试点先行，健全机制，跟踪问效的创新组合措施，走出了一条符合邢台实际的法治公安建设“邢台路径”。邢台市公安局连续四年在全省公安执法规范化建设考核中位居全省前三，2018年度执法规范化建设在全省排名并列第一；多次被评为全市依法行政优秀单位，连续两年被省政府评为依法行政优秀单位；2018年省政法委对全省案件的办案质量抽查结果通报中，我市瑕疵率全省最低。 01、 强化顶层设计，严把监督审核出口，积极探索法治公安建设路径。 市局党委高度重视法治公安建设，副市长、公安局长陈少军多次就法治公安建设进行强调要求。由市公安局起草并由邢台市委、市政府“两办”审定印发了《关于深化全市公安执法规范化建设的实施方案》，明确了全市执法规范化建设三年任务，有力推动了全市法治公安建设进程。以改革撬动质效，以创新引领发展，紧紧围绕刑事案件“两统一”、受立案制度改革等重点执法环节，进行流程再造，推动执法权力运行机制改革向纵深发展。 在刑事案件办理中，在全国率先推行公安机关办理的刑事案件由法制部门统一审核、统一出口的“两统一”工作机制，制定的《刑事案件办理“三统一”工作规则》被公安部评为优秀执法制度，湖北、吉林、河南、银川、聊城等兄弟省市先后到邢台市局考察学习。 为破解人民群众反映强烈的受案难、立案难问题，进一步深化受立案制度改革，建立了以市局案管中心为中枢，县局案管中心为纽带，基层派出所案管室为支点的三级上下联动、对口衔接的受立案执法管理新模式,紧扣“警情、案件、财物、场所、卷宗”五大执法核心要素，严把警情受案“入口关”，监督执法办案“过程关”，确保人、物、场所“安全关”，从源头上预防和减少执法问题的发生。经过几年的不懈努力及不断完善，全市公安机关刑事案件办理质量、刑事诉讼效率明显提升。2018年全市公安机关办理的刑事案件批准逮捕人数同比上升17.4%，移送起诉人数同比上升12.2%；法院发还重审、检察院监督立案、不捕、不诉案件、新发有责信访案件均明显下降，无一起无罪判决和国家赔偿案件发生。 02、高标准建设，高质量监管，全力打造具邢台特色的涉案财物管理新亮点。 涉案财物管理、处置是公安执法工作的痛点，也是老百姓关注的热点。在涉案财物管理工作中，我市公安机关在全省率先将信息化引入涉案财物管理工作中，运用管理软件来规范涉案财物管理工作。市、县两级公安机关均建立了高标准的涉案财物管理中心，通过涉案财物信息管理平台对涉案财物进行实时、动态、信息化管理，真正做到了案件进系统、信息进平台、财物进场所，确保涉案财物管理规范、移送顺畅、处置及时，使痛点、难点问题变成邢台公安法治建设的亮点工作。2018年3月，我市涉案财物集中管理信息平台建设在2017年度考核中名列全省第一。 03、着眼群众切身利益，加强公安内部监督机制，努力在强化执法监督管理上再求新突破。 “努力让人民群众在每一个司法案件中都感受到公平正”是习近平总书记对司法工作提出的具体要求。公安法制部门坚持每季度都对新发信访案件、网络媒体曝光案件、上级批办案件等进行专项评查，每年针对不捕、不诉、复议复核撤销、行政败诉、国家赔偿六类可能存在突出执法问题的案件开展评查活动，对存在严重执法过错、执法瑕疵的案件相关人员进行问责、追究。自2018年起，在全市公安机关开展了以“查警情、查案件、查人员、查场所、查财物”为主要内容的“五排查、五规范”执法突出问题治理工程，针对执法不规范、不公正、不作为、乱作为等突出问题开展专项治理活动，抽取2018年690起警情进行了考核，共发现各类问题514处；对754起刑事、行政案件进行了执法质量考评，发现并责令整改问题900余处。该做法被省公安厅作为经验转发。 04、充分运用调解手段，积极化解行政争议，努力让人民群众感受到公平正义。 行政复议是案件当事人通过法律手段寻求救济的重要途径之一，也是公安机关自我纠错的内部监督制约机制。为了做好行政复议工作，我市公安机关采用“三调”工作法，即案前调解、案中调解、案后调解，坚持做到案结事了，最大限度化解行政争议和矛盾纠纷，实现法律效果和社会效果相统一。2017年、2018年共调解和解行政复议案件共51起，占比达40%以上，2019年至今已调解和解案件8起，占已审结案件的45%以上。通过调解和解审结复议案件，不仅做到定纷止争、案结事了，更减少了诉累，也受到案件当事人的好评。 2018年8月16日晚，临西县某村村民郭通达（化名）与同村李江河（化名）两家因纠纷引起打架，郭通达、李双波（李江河之子）伤情均系轻微伤，临西县公安局经过调查对郭通达、李双波二人均作出了行政拘留并处罚款的行政处罚。郭通达对处罚决定不服向市公安局提起了行政复议。市公安局法制部门在查明案情的基础上，一面向郭通达释理释法，一面联合县局对双方开展调解工作。在两级公安部门的释法明理工作和真诚沟通下，郭通达最终同意撤回复议申请。该案虽已办结，但法制部门秉持案结事了的工作精神，对该案的善后工作一直进行着跟踪和督促，在时隔近3个月后，案件双方当事人终于就民事部分达成了调解协议，达到了法律效果和社会效果的统一。 05、坚持实战化导向，积极服务公安中心工作，坚持推动执法业务培训常态长效。 民警是执法主力，也是执法是否规范、高效的主因。多年来我市公安机关始终聚焦战斗力标准，围绕实战化、规范化主线，不断优化培训模式，全面提升公安民警的实战能力和执法水平。 与高校建立长期委托培训机制，开设法治建设与业务能力提升高级研修班，目前已有10批次671名法制领导、法制民警及法制员参加专题培训。开展常态化面对面、点对点的实战培训模式，是基层领导和广大基层民警欢迎的培训模式。每季度根据“五查五规范”检查结果，针对一些典型问题案件进行分析研判，结合问题特点，制作教科书式的培训课件。由市局法制支队领导带队，分组到各分县局开展点对点、面对面的培训，用民警自己办的案例来作为教材进行培训学习，达到贴近实战，增强培训效果，切实提高民警履职能力的目的。', '深化法治公安建设是公安改革的重要目标。近年来，在法治公安建设中，邢台公安坚持顶层设计，试点先行，健全机制，跟踪问效的创新组合措施，走出了一条符合邢台实际的法治公安建设“邢台路径”。邢台市公安局连续四年在全省公安执法规范化建设考核中位居全省前三，', '年度执法规范化建设在全省排名并列第一；多次被评为全市依法行政优秀单位，连续两年被省政府评为依法行政优秀单位；', '市局党委高度重视法治公安建设，副市长、公安局长陈少军多次就法治公安建设进行强调要求。由市公安局起草并由邢台市委、市政府“两办”审定印发了《关于深化全市公安执法规范化建设的实施方案》，明确了全市执法规范化建设三年任务，有力推动了全市法治公安建设进程。以改革撬动质效，以创新引领发展，紧紧围绕刑事案件“两统一”、受立案制度改革等重点执法环节，进行流程再造，推动执法权力运行机制改革向纵深发展。', '在刑事案件办理中，在全国率先推行公安机关办理的刑事案件由法制部门统一审核、统一出口的“两统一”工作机制，制定的《刑事案件办理“三统一”工作规则》被公安部评为优秀执法制度，湖北、吉林、河南、银川、聊城等兄弟省市先后到邢台市局考察学习。', '为破解人民群众反映强烈的受案难、立案难问题，进一步深化受立案制度改革，建立了以市局案管中心为中枢，县局案管中心为纽带，基层派出所案管室为支点的三级上下联动、对口衔接的受立案执法管理新模式,紧扣“警情、案件、财物、场所、卷宗”五大执法核心要素，严把警情受案“入口关”，监督执法办案“过程关”，确保人、物、场所“安全关”，从源头上预防和减少执法问题的发生。经过几年的不懈努力及不断完善，全市公安机关刑事案件办理质量、刑事诉讼效率明显提升。2018年全市公安机关办理的刑事案件批准逮捕人数同比上升17.4%，移送起诉人数同比上升12.2%；法院发还重审、检察院监督立案、不捕、不诉案件、新发有责信访案件均明显下降，无一起无罪判决和国家赔偿案件发生。', '涉案财物管理、处置是公安执法工作的痛点，也是老百姓关注的热点。在涉案财物管理工作中，我市公安机关在全省率先将信息化引入涉案财物管理工作中，运用管理软件来规范涉案财物管理工作。市、县两级公安机关均建立了高标准的涉案财物管理中心，通过涉案财物信息管理平台对涉案财物进行实时、动态、信息化管理，真正做到了案件进系统、信息进平台、财物进场所，确保涉案财物管理规范、移送顺畅、处置及时，使痛点、难点问题变成邢台公安法治建设的亮点工作。2018年3月，我市涉案财物集中管理信息平台建设在2017年度考核中名列全省第一。', '03、着眼群众切身利益，加强公安内部监督机制，努力在强化执法监督管理上再求新突破。', '“努力让人民群众在每一个司法案件中都感受到公平正”是习近平总书记对司法工作提出的具体要求。公安法制部门坚持每季度都对新发信访案件、网络媒体曝光案件、上级批办案件等进行专项评查，每年针对不捕、不诉、复议复核撤销、行政败诉、国家赔偿六类可能存在突出执法问题的案件开展评查活动，对存在严重执法过错、执法瑕疵的案件相关人员进行问责、追究。自2018年起，在全市公安机关开展了以“查警情、查案件、查人员、查场所、查财物”为主要内容的“五排查、五规范”执法突出问题治理工程，针对执法不规范、不公正、不作为、乱作为等突出问题开展专项治理活动，抽取2018年690起警情进行了考核，共发现各类问题514处；对754起刑事、行政案件进行了执法质量考评，发现并责令整改问题900余处。该做法被省公安厅作为经验转发。', '行政复议是案件当事人通过法律手段寻求救济的重要途径之一，也是公安机关自我纠错的内部监督制约机制。为了做好行政复议工作，我市公安机关采用“三调”工作法，即案前调解、案中调解、案后调解，坚持做到案结事了，最大限度化解行政争议和矛盾纠纷，实现法律效果和社会效果相统一。2017年、2018年共调解和解行政复议案件共51起，占比达40%以上，2019年至今已调解和解案件8起，占已审结案件的45%以上。通过调解和解审结复议案件，不仅做到定纷止争、案结事了，更减少了诉累，也受到案件当事人的好评。', '2018年8月16日晚，临西县某村村民郭通达（化名）与同村李江河（化名）两家因纠纷引起打架，郭通达、李双波（李江河之子）伤情均系轻微伤，临西县公安局经过调查对郭通达、李双波二人均作出了行政拘留并处罚款的行政处罚。郭通达对处罚决定不服向市公安局提起了行政复议。市公安局法制部门在查明案情的基础上，一面向郭通达释理释法，一面联合县局对双方开展调解工作。在两级公安部门的释法明理工作和真诚沟通下，郭通达最终同意撤回复议申请。该案虽已办结，但法制部门秉持案结事了的工作精神，对该案的善后工作一直进行着跟踪和督促，在时隔近3个月后，案件双方当事人终于就民事部分达成了调解协议，达到了法律效果和社会效果的统一。', '年8月16日晚，临西县某村村民郭通达（化名）与同村李江河（化名）两家因纠纷引起打架，郭通达、李双波（李江河之子）伤情均系轻微伤，临西县公安局经过调查对郭通达、李双波二人均作出了行政拘留并处罚款的行政处罚。郭通达对处罚决定不服向市公安局提起了行政复议。市公安局法制部门在查明案情的基础上，一面向郭通达释理释法，一面联合县局对双方开展调解工作。在两级公安部门的释法明理工作和真诚沟通下，郭通达最终同意撤回复议申请。该案虽已办结，但法制部门秉持案结事了的工作精神，对该案的善后工作一直进行着跟踪和督促，在时隔近3个月后，案件双方当事人终于就民事部分达成了调解协议，达到了法律效果和社会效果的统一。', '民警是执法主力，也是执法是否规范、高效的主因。多年来我市公安机关始终聚焦战斗力标准，围绕实战化、规范化主线，不断优化培训模式，全面提升公安民警的实战能力和执法水平。', '与高校建立长期委托培训机制，开设法治建设与业务能力提升高级研修班，目前已有10批次671名法制领导、法制民警及法制员参加专题培训。开展常态化面对面、点对点的实战培训模式，是基层领导和广大基层民警欢迎的培训模式。每季度根据“五查五规范”检查结果，针对一些典型问题案件进行分析研判，结合问题特点，制作教科书式的培训课件。由市局法制支队领导带队，分组到各分县局开展点对点、面对面的培训，用民警自己办的案例来作为教材进行培训学习，达到贴近实战，增强培训效果，切实提高民警履职能力的目的。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>7</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>河南省济源市政府法制办公室考察团到邢台市</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2019-05-30</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/xzfwzx/201905/t20190530_533366.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['5月30日上午，河南省济源市政府法制办公室主任赵浩同志带队一行13人到市行政审批局就推行行政执法“三项制度”工作先进经验考察学习。市司法局副局长吴建东同志、执法监督处副科长刘飞同志陪同。', '首先，考察团在市行政审批局进行了参观学习。市行政审批局副局长侯保行同志、政策法规科科长陈雁英同志为考察团详细介绍了我局自成立以来全面推行行政执法“三项制度”工作情况及一系列行政审批制度改革成效。信息技术科科长谢振方同志就我局“一网通办”及自助终端使用等进行了详细操作演示。', '随后，考察团和市法制办执法监督处、行政复议处、立法审查处、市行政审批局等6个行政执法部门的代表同志在万峰大酒店会议室就全面推行行政执法“三项制度”、行政复议应诉、政府法律顾问等方面的工作开展情况进行了座谈交流。', '会上，赵浩同志对我市全面推行行政执法“三项制度”相关工作所取得的成绩给予了高度评价。 赵浩同志表示，今后将进一步加强与我局的工作沟通和交流，吸取好的经验做法，取长补短，共同推动行政执法相关工作取得更好成效。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>7</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>雄安新区容城县总工会到平乡县考察交流工会</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2019-05-31</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/201905/t20190531_533473.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['5月29日，雄安新区容城县人大常委会副主任、总工会主席张金海一行4人，来我县考察交流工会工作先进经验和做法。县人大常委会副主任、县总工会主席曹建宏陪同参加考察。 考察团一行先后到县电商行业工会“工享梦创空间”职工创业孵化器、县总工会职工健身中心、欧耐公司、恒驰公司等地，对工享梦创空间的办公区域、运营模式，职工健身中心基础设施及企业工会职工服务阵地建设进行了参观考察，并详细了解了我县工会工作开展情况。 考察团对我县工会工作给予了高度评价，认为平乡工会敢于大胆创新，能够根据当地行业特点创新服务载体，找准了服务县域经济发展，服务行业职工的落脚点。并表示要深入学习和借鉴平乡的经验和做法，补齐短板，发挥工会优势，凝聚职工力量，助推经济发展。同时希望通过此次考察学习，进一步加强相互间的交流合作，促进双方工会在工作上相互学习、共同提高。 记者：姚华 编辑：肖伟扬 审核：王保现 霍风燕', '5月29日，雄安新区容城县人大常委会副主任、总工会主席张金海一行4人，来我县考察交流工会工作先进经验和做法。县人大常委会副主任、县总工会主席曹建宏陪同参加考察。', '考察团一行先后到县电商行业工会“工享梦创空间”职工创业孵化器、县总工会职工健身中心、欧耐公司、恒驰公司等地，对工享梦创空间的办公区域、运营模式，职工健身中心基础设施及企业工会职工服务阵地建设进行了参观考察，并详细了解了我县工会工作开展情况。', '考察团对我县工会工作给予了高度评价，认为平乡工会敢于大胆创新，能够根据当地行业特点创新服务载体，找准了服务县域经济发展，服务行业职工的落脚点。并表示要深入学习和借鉴平乡的经验和做法，补齐短板，发挥工会优势，凝聚职工力量，助推经济发展。同时希望通过此次考察学习，进一步加强相互间的交流合作，促进双方工会在工作上相互学习、共同提高。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>7</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>退伍老兵创新业带动乡邻共致富</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2019-08-20</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nhx/201908/t20190820_541774.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['本报讯（武国栋）在南和县河郭乡有一家生产本地特产南和金米的企业，它的创始人程云芳，是一名退伍老兵。几年前，他创办这家企业，把家乡的特产卖到全国各地，还带动了周边乡亲们靠种植富硒谷子走上致富道路。', '2014年程云芳从部队退伍后开始自主创业，从事农资销售工作。创业期间，他先后到北京、美国等地考察学习，开拓了自己的视野。2016年他注册成立了邢台硒谷农业科技发展有限公司。结合农业供给侧改革，采取公司+协会+合作社+农户的模式，积极发展功能农业-南和富硒金米产业。截止去年，已发展富硒金米种植2600余亩，带动周边退役军人和农户、贫困户1200余户，直接增收310多万。', '经过一年努力2017年南和县荣获富硒金米之乡荣誉称号。公司被评为河北省质量诚信AAAAA企业，河北省科技型中小企业，邢台市龙头企业，合作社被授予2018年度省级农民合作社示范社，程云芳荣获第七届中国县域现代农业杰出人物奖，2018年被评为南和县优秀退役军人。', '程云芳始终坚持拥军拥属工作，多次组织退役军人和爱心人士走进光荣院，慰问离休、抗战孤寡老人，捐助贫困退役老兵，资助伤残退役军人，先后提供多个退役军人工作岗位，培训帮助退役军人自主创业，带动退役军人富硒金米种植，增加农村退役军人收入。', '作为一名退役老兵，军装虽脱下，但军魂仍在，在拥军拥属工作中，他依然严格要求自己，保持军人风骨，退伍不褪色，永葆军人本色。他常常说，赚多少钱无所谓，重要的是把家乡的土特产推介出去，同时让更多的乡亲们走上致富的道路。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>7</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>区文化和旅游局积极探索农业旅游发展模</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2019-08-09</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/201908/t20190809_540730.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['为积极落实桥东区农业休耕暨招商引资座谈会会议精神，区文化和旅游局积极探索“农业+旅游”发展模式。8月4日下午，区文化和旅游局党组书记、局长左丽华召集唐家庄、永兴村的负责人等一行8人到柏乡县王家庄村就农业大棚的建设和运营进行了考察学习。', '“农业+旅游”发展模式。8月4日下午，区文化和旅游局党组书记、局长左丽华召集唐家庄、永兴村的负责人等一行8人到柏乡县王家庄村就农业大棚的建设和运营进行了考察学习。', '之后，考察队一行8人在区文化和旅游局四楼会议室开展考察经验交流，与会众人围绕如何落实“农业休耕”政策，汲取柏乡县王家庄村发展农业产业化的经验，探索桥东区“农业+旅游”发展模式交换了意见。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>7</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>县委常委宣传部长高凯英带队赴正定迁安</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2019-07-22</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/201907/t20190724_538757.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区创建文明城市工作经验和做法，切实提高我县文明城市创建水平，7月17日—18日，县委常委、宣传部长高凯英带领县委宣传部、文明办、城管局、教育局、市场监管局、住建局、交警大队等创城重点责任单位负责人先后到全国文明城市正定县和迁安市考察学习文明城市创建工作。', '17日，考察团一行来到正定县进行实地考察，正定县委常委、宣传部长刘娜及县委宣传部、文明办有关负责人陪同。考察团先后实地考察了正定县常山公园、滨河悦秀社区综合文化服务中心、便民市场、商场、街道等创建点位，认真听取了正定县关于“创城”工作的整体情况介绍，特别是对该县在如何提升市容市貌、改造便民市场、整治交通秩序、科学合理设置和配备公园、商场、街道等场所公益广告、志愿服务站等方面的经验做法进行了详细了解，并一一作了仔细的记录，同时针对我县在创建工作中的薄弱环节和短板，就网上资料申报、实地测评、问卷调查等关键环节同正定县有关负责人进行了深入学习交流。', '18日，考察团一行来到迁安市进行实地考察，迁安市委常委、宣传部长郭卫民，市委宣传部、文明办有关负责人陪同。考察团先后对迁安市的奥体中心、规划展馆、晨曦社区、政务大厅、第三初级中学、超市、公园、滦河文化产业区等创建点位进行对标学习，通过听取讲解、实地参观、探讨交流等方式，切身感受迁安市在城市建设、城市精细化管理、社区治理、文明校园建设、常态化创建等方面所取得的显著成效。', '为期两天的考察中，大家边走边看，边听边议，一致认为，通过学习考察，开阔了视野，学到了经验，看到了差距，明确了文明城市创建工作的努力方向和重点，收获颇丰。高凯英强调，在今后的创建工作中，一定要认真学习借鉴有益经验和先进做法，结合我县创城工作实际，不断创新思路，细化措施，高标准、科学精准全力推进我县文明城市创建工作，真正实现为民创建，创建惠民。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>7</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>旅游采摘临城支角村的葡萄不愁卖</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2019-07-24</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201907/t20190723_538582.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['（王永周）日前，临城县支角村的葡萄大棚里人头攒动，来这里采摘的游客络绎不绝。“妈妈，你快尝尝，这串葡萄真甜！”来自石家庄的自驾游客张立峰夫妇带着儿子正在采摘成熟的葡萄。', '临城地处太行山东麓，七山一水二分田，山场面积达62.4万亩，然而，乡亲们守着山场资源，却代代受穷。近年来，临城县扶贫开发工作以“生态致富、绿色发展”理念为引领，大力实施山区综合开发，建成116条经济沟。', '“绿油油的山场就是最好的自然旅游景点。”临城县委书记宋向党说。临城县借势建成大中小水库19座、塘坝452座，目前已发展旅游景点70多处，农家乐、渔家乐近百个，观光采摘园160个，邢窑遗址、普利寺塔、补要村遗址等3处全国重点文物保护单位，形成了集洞穴、山水、湖泊、森林、文物古迹、遗址遗存和农业观光为一体的综合旅游体系。全县拥有国家级休闲农业与乡村旅游点2个，国家级农业旅游示范点1个，省级美丽乡村2个，省级历史文化名村1个，临城还荣获全国休闲农业与乡村旅游示范县等多个荣誉称号。', '围绕秀美风景，许多村庄做起“对接景区”的文章，支角村便是其一。该村有荒坡地3000多亩，杂草丛生，没有收益。村两委班子在当地政府带领下多次外出考察学习后，决定建设果蔬大棚，发展采摘游、乡村游。该村采用的脱贫模式：村民以土地“入股”建设“龙凤山庄”现代农业观光园区，在园区前五年建设时期，农业合作社以每亩700元付给村民租金，五年后，园区产生收益，村民则参与分成，其中流转土地村民占40%，合作社占40%，剩下的20%作为集体资金，以帮扶村里的困难群众或贫困学生。此外，该村以扶贫项目资金直接入股的形式，让贫困村民成为股东。', '如今，支角村建成20个葡萄大棚，200亩西瓜、300亩甜瓜，贵妃苹果、黄金蟠桃、薄皮核桃等2000多亩，成为临城出了名的果蔬大棚基地。“临城至高邑的连接线修通后，从省会前来采摘、游玩的游客络绎不绝。”该村大棚种植户宋立波说。', '除了支角村，还有北程村的百年梨园、三岐村的草莓等，在石邢公路两侧、临万线两侧已形成长达10多公里的高效蔬菜瓜果产业带，沿线建成果蔬大棚100余个，涉及10个行政村，从业人员1000余人，年经济效益达千万元以上。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>7</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>张淑军带队到山东莘县参观考察学习现代农业</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2019-07-11</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/xhx/201907/t20190715_537614.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['莘县地处山东西部，冀鲁豫三省交界处，是国家级生态示范区、国家现代农业示范区、国家级出口食品农产品质量安全示范区；中国蔬菜第一县、中国香瓜之乡、中国菜乡等荣誉称号。', '先后到莘县十八里铺镇苏堂村集体食堂、葡萄采摘棚；徐庄国家现代农业产业园、莘沃农业科技有限公司、莘县农业安全科技展示厅、中原现代农业嘉年华、蔬菜育苗基地、田厨鲜达等']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>7</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>南和县民政局赴沂水县考察学习殡葬改革工作</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2019-07-05</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/mzj/201907/t20190709_537036.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['近日，南和县民政局一行4人赴沂水县考察学习殡葬改革工作，实地查看学习了沂水县在殡管所管理、公益性公墓及移风易俗等方面先进经验，就殡葬改革的运行管理机制、制度设计等进行了深入的交流。', '据悉，沂水县按照“全民惠葬、厚养礼葬、逝有所安”的原则，以红白理事会为抓手，以公益性公墓建设为切入点，全面推行“追思会”模式，辖区内新去世人员进公墓率100%，节地率90%以上，殡葬改革、移风易俗成效显著。', '考察组一致认为沂水县在殡管所管理、公益性公墓及移风易俗工作上取得的经验具有很好的学习借鉴价值。今后，南和县将从三方面入手深入推进绿色殡葬改革工作。一是抓好公益性公墓建设。按照科学规划、因地制宜、方便群众的原则配合乡镇做好公益性公墓选址和建设工作，力争早日完成每个乡镇均建有一所公益性公墓的建设任务。二是提高火化率。党员带头执行中共中央办公厅、国务院办公厅《关于党员干部带头推动殡葬改革的意见》要求，坚决杜绝党员干部违规丧葬问题。同时，充分发挥各村红白理事会的作用，把“推行火葬、严禁土葬”写入村规民约，由红白理事会指导、监督丧葬事宜，村级民政协理员及时报送辖区内丧葬信息，强化源头防控。三是加大宣传力度。结合宣传、乡镇等部门加大殡葬改革宣传力度，在全县倡导文明节俭办丧、节地生态安葬、绿色低碳祭扫，动员全社会力量参与绿色殡葬改革，营造风清气朗的殡改环境。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>7</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>南宫市考察组赴沙河参观学习文明城市创建工</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2019-07-11</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/ngs/201907/t20190711_537447.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['考察组一行先后赴桥东办事处田安社区、翡翠小区、中国银行沙河支行、沙河市医院、沙河一中、沙河市交运局、兴固村等点位进行参观学习。每到一处，考察组成员认真听取讲解，仔细观看，详细记录，全面深入了解沙河市各行业单位的创城举措，为创城工作提供了很好的参考借鉴。各相关单位', '以本次考察学习活动为契机，结合自身实际，对标创建，补齐短板，提升点位创建水平，打好创城']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>7</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>市房屋交易产权管理中心连续三次荣膺全国青</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2019-07-05</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/jsj/201907/t20190707_536866.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['共青团中央在全国开展全国青年文明号创建活动，旨在组织和引导青年立足本职岗位诚实劳动，文明从业，树立适应社会主义市场经济要求的敬业意识、创业精神和质量、效益、安全、竞争、服务等观念，在全社会展现当代青年的精神风貌，塑造行业和企事业单位的良好形象，倡导职业道德和职业文明。市房屋交易与产权管理中心以创建全国青年文明号工作为抓手，响亮提出了“服务一流、管理一流、创新一流、成绩一流”的创建目标。深入开展文明创建活动，不断优化“微笑服务、明白服务和廉洁服务”，持续做好“延时服务”“上门服务”“预约服务”“绿色通道”等方便办事群众的途径;通过提升服务质量，让群众和办事单位真正感到热情、主动、便捷、极效的一流服务;打造了全国一流的房产交易服务品牌。', '全国首创并率先开展了房屋抵押合同网签备案业务。受住建部委托，通过工作创新、软件升级和程序优化，在全国行业内率先实现了金融机构与房屋交易部门抵押业务系统互联互通，抵押信息实时传递，企业和群众办理房屋抵押业务真正做到了只进一扇门，只跑一趟腿，实现了“信息多跑腿、群众少跑路”。中心先后受邀到郑州和武汉宣讲邢台做法，国家住建部房地产司领导分别2次到邢台专程现场调研房屋抵押网签备案工作。目前，全国已有20多个城市参照邢台市的做法启动了房屋抵押合同网签备案工作。', '全国行业内率先推出智慧(手机APP)服务平台。为解决房屋信息不共享，办事跑腿多的症结，中心配合软件公司在行业内率先试点开发和推出了移动智慧服务平台，实行人脸识别、网上申请、线上办结的“不见面办公”服务模式的基础上，行业内率先推出了适用于房屋交易产权管理智能服务的电子印章新功能，2019年4月12日正式上线运行后，再次创新探索，联合软件公司紧密配合又投入到了高强度的研发状态，仅用1个月余时间，在原“电子防伪印章”功能的基础上又推出了房屋交易“线上电子签名功能”，实现了所有房屋转让和抵押合同“线上电子签名”。这一举措，开创了全国同行业“线上不见面房屋交易”工作先河，真正实现了业务办理全程不见面、零跑腿，办事群众和单位办理房屋交易更便捷、更高效。', '率先在全省住建系统荣获6A级标准。房屋交易产权管理和服务的基础是档案管理规范化、档案利用数字化、档案服务极效化，中心自2010年1月份以来加大档案提升工作力度，联合软件公司对60余万宗历史房产档案进行了扫描、录入和分形，真正实现了档案调用数字化，2012年1月在全省率先获得5A级标准，2014年再次提档升级实现自主查询自主打印，2018年实现了手机APP智能服务，不跑腿网上查询，2019年实现了电子签章、网上查询、自主打印、移动认证，保障了房产交易少跑腿、不跑腿、网上办业务的开展，并被认定为全省档案工作目标管理6A级，是全省政府序列内首次荣获更是全省住建系统首家获得此殊荣的单位。', '中心以连续争创全国青年文明号为抓手，围绕极效服务、利企便民，优服务、抓创新、促工作，为全国房产交易行业更好发展提供了“邢台模式”、贡献了“邢台智慧”，充分展现了邢台房屋交易与产权管理中心广大团员青年在交易服务工作中的新形象、新担当和新作为，被新华社、中央电视台、人民日报、光明日报、中国建设报、工人日报等几十家高端媒体纷纷报道，全国60多个地市级以上兄弟单位前来参观考察学习。我们将持续以创建全国青年文明号为契机，继续优化广大团员青年的成长成才环境，引领他们奋发学习，扎实工作，将以更昂扬的激情，更非凡的胆魄，更超人的智慧，让青春在平凡的岗位中实现新举措，新担当、新作为、新形象。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>7</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>平乡县人大常委会组织代表赴浙江台州温州</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2019-07-15</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/201907/t20190715_537678.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['平乡县人大常委会主任刘振霖带领有部分企业界人大代表组成的考察组赴浙江台州、温州考察学习。县人大常委会副主任李晓艺、郑士杰参加考察活动。', '考察组先后到台州黄岩智能模具小镇的日康婴儿用品有限公司、如意实业有限公司、乐信玩具公司、三普模具公司，温州永嘉县教玩具小镇的巧巧教育科技有限公司、华夏游乐有限公司等企业进行了实地参观考察并听取了企业基本情况介绍。考察组一行实地感受了当地企业在当前的经济形势下，不断追求科技进步，努力实现转型发展的坚定信心。', '代表们纷纷表示，此次考察收获颇多，当地企业在发展理念、发展方法上有许多创新和突破，非常值得学习和借鉴，要把这次学到的经验运用到公司的生产经营中，大力进行管理创新和技术创新，推动企业转型升级，为平乡经济发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>7</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>切实抓好水污染防治一法一条例贯彻实施</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2019-05-28</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201905/t20190527_533029.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['（和志国）5月22日至23日，市人大常委会主任魏吉平带领市水务局等有关单位负责同志就全域治水和预算联网监督、人大代表之家建设等工作赴唐山市考察学习。市人大常委会党组副书记、市总工会主席尹全峰，副主任杨爱国，秘书长陈同计一同考察。', '考察组一行先后来到通过散乱污企业拆迁实施唐山花海项目的工地、市环城水系治理陡河城区段、迁西县长河河道整治项目等重点治理节点和市规划馆进行了认真考察。考察组一行每到一处都仔细察看，认真听取讲解，详细了解唐山市在全域治水和环城水系建设方面的有效做法和成功经验。', '考察组对唐山市委、市政府深入贯彻落实习近平生态文明思想，积极推进“全域治水、清水润城”工程的战略举措和成就受到强烈的思想震撼。考察组认为，唐山市通过“连、引、用、疏、治、管”等综合治理方式，实现了全域水质达标，取得经济、社会、生态多方面效益，很有学习借鉴意义。考察组同志在考察结束后进行了座谈交流。魏吉平对考察组如何把唐山的经验领会好、借鉴好提出了要求。魏吉平强调，我市要深入贯彻落实习近平生态文明思想，切实抓好水污染防治“一法一条例”的贯彻实施，并要抓住筹办河北省第三届园博会机遇，切实谋划实施好环城水系建设和河道综合治理工作。', '在唐山期间，考察组一行还来到唐山市人大常委会机关，考察了唐山市人大常委会预算联网监督工作开展情况，座谈交流了两地有关工作，并深入迁西县考察了白庙子乡和三屯营镇人大代表之家建设和相关活动开展情况。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>7</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>市教育局组织普通高中管理人员赴山东省考察</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2019-05-20</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/sjyj/201905/t20190529_533272.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['考察组先后深入山东省宁阳一中、历城二中、莱芜凤城高中和济南三中四所学校，就学校在新高考改革背景下学科课程体系设计与研究、分层分类选课走班及生涯规划探索与实践、教师评价和学生综合素质评价等方面的实践经验进行了深入学习交流。考察活动采取听讲座、观摩、座谈交流、专题研讨的方式进行。', '先后深入山东省宁阳一中、历城二中、莱芜凤城高中和济南三中四所学校，就学校在新高考改革背景下学科课程体系设计与研究、分层分类选课走班及生涯规划探索与实践、教师评价和学生综合素质评价等方面的实践经验进行了深入学习交流。考察活动采取听讲座、观摩、座谈交流、专题研讨', '此次活动对当前和今后的工作具有很强的启发和借鉴意义，为我市稳妥顺利推进新高考各项工作打下良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>7</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>魏吉平赴唐山市考察学习时强调切实抓好水</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2019-05-28</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/hjbhj/201911/t20191125_550616.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['本报讯（和志国）5月22日至23日，市人大常委会主任魏吉平带领市水务局等有关单位负责同志就全域治水和预算联网监督、人大代表之家建设等工作赴唐山市考察学习。市人大常委会党组副书记、市总工会主席尹全峰，副主任杨爱国，秘书长陈同计一同考察。', '考察组一行先后来到通过散乱污企业拆迁实施唐山花海项目的工地、市环城水系治理陡河城区段、迁西县长河河道整治项目等重点治理节点和市规划馆进行了认真考察。考察组一行每到一处都仔细察看，认真听取讲解，详细了解唐山市在全域治水和环城水系建设方面的有效做法和成功经验。', '考察组对唐山市委、市政府深入贯彻落实习近平生态文明思想，积极推进“全域治水、清水润城”工程的战略举措和成就受到强烈的思想震撼。考察组认为，唐山市通过“连、引、用、疏、治、管”等综合治理方式，实现了全域水质达标，取得经济、社会、生态多方面效益，很有学习借鉴意义。考察组同志在考察结束后进行了座谈交流。魏吉平对考察组如何把唐山的经验领会好、借鉴好提出了要求。魏吉平强调，我市要深入贯彻落实习近平生态文明思想，切实抓好水污染防治“一法一条例”的贯彻实施，并要抓住筹办河北省第三届园博会机遇，切实谋划实施好环城水系建设和河道综合治理工作。', '在唐山期间，考察组一行还来到唐山市人大常委会机关，考察了唐山市人大常委会预算联网监督工作开展情况，座谈交流了两地有关工作，并深入迁西县考察了白庙子乡和三屯营镇人大代表之家建设和相关活动开展情况。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>7</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>固城镇开展技能培训提升扶贫质量</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2019-05-23</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/201906/t20190619_534969.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['以具备劳动能力贫困户为重点，开展种植技术、工艺技能主题培训500余人次，组织田间试验、考察学习活动4次，助力提升劳动技能实现稳定脱贫。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>7</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>固城镇规模化开展科技兴农活动</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2019-05-09</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/201905/t20190520_532302.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['依托隆尧县社区教育实验基地，每月定期开设主题课程，围绕种植技术、病虫防治等内容，聘请专家、农技年培训1500余人次，外出考察学习10余次，解决种植问题60余件，培养本土农技3位，助力现代农业发展。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>7</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>我区村干部赴沙河市学习乡风文明建设经验</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2019-04-25</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/201904/t20190425_530200.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['4月24日，区委常委、宣传部长梁夏戈带领祝村镇各村主要负责人到沙河市进行实地观摩。沙河市委常委、宣传部长唐智勇，相关部门负责人一同参加。', '梁夏戈一行先后来到桥东办西杜村、桥东办小仓村、桥西办兴固村、白塔镇栾卸村参观学习了便民服务中心、学雷锋志愿服务站、村史馆的建设管理情况。梁夏戈表示，沙河市高度重视乡风文明建设，群众基础扎实，责任分工明确，工作推动扎实有力。我们要认真学习先进经验和特色做法，对标先进，结合自身实际，真抓实干，加大乡风文明建设工作推进力度，打造更加宜居的美丽乡村，使桥东区乡风文明建设工作再上新台阶。参观团成员也纷纷表示，这次考察学习启迪了乡风文明建设工作的思路，将以此为契机，回去后认真分析总结，汲取经验，推动乡风文明建设实现新突破。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>7</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>桥西区中兴路办事处观摩团到南长街办事处参</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2019-05-08</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/201905/t20190508_531177.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['5月7日上午，桥西区中兴路办事处相关领导带领社区负责人到南长街办事处中北社区进行观摩学习，就如何做好创城工作、老旧小区管理和“大物业”经验做法进行了交流探讨。在中北社区交通局家属院，观摩团一行实地参观了社区党群服务中心、室外活动场地、停车位规划及小区绿化情况。中北社区党支部书记从路面硬化、楼体粉刷、居民活动广场建设三个方面讲述了创城之后中北社区交通局家属院发生的新变化，并就党群服务中心建设介绍了经验做法。诺华庭物业公司经理对南长街办事处大力推行的“大物业”做法及运行情况进行了详细介绍，对开展过程中的经验和做法进行了分享，为观摩人员提供了可借鉴的思路和模式。', '随后，在中北社区党员活动室召开座谈交流会。与会人员就如何开展社区管理进行了深入探讨。观摩团一行对办事处的创城工作表示高度认可，纷纷表示此次考察学习亮点纷呈，非常值得借鉴。南长街办事处也将继续加强与兄弟单位的工作交流，共同推动社区建设迈上新台阶。', '在中北社区党员活动室召开座谈交流会。与会人员就如何开展社区管理进行了深入探讨。观摩团一行对', '创城工作表示高度认可，纷纷表示此次考察学习亮点纷呈，非常值得借鉴。南长街办事处也将继续加强与兄弟单位的工作交流，共同推动社区建设迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>7</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>县委书记李海林主持召开党政班子联席扩大</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/201905/t20190520_532362.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['4月19日下午，县委书记李海林在行政服务中心三楼大会议室主持召开党政班子联席（扩大）会议。县党政班子成员出席会议。县政协主席、县人大常委会副主任、县政协副主席与各乡镇（区）党委书记、县直相关部门负责人列席会议。', '会议传达学习了习近平总书记在解决“两不愁三保障”突出问题座谈会上的讲话精神；省委副书记赵一德，省委常委、组织部长梁田庚在全省党政领导干部打赢脱贫攻坚战专题研讨班上的讲话精神；市委书记朱政学在全市二季度重点工作推进会议上和2019年邢台市生态环境保护委员会第一次全体会议上的讲话精神，研究讨论我县贯彻落实意见。会议还传达学习了省巡视巡察工作会议精神，通报了我县巡视巡察整改工作情况，研究讨论了我县贯彻落实意见。会议对照市委书记朱政学在全市二季度重点工作推进会上通报的各县市区6项重点工作进展情况，看差距、找问题，并就各项工作在全市位次排名情况做出说明，分析原因，全面提升和改进工作。会议还听取了我县考察团赴湖北、河南乡村振兴专题考察学习情况，并研究确定了下一步工作方向。', '会议强调，要肯定成绩、正视差距，认清总体经济运行态势，坚定加快发展信心和决心。总的来看，一季度全县上下坚持把狠抓落实作为今年工作的主旋律，以实干实政的态度、抓铁有痕的定力，确保了中央和省市各项决策部署及我县既定目标任务落地见效，特别是把年初既定的各项重点任务牢牢抓在手上，千方百计抓好落实，取得了比较好的成效，主要经济指标稳中向好、稳中有进，各项重点工作强势开局、亮点突出，主要表现在城镇建设步伐不断加快、超额完成造林绿化、空气质量持续好转、人居环境整治取得扎实进展等。各级各部门要肯定成绩、坚定信心，再鼓干劲、再强措施。但在肯定成绩的同时，我们也要时刻保持清醒头脑，充分认识到在全县经济社会发展中存在的发展不平衡不充分、风险隐患仍然存在、个别工作进展不快等矛盾和问题，不断增强忧患意识，做到迎难而上、勇于攻坚。', '会议强调，要精心谋划，集中发力，确保二季度各项重点工作取得新突破。各级各部门要按照既定的发展思路，以时不我待只争朝夕的精神、以勇于担当砥砺前行的态度、以善始善终善作善成的作风，推动县域经济实现更高质量、更有效率、更加公平、更可持续的发展。要始终强化分析调度，在保持经济平稳较快增长上持续用力。要加强经济运行的监测研判、突出抓好减税降费政策落实工作和持续推进工业企业做大做强；要始终强化项目招商，在增强县域发展后劲上持续用力。招商引资要重实效、项目推进要加速度、园区平台要提能级；要始终强化责任担当，在打造优良生态环境上持续用力。要全力打好蓝天保卫战、“碧水保卫战”、“净土保卫战”；要始终强化精品理念，在建设美丽宜居新区上持续用力。要扎实推进文明县城创建工作、大力补齐发展短板、全力提升城市品位、加快对接邢台主城区；要始终强化民生导向，在增强群众幸福感和获得感上持续用力。要统筹推进各类教育协调发展、深化医疗卫生体制改革、持续提升社会保障水平、把稳就业和促创业摆在突出位置；要始终强化精准施策，在巩固提升脱贫成效上持续用力。要切实抓好专项巡视整改工作、突出工作重点、压紧压实脱贫攻坚责任链条；要始终强化“三农”工作，在乡村振兴上持续用力。要高标准抓好规划编制、强力推进农村人居环境整治、大力发展现代农业；要始终强化改革意识，在激发经济社会发展活力上持续用力。要继续深化放管服改革、抓好财税金融等重点领域改革、深化科技创新体制改革、深化教育体制改革；要始终强化底线思维，在维护社会大局和谐稳定上持续用力。要抓好信访维稳工作、扫黑除恶专项斗争、安全生产和食品药品安全工作、重点领域风险防控工作；要始终强化基层基础，在加强党的建设上持续用力。要坚定正确政治方向、筑牢基层战斗堡垒、驰而不息反对"四风"以及扶持壮大村级集体经济。', '会议强调，要精心谋划，集中发力，确保二季度各项重点工作取得新突破。各级各部门要按照既定的发展思路，以时不我待只争朝夕的精神、以勇于担当砥砺前行的态度、以善始善终善作善成的作风，推动县域经济实现更高质量、更有效率、更加公平、更可持续的发展。要始终强化分析调度，在保持经济平稳较快增长上持续用力。要加强经济运行的监测研判、突出抓好减税降费政策落实工作和持续推进工业企业做大做强；要始终强化项目招商，在增强县域发展后劲上持续用力。招商引资要重实效、项目推进要加速度、园区平台要提能级；要始终强化责任担当，在打造优良生态环境上持续用力。要全力打好蓝天保卫战、']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>7</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>就文明乡村创建农业园区发展工作邢台市桥</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2019-04-26</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/shs/201904/t20190426_530418.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['4月24日，邢台市桥东区委常委、宣传部长梁夏戈带领桥东区委宣传部有关人员、桥东区祝村镇党政干部和下辖各村支部书记一行50 余人到我市考察学习。市委常委、宣传部长唐智勇及有关单位负责人陪同。', '梁夏戈一行先后到桥东办西杜村和小仓村、桥西办兴固村、白塔镇栾卸村、红石沟农业园区等地考察学习，实地感受我市近年来经济社会发展取得的新成就，观摩学习我市在文明乡村创建、农业园区发展等方面的先进经验和做法。', '考察中，大家边走边看、边听边议，认真听取经验介绍，充分开展学习交流。梁夏戈说，通过实地观摩学习，大家感触良多，收获颇丰。近年来沙河市在县域经济发展、生态环境建设、文明乡村创建等工作中取得了骄人成绩，领导干部善谋事、会干事、干成事的精神值得桥东区领导干部认真借鉴和学习。桥东区将以此次考察为契机，把沙河市的好做法和好经验带回去，推进桥东区工作向更深层次发展。唐智勇希望桥东区和沙河市以此次考察为新契机，进一步加强沟通交流，广泛开展合作，携手推动两地经济社会更好更快发展，让老百姓享受到更多发展成果。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>7</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>强强联合加强区县合作共创古城文化新篇</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2019-04-18</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/201904/t20190418_529465.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['4月15日，隆尧县文化广电体育和旅游局局长曹英群一行2人赴我区考察学习桥东区古城文化建设、古城修复建设、业态运营管理先进经验。区文化和旅游局党组书记、局长左丽华及局相关科室人员陪同参观考察。考察组先后到清风楼、火神庙、道德经幢、北大街、花市街、布袋院等文化遗址进行实地参观。考察中，左丽华局长对桥东区古城业态运营管理、古城文化建设、古城修复建设等情况进行了详细介绍。考察组对每个节点、每栋建筑都认真查看改造方法，尤其对布袋院的建设按照一院一设计、修旧如旧的修复成果给予高度评价，详细询问了修复规划及设计方案，表示将吸收借鉴桥东区布袋院的修复、规划及管理经验，并希望今后加强沟通交流，共创古城文化新篇章。', '赴我区考察学习桥东区古城文化建设、古城修复建设、业态运营管理先进经验。区文化和旅游局党组书记、局长左丽华及局相关科室人员陪同参观考察。考察组先后到清风楼、火神庙、道德经幢、北大街、花市街、布袋院等文化遗址进行实地参观。考察中，左丽华局长对桥东区古城业态运营管理、古城文化建设、古城修复建设等情况进行了详细介绍。考察组对每个节点、每栋建筑都认真查看改造方法，尤其对布袋院的建设按照一院一设计、修旧如旧的修复成果给予高度评价，详细询问了修复规划及设计方案，表示将吸收借鉴桥东区布袋院的修复、规划及管理经验，并希望今后加强沟通交流，共创古城文化新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>7</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>我县考察团赴鄂豫学习乡村振兴经验</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2019-04-16</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/201905/t20190520_532364.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区实施乡村振兴战略的成功经验，聚力推进我县乡村振兴战略的规划实施，4月11日至13日，县领导王根才、云文水、李国立、侯同林、魏亚敏、程现军、韩增科、姜俊刚等带领我县部分乡村振兴指导员，县直有关部门负责人、部分乡镇（区）党委书记及村支部书记，赴湖北武汉、鄂州及河南信阳实地考察学习乡村振兴工作实践经验。', '为学习借鉴先进地区实施乡村振兴战略的成功经验，聚力推进我县乡村振兴战略的规划实施，', '考察团先后来到湖北武汉江夏区童周村小朱湾、湖北鄂州梁子湖区涂家垴镇张远村、河南信阳镇平县郝堂村参观学习、举行座谈。每到一处，考察团都认真听取相关工作人员关于村庄基本情况、整体风貌、历史文化背景、经济发展模式等内容的介绍，并就村社发展内置金融促进乡村振兴工作经验进行探讨和交流。', '作为武汉美丽乡村建设示范点，小朱湾根据自身优越的自然环境及区位优势，因地制宜，以创办内置金融合作社为契机，打造了以“荆楚·花·人家”为主线的主题村庄建设，积极探索出一条发展休闲旅游、餐饮美食为主的特色致富道路，积极带动了村庄经济发展，实现了农民增收。在小朱湾进行参观时，王根才强调，实施乡村振兴战略是建设美丽乡村的关键举措，更是改善民生的本质要求，而以村社内置金融为切入点的乡村社区综合治理实践对于把握好、实施好乡村振兴战略具有重要意义。此次考察，组织部积极组织，认真规划，为全体考察成员创造了良好的考察环境，全体成员要珍惜此次机会，仔细观察，勤奋思考，认真总结，坚定乡村振兴的信心与决心，探索如何将三个试点村在乡村振兴方面的发展理念和成功经验与我县实际情况有机结合，挖掘我县乡村优势，发展我县乡村经济，更好地为建设美丽乡村贡献力量。', '作为武汉美丽乡村建设示范点，小朱湾根据自身优越的自然环境及区位优势，因地制宜，以创办内置金融合作社为契机，打造了以', '随后，考察团全体成员赶赴鄂州张远村。地处鄂东南梁子湖畔的张远村，曾经是一个省定贫困村。后来在当地政府主导和乡建院的指导下，创建土地综合服务专业合作社，推动了农村土地规模化经营，促进了现代农业产业的发展。我县考察团参观了张远村村庄自然和人文景观，学习了解村支部委员会的建设情况，并与当地干部举行专题座谈。座谈会上，张远村干部详细介绍了本村发展内置金融、成立农村专业合作社后在经济社会方面所取得的成效。双方还就如何协调商业银行与合作社之间的关系、土地流转费用确定等方面的问题进行了热烈的讨论。', '“抬头有青山、低头有绿水”，这是对河南信阳镇平县郝堂村最为贴切的描述。在郝堂村，考察团参观了郝堂宏伟小学、郝堂叶楠白桦文学馆等美丽乡村建设项目，详细了解了郝堂村人工湿地污水处理系统的运作原理和效果，认真听取了乡建院内置金融团队负责人详细介绍了郝堂村在乡村教育、文化建设、环境保护等乡村治理方面所做的举措，以及内置金融在郝堂村乡村建设实践中的重要作用。', '在考察中，王根才指出，郝堂村发展乡村振兴、设立内置金融的做法对于我县建设美丽乡村具有十分重要的借鉴和指导意义，县委、县政府将全力支持、大力推动乡村振兴试点村建立工作的开展，着力解决工作推进中存在的难题，乡村振兴指导员、各级各部门及各位乡、村负责同志要统一思想，狠抓落实，坚定信心，积极探索，将此次考察工作成效落到实处。', '云文水指出，实施乡村振兴战略，要着力深化农村集体产权制度改革，保障农民财产权益，发展壮大集体经济。发展新型农村集体经济作为建立现代农业经营体系的重要环节，是党中央基于我国“三农”发展变化实际、着眼乡村振兴、推进农业农村现代化做出的战略部署，这为我县农村经济发展补齐“短板”带来新的机遇。各级各部门要结合本地区实际情况，制定切实可行的行动方案，尽快推进乡村振兴试点村建设工作落地见效。', '云文水指出，实施乡村振兴战略，要着力深化农村集体产权制度改革，保障农民财产权益，发展壮大集体经济。发展新型农村集体经济作为建立现代农业经营体系的重要环节，是党中央基于我国', '李国立指出，内置金融是壮大集体经济、发展乡村振兴的有效平台。各位领导干部要树立信念，坚定思想，勤奋学习，锻炼能力，结合各个村庄的实际情况，积极探索乡村振兴的道路，树立为乡村振兴事业奉献的决心，为我县群众创造美好生活贡献一己之力。', '2019年，按照党中央的重大部署，我县将乡村振兴工作摆在了突出位置，狠抓乡村建设，大力整治农村人居环境，因地制宜，充分挖掘和利用我县优势资源，进行资源盘活和环境整治，保障农民利益，增强群众的获得感和满足感，努力实现生产发展、生活富裕、生态良好的美丽乡村建设目标。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>7</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>唐山市卫生健康委到清河县考察学习</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2019-04-12</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/wjw/201905/t20190516_531858.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['月11日，经河北省卫生健康委推荐，由唐山市卫生健康委副主任苑东强带队组成70余人考察团来清河县考察学习先进经验。', '近两年来，清河县卫生健康局坚持用改革的方法破解发展瓶颈，以创新激发内生动力和发展活力，以“花园式”卫生院发展规划和县级医院浓缩版为重点，狠抓基层服务能力提升，不断满足基层群众就医获得感和幸福感，整体工作实现历史性跨越，得到省、市领导的充分肯定。', '考察团一行对戈仙庄镇卫生院标准化建设进行了实地观摩，在县卫生健康局举行了座谈，现场观看了该县卫生健康工作专题片，听取了该县基层卫生工作介绍。戈仙庄镇卫生院院长许颖做了经验介绍。', '唐山市卫生健康委副主任苑东强表示，这次清河之行收获很大，清河县紧紧围绕“县级医院浓缩版、花园式”卫生院发展目标，狠抓乡镇卫生院标准化建设，三年内服务能力得到大幅度提升，既有政策支持，又有内生动力，积累了丰富的经验，具有较强的借鉴意义，非常值得我们学习。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>7</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>强化学习创新推动企业做强做优</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201904/t20190421_529736.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['(记者吉安东)4月19日，由市委统战部、市工商联主办的首届民营企业家创业先锋大讲堂在市委党校举办。市委常委、统战部部长郝艳红出席活动并讲话，千喜鹤集团董事长刘延云应邀作专题报告。', '报告会上，刘延云紧紧围绕做强企业的主题，全面介绍了企业文化、发展经验等内容。报告深入浅出，内容丰富，令人深受启发。', '郝艳红要求，民营企业家要积极创新，勇于面对新时代的新挑战和变动，全面加强技术、管理、体制机制和发展模式的创新，不断强化品牌建设、延伸产业链条、提升产品层次，全力推动企业做强做优。要加强学习，主动到发达地区知名企业考察学习，学习借鉴经验做法，为企业带来新的生机和活力。要增强合作意识，积极打通我市农副产品行业和企业与外地知名民营企业人才、管理、技术的对接，进一步加强交流合作，使我市不断涌现出更多更好的企业。', '在听取报告后，与会人员纷纷表示，要弘扬企业家精神，树立新思维、新理念，主动学习新知识、寻求新发展，为我市经济高质量发展作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>7</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>区卫健局领导带队赴北京安定医院考察</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/qd/201904/t20190422_529873.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['4月19日，由区卫健局党组书记刘建国带领邢台市精神病医院相关科室主任赴北京安定医院考察学习康复中心建设和社会心理服务等事宜，为医院的改革创新提供借鉴蓝本。北京安定医院的主要领导介绍了医院的基本情况及特色科室等，双方就心理治疗、康复培训和社会心理服务进行了经验交流，为开展下一步合作奠定良好基础。局党组书记刘建国一行还参观了中国心理卫生协会，双方在远程心理治疗课程培训方面达成了初步合作意向。', '邢台市精神病医院相关科室主任赴北京安定医院考察学习康复中心建设和社会心理服务等事宜，为医院的改革创新提供借鉴蓝本。北京安定医院的主要领导介绍了医院的基本情况及特色科室等，双方就心理治疗、康复培训和社会心理服务进行了经验交流，为开展下一步合作奠定良好基础。局党组书记刘建国一行还参观了中国心理卫生协会，双方在远程心理治疗课程培训方面达成了初步合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>7</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>湖北省政协考察团来邢考察学习</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2019-04-11</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201904/t20190410_528094.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['（记者籍明泉）4月10日，湖北省政协副主席杨玉华率领考察团来到我市，就大气污染防治工作进行考察学习。省政协人资环委主任李晓明，市政协主席邱文双，副主席郭和平，秘书长许振吉陪同考察。', '当日，考察团一行先后到桥东区天一府小区建筑工地、邢台国泰发电有限责任公司，邢台县德龙钢铁有限公司进行了实地考察，认真听取了相关介绍，详细了解我市建筑工地扬尘治理、企业环保治理的各项措施和效果，并与企业负责人进行了深入交流。', '杨玉华表示，邢台市在大气污染防治方面思想认识深刻，坚持体制机制创新、精细化差异化网格化管理，实施“科学治霾、协同治霾、铁腕治霾”，不断优化调整产业结构、能源结构、交通运输结构和用地结构，同时加强执法监管，用最严厉措施、最严格制度、最严密法治推动空气质量持续改善，受到了国家、省和人民群众的充分肯定，给湖北省提供了许多可借鉴的好经验好做法。接下来，将以此次考察为契机，结合自身实际，发挥政协优势，抓紧总结提炼并加以借鉴推广，进一步解放思想，创新举措，真抓实干，更好地推进大气污染防治工作。', '邱文双对湖北省政协考察团一行表示欢迎，并希望湖北省与邢台市在大气污染防治及其他方面加强合作交流，相互学习借鉴，共同促进发展。', '今年以来，我市深入贯彻落实习近平生态文明思想，牢固树立绿水青山就是金山银山的发展理念，把打赢蓝天保卫战作为一项重要政治任务，着力打好六大攻坚战，强化顶层设计、突出治本攻坚、坚持综合施策、全面依法治污、主动自我加压、注重能力提升，空气质量得到进一步改善。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>7</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>保定市望都县临西考察学习健康扶贫先进经验</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2019-04-07</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lxx/201904/t20190412_528440.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['日前，保定市望都县考察组一行来临西考察学习健康扶贫先进经验。考察组深入到周楼村健康小屋参观学习，通过实地察看、现场询问、翻阅资料台账等方式，重点对“健康小屋”、家庭医生签约的服务功能、运行机制进行了全面深入的了解。', '近年来，临西县坚持以习近平总书记扶贫开发战略思想为统领，把健康扶贫的关口前移，开展了以“免费体检、免费开方、提供优质治疗、提供优良服务”为主题的全民免费健康体检活动，大力实施“健康示范村”工程，首创了“健康小屋”，建立了全省首家互联网医院，实行了家庭医生签约服务，分级诊疗集中救治制度，有效减少了疾病发生率，在全省走出了一条健康扶贫新路子。国家卫健委就我县“健康小屋”做法给予充分肯定，中央电视台新闻联播、中国国际电视台“两会”直播特别节目、新华社、人民日报、河北新闻联播等多家媒体进行了报道，先进经验做法在省市乃至全国叫响，吸引了张家口市、雄县和安新县等地区前来考察学习。', '经过实地考察，考察组对临西在健康扶贫工作中采取创新举措给予高度赞赏，认为临西县健康扶贫措施得力、效果明显，切实解决了贫困群众因病致贫返贫难题。考察组表示，将把临西健康扶贫方面的一些先进理念和经验做法带回去，因地制宜转化为自己的“模式”，并表示今后要不断开展两地之间的工作交流，促进两地健康扶贫工作持续健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>7</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>我县赴任丘市考察学习信访工作</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2019-04-04</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/njx/201904/t20190404_527619.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['4月2日，县委副书记张金锁，县委常委、政法委书记江伟带领信访局和部分乡镇主要负责人到任丘市考察学习信访工作。任丘市委常委、政法委书记张锦增，相关单位负责人分别陪同考察或参加座谈。', '张金锁、江伟等一行先后实地查看并听取了任丘市辛中驿镇精准服务群众机制开展情况、石门桥镇史村村规民约实施、民调组织运行情况及市群众工作中心接访流程、办公环境的情况介绍，并召开座谈会交流经验。', '张锦增表示，欢迎宁晋县到任丘市考察学习，希望大家多提宝贵意见，进一步加强交流与合作，共同推动信访工作再上一个新台阶，全力维护首都政治“护城河”安全稳定。', '张金锁指出，这次我们带着问题和疑虑来到任丘市，通过实地察看后，大开眼界，深受启发，深刻感受到任丘市信访工作理念好、办法好、效果好。回去后各单位、各乡镇要系统地对标学习任丘市信访工作中的好经验好做法，构筑严实有效的基层排查化解治理防线，深抓、细抓、实抓信访矛盾的排查化解和防范治理，构筑起严密有效的基层防线，推动信访突出问题的解决，完善体制机制建设，做到小事不出村、大事不出乡、矛盾不上行，认真负责地处理好各类信访问题，确保我县社会环境整体平稳有序。']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>7</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>隆尧县来我县学习垃圾分类源头治理工作经验</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2019-03-15</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/201904/t20190418_529594.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['3月13日，隆尧县委副书记张义军带队来我县考察学习垃圾分类源头治理工作经验。县领导宋志强及有关部门负责人陪同考察。 张义军一行先来到大屯乡小屯村，查看了垃圾分类处置基础设施建设情况，认真了解了我县在推进城乡垃圾一体化处置方面的经验做法。随后，张义军与随行人员来到吴岳生活垃圾中转站参观学习，并观看了我县城乡垃圾一体化处置宣传片。 张义军表示，垃圾一体化处置是改善城乡人居环境的重要举措，任县的垃圾分类源头治理工作经验丰富，成效显著，为推进垃圾分类源头治理提供了很好的思路。隆尧县将积极借鉴任县的经验做法，科学规划，合理布局，努力提升群众生活的幸福感和满足感。 近年来，我县大力实施乡村振兴战略，不断提升城乡垃圾一体化处置水平，为其他市县提供了宝贵经验。今后，我县还将持续拓展垃圾分类处置覆盖面，积极探索垃圾资源化利用，努力打造干净整洁、规范有序、舒适宜居的城乡人居环境。', '3月13日，隆尧县委副书记张义军带队来我县考察学习垃圾分类源头治理工作经验。县领导宋志强及有关部门负责人陪同考察。', '张义军一行先来到大屯乡小屯村，查看了垃圾分类处置基础设施建设情况，认真了解了我县在推进城乡垃圾一体化处置方面的经验做法。随后，张义军与随行人员来到吴岳生活垃圾中转站参观学习，并观看了我县城乡垃圾一体化处置宣传片。', '张义军表示，垃圾一体化处置是改善城乡人居环境的重要举措，任县的垃圾分类源头治理工作经验丰富，成效显著，为推进垃圾分类源头治理提供了很好的思路。隆尧县将积极借鉴任县的经验做法，科学规划，合理布局，努力提升群众生活的幸福感和满足感。', '近年来，我县大力实施乡村振兴战略，不断提升城乡垃圾一体化处置水平，为其他市县提供了宝贵经验。今后，我县还将持续拓展垃圾分类处置覆盖面，积极探索垃圾资源化利用，努力打造干净整洁、规范有序、舒适宜居的城乡人居环境。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>7</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>我县赴外地学习国家卫生县城创建先进经验</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2019-03-12</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/rx/201904/t20190418_529566.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['日前，县政府副县长胡慧敏带领卫健、城管、市场监管等相关部门负责人及任城镇负责人赴大厂回族自治县考察学习国家卫生县城创建工作的成功经验和作法，并就创建工作的热点难点问题进行了深入探讨交流。 考察团首先来到大厂县创卫办，听取了大厂县创卫工作的先进经验介绍，观看了大厂县创建国家卫生县城工作专题纪录片，参观了创建国家卫生县城工作指挥部的办公环境，查阅了该县关于国家卫生县城创建工作的多项软件资料，详细了解了该县创建国家卫生县城的总体思路、具体举措、工作机制。大厂县高起点规划、高目标定位的思路，让考察团成员大开眼界，当画面中呈现出城市面貌改造前与改造后的图片对比时，大家连连点头称赞。 随后，考察团一行先后实地察看了健康公园、县城农贸市场、北辰街道和大厂四村等地，详细听取了相关工作情况介绍，学习了解推进各项工作的具体做法。胡慧敏在考察中指出，城市建设必须规划先行，大厂县创卫工作力度大、措施实、管理好，非常值得学习和借鉴。 通过现场参观和座谈，我县考察团对大厂县国家卫生县城创建的亮点给予高度评价，一致认为通过这次考察学习受益匪浅，纷纷表示要把在大厂学习到的好经验、好做法进行宣传和推广，把大厂行之有效的好方法和经验拿来借鉴，并结合我县的实际，维护和改善辖区内公共卫生秩序，建立长期有效的管理机制，大力提升全民参与创卫的热情和积极性，全力推进创建国家卫生县城各项工作再上新台阶。', '日前，县政府副县长胡慧敏带领卫健、城管、市场监管等相关部门负责人及任城镇负责人赴大厂回族自治县考察学习国家卫生县城创建工作的成功经验和作法，并就创建工作的热点难点问题进行了深入探讨交流。', '考察团首先来到大厂县创卫办，听取了大厂县创卫工作的先进经验介绍，观看了大厂县创建国家卫生县城工作专题纪录片，参观了创建国家卫生县城工作指挥部的办公环境，查阅了该县关于国家卫生县城创建工作的多项软件资料，详细了解了该县创建国家卫生县城的总体思路、具体举措、工作机制。大厂县高起点规划、高目标定位的思路，让考察团成员大开眼界，当画面中呈现出城市面貌改造前与改造后的图片对比时，大家连连点头称赞。', '随后，考察团一行先后实地察看了健康公园、县城农贸市场、北辰街道和大厂四村等地，详细听取了相关工作情况介绍，学习了解推进各项工作的具体做法。胡慧敏在考察中指出，城市建设必须规划先行，大厂县创卫工作力度大、措施实、管理好，非常值得学习和借鉴。', '通过现场参观和座谈，我县考察团对大厂县国家卫生县城创建的亮点给予高度评价，一致认为通过这次考察学习受益匪浅，纷纷表示要把在大厂学习到的好经验、好做法进行宣传和推广，把大厂行之有效的好方法和经验拿来借鉴，并结合我县的实际，维护和改善辖区内公共卫生秩序，建立长期有效的管理机制，大力提升全民参与创卫的热情和积极性，全力推进创建国家卫生县城各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>7</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>固城镇四个革新推动汽配产业提档升级</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2019-03-15</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/lyx/201904/t20190417_529136.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['固城镇“四个革新”推动汽配产业提档升级。理念革新，着力质量提升。牢固树立以质取胜发展理念，配合河北省质量技术监督局，发起并参与制订汽车制动毂河北省地方标准，百龙、安鼓、远征等多家企业通过ISO9000质量体系认证、ISO/TS16949质量管理体系认证。技术革新，补齐科研短板。提升科技支撑能力，鼓励引导企业加强产学研合作，支持百龙、安鼓等骨干企业建立研发中心，培育省级科技型企业2家、市级科技研发中心2家。产品革新，实现品牌创建。注重培树行业品牌，引导汽配企业注册商标100余件，创建省著名商标“安鼓”“隆固”“王桥”3件，省名牌产品1个，省中小企业名牌产品“安鼓”“百龙”“凯翔”3个。生产革新，全力提档升级。通过对标先进、考察学习，全镇汽配企业共开展整改提升4轮，环保治理投入2000余万元，实现在线监测系统、远程断电开关全数安装，同步更新配套治污设施，细化除尘器、分区围挡等生产环节，深度防治环境污染问题。', '牢固树立以质取胜发展理念，配合河北省质量技术监督局，发起并参与制订汽车制动毂河北省地方标准，百龙、安鼓、远征等多家企业通过ISO9000质量体系认证、ISO/TS16949质量管理体系认证。', '提升科技支撑能力，鼓励引导企业加强产学研合作，支持百龙、安鼓等骨干企业建立研发中心，培育省级科技型企业2家、市级科技研发中心2家。', '注重培树行业品牌，引导汽配企业注册商标100余件，创建省著名商标“安鼓”“隆固”“王桥”3件，省名牌产品1个，省中小企业名牌产品“安鼓”“百龙”“凯翔”3个。', '通过对标先进、考察学习，全镇汽配企业共开展整改提升4轮，环保治理投入2000余万元，实现在线监测系统、远程断电开关全数安装，同步更新配套治污设施，细化除尘器、分区围挡等生产环节，深度防治环境污染问题。']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>7</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>平乡县医疗保障局贯彻落实邓素雪副市长来平</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2019-03-18</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/pxx/201903/t20190318_523389.html</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['3月13日上午，邓素雪副市长、市医保局石建鑫局长、市卫健委安建波主任一行9人来平乡调研医保工作。领导一行先后到县中西医结合医院、丰州镇卫生院、县人民医院进行实地调研，随后召开专题座谈会。会议听取了政府副县长史书军同志关于平乡医保工作汇报，邓素雪副市长重点就医保基金运行情况同我县与会人员进行交流发言。最后，邓素雪副市长、市医保局石建鑫局长、市卫健委安建波主任、市医保局副局长孔立京分别围绕平乡县医保工作中存在的问题进行点评，并提出具体整改意见。', '当天下午，县医保局迅速组织召开股级以上干部会议，专题学习贯彻落实邓素雪副市长调研座谈讲话精神，县医保局党组书记谷朝勋通报了领导座谈讲话要点，传达了邓素雪副市长重要讲话精神。党组书记谷朝勋和与会人员直面医保基金运行中存在的问题，对存在问题进行研判反思，并安排部署下一步工作。一是迅速组织召开全县医疗保障工作大会，落实市、县领导讲话精神，推进工作落实。二是建立健全各项规章制度，实现以制度管人、管事、管机构、管基金，从内部开始，加强对医药机构、医保基金的监管力度。三是加大现场稽核力度，根据往年基金使用情况，对医保基金实行刚性预算管理，逐年化解医保亏空，确保医保基金收支平衡。四是组织人员去兄弟单位考察学习基金管理智能监控系统的先进经验和做法。']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>7</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>清河县方志办赴安国考察学习</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2019-03-29</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/sfzb/201903/t20190329_526816.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['安国方志办是全省方志系统的排头兵，志书编纂和信息化建设都走在全省前列，尤其是公众号“方志安国”多次位居“澎湃问政”全国排名之首。', '在座谈会上，安国市方志办主任于盼粘等十名方志专家，热介绍了安国市方志办在志书编纂、二维码使用、篇目设计、图片运用、年鉴启动、微信公众号制作和推广、方志馆建设等方面的先进工作方法和优秀修志经验。', '清河县方志办主任李靖介绍了第二轮《清河县志》编纂过程和内容的创新，以及年鉴编纂和开发清河特色文化的情况。', '清河方志办和安国方志办还就方志队伍建设、方志创新、基础调研等项工作进行了热烈讨论，大家都各抒己见，踊跃发言。', '清河县方志办此次考察学习收获颇丰，既开阔了眼界，又学得了经验。大家纷纷表示，回去后一定要理清思路，消化吸收先进做法，嫁接安国经验为我所用，为清河方志工作再上新台阶而努力奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>7</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>清河县到我市考察学习</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2019-03-12</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/shs/201903/t20190312_522871.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['3月7日，清河县委常委、宣传部长解恭朝，副县长裴贵廷带领相关人员到我市考察学习。市委常委、宣传部长唐智勇，经济开发区副书记刘占平及有关单位负责人陪同。', '解恭朝一行先后到桥东办西杜村、玻璃艺术展厅、望美实业公司、体育公园、玻璃技术研究院等地考察学习，实地感受我市近年来经济社会发展取得的新成就，观摩学习我市在产业转型升级、新农村文化建设等方面的先进经验和做法。', '考察中，大家边走边看、边听边议，认真听取经验介绍，充分开展学习交流。解恭朝表示，通过实地观摩学习，大家感触良多，收获颇丰。近年来沙河市在产业转型升级、新农村文化建设等工作中取得了骄人成绩，领导干部善谋事、会干事、干成事的精神值得清河县认真借鉴和学习。我们将以此次考察为契机，把沙河市的好做法和好经验带回去，推进清河县工作向更深层次发展。唐智勇表示，希望清河县和我市以此次考察为新契机，进一步加强沟通交流，广泛开展合作，携手推动两地经济社会更好更快发展，让老百姓享受到更多发展成果。']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>7</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>江西省人民政府办公厅到邢台考察学习</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2019-01-18</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/xzfwzx/201902/t20190212_482157.html</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['1月18日，江西省政府办公厅党组成员、省政务服务办主任廖裕良一行5人在我省政务服务管理办公室党组成员、副主任张增毅陪同下，到行政审批局考察学习我市“两不见面”审批改革和“一网通办”改革工作。市政府办副秘书长刘志忠，行政审批局领导班子陪同参观考察。 考察组首先参观了业务办理大厅，详细了解了我市一网通办、综合受理、公共资源交易全流程电子化、商事制度改革等工作运行流程，随后在局三楼会议室举行了座谈会。会上吕瑞峰局长详细介绍了我市“两不见面”审批改革经验做法和成效。威县审批局和清河经济开发区审批局也分别进行了工作汇报。 考察组对我市改革工作给予了高度肯定，双方表示今后要不断增加交流，互相学习先进经验和做法，共同把审批改革推向深入，更好的服务企业、服务群众。', '考察组首先参观了业务办理大厅，详细了解了我市一网通办、综合受理、公共资源交易全流程电子化、商事制度改革等工作运行流程，随后在局三楼会议室举行了座谈会。会上吕瑞峰局长详细介绍了我市“两不见面”审批改革经验做法和成效。威县审批局和清河经济开发区审批局也分别进行了工作汇报。', '考察组对我市改革工作给予了高度肯定，双方表示今后要不断增加交流，互相学习先进经验和做法，共同把审批改革推向深入，更好的服务企业、服务群众。']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>7</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>德州市行政审批局到我局考察学习行政审批改</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2019-03-11</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/bmdt/xzfwzx/201903/t20190318_523401.html</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['3月8日，德州市行政审批局副局长王从仕同志带队一行8人到我局考察学习行政审批改革工作。副局长杨开军、副调研员裴沛华陪同。考察组首先参观了一楼综合受理大厅，随后在三楼会议室召开座谈会。会上双方就审批流程再造、制度机制建设、审监互动平台等工作进行了深入交流。双方表示今后要互相学习，增进交流，不断把审批改革推向深入。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>7</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>彬州市考察团到我县岗底村山地苹果示范园考</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2019-02-24</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/qxdt/nqx/201902/t20190228_489779.html</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['2月23日，彬州市考察团到我县岗底村山地苹果示范园参观考察，县委副书记王俊国陪同考察。', '考察团一行先后来到岗底村改革开放三十年成果展厅和富岗苹果生产示范基地进行实地参观。详细了解岗底村与富岗公司的基本情况及发展状况，并来到李保国墓前追思和缅怀优秀共产党员李保国。', '通过详细了解岗底苹果生产管理技术等相关问题，考察团对岗底村通过提高技术水平、提升果品质量，实施品牌战略带动群众致富的做法给予高度评价。考察团表示，将认真整理和总结富岗苹果基地技术经验，把考察学习成果带回彬州，结合实际运用到当地的苹果种植中。希望与内丘在果品技术开发等多方面开展更广泛更深入的合作，携手推进两地经济社会更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>7</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>灌区设施升级记</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2018-11-22</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201811/t20181122_302412.html</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['（记者谢霄凌）11月16日，在沙河市綦村镇纸房村，几名施工人员正在向隧洞内运输球墨铸铁管道。这里正是朱庄南灌区现代化建设项目的施工现场。 朱庄南灌区始建于上世纪70年代，是以朱庄水库为水源的中型灌区，有效灌溉面积7万亩。经过多年运行，灌区老化失修问题突出，渠道渗水漏水现象严重，实际灌溉面积逐年锐减，目前仅为3万亩。 沙河市水务局局长朱如森告诉记者：“灌区的灌溉范围涉及沙河市5个乡镇，77个村庄。老化失修已经成为农业发展的瓶颈问题，对当地经济产生严重影响，对朱庄南灌区全面升级改造，恢复灌溉面积，势在必行。” 带着这些问题，沙河市把灌区存在的问题向上级部门反映，很快得到了支持和帮助。水利部、省市水务部门的相关人员多次深入沙河实地调研，并组织人员到云南元谋、河南南阳等灌区节水灌溉工程实施较为先进的地区考察学习，很快明确了思路：要按照“建设规范化、用水高效化、运行信息化、管护市场化、面貌园林化”的总体思路，谋划打造沙河市高标准现代化灌区。 朱庄南灌区现代化建设项目，共分渠改管管道工程、田间高效节水工程、生态景观工程和智慧化管控工程四部分，规划工程总投资9.8亿元，将原渠道全部改造为有压球墨铸铁管道，输水管道全长51.73km，全部实现有压水田间输送，针对灌区范围内20个产业园区和农业开发区等多点布局的现状，发展高效生态节水技术，利用遥测技术、地理信息技术、通信技术等科技手段，打造智能型灌区，实现监控计量一体化。 项目建设动工前，沙河市水务局抽调技术骨干力量，对朱庄南灌区的渠道保存现状、渠道及隧洞渡槽的技术指标、斗渠灌溉范围等开展全方位的勘查测量，同时对工业、农业、人畜饮水和生态用水四方面的用水需求进行摸底排查。 “过去一年只有几次集中灌溉时间，加上渠道渗水漏水严重，浇地成本不断提高，村民们种地的积极性不断下降。”綦村镇西左村村党支部书记刘云山告诉记者，听说现代化建设完工后，24小时都能通水，无论是生活用水还是土地灌溉都十分方便，用水成本比原来节约2/3。 铺设管道需要占用西左村200多户的部分耕地，村民们一呼百应，家家主动配合。 “乡亲们对用水的需求特别迫切，有了这样的民心工程，大家支持还来不及呢。”刘云山告诉记者，不止西左村，灌区覆盖的所有乡镇，乡亲们都全力支持项目建设，施工进行的特别顺利。 “项目建成后，可以有效利用水库的每一滴水，不仅促进当地农业、工业发展，还可以减少地下水开采量，促进生态环境良性发展。”朱如森介绍说，从今年6月开工建设以来，为加快进度，施工单位分成8个工作台面24小时不间断施工。项目建设一期工程总投资9473万元，分为干渠改管工程及管道配套工程，预计于12月底全部完成建设任务。']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>7</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>周永会一行赴廊坊考察</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2017-03-20</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201703/t20170320_59007.html</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['（记者 路遥）3月17日，市委常委、常务副市长周永会带领各县市区、相关市直部门负责同志，赴廊坊市考察学习大气污染防治工作。廊坊市委常委、副市长刘健陪同考察。 在当天上午举行的座谈会上，周永会一行听取了廊坊市大气污染防治、燃煤替代、空气质量管控平台建设等工作的情况介绍，并就有关问题进行了探讨、交流。下午，周永会一行先后来到广阳区华苑小区供热锅炉煤改气项目、廊坊特校锅炉煤改电项目和广阳区尖塔镇左场村煤改气工程现场，向小区供热管理人员、学校负责人、农村群众、基层干部详细了解项目工程运行方式、实际效果等情况，深入考察廊坊大气污染防治工作的做法。 周永会指出，廊坊市在大气污染治理方面，领导重视程度高，干部思想观念超前，治理方式方法创新，形成了诸多实施亮点和成功经验。我们要将廊坊的好经验、好做法认真总结提炼，借鉴推广，推进全市大气污染防治工作深入开展。']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>7</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>市规委会召开年第六次会议</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2017-07-14</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201707/t20170717_59379.html</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['（记者 杜烁 通讯员 张超）7月13日，市长、市城乡规划委员会主任董晓宇主持召开市城乡规划委员会2017年第六次会议。 会议审议并通过了桥西区第一中学项目规划设计方案。该项目东侧为太行路，西侧为大郭路，南侧为团结西大街。建设用地3.18公顷，总建筑面积2.26万平方米。兴建小学4轨24个班，初中4轨12个班，共36个普通班级，可容纳学生1680人。 会议审议通过了邢台县北京第二外国语学院邢台附校项目规划设计方案。该项目位于龙岗片区，北临金泉大街，南临银泉大街，东临兴达路，西临花园路。规划用地面积166.78亩。该校是由北京第二外国语学院、市政府和石家庄东胜投资集团联合创办的一所九年一贯制普通学校，规划小学48班，初中24班。 会议还审议通过了市开发区襄政·公元住宅项目规划设计方案、桥东区冶金南生活区项目规划设计方案，听取了市建筑设计研究院有限公司关于赴张家口、大同考察学习的报告。 市人大常委会副主任冯秋梅，副市长张志峰，市政府秘书长李亚林及规委会成员参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>7</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>我市党政考察团赴邯郸考察旅游工作</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2017-08-21</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201708/t20170822_59475.html</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['（记者张文学）8月20日，在全市首届旅发大会召开期间，市委书记王会勇，市委副书记、市长董晓宇，市委副书记王素平等带领我市党政考察团，专程到邯郸市考察学习旅游工作。邯郸市委书记高宏志，市委副书记、市长王立彤等陪同。 上午，考察团参观了涉县游客服务中心，听取了涉县旅游开发整体情况介绍，并实地察看了邯郸市首届旅发大会太行红河谷景区旅游环线的７处景点。下午，考察团赴峰峰矿区实地考察了正在建设中的邯郸市秋季旅发大会主会场响堂山风景区，观摩了响堂水镇、太行药王谷、山底村抗日地道战遗址等旅游环线景区规划建设情况。仅用73天就建成的红色记忆小镇、总投资20亿元的娲皇水镇、修旧如旧的磁州窑艺术街区……一路走来，邯郸市旅游开发的大手笔、高速度和精致细致，给我市考察团成员留下深刻印象。大家边看边议，纷纷表示要深入对标学习，推动我市旅游业向更高层次发展。 王会勇在考察中指出，邯郸市以举办旅发大会为抓手，高标准规划、大手笔投入、高速度推进，实现旅游产业又好又快发展的经验和做法，值得我们认真学习借鉴。各地各有关部门一定要以我市举办首届旅发大会为契机，进一步强化标杆意识，对标学习先进，特别是要继续保持事争一流的精神状态，发扬苦干实干的优良作风，再鼓干劲，高标准搞好旅游业发展规划，大力度推进招商引资和项目建设，加快推动我市旅游产业提档升级。 高宏志代表邯郸市委、市政府对我市党政考察团表示欢迎。他说，邯邢两市地缘相近、人文相亲。这次邢台市在旅发大会期间组织党政考察团到邯郸考察，充分表明了邢台市委、市政府推进旅游业大发展、快发展的决心和信心。希望双方加强交流，相互学习，共同进步。 市领导戎阳、宋向党、杨宪春、张志峰、邓素雪、李国印，市委秘书长宋洪修及各县市区委书记、市直有关部门主要负责同志参加了考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>7</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>王素平率团赴邯郸考察学习创城经验</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2017-10-01</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/lddt/201710/t20171010_192635.html</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['（记者 王露橦）9月30日，市委副书记王素平率考察团赴邯郸市考察学习文明城市创建工作的好经验好做法。副市长张志峰一同考察学习。 考察团一行马不停蹄，深入邯郸市火车站、汽车客运总站、百乐苑生活区、邯山区农林路农贸市场、硝厂胡同四号院生活区、市民服务中心、交警支队等处，实地参观各处文明宣传设施和便民设施设置、学雷锋志愿服务站日常工作开展、社区三室设置、数字化调度指挥平台建设等情况，听取经验介绍，并就相关具体问题与当地党政负责同志和有关部门负责同志进行交流。 王素平对邯郸市文明城市创建工作给予高度评价，认为近年来邯郸市文明城市创建工作部署细致、经验丰富、亮点突出、成效明显，不少新理念、新措施令人深受启发。邢台一定要对标先进，努力追赶，认真学习借鉴邯郸市的好经验、好做法，并运用到实际工作中。 王素平说，要以此次考察学习为契机，进一步坚定信心和决心，解放思想，更新理念，丰富举措，推动我市文明建设和城市管理上水平。要坚持以惠民、便民、利民为出发点，进一步调高、细化工作标准，本着“缺什么补什么”的原则，在细节上下工夫，迅速抓好突出问题和薄弱环节的整改。要切实压实责任，构建责任全覆盖、创建无死角的责任体系，推进各项工作落实，强化督导，严肃问责。要坚持培养能力素质过硬的创城工作人员队伍，壮大创城志愿者队伍，同时，广泛动员社会各界参与到文明城市创建中来，积极营造上上下下万众一心创建文明城市的浓厚氛围。']</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>7</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>我市召开旅游工作领导小组会议</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2017-09-18</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201709/t20170920_59549.html</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['（记者武健）9月15日，我市召开旅游工作领导小组会议，全面贯彻全市首届旅发大会和“一会一赛”总结表彰会议精神，总结前一阶段工作，研究部署今后各项工作任务。市委副书记王素平强调，要一鼓作气，再接再厉，不断解放思想，改革创新，全面开创全市旅游工作新局面。副市长邓素雪主持会议并讲了具体意见。 王素平指出，全市首届旅发大会办出了特色，办出了水平，办出了气势，达到了举办一次盛会、促进一域发展的目的。王素平要求，要把贯彻落实市委书记王会勇在首届旅发大会旅游工作推进会和“一会一赛”总结表彰会上的讲话精神当成重要任务抓实抓好，各县市区和有关部门要根据各自任务制定相应方案和推进计划，确保工作任务按时、保质圆满完成。要紧抓金秋旅游旺季和“十一”黄金周的机遇，搞好“金秋游邢台”主题活动，掀起后旅发大会旅游宣传热潮。 王素平强调，无论是第二届旅发大会筹备工作，还是首届旅发大会巩固提升工作，都要制定一套完整工作方案，做到工作有计划，任务有安排。要搞好旅游环线打造，沙河市、临城县要高端规划；邢台县、内丘县做好线路提升；市旅发委统筹规划全市旅游大环线。要推动一批重点项目建设，打造一批拳头产品、知名景区，实现5A景区的突破；谋划、包装、储备一批新项目，加大招商引资力度，增加发展后劲。 王素平强调，要加强对标学习，在外出考察学习的同时，加强人员培训，解放思想、更新理念、提升能力。要完善工作机制，对旅游体制机制改革进行积极探索，维护旅游市场秩序、营造良好的旅游发展环境。 会上，市旅游工作领导小组、相关县市区作了工作汇报。']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>7</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>董晓宇率团赴邯郸考察学习</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2017-03-03</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201703/t20170306_58961.html</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>['（记者 吕虹蔚 通讯员 秦炳武 何珊珊）3月2日，市长董晓宇率领考察团赴邯郸，考察学习三年大变样期间“两改”项目、企业退市进园、去产能等方面工作经验。市委常委、常务副市长周永会，市政府党组成员张志峰，市政府秘书长杨孟勋一同考察学习。 邯郸市委书记高宏志、代市长王立彤，范国珍、曲斌、孟广军、张跃峰等市领导以及市政府秘书长刘弘瑛陪同考察或出席座谈。 考察团一行实地考察了南程庄城中村改造项目，仔细查看了项目运营状况，详细了解了改造拆迁情况。董晓宇表示，要认真学习邯郸市经验，结合邢台市实际推进城中村改造，有效改善居住环境，完善相关配套设施，切实提升城市品位。 在随后召开的座谈会上，董晓宇指出，邢台与邯郸地域相近、人文相亲，历史渊源深厚、交往半径相宜，应当加强交流、相互学习、共同发展。特别是邯郸在三年大变样期间“两改”项目处置、企业退市进园和运用市场手段去产能等方面经验丰富、做法先进、亮点突出，给考察团一行留下深刻印象，令人深受启发。 董晓宇指出，要以此次考察学习为契机，认真学习邯郸经验，进一步解放思想、创新举措、提升水平，真正把考察学习成果转化为推动邢台发展的强大动力。在处置我市三年大变样期间“四改”项目方面，要提高违法成本，完善容错免责机制，激发广大干部干事创业积极性。在企业退市进园方面，要加强顶层设计，运用好规章条例，发挥投融资平台作用，优化城市布局，改善生态环境。要用市场化手段深入推进去产能，认真研究借鉴武安做法，把好经验、好理念、好作风运用到实际工作中。 邯郸市代市长王立彤指出，邢台考察团来邯郸传经送宝，对全面推动工作提供了帮助。下一步，邯郸将学习邢台大气治理、洁净城市建设等方面工作经验，着力规范房地产市场，不断依法依规化解过剩产能，推动经济社会持续健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>7</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>临城特色农业牵手旅游业助民增收</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2018-06-20</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201806/t20180620_244032.html</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['（记者高敏通讯员永周彦波）“这里的葡萄真甜！”石家庄的自驾游客王喜路来到临城县支角村的葡萄大棚里，品尝过后开始采摘。连日来，前来这里采摘的游客络绎不绝。 临城有山场面积62.4万亩，绿油油的山场是最好的自然旅游资源。近年来，临城县大力发展旅游业，建成大中小水库19座、塘坝452座、旅游景点69处，农家乐、渔家乐50个，观光采摘园160个，3个全国、4个省级农业旅游示范点和42公里绿廊绿道。许多村庄做起“对接景区”的文章。 支角村便是其一。该村有荒坡地3000多亩，杂草丛生，没有收益。村两委成员在县人民医院驻村工作队的帮助下多次外出考察学习，决定建设果蔬大棚，发展采摘游、乡村游。随后，村民以土地入股，建设了“龙凤山庄”现代农业观光园区。在园区前5年建设期，农业合作社以每亩700元付给村民租金。5年后，园区产生收益，村民则参与分成，其中流转土地村民占40%，合作社占40%，剩余的20%作为集体资金，以帮扶村里的困难群众或贫困学生。此外，该村以扶贫项目资金直接入股的形式，让贫困村民成为股东。 如今，支角村建成20个葡萄大棚，种植有200亩西瓜、300亩甜瓜以及贵妃苹果、黄金蟠桃、薄皮核桃等共2000多亩，成为临城出了名的果蔬大棚基地。“临城至高邑的连接线修通后，石家庄市民前来采摘、游玩的络绎不绝。”据了解，包括支角村在内，临万线两侧已形成长达10多公里的高效蔬菜瓜果产业带，沿线建成果蔬大棚100余个，涉及10个行政村，从业人员1000余人，年经济效益达千万元以上。 近两年，临城按照“户户有项目、村村有产业、乡乡有特色”的精准扶贫思路，发展果林种植面积27.72万亩，逐步形成集果品生产、生态采摘、户外拓展、乡村旅游于一体的综合型现代农业格局，带动全县近万人脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A207" t="n">
+        <v>7</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>任县按需授课助力乡村振兴</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2018-11-01</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201811/t20181102_302158.html</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>['(记者郭文静通讯员颜征华）10月30日上午，任县举办新任村干部乡村振兴战略规划培训班，邀请省社会科学院经济教研室主任刘来福教授为全县新任村干部集中授课“加油充电”。 量身定制是此次培训班的一大亮点。在做好规定动作的基础上，任县以需求为导向，通过向全县195个村发放调查问卷，全面了解征集新任村干部的意愿，有针对性地分类别、分层次、分岗位开展各项实用型培训。 据了解，此次培训班共分14期，覆盖全县新任998名农村干部。参加完培训的任县郑庄村党支部书记郑泽柱表示：“通过这次培训，我不仅熟悉了乡村振兴战略规划的各项政策，也学习到了先进村好的经验和做法，要借他山之石，念好我们村的致富经。” 任县在举办集中培训班的同时，还组织新任村党支部书记外出实地考察学习，全面提升新任村干部素质和能力。']</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A208" t="n">
+        <v>7</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>周永会率团赴石家庄市就河流环境综合整治考</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2018-04-19</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201804/t20180419_243272.html</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>['（记者王露橦）4月18日，市委常委、常务副市长周永会率领考察团赴石家庄市，考察学习太平河、洨河环境综合整治工作经验。 考察团一行实地考察了太平河石家庄市鹿泉区段、洨河石家庄市裕华区总退水渠段，认真听取相关工作经验介绍，仔细查看河道水质变化以及河道两侧环境改造提升情况。周永会表示，要认真学习石家庄市经验，结合我市实际推进水污染防治和河道环境综合整治工作。 周永会指出，各级各部门要以此次考察学习为契机，进一步解放思想、创新举措、提升标准，真正把考察学习成果转化为推动邢台水污染防治的强大动力。要切实牢固树立大局意识，坚持标本兼治原则，强力推进全市水污染治理百日攻坚。要加快实施城镇污水处理厂提标改造及管网建设，彻底排查污染源头，采取封堵、分流、导流、深度治理等措施，从源头截断河道沿线一切污染源。要进一步提升河道治理科学化水平，全面开展河流清淤改造，结合垃圾处理一体化，彻底消除河道垃圾污染隐患，推动我市水环境质量和沿岸生态环境明显改善。']</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A209" t="n">
+        <v>7</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>王会勇到市开发区调研指导排水系统整改情况</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2018-08-07</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201808/t20180807_244623.html</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>['王会勇在市开发区调研排水系统整改情况时强调 坚持问题导向加快工程进度理顺体制机制 不断提升市开发区基础设施建设管理水平', '（记者 张文学）8月6日，市委书记王会勇带领有关负责同志，专程到市开发区调研指导排水系统整改情况。他强调，要坚持问题导向，加快相关工程建设进度，进一步理顺体制机制，不断提升市开发区的城市基础设施建设管理水平。市人大常委会副主任、市开发区管委会主任李超英，副市长张志峰，市委秘书长宋洪修一同调研。 王会勇十分关心市开发区的排水系统运行，针对群众反映强烈的短时降雨易形成积水情况，专门提出明确指示，要求市直有关部门和市开发区管委会认真加以研究改进。当天上午，王会勇实地察看了七里河与东华路交叉口雨水提升泵站谋划情况和牛尾河东华路段整治工程，随后主持召开座谈会，听取了市开发区排水系统整改工作整体情况汇报，就下一步工作讲了意见。 王会勇指出，近年来，包括市开发区在内，我市城建系统在城市基础设施建设管理方面做了大量工作，成效明显，干部群众总体上是满意的。但是，当前我市主城区人口已达到百万规模，这对城市管理者理念、眼界、方式方法和能力水平都提出了挑战。城建系统要进一步发挥战斗力，再接再厉，再增举措，通过外出考察学习等方式，不断更新理念、拓宽眼界、提高标准，推动城市规划建设管理工作不断迈上新台阶。 王会勇强调，城市基础设施是城市建设管理的重中之重，事关一个城市的正常运行和群众基本生活需要。各级各有关部门一定要高度重视，在重要设施规划建设管理上一定要体现前瞻性。尤其是在城市排水系统建设方面，要结合城市下一步发展，合理测算汇水面积、排放总量，科学规划设计。要树牢建设“海绵城市”理念，明确“海绵城市”建设要素、方式和途径，通过采取有效措施，尽可能地提升居民区、公园、单位的吸存水功能，进一步减轻城市排水系统压力。 王会勇强调，城市建设管理无小事，确保城市基础设施正常运行更是事关民生福祉，必须加强管理、不断优化。市开发区和有关部门要深入研究城市积水成因，有针对性地采取措施。在工程建设方面，要加快推进东关河建设，努力将其打造成标志性景观河道，切实提升市开发区的排水能力；加快牛尾河上下游治理进度，加紧论证实施七里河与东华路交叉口雨水提升泵站建设工程。在体制机制方面，要本着“怎么有利于管理怎么来”的原则，进一步理顺管理机制、工作机制，以“高于两区”的标准，切实提升市开发区基础设施建管水平，展现开发区应有的水准和形象。']</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A210" t="n">
+        <v>7</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>南和小土豆成农民致富金豆豆</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2018-05-22</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201805/t20180522_243658.html</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>['（记者高敏通讯员武国栋解领）“我腿有残疾干不了重活，后来用土地入股村里的土豆合作种植，并在合作社里打工，一个月能拿到1600元的工资，再加上土地入股分红，日子比以前好过多了，也脱了贫。”近日，南和县闫里乡宋台村原贫困户李新伟激动地告诉记者。 近年来，闫里乡采取“合作社＋基地+农户”的模式，鼓励当地村民发展特色种植业。合作社统一种植、统一管理、统一销售。目前，闫里乡土豆种植面积千余亩，年产值高达500万元，带动周边300余农户就业增收。 起初村民自留种“土方法”种植的土豆，品质差、产量低、没销路，村民摆脱贫困有困难。于是村里的种植大户带着村里的其他种植户，到北京、榆林等好几个市考察学习。 通过考察学习，2012年开始，宋台村引进新土豆品种，学习新技术，开辟试验田，选定“紫白花”等口感好的优良品种，采用测土配方施肥技术科学施肥，探索出了一系列科学种植方法给土豆提质增效。 在范胜辉的坚持和努力下，土豆种植的规模越来越大。2014年，范胜辉又承包了200亩地，随后成立了乐蔬蔬菜种植专业合作社，进行规范化种植。功夫不负有心人，经过艰苦创业，范胜辉的合作社越办越红火。范胜辉说，近几年，他经常利用各种机会参加技术培训，接触了不少专家，学到了许多宝贵的种植经验。 “我们比较幸运，农技专家传授了很多经验，这些经验我们也会一一传授给乡亲们。”在范胜辉看来，只是自家一户致富并不稀奇，只有大家携起手来，形成种植优势，才能更好地在市场上立足，从而实现共同富裕。凡是有村民找他解决种植难题，他都会积极、热心地帮忙，无论是种秧、施肥、除虫还是收割，每个步骤他都会清清楚楚地告诉前来咨询的村民，说不清楚的，便直接上门指导。 近年来，闫里乡将特色种植作为产业脱贫的主打牌。2017年，该乡种植土豆1000亩，帮助8户贫困户成功摘掉“穷帽子”。今年又辐射带动闫里、大郝等周边村庄种植土豆。目前，合作社正在筹划建立土豆深加工基地，直接从地头收购农户土豆，通过延长产业链，降低滞销风险，让土豆成为农民致富的“金豆豆”。']</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A211" t="n">
+        <v>7</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>苏州热工院到邢台特检分院考察学习</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>2018-04-03</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201804/t20180403_243107.html</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>['（韩建林苏立欣）近日，苏州热工院夏樑总工一行三人到河北省特检院邢台分院考察学习。 苏州热工院一行对邢台分院进行了参观考察，双方对电站锅炉检验检测技术、工艺以及检验流程等工作进行了深入交流。 据悉，苏州热工院是全国电站锅炉检验的佼佼者，实力雄厚，具有先进的特检技术和理念。夏樑总工对邢台特检分院的检验检测能力和水平给予高度评价。同时，双方结合当前特种设备检验事业发展的新常态、新形势，就对加强电站锅炉检验、推进机构创新，继续推进在业务、技术等领域的多方位合作等方面达成了意向。']</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A212" t="n">
+        <v>7</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>市工经联搭建平台助企发展</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>2018-03-20</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/xtyw/201803/t20180320_242954.html</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>['（记者 谢晓燕 实习生 马志瑞）从3月19日召开的市工经联（经团联）第四届理事会第三次会议上获悉，市工经联服务经济发展，为企业搭建学习交流、企业融资、企业展示平台，主推我市企业做大做强做优。 市工经联搭建学习交流平台，举办了邢台市企业家论坛、“经济发展形势”大讲堂等活动，邀请专家对企业进行辅导，组织考察学习，让企业家学习新理念、新思维、新模式。他们搭建企业融资平台，依托邢台市中小微企业融资投资协会，打造了中小微企业融资平台，为全市中小企业融资15亿元，依托邢台市上市企业协会，推动6家企业在省四板交易所挂牌。搭建企业展示平台，做好河北百强企业、邢台50强企业推荐和排序等工作，经积极推荐，冀中能源等7家企业入围“河北百强企业”，晶龙实业集团有限公司等14家企业入围“河北制造业百强企业”，2家企业入围“河北利润50强企业”，4家企业入围“河北纳税50强企业”，51家企业入围“河北重点行业排头兵企业”，工作在全省名列前位。']</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A213" t="n">
+        <v>7</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>市规委会召开年第八次会议</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>2017-12-01</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/jrxt/lddt/201712/t20171201_192824.html</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>['（记者 杜烁）11月30日，市长、市城乡规划委员会主任董晓宇主持召开市城乡规划委员会2017年第八次会议。 会议审议并通过了邢台市第一医院东院区项目规划设计方案。该项目位于邢东新区。医疗区总占地约122亩，规划建筑面积23.12万平方米。其中一期综合医院建筑面积16.35万平方米，规划住院床位1000张，总投资约7亿元，建设周期3年；二期肿瘤专科规划建筑面积6.77万平方米。 会议还审议通过了桥东区新合庄及周边围合地块改造（丰瑞新城）项目规划设计方案、桥西区福太农机片区改造北区（天一湾）项目规划设计方案、桥西区紫晶悦城四区规划设计方案、市开发区皓顺大元规划设计方案。 会议听取了部分规委会委员关于赴江苏徐州市，山东德州市、临沂市考察学习的报告。 市人大常委会副主任冯秋梅、副市长张志峰、市政协副主席郭和平、市政府秘书长李亚林及规委会成员参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A214" t="n">
+        <v>7</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>转作风强素质办人民满意的教育市教</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>2010-12-20</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/hdjl/zxft_1/201103/t20110324_272356.html</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>['柳：今年4月份新班子组建以来，我们把加强教育系统干部队伍作风建设作为工作的突破口和着力点，大力整顿教育系统干部队伍作风。6月1日，召开全市教育系统近400人的领导干部会议，提出了“一年大整顿，两年上台阶，三年全省当先进”的奋斗目标。开展了“爱岗敬业”、“治懒治庸”活动，制定了干部作风建设“十不准、十严禁”规定、在职教师违规办班补课处罚暂行规定等项制度。其中治理“乱办班、乱补课”的做法得到了教育部的肯定，全国治理教育乱收费工作简报介绍了我市经验。着眼于提高基础教育质量，果断调配了邢台市一中、三中、七中、十中、十二中、二十三中等校级领导班子和市教育局普教教研室、招生办等科室负责同志。目前正在着手面向社会公开招聘10名具有硕士研究生学历的教研员和市第十二中学校长，在机关和学校树立良好的用人导向。', '柳：我们坚持把加强干部教师培训作为提高教育质量的重要抓手，采取“走出去、请进来”的方式，大规模、高密度开展干部教师培训工作。先后两次组织部分县(市、区)教育局局长、省级示范性高中校长到南京市、衡水市等地考察学习；选派300余名骨干教师在全国名校挂职、跟班学习，吸收借鉴外地先进学校的办学理念和管理经验；暑期邀请全国、全省知名的教育专家、学者顾明远、魏书生、李镇西、李金池、薛建中等为我市教育系统干部和骨干教师作报告。全年累计邀请各级各类专家318人来邢作学术报告，投入培训经费约347.97万元，培训教育系统干部和骨干教师10.7万人次。我市干部教师培训工作，也得到了教育部和省教育厅的肯定，全省“国培计划”总结大会上我市作了经验介绍。', '记者：最近各大媒体报道了梁建峰同志的先进事迹，请问怎样发挥典型的示范引领作用，带动全市教育系统教师爱岗敬业、无私奉献的？', '柳：广宗县第二中学原校长梁建峰的先进事迹在社会引起强烈反响，《中国教育报》、《河北日报》、新华网等100余家新闻媒体相继进行了报道。市委教育工委、市教育局追授梁建峰同志为“人民满意的好校长”，市委追授梁建峰同志为“邢台市优秀共产党员”，并在全市开展向梁建峰同志学习活动。为切实解决其家庭困难，市委教育工委报经邢台市委组织部核准后，从留存的党费中拿出5万元，对其家庭进行救助。同时还培树了扎根山区任教35年的沙河市蝉房学区大台小学教师李小任，教育部确定其为全国教书育人楷模候选人。目前，全市教育系统广大干部教师学先进赶先进的热情空前高涨，相继有干部教师忘我工作，累倒、病倒在工作岗位上。对此，市教育局制定了6项具体措施，切实保障教师的身心健康。', '柳：针对3月份以来各地发生的社会不法分子校园侵害事件，市教育局先后组织召开法制安全稳定工作会议16次。为全市各级各类学校配备专职保安人员和必备保安器械，将市区所有学校的电子监控设备与市公安局监控中心联网，做到学校安全时时监控。市教育局领导及科长主任先后深入到各县(市、区)、市直各学校检查指导安全工作达百余次。多次联合市政法委综治办、公安局等相关部门，深入学校开展拉网式排查。今年全市教育系统教育教学秩序安全稳定。', '柳：今年，市教育局共争取中央、省各种项目建设资金3.94亿元，主要用于改善办学条件。安排各种项目144个，现已竣工41个，在建103个。高中学校项目建设方面，占地230亩的新河中学整体迁建工程完工，今年9月份已投入使用。占地156亩、项目总投资1.2亿元的临西中学主体也已竣工。市职教园区建设方面，在上年已征165亩土地的基础上，2010年又争取了170亩职教园区建设用地。农业学校实训楼主体工程已竣工，职教中心实训楼即将竣工。皇寺职教园区邢台医专占地面积800亩，总建筑面积3.5万平方米的3栋教学楼、3栋实验楼和2栋学生公寓楼主体已经封顶。邢台学院建筑面积3.2万平方米的公共教学楼已交付使用，两个400米标准塑胶田径场已基本建成，占地2.3万平方米的体育馆已进行了招投标。邢台职业技术学院新校区建设已完成征地手续及规划建筑设计。邢台技师学院新校区已竣工并投入使用。', '柳：我市“十二五”教育发展思路是“学前教育抓提高、义务教育促均衡、高中教育提质量、职业教育办特色、高等教育促提升”；目标是“学校建设标准化，校长队伍专家化，教师队伍专业化，教学设施现代化，学校管理精细化”。按照上述思路和目标，深化教育改革，促进教育公平，提高教育质量，不断满足广大人民群众从“有学上”到“上好学”的新期待，力争明年基础教育质量有较大提升，用3年时间使邢台教育各项工作迈上新台阶，整体工作进入全省先进行列。']</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A215" t="n">
+        <v>7</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>咸阳市考察团来我市考察林果业发展</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>2016-06-06</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201606/t20160606_58206.html</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>['(记者 赵羽 通讯员 刘丽娟）6月2日至3日，陕西咸阳市副市长刘新余率考察团到内丘县岗底村学习交流富岗苹果生产管理经验。副市长邱文双陪同参观。 咸阳考察团实地参观了岗底村改革开放30年展厅、秸秆气化站、富岗苹果中心基地，详细了解了岗底村的发展奋斗史。在随后召开的苹果技术经验交流会上，考察团观看了富岗公司发展历程宣传片，听取了岗底村关于苹果品牌经营和标准化生产的介绍，并围绕苹果生产管理技术等相关问题展开交流。 考察团对岗底村通过提高技术水平、提升果品质量，实施品牌战略带动群众致富的做法给予高度评价。考察团表示，将认真整理和总结富岗苹果基地技术经验，把考察学习成果带回咸阳，结合实际运用到当地的苹果种植中。今后，咸阳市还将与邢台市在果品技术开发等多方面开展更广泛更深入的合作，携手推进两市经济社会更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A216" t="n">
+        <v>7</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
           <t>昨日承德市党政代表团来邢考察学习市领</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>2016-05-13</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201605/t20160513_58136.html</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>['（记者 张文学）5月12日，承德市委书记周仲明，市委副书记、市长常丽虹率党政代表团来我市考察学习。市领导张古江、董晓宇、宋文玲、尹全峰、冯利敏，市委秘书长宋洪修陪同考察。 代表团首先参观了南和县农业嘉年华项目。该项目总投资3亿元，是南和抢抓京津冀协同发展机遇、招才引智推进校地合作的重点项目。项目规划建设综合服务区、创意风情馆、高效农业示范区、农业迪士尼主题乐园、精致乐活体验区五大功能区，涉及农业品种之多、涵盖形式之广，在国内外农业嘉年华项目中前所未有。在实地参观后，代表团对项目给予高度评价，称赞该项目为推进河北农业现代化、精准化、智慧化起到了引路导航作用。 下午，代表团参观了威县行政审批局、市民服务中心。近年来，威县以被确定为全省综合改革试点为契机，深化行政审批制度改革，在全省率先成立行政审批局，实现“一枚印章管审批”，并建立全省首家县级市民服务中心，推动集中审批与现场服务深度融合。代表团实地了解了县审批局和市民服务中心运行情况，对威县做法给予充分肯定，认为邢台在全面深化改革中走在了全省前列，为各地创造了宝贵经验。代表团表示，承德将以此次考察为契机，安排专门团队到威县深入学习，在承德大力推广邢台的改革经验。 代表团还参观了威县经济开发区规划建设情况，实地考察了北汽有限公司（威县）生产基地。北汽（威县）生产基地是威县对接京津重大成果之一。项目总投资约33亿元，计划新上轻型客车、微型客车、城市SUV、皮卡和2条新能源汽车生产线，引进相关零部件配套企业。代表团实地参观了生产线和整车样品，认为这个项目建成后将进一步壮大邢台汽车及新能源汽车产业，提升发展的层次和水平。 市委书记张古江代表市委、市政府，对承德市党政代表团来邢考察表示欢迎。他表示，邢承两地应加强交流、互通有无，深化合作、共同进步，为建设“经济强省、美丽河北”做出更大的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A217" t="n">
+        <v>7</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>新乡市考察团来我市学习考察大气污染防治工</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>2016-04-15</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201604/t20160418_58067.html</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>['（记者 谢霄凌）4月13日至14日，新乡市委副书记、市长王小平带领新乡市考察团，专程来我市就大气污染防治相关工作进行考察学习。市委副书记、市长董晓宇，市委常委、副市长罗志坚陪同考察。 考察团一行听取了我市大气污染防治相关工作介绍，并实地考察了桥东区大吴庄、天一华府、德龙钢铁等地。考察团认为，环境保护工作已经在邢台市形成良好的氛围，邢台市在大气污染防治方面的先进做法和显著成效，给他们留下深刻印象，备受启发。考察团表示，将以此次考察为契机，充分学习借鉴邢台市在大气污染防治工作中的做法和经验，积极营造良好氛围，进一步解放思想，创新举措，精准治霾。 近年来，市委、市政府把大气污染防治工作作为推进京津冀协同发展、改善生态环境的一项重大政治任务和民心工程，将加强生态建设和环境治理列为全市“四项战略重点”之一，谋划实施了蓝天、碧水、增绿、养山“四大攻坚工程”，制定出台了《邢台市生态建设和环境治理三年行动纲要》《邢台市大气污染防治提升工作实施方案》等环境整治规划。2015年，我市重污染以上天数50天，比2014年减少64天，重污染天气降幅居全省第一。']</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A218" t="n">
+        <v>7</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>秦皇岛市党政考察团来我市考察</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>2016-05-23</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/ywdt/tpxw_1/201605/t20160523_58164.html</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>['（记者 张文学）5月21日至22日，秦皇岛市市委书记孟祥伟，市委副书记、市长张瑞书率党政代表团来我市考察学习。市领导张古江、董晓宇、宋文玲、邱文双，市委秘书长宋洪修陪同考察。 21日，代表团一行参观了威县的君乐宝·乐源牧业威县公司和袁庄绿色A级梨树示范园。君乐宝·乐源牧业公司项目投资6亿元，目前存栏奶牛8000头，日产鲜奶30吨，项目获农业部“2015年国家农业综合开发区域生态循环农业示范基地”称号；袁庄绿色A级梨树示范园是威县围绕优化农业结构实施的重点项目，总投资2600万元，种植梨树新品种12.7万株，亩收益达2万元。代表团对威县在招商引资、农业产业化经营方面取得的成绩给予肯定。随后，代表团一行参观了南和县农业嘉年华项目、任县邢州湖和两县的县城建设情况，对南和、任县县城建设特别是绿化工作给予充分肯定，认为两地抢抓“一城五星”统筹发展大好机遇，以县城建设为抓手，不断提升县城承载力，有力地推动了产城融合发展，其做法值得学习借鉴。 22日，代表团走进邢台县前南峪村，实地考察了前南峪村山区综合开发取得的成效。自1964年起，前南峪村干部群众治山、治水，大力实施经济沟建设，建立起一个以板栗为主、干鲜果树达23万株的果品生产基地，森林覆盖率达90%以上，走出了一条生态持续改善、经济持续发展的路子。代表团表示，将以此次考察为契机，在秦皇岛大力推广邢台山区综合开发、经济沟建设经验，加快推进燕山综合开发。 市委书记张古江代表市委、市政府，对秦皇岛市党政代表团来邢考察表示欢迎。他希望，邢台和秦皇岛两地加强交流、互通有无，深化合作、共同进步，携手推进经济社会更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A219" t="n">
+        <v>7</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>姜德果主持召开市政府第次常务会议</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>2007-04-17</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>http://www.xingtai.gov.cn/zwgk/zwdt/zfhy/201012/t20101210_245760.html</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>['记者王延军报道：昨日上午，市长姜德果主持召开市政府第52次常务会议，专题研究分析我市第一季度经济运行情况，部署安排今后经济发展的重点和措施。 会议先后听取了市发展和改革委员会关于一季度经济形势分析报告、市财政局关于一季度财政运行情况分析报告、市统计局关于一季度全市经济运行形势分析报告、市工业发展运行局关于全市工业经济运行工作汇报，并展开认真而热烈地讨论。 姜德果指出，今年一季度我市主要经济指标平稳较快增长，呈现出高开高走的良好运行态势，主要表现为四个特点，即：形势好，亮点多；不平衡，有风险；机遇好，潜力大；破解发展瓶颈的任务还比较重。总的看，我市一季度经济运行虽然起步良好，但与我省其它先进地市相比还有一定差距，与我市提出的赶超目标还不相适应，存在的一些矛盾和问题还需要引起高度关注并认真加以解决。 姜德果要求，邢台作为经济欠发达市，要实现经济和社会更好更快发展，就必须紧紧抓住工业突破战略不放松。为此，一是要增投入，促升级。结合邢台实际，优化经济结构，调整产业结构，必须靠增量。没有投入，就没有工业的突破，也就没有产业结构的优化。我们必须全力以赴增投入，靠投入的增加来优化产业结构，促进产业的升级。二是要发挥比较优势，壮大发展主导产业和特色行业。要充分发挥能源、资源、劳动力密集和区位优势，着力发展壮大钢及钢制品、煤及煤化工、冶金装备、硅材料等战略支撑产业及我市独有的特色行业，加快在建设沿海经济社会发展强省中实现“富民、强县、兴市”目标的步伐。三是要加强项目调度，加大重点项目建设投入力度。各级各部门要切实把项目建设抓在手上，围绕结构调整、产业升级，强化对重点项目的谋划和落实力度。同时，要研究产业的发展趋势，力争谋划、储备一批新项目，实现项目的梯次推进，以项目促发展。四是要围绕制约发展的资金、土地等瓶颈问题，千方百计克难攻坚，尽全力为企业发展解决燃眉之急。五是要进一步加大优化发展环境力度，强化政府服务职能，为项目建设和企业发展创造良好的外部环境。 会议还听取了我市教育卫生考察团赴新余、宿迂考察学习情况的汇报。姜德果指出，要切实提高对公共社会事业特别是教育和卫生事业的认识，要像抓经济建设一样来抓教育和卫生事业，把繁荣和发展社会事业当作促进经济快速发展的有效途径。学习新余、宿迁的经验，要结合邢台本地实际，主要是学习其超前理念和思路，并注重创新和发展，从而把我们自己的事情办好办出成效。']</t>
         </is>
